--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -506,10 +506,10 @@
         <v>30254</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>30254</v>
+        <v>30244</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>30254</v>
+        <v>30245</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>30244</v>
@@ -547,10 +547,10 @@
         <v>30270</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>30270</v>
+        <v>30266</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>30270</v>
+        <v>30267</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>30266</v>
@@ -588,10 +588,10 @@
         <v>30278</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>30278</v>
+        <v>30274</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>30278</v>
+        <v>30284</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>30279</v>
@@ -629,10 +629,10 @@
         <v>30363</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>30363</v>
+        <v>30357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>30363</v>
+        <v>30358</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>30357</v>
@@ -672,7 +672,7 @@
         <v>30377</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>30377</v>
+        <v>30348</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>30377</v>
@@ -713,10 +713,10 @@
         <v>30458</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>30458</v>
+        <v>30407</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>30458</v>
+        <v>30436</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>30421</v>
@@ -756,10 +756,10 @@
         <v>30565</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>30565</v>
+        <v>30559</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>30565</v>
+        <v>30560</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>30559</v>
@@ -800,7 +800,7 @@
         <v>30682</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>30682</v>
+        <v>30695</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>30688</v>
@@ -840,10 +840,10 @@
         <v>30748</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>30748</v>
+        <v>30713</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>30748</v>
+        <v>30726</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>30719</v>
@@ -881,10 +881,10 @@
         <v>30784</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>30784</v>
+        <v>30742</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>30784</v>
+        <v>30786</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>30764</v>
@@ -924,10 +924,10 @@
         <v>30810</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>30810</v>
+        <v>30773</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>30810</v>
+        <v>30786</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>30779</v>
@@ -967,10 +967,10 @@
         <v>30823</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>30823</v>
+        <v>30811</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>30823</v>
+        <v>30812</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>30811</v>
@@ -1008,7 +1008,7 @@
         <v>30985</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>30985</v>
+        <v>30956</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>30985</v>
@@ -1049,10 +1049,10 @@
         <v>31089</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>31089</v>
+        <v>31082</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>31089</v>
+        <v>31083</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>31082</v>
@@ -1090,10 +1090,10 @@
         <v>31156</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>31156</v>
+        <v>31107</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>31156</v>
+        <v>31125</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>31116</v>
@@ -1133,10 +1133,10 @@
         <v>31166</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>31166</v>
+        <v>31159</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>31166</v>
+        <v>31160</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>31159</v>
@@ -1174,10 +1174,10 @@
         <v>31258</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>31258</v>
+        <v>31246</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>31258</v>
+        <v>31247</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>31246</v>
@@ -1215,10 +1215,10 @@
         <v>31291</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>31291</v>
+        <v>31255</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>31291</v>
+        <v>31275</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>31265</v>
@@ -1258,10 +1258,10 @@
         <v>31362</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>31362</v>
+        <v>31323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>31362</v>
+        <v>31331</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>31327</v>
@@ -1303,10 +1303,10 @@
         <v>31376</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>31376</v>
+        <v>31370</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>31376</v>
+        <v>31371</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>31370</v>
@@ -1344,10 +1344,10 @@
         <v>31382</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>31382</v>
+        <v>31371</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>31382</v>
+        <v>31373</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>31372</v>
@@ -1387,10 +1387,10 @@
         <v>31429</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>31429</v>
+        <v>31425</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>31429</v>
+        <v>31426</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>31425</v>
@@ -1430,7 +1430,7 @@
         <v>31473</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>31473</v>
+        <v>31444</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>31473</v>
@@ -1471,10 +1471,10 @@
         <v>31515</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>31515</v>
+        <v>31497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>31515</v>
+        <v>31509</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>31503</v>
@@ -1516,10 +1516,10 @@
         <v>31538</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>31538</v>
+        <v>31530</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>31538</v>
+        <v>31531</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>31530</v>
@@ -1559,10 +1559,10 @@
         <v>31578</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>31578</v>
+        <v>31561</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>31578</v>
+        <v>31572</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>31566</v>
@@ -1604,10 +1604,10 @@
         <v>31589</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>31589</v>
+        <v>31582</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>31589</v>
+        <v>31583</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>31582</v>
@@ -1647,10 +1647,10 @@
         <v>31704</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>31704</v>
+        <v>31686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>31704</v>
+        <v>31698</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>31692</v>
@@ -1692,10 +1692,10 @@
         <v>31719</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>31719</v>
+        <v>31713</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>31719</v>
+        <v>31714</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>31713</v>
@@ -1737,10 +1737,10 @@
         <v>31760</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>31760</v>
+        <v>31737</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>31760</v>
+        <v>31747</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>31742</v>
@@ -1782,10 +1782,10 @@
         <v>31805</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>31805</v>
+        <v>31791</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>31805</v>
+        <v>31804</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>31797</v>
@@ -1827,10 +1827,10 @@
         <v>31812</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>31812</v>
+        <v>31808</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>31812</v>
+        <v>31809</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>31808</v>
@@ -1870,10 +1870,10 @@
         <v>31823</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>31823</v>
+        <v>31819</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>31823</v>
+        <v>31819</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>31819</v>
@@ -1917,10 +1917,10 @@
         <v>31838</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>31838</v>
+        <v>31824</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>31838</v>
+        <v>31837</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>31830</v>
@@ -1958,10 +1958,10 @@
         <v>31875</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>31875</v>
+        <v>31870</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>31875</v>
+        <v>31870</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>31870</v>
@@ -2003,10 +2003,10 @@
         <v>31917</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>31917</v>
+        <v>31911</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>31917</v>
+        <v>31911</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>31911</v>
@@ -2048,10 +2048,10 @@
         <v>32097</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>32097</v>
+        <v>32087</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>32097</v>
+        <v>32089</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>32088</v>
@@ -2093,10 +2093,10 @@
         <v>32181</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>32181</v>
+        <v>32174</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>32181</v>
+        <v>32175</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>32174</v>
@@ -2138,10 +2138,10 @@
         <v>32194</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>32194</v>
+        <v>32175</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>32194</v>
+        <v>32183</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>32179</v>
@@ -2183,10 +2183,10 @@
         <v>32252</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>32252</v>
+        <v>32241</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>32252</v>
+        <v>32243</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>32242</v>
@@ -2228,10 +2228,10 @@
         <v>32286</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>32286</v>
+        <v>32277</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>32286</v>
+        <v>32279</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>32278</v>
@@ -2273,10 +2273,10 @@
         <v>32376</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>32376</v>
+        <v>32346</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>32376</v>
+        <v>32353</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>32349</v>
@@ -2318,10 +2318,10 @@
         <v>32433</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>32433</v>
+        <v>32421</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>32433</v>
+        <v>32422</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>32421</v>
@@ -2363,10 +2363,10 @@
         <v>32494</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>32494</v>
+        <v>32482</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>32494</v>
+        <v>32483</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>32482</v>
@@ -2408,10 +2408,10 @@
         <v>32530</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>32530</v>
+        <v>32514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>32530</v>
+        <v>32521</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>32517</v>
@@ -2453,10 +2453,10 @@
         <v>32545</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>32545</v>
+        <v>32538</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>32545</v>
+        <v>32539</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>32538</v>
@@ -2498,10 +2498,10 @@
         <v>32635</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>32635</v>
+        <v>32617</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>32635</v>
+        <v>32626</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>32621</v>
@@ -2543,10 +2543,10 @@
         <v>32657</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>32657</v>
+        <v>32654</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>32657</v>
+        <v>32655</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>32654</v>
@@ -2588,10 +2588,10 @@
         <v>32660</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>32660</v>
+        <v>32655</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>32660</v>
+        <v>32657</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>32656</v>
@@ -2633,10 +2633,10 @@
         <v>32665</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>32665</v>
+        <v>32661</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>32665</v>
+        <v>32661</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>32661</v>
@@ -2678,10 +2678,10 @@
         <v>32670</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>32670</v>
+        <v>32667</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>32670</v>
+        <v>32667</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>32667</v>
@@ -2723,10 +2723,10 @@
         <v>32671</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>32671</v>
+        <v>32668</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>32671</v>
+        <v>32668</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>32668</v>
@@ -2768,10 +2768,10 @@
         <v>32695</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>32695</v>
+        <v>32693</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>32695</v>
+        <v>32693</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>32693</v>
@@ -2813,10 +2813,10 @@
         <v>32695</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>32695</v>
+        <v>32693</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>32695</v>
+        <v>32693</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>32693</v>
@@ -2858,10 +2858,10 @@
         <v>32839</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>32839</v>
+        <v>32830</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>32839</v>
+        <v>32832</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>32831</v>
@@ -2905,10 +2905,10 @@
         <v>32916</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>32916</v>
+        <v>32909</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>32916</v>
+        <v>32910</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>32909</v>
@@ -2952,10 +2952,10 @@
         <v>32922</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>32922</v>
+        <v>32910</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>32922</v>
+        <v>32918</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>32914</v>
@@ -2999,10 +2999,10 @@
         <v>33021</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>33021</v>
+        <v>33011</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>33021</v>
+        <v>33014</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>33012</v>
@@ -3046,10 +3046,10 @@
         <v>33049</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>33049</v>
+        <v>33026</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>33049</v>
+        <v>33033</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>33029</v>
@@ -3093,10 +3093,10 @@
         <v>33076</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>33076</v>
+        <v>33055</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>33076</v>
+        <v>33063</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>33059</v>
@@ -3140,10 +3140,10 @@
         <v>33156</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>33156</v>
+        <v>33151</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>33156</v>
+        <v>33152</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>33151</v>
@@ -3187,10 +3187,10 @@
         <v>33160</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>33160</v>
+        <v>33147</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>33160</v>
+        <v>33155</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>33151</v>
@@ -3234,10 +3234,10 @@
         <v>33177</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>33177</v>
+        <v>33173</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>33177</v>
+        <v>33175</v>
       </c>
       <c r="D64" s="1" t="n">
         <v>33174</v>
@@ -3281,10 +3281,10 @@
         <v>33183</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>33183</v>
+        <v>33179</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>33183</v>
+        <v>33180</v>
       </c>
       <c r="D65" s="1" t="n">
         <v>33179</v>
@@ -3328,10 +3328,10 @@
         <v>33195</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>33195</v>
+        <v>33191</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>33195</v>
+        <v>33192</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>33191</v>
@@ -3375,10 +3375,10 @@
         <v>33217</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>33217</v>
+        <v>33212</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>33217</v>
+        <v>33213</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>33212</v>
@@ -3422,10 +3422,10 @@
         <v>33266</v>
       </c>
       <c r="B68" s="1" t="n">
-        <v>33266</v>
+        <v>33261</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>33266</v>
+        <v>33261</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>33261</v>
@@ -3469,10 +3469,10 @@
         <v>33307</v>
       </c>
       <c r="B69" s="1" t="n">
-        <v>33307</v>
+        <v>33290</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>33307</v>
+        <v>33297</v>
       </c>
       <c r="D69" s="1" t="n">
         <v>33293</v>
@@ -3516,10 +3516,10 @@
         <v>33313</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>33313</v>
+        <v>33308</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>33313</v>
+        <v>33309</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>33308</v>
@@ -3563,10 +3563,10 @@
         <v>33350</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>33350</v>
+        <v>33343</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>33350</v>
+        <v>33344</v>
       </c>
       <c r="D71" s="1" t="n">
         <v>33343</v>
@@ -3610,10 +3610,10 @@
         <v>33408</v>
       </c>
       <c r="B72" s="1" t="n">
-        <v>33408</v>
+        <v>33388</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>33408</v>
+        <v>33396</v>
       </c>
       <c r="D72" s="1" t="n">
         <v>33392</v>
@@ -3657,10 +3657,10 @@
         <v>33412</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>33412</v>
+        <v>33408</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>33412</v>
+        <v>33409</v>
       </c>
       <c r="D73" s="1" t="n">
         <v>33408</v>
@@ -3704,10 +3704,10 @@
         <v>33413</v>
       </c>
       <c r="B74" s="1" t="n">
-        <v>33413</v>
+        <v>33406</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>33413</v>
+        <v>33407</v>
       </c>
       <c r="D74" s="1" t="n">
         <v>33406</v>
@@ -3751,10 +3751,10 @@
         <v>33433</v>
       </c>
       <c r="B75" s="1" t="n">
-        <v>33433</v>
+        <v>33424</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>33433</v>
+        <v>33425</v>
       </c>
       <c r="D75" s="1" t="n">
         <v>33424</v>
@@ -3798,10 +3798,10 @@
         <v>33509</v>
       </c>
       <c r="B76" s="1" t="n">
-        <v>33509</v>
+        <v>33505</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>33509</v>
+        <v>33506</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>33505</v>
@@ -3845,10 +3845,10 @@
         <v>33525</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>33525</v>
+        <v>33520</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>33525</v>
+        <v>33521</v>
       </c>
       <c r="D77" s="1" t="n">
         <v>33520</v>
@@ -3892,10 +3892,10 @@
         <v>33558</v>
       </c>
       <c r="B78" s="1" t="n">
-        <v>33558</v>
+        <v>33555</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>33558</v>
+        <v>33556</v>
       </c>
       <c r="D78" s="1" t="n">
         <v>33555</v>
@@ -3939,10 +3939,10 @@
         <v>33585</v>
       </c>
       <c r="B79" s="1" t="n">
-        <v>33585</v>
+        <v>33573</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>33585</v>
+        <v>33584</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>33578</v>
@@ -3984,10 +3984,10 @@
         <v>33587</v>
       </c>
       <c r="B80" s="1" t="n">
-        <v>33587</v>
+        <v>33572</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>33587</v>
+        <v>33578</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>33575</v>
@@ -4031,10 +4031,10 @@
         <v>33588</v>
       </c>
       <c r="B81" s="1" t="n">
-        <v>33588</v>
+        <v>33582</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>33588</v>
+        <v>33583</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>33582</v>
@@ -4078,10 +4078,10 @@
         <v>33628</v>
       </c>
       <c r="B82" s="1" t="n">
-        <v>33628</v>
+        <v>33626</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>33628</v>
+        <v>33626</v>
       </c>
       <c r="D82" s="1" t="n">
         <v>33626</v>
@@ -4125,10 +4125,10 @@
         <v>33657</v>
       </c>
       <c r="B83" s="1" t="n">
-        <v>33657</v>
+        <v>33653</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>33657</v>
+        <v>33654</v>
       </c>
       <c r="D83" s="1" t="n">
         <v>33653</v>
@@ -4172,10 +4172,10 @@
         <v>33666</v>
       </c>
       <c r="B84" s="1" t="n">
-        <v>33666</v>
+        <v>33658</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>33666</v>
+        <v>33659</v>
       </c>
       <c r="D84" s="1" t="n">
         <v>33658</v>
@@ -4219,10 +4219,10 @@
         <v>33733</v>
       </c>
       <c r="B85" s="1" t="n">
-        <v>33733</v>
+        <v>33718</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>33733</v>
+        <v>33726</v>
       </c>
       <c r="D85" s="1" t="n">
         <v>33722</v>
@@ -4266,10 +4266,10 @@
         <v>33736</v>
       </c>
       <c r="B86" s="1" t="n">
-        <v>33736</v>
+        <v>33723</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>33736</v>
+        <v>33735</v>
       </c>
       <c r="D86" s="1" t="n">
         <v>33729</v>
@@ -4315,10 +4315,10 @@
         <v>33766</v>
       </c>
       <c r="B87" s="1" t="n">
-        <v>33766</v>
+        <v>33761</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>33766</v>
+        <v>33761</v>
       </c>
       <c r="D87" s="1" t="n">
         <v>33761</v>
@@ -4364,10 +4364,10 @@
         <v>33766</v>
       </c>
       <c r="B88" s="1" t="n">
-        <v>33766</v>
+        <v>33763</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>33766</v>
+        <v>33763</v>
       </c>
       <c r="D88" s="1" t="n">
         <v>33763</v>
@@ -4462,10 +4462,10 @@
         <v>33797</v>
       </c>
       <c r="B90" s="1" t="n">
-        <v>33797</v>
+        <v>33781</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>33797</v>
+        <v>33789</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>33785</v>
@@ -4511,10 +4511,10 @@
         <v>33877</v>
       </c>
       <c r="B91" s="1" t="n">
-        <v>33877</v>
+        <v>33871</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>33877</v>
+        <v>33872</v>
       </c>
       <c r="D91" s="1" t="n">
         <v>33871</v>
@@ -4560,10 +4560,10 @@
         <v>33900</v>
       </c>
       <c r="B92" s="1" t="n">
-        <v>33900</v>
+        <v>33895</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>33900</v>
+        <v>33896</v>
       </c>
       <c r="D92" s="1" t="n">
         <v>33895</v>
@@ -4609,10 +4609,10 @@
         <v>33917</v>
       </c>
       <c r="B93" s="1" t="n">
-        <v>33917</v>
+        <v>33915</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>33917</v>
+        <v>33915</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>33915</v>
@@ -4658,10 +4658,10 @@
         <v>33920</v>
       </c>
       <c r="B94" s="1" t="n">
-        <v>33920</v>
+        <v>33917</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>33920</v>
+        <v>33917</v>
       </c>
       <c r="D94" s="1" t="n">
         <v>33917</v>
@@ -4707,10 +4707,10 @@
         <v>33923</v>
       </c>
       <c r="B95" s="1" t="n">
-        <v>33923</v>
+        <v>33921</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>33923</v>
+        <v>33921</v>
       </c>
       <c r="D95" s="1" t="n">
         <v>33921</v>
@@ -4756,10 +4756,10 @@
         <v>33927</v>
       </c>
       <c r="B96" s="1" t="n">
-        <v>33927</v>
+        <v>33925</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>33927</v>
+        <v>33925</v>
       </c>
       <c r="D96" s="1" t="n">
         <v>33925</v>
@@ -4805,7 +4805,7 @@
         <v>33932</v>
       </c>
       <c r="B97" s="1" t="n">
-        <v>33932</v>
+        <v>33917</v>
       </c>
       <c r="C97" s="1" t="n">
         <v>33932</v>
@@ -4854,10 +4854,10 @@
         <v>33944</v>
       </c>
       <c r="B98" s="1" t="n">
-        <v>33944</v>
+        <v>33942</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>33944</v>
+        <v>33942</v>
       </c>
       <c r="D98" s="1" t="n">
         <v>33942</v>
@@ -4952,10 +4952,10 @@
         <v>34002</v>
       </c>
       <c r="B100" s="1" t="n">
-        <v>34002</v>
+        <v>33998</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>34002</v>
+        <v>33998</v>
       </c>
       <c r="D100" s="1" t="n">
         <v>33998</v>
@@ -5001,10 +5001,10 @@
         <v>34033</v>
       </c>
       <c r="B101" s="1" t="n">
-        <v>34033</v>
+        <v>34029</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>34033</v>
+        <v>34029</v>
       </c>
       <c r="D101" s="1" t="n">
         <v>34029</v>
@@ -5050,10 +5050,10 @@
         <v>34077</v>
       </c>
       <c r="B102" s="1" t="n">
-        <v>34077</v>
+        <v>34060</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>34077</v>
+        <v>34067</v>
       </c>
       <c r="D102" s="1" t="n">
         <v>34063</v>
@@ -5099,10 +5099,10 @@
         <v>34157</v>
       </c>
       <c r="B103" s="1" t="n">
-        <v>34157</v>
+        <v>34151</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>34157</v>
+        <v>34152</v>
       </c>
       <c r="D103" s="1" t="n">
         <v>34151</v>
@@ -5150,10 +5150,10 @@
         <v>34161</v>
       </c>
       <c r="B104" s="1" t="n">
-        <v>34161</v>
+        <v>34145</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>34161</v>
+        <v>34152</v>
       </c>
       <c r="D104" s="1" t="n">
         <v>34148</v>
@@ -5199,7 +5199,7 @@
         <v>34204</v>
       </c>
       <c r="B105" s="1" t="n">
-        <v>34204</v>
+        <v>34197</v>
       </c>
       <c r="C105" s="1" t="n">
         <v>34204</v>
@@ -5248,10 +5248,10 @@
         <v>34249</v>
       </c>
       <c r="B106" s="1" t="n">
-        <v>34249</v>
+        <v>34243</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>34249</v>
+        <v>34244</v>
       </c>
       <c r="D106" s="1" t="n">
         <v>34243</v>
@@ -5299,10 +5299,10 @@
         <v>34252</v>
       </c>
       <c r="B107" s="1" t="n">
-        <v>34252</v>
+        <v>34249</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>34252</v>
+        <v>34249</v>
       </c>
       <c r="D107" s="1" t="n">
         <v>34249</v>
@@ -5348,10 +5348,10 @@
         <v>34302</v>
       </c>
       <c r="B108" s="1" t="n">
-        <v>34302</v>
+        <v>34295</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>34302</v>
+        <v>34296</v>
       </c>
       <c r="D108" s="1" t="n">
         <v>34295</v>
@@ -5397,10 +5397,10 @@
         <v>34357</v>
       </c>
       <c r="B109" s="1" t="n">
-        <v>34357</v>
+        <v>34354</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>34357</v>
+        <v>34354</v>
       </c>
       <c r="D109" s="1" t="n">
         <v>34354</v>
@@ -5446,10 +5446,10 @@
         <v>34372</v>
       </c>
       <c r="B110" s="1" t="n">
-        <v>34372</v>
+        <v>34365</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>34372</v>
+        <v>34365</v>
       </c>
       <c r="D110" s="1" t="n">
         <v>34365</v>
@@ -5497,10 +5497,10 @@
         <v>34392</v>
       </c>
       <c r="B111" s="1" t="n">
-        <v>34392</v>
+        <v>34388</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>34392</v>
+        <v>34388</v>
       </c>
       <c r="D111" s="1" t="n">
         <v>34388</v>
@@ -5548,10 +5548,10 @@
         <v>34420</v>
       </c>
       <c r="B112" s="1" t="n">
-        <v>34420</v>
+        <v>34417</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>34420</v>
+        <v>34417</v>
       </c>
       <c r="D112" s="1" t="n">
         <v>34417</v>
@@ -5599,7 +5599,7 @@
         <v>34484</v>
       </c>
       <c r="B113" s="1" t="n">
-        <v>34484</v>
+        <v>34482</v>
       </c>
       <c r="C113" s="1" t="n">
         <v>34484</v>
@@ -5648,10 +5648,10 @@
         <v>34487</v>
       </c>
       <c r="B114" s="1" t="n">
-        <v>34487</v>
+        <v>34481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>34487</v>
+        <v>34482</v>
       </c>
       <c r="D114" s="1" t="n">
         <v>34481</v>
@@ -5695,10 +5695,10 @@
         <v>34538</v>
       </c>
       <c r="B115" s="1" t="n">
-        <v>34538</v>
+        <v>34530</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>34538</v>
+        <v>34536</v>
       </c>
       <c r="D115" s="1" t="n">
         <v>34533</v>
@@ -5746,10 +5746,10 @@
         <v>34576</v>
       </c>
       <c r="B116" s="1" t="n">
-        <v>34576</v>
+        <v>34568</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>34576</v>
+        <v>34568</v>
       </c>
       <c r="D116" s="1" t="n">
         <v>34568</v>
@@ -5795,10 +5795,10 @@
         <v>34644</v>
       </c>
       <c r="B117" s="1" t="n">
-        <v>34644</v>
+        <v>34641</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>34644</v>
+        <v>34641</v>
       </c>
       <c r="D117" s="1" t="n">
         <v>34641</v>
@@ -5846,10 +5846,10 @@
         <v>34659</v>
       </c>
       <c r="B118" s="1" t="n">
-        <v>34659</v>
+        <v>34656</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>34659</v>
+        <v>34656</v>
       </c>
       <c r="D118" s="1" t="n">
         <v>34656</v>
@@ -5893,10 +5893,10 @@
         <v>34666</v>
       </c>
       <c r="B119" s="1" t="n">
-        <v>34666</v>
+        <v>34663</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>34666</v>
+        <v>34663</v>
       </c>
       <c r="D119" s="1" t="n">
         <v>34663</v>
@@ -5942,10 +5942,10 @@
         <v>34720</v>
       </c>
       <c r="B120" s="1" t="n">
-        <v>34720</v>
+        <v>34718</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>34720</v>
+        <v>34718</v>
       </c>
       <c r="D120" s="1" t="n">
         <v>34718</v>
@@ -5987,10 +5987,10 @@
         <v>34748</v>
       </c>
       <c r="B121" s="1" t="n">
-        <v>34748</v>
+        <v>34743</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>34748</v>
+        <v>34743</v>
       </c>
       <c r="D121" s="1" t="n">
         <v>34743</v>
@@ -6038,10 +6038,10 @@
         <v>34804</v>
       </c>
       <c r="B122" s="1" t="n">
-        <v>34804</v>
+        <v>34801</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>34804</v>
+        <v>34801</v>
       </c>
       <c r="D122" s="1" t="n">
         <v>34801</v>
@@ -6083,10 +6083,10 @@
         <v>34840</v>
       </c>
       <c r="B123" s="1" t="n">
-        <v>34840</v>
+        <v>30820</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>34840</v>
+        <v>30820</v>
       </c>
       <c r="D123" s="1" t="n">
         <v>30820</v>
@@ -6134,10 +6134,10 @@
         <v>34978</v>
       </c>
       <c r="B124" s="1" t="n">
-        <v>34978</v>
+        <v>34971</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>34978</v>
+        <v>34972</v>
       </c>
       <c r="D124" s="1" t="n">
         <v>34971</v>
@@ -6181,10 +6181,10 @@
         <v>34980</v>
       </c>
       <c r="B125" s="1" t="n">
-        <v>34980</v>
+        <v>34977</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>34980</v>
+        <v>34977</v>
       </c>
       <c r="D125" s="1" t="n">
         <v>34977</v>
@@ -6232,10 +6232,10 @@
         <v>35011</v>
       </c>
       <c r="B126" s="1" t="n">
-        <v>35011</v>
+        <v>35006</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>35011</v>
+        <v>35007</v>
       </c>
       <c r="D126" s="1" t="n">
         <v>35006</v>
@@ -6324,10 +6324,10 @@
         <v>35112</v>
       </c>
       <c r="B128" s="1" t="n">
-        <v>35112</v>
+        <v>35109</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>35112</v>
+        <v>35109</v>
       </c>
       <c r="D128" s="1" t="n">
         <v>35109</v>
@@ -6375,10 +6375,10 @@
         <v>35224</v>
       </c>
       <c r="B129" s="1" t="n">
-        <v>35224</v>
+        <v>35220</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>35224</v>
+        <v>35220</v>
       </c>
       <c r="D129" s="1" t="n">
         <v>35220</v>
@@ -6424,10 +6424,10 @@
         <v>35253</v>
       </c>
       <c r="B130" s="1" t="n">
-        <v>35253</v>
+        <v>35250</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>35253</v>
+        <v>35250</v>
       </c>
       <c r="D130" s="1" t="n">
         <v>35250</v>
@@ -6475,10 +6475,10 @@
         <v>35339</v>
       </c>
       <c r="B131" s="1" t="n">
-        <v>35339</v>
+        <v>35332</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>35339</v>
+        <v>35333</v>
       </c>
       <c r="D131" s="1" t="n">
         <v>35332</v>
@@ -6522,10 +6522,10 @@
         <v>35351</v>
       </c>
       <c r="B132" s="1" t="n">
-        <v>35351</v>
+        <v>35348</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>35351</v>
+        <v>35348</v>
       </c>
       <c r="D132" s="1" t="n">
         <v>35348</v>
@@ -6573,10 +6573,10 @@
         <v>35400</v>
       </c>
       <c r="B133" s="1" t="n">
-        <v>35400</v>
+        <v>35397</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>35400</v>
+        <v>35397</v>
       </c>
       <c r="D133" s="1" t="n">
         <v>35397</v>
@@ -6624,10 +6624,10 @@
         <v>35412</v>
       </c>
       <c r="B134" s="1" t="n">
-        <v>35412</v>
+        <v>35404</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>35412</v>
+        <v>35405</v>
       </c>
       <c r="D134" s="1" t="n">
         <v>35404</v>
@@ -6671,10 +6671,10 @@
         <v>35419</v>
       </c>
       <c r="B135" s="1" t="n">
-        <v>35419</v>
+        <v>35416</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>35419</v>
+        <v>35416</v>
       </c>
       <c r="D135" s="1" t="n">
         <v>35416</v>
@@ -6722,10 +6722,10 @@
         <v>35462</v>
       </c>
       <c r="B136" s="1" t="n">
-        <v>35462</v>
+        <v>35457</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>35462</v>
+        <v>35458</v>
       </c>
       <c r="D136" s="1" t="n">
         <v>35457</v>
@@ -6769,10 +6769,10 @@
         <v>35505</v>
       </c>
       <c r="B137" s="1" t="n">
-        <v>35505</v>
+        <v>35503</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>35505</v>
+        <v>35503</v>
       </c>
       <c r="D137" s="1" t="n">
         <v>35503</v>
@@ -6820,10 +6820,10 @@
         <v>35523</v>
       </c>
       <c r="B138" s="1" t="n">
-        <v>35523</v>
+        <v>35515</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>35523</v>
+        <v>35516</v>
       </c>
       <c r="D138" s="1" t="n">
         <v>35515</v>
@@ -6867,10 +6867,10 @@
         <v>35558</v>
       </c>
       <c r="B139" s="1" t="n">
-        <v>35558</v>
+        <v>35553</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>35558</v>
+        <v>35554</v>
       </c>
       <c r="D139" s="1" t="n">
         <v>35553</v>
@@ -6916,10 +6916,10 @@
         <v>35566</v>
       </c>
       <c r="B140" s="1" t="n">
-        <v>35566</v>
+        <v>35564</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>35566</v>
+        <v>35564</v>
       </c>
       <c r="D140" s="1" t="n">
         <v>35564</v>
@@ -6967,10 +6967,10 @@
         <v>35572</v>
       </c>
       <c r="B141" s="1" t="n">
-        <v>35572</v>
+        <v>35569</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>35572</v>
+        <v>35570</v>
       </c>
       <c r="D141" s="1" t="n">
         <v>35569</v>
@@ -7014,10 +7014,10 @@
         <v>35575</v>
       </c>
       <c r="B142" s="1" t="n">
-        <v>35575</v>
+        <v>35572</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>35575</v>
+        <v>35572</v>
       </c>
       <c r="D142" s="1" t="n">
         <v>35572</v>
@@ -7063,10 +7063,10 @@
         <v>35578</v>
       </c>
       <c r="B143" s="1" t="n">
-        <v>35578</v>
+        <v>35576</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>35578</v>
+        <v>35576</v>
       </c>
       <c r="D143" s="1" t="n">
         <v>35576</v>
@@ -7114,10 +7114,10 @@
         <v>35581</v>
       </c>
       <c r="B144" s="1" t="n">
-        <v>35581</v>
+        <v>35578</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>35581</v>
+        <v>35578</v>
       </c>
       <c r="D144" s="1" t="n">
         <v>35578</v>
@@ -7161,10 +7161,10 @@
         <v>35582</v>
       </c>
       <c r="B145" s="1" t="n">
-        <v>35582</v>
+        <v>35579</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>35582</v>
+        <v>35579</v>
       </c>
       <c r="D145" s="1" t="n">
         <v>35579</v>
@@ -7212,10 +7212,10 @@
         <v>35588</v>
       </c>
       <c r="B146" s="1" t="n">
-        <v>35588</v>
+        <v>35587</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>35588</v>
+        <v>35587</v>
       </c>
       <c r="D146" s="1" t="n">
         <v>35587</v>
@@ -7259,10 +7259,10 @@
         <v>35631</v>
       </c>
       <c r="B147" s="1" t="n">
-        <v>35631</v>
+        <v>35628</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>35631</v>
+        <v>35628</v>
       </c>
       <c r="D147" s="1" t="n">
         <v>35628</v>
@@ -7359,10 +7359,10 @@
         <v>35705</v>
       </c>
       <c r="B149" s="1" t="n">
-        <v>35705</v>
+        <v>35700</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>35705</v>
+        <v>35700</v>
       </c>
       <c r="D149" s="1" t="n">
         <v>35700</v>
@@ -7410,10 +7410,10 @@
         <v>35708</v>
       </c>
       <c r="B150" s="1" t="n">
-        <v>35708</v>
+        <v>35705</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>35708</v>
+        <v>35705</v>
       </c>
       <c r="D150" s="1" t="n">
         <v>35705</v>
@@ -7508,10 +7508,10 @@
         <v>35729</v>
       </c>
       <c r="B152" s="1" t="n">
-        <v>35729</v>
+        <v>35726</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>35729</v>
+        <v>35726</v>
       </c>
       <c r="D152" s="1" t="n">
         <v>35726</v>
@@ -7559,10 +7559,10 @@
         <v>35745</v>
       </c>
       <c r="B153" s="1" t="n">
-        <v>35745</v>
+        <v>35742</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>35745</v>
+        <v>35742</v>
       </c>
       <c r="D153" s="1" t="n">
         <v>35742</v>
@@ -7610,10 +7610,10 @@
         <v>35764</v>
       </c>
       <c r="B154" s="1" t="n">
-        <v>35764</v>
+        <v>35761</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>35764</v>
+        <v>35761</v>
       </c>
       <c r="D154" s="1" t="n">
         <v>35761</v>
@@ -7659,7 +7659,7 @@
         <v>35764</v>
       </c>
       <c r="B155" s="1" t="n">
-        <v>35764</v>
+        <v>35735</v>
       </c>
       <c r="C155" s="1" t="n">
         <v>35764</v>
@@ -7700,10 +7700,10 @@
         <v>35774</v>
       </c>
       <c r="B156" s="1" t="n">
-        <v>35774</v>
+        <v>35769</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>35774</v>
+        <v>35770</v>
       </c>
       <c r="D156" s="1" t="n">
         <v>35769</v>
@@ -7749,10 +7749,10 @@
         <v>35793</v>
       </c>
       <c r="B157" s="1" t="n">
-        <v>35793</v>
+        <v>35782</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>35793</v>
+        <v>35782</v>
       </c>
       <c r="D157" s="1" t="n">
         <v>35782</v>
@@ -7798,10 +7798,10 @@
         <v>35827</v>
       </c>
       <c r="B158" s="1" t="n">
-        <v>35827</v>
+        <v>35824</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>35827</v>
+        <v>35824</v>
       </c>
       <c r="D158" s="1" t="n">
         <v>35824</v>
@@ -7847,10 +7847,10 @@
         <v>35884</v>
       </c>
       <c r="B159" s="1" t="n">
-        <v>35884</v>
+        <v>35868</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>35884</v>
+        <v>35883</v>
       </c>
       <c r="D159" s="1" t="n">
         <v>35875</v>
@@ -7898,10 +7898,10 @@
         <v>35902</v>
       </c>
       <c r="B160" s="1" t="n">
-        <v>35902</v>
+        <v>35898</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>35902</v>
+        <v>35899</v>
       </c>
       <c r="D160" s="1" t="n">
         <v>35898</v>
@@ -7947,10 +7947,10 @@
         <v>35933</v>
       </c>
       <c r="B161" s="1" t="n">
-        <v>35933</v>
+        <v>35927</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>35933</v>
+        <v>35928</v>
       </c>
       <c r="D161" s="1" t="n">
         <v>35927</v>
@@ -8047,10 +8047,10 @@
         <v>36077</v>
       </c>
       <c r="B163" s="1" t="n">
-        <v>36077</v>
+        <v>36073</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>36077</v>
+        <v>36074</v>
       </c>
       <c r="D163" s="1" t="n">
         <v>36073</v>
@@ -8096,10 +8096,10 @@
         <v>36086</v>
       </c>
       <c r="B164" s="1" t="n">
-        <v>36086</v>
+        <v>36083</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>36086</v>
+        <v>36083</v>
       </c>
       <c r="D164" s="1" t="n">
         <v>36083</v>
@@ -8145,10 +8145,10 @@
         <v>36164</v>
       </c>
       <c r="B165" s="1" t="n">
-        <v>36164</v>
+        <v>36145</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>36164</v>
+        <v>36145</v>
       </c>
       <c r="D165" s="1" t="n">
         <v>36145</v>
@@ -8194,10 +8194,10 @@
         <v>36191</v>
       </c>
       <c r="B166" s="1" t="n">
-        <v>36191</v>
+        <v>35823</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>36191</v>
+        <v>35823</v>
       </c>
       <c r="D166" s="1" t="n">
         <v>35823</v>
@@ -8243,10 +8243,10 @@
         <v>36217</v>
       </c>
       <c r="B167" s="1" t="n">
-        <v>36217</v>
+        <v>36214</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>36217</v>
+        <v>36215</v>
       </c>
       <c r="D167" s="1" t="n">
         <v>36214</v>
@@ -8290,10 +8290,10 @@
         <v>36289</v>
       </c>
       <c r="B168" s="1" t="n">
-        <v>36289</v>
+        <v>36286</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>36289</v>
+        <v>36286</v>
       </c>
       <c r="D168" s="1" t="n">
         <v>36286</v>
@@ -8339,10 +8339,10 @@
         <v>36293</v>
       </c>
       <c r="B169" s="1" t="n">
-        <v>36293</v>
+        <v>36289</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>36293</v>
+        <v>36290</v>
       </c>
       <c r="D169" s="1" t="n">
         <v>36289</v>
@@ -8386,10 +8386,10 @@
         <v>36316</v>
       </c>
       <c r="B170" s="1" t="n">
-        <v>36316</v>
+        <v>36313</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>36316</v>
+        <v>36314</v>
       </c>
       <c r="D170" s="1" t="n">
         <v>36313</v>
@@ -8435,10 +8435,10 @@
         <v>36457</v>
       </c>
       <c r="B171" s="1" t="n">
-        <v>36457</v>
+        <v>36454</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>36457</v>
+        <v>36454</v>
       </c>
       <c r="D171" s="1" t="n">
         <v>36454</v>
@@ -8484,10 +8484,10 @@
         <v>36469</v>
       </c>
       <c r="B172" s="1" t="n">
-        <v>36469</v>
+        <v>36466</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>36469</v>
+        <v>36467</v>
       </c>
       <c r="D172" s="1" t="n">
         <v>36466</v>
@@ -8531,10 +8531,10 @@
         <v>36546</v>
       </c>
       <c r="B173" s="1" t="n">
-        <v>36546</v>
+        <v>36542</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>36546</v>
+        <v>36543</v>
       </c>
       <c r="D173" s="1" t="n">
         <v>36542</v>
@@ -8578,10 +8578,10 @@
         <v>36576</v>
       </c>
       <c r="B174" s="1" t="n">
-        <v>36576</v>
+        <v>36573</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>36576</v>
+        <v>36573</v>
       </c>
       <c r="D174" s="1" t="n">
         <v>36573</v>
@@ -8625,10 +8625,10 @@
         <v>36638</v>
       </c>
       <c r="B175" s="1" t="n">
-        <v>36638</v>
+        <v>36633</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>36638</v>
+        <v>36634</v>
       </c>
       <c r="D175" s="1" t="n">
         <v>36633</v>
@@ -8672,10 +8672,10 @@
         <v>36646</v>
       </c>
       <c r="B176" s="1" t="n">
-        <v>36646</v>
+        <v>36643</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>36646</v>
+        <v>36643</v>
       </c>
       <c r="D176" s="1" t="n">
         <v>36643</v>
@@ -8721,10 +8721,10 @@
         <v>36693</v>
       </c>
       <c r="B177" s="1" t="n">
-        <v>36693</v>
+        <v>36679</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>36693</v>
+        <v>36692</v>
       </c>
       <c r="D177" s="1" t="n">
         <v>36685</v>
@@ -8770,10 +8770,10 @@
         <v>36695</v>
       </c>
       <c r="B178" s="1" t="n">
-        <v>36695</v>
+        <v>36692</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>36695</v>
+        <v>36692</v>
       </c>
       <c r="D178" s="1" t="n">
         <v>36692</v>
@@ -8819,10 +8819,10 @@
         <v>36798</v>
       </c>
       <c r="B179" s="1" t="n">
-        <v>36798</v>
+        <v>36780</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>36798</v>
+        <v>36791</v>
       </c>
       <c r="D179" s="1" t="n">
         <v>36785</v>
@@ -8866,10 +8866,10 @@
         <v>36850</v>
       </c>
       <c r="B180" s="1" t="n">
-        <v>36850</v>
+        <v>36846</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>36850</v>
+        <v>36846</v>
       </c>
       <c r="D180" s="1" t="n">
         <v>36846</v>
@@ -8913,10 +8913,10 @@
         <v>36917</v>
       </c>
       <c r="B181" s="1" t="n">
-        <v>36917</v>
+        <v>36913</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>36917</v>
+        <v>36914</v>
       </c>
       <c r="D181" s="1" t="n">
         <v>36913</v>
@@ -8960,10 +8960,10 @@
         <v>36926</v>
       </c>
       <c r="B182" s="1" t="n">
-        <v>36926</v>
+        <v>36923</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>36926</v>
+        <v>36923</v>
       </c>
       <c r="D182" s="1" t="n">
         <v>36923</v>
@@ -9009,10 +9009,10 @@
         <v>36927</v>
       </c>
       <c r="B183" s="1" t="n">
-        <v>36927</v>
+        <v>36920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>36927</v>
+        <v>36921</v>
       </c>
       <c r="D183" s="1" t="n">
         <v>36920</v>
@@ -9056,10 +9056,10 @@
         <v>37029</v>
       </c>
       <c r="B184" s="1" t="n">
-        <v>37029</v>
+        <v>37024</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>37029</v>
+        <v>37025</v>
       </c>
       <c r="D184" s="1" t="n">
         <v>37024</v>
@@ -9103,10 +9103,10 @@
         <v>37031</v>
       </c>
       <c r="B185" s="1" t="n">
-        <v>37031</v>
+        <v>37028</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>37031</v>
+        <v>37028</v>
       </c>
       <c r="D185" s="1" t="n">
         <v>37028</v>
@@ -9152,10 +9152,10 @@
         <v>37039</v>
       </c>
       <c r="B186" s="1" t="n">
-        <v>37039</v>
+        <v>37025</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>37039</v>
+        <v>37038</v>
       </c>
       <c r="D186" s="1" t="n">
         <v>37031</v>
@@ -9197,10 +9197,10 @@
         <v>37046</v>
       </c>
       <c r="B187" s="1" t="n">
-        <v>37046</v>
+        <v>37040</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>37046</v>
+        <v>37041</v>
       </c>
       <c r="D187" s="1" t="n">
         <v>37040</v>
@@ -9244,10 +9244,10 @@
         <v>37164</v>
       </c>
       <c r="B188" s="1" t="n">
-        <v>37164</v>
+        <v>37161</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>37164</v>
+        <v>37161</v>
       </c>
       <c r="D188" s="1" t="n">
         <v>37161</v>
@@ -9293,10 +9293,10 @@
         <v>37254</v>
       </c>
       <c r="B189" s="1" t="n">
-        <v>37254</v>
+        <v>37243</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>37254</v>
+        <v>37243</v>
       </c>
       <c r="D189" s="1" t="n">
         <v>37243</v>
@@ -9340,10 +9340,10 @@
         <v>37281</v>
       </c>
       <c r="B190" s="1" t="n">
-        <v>37281</v>
+        <v>37277</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>37281</v>
+        <v>37278</v>
       </c>
       <c r="D190" s="1" t="n">
         <v>37277</v>
@@ -9387,10 +9387,10 @@
         <v>37317</v>
       </c>
       <c r="B191" s="1" t="n">
-        <v>37317</v>
+        <v>37312</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>37317</v>
+        <v>37313</v>
       </c>
       <c r="D191" s="1" t="n">
         <v>37312</v>
@@ -9434,10 +9434,10 @@
         <v>37325</v>
       </c>
       <c r="B192" s="1" t="n">
-        <v>37325</v>
+        <v>37322</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>37325</v>
+        <v>37322</v>
       </c>
       <c r="D192" s="1" t="n">
         <v>37322</v>
@@ -9481,10 +9481,10 @@
         <v>37345</v>
       </c>
       <c r="B193" s="1" t="n">
-        <v>37345</v>
+        <v>37342</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>37345</v>
+        <v>37342</v>
       </c>
       <c r="D193" s="1" t="n">
         <v>37342</v>
@@ -9528,10 +9528,10 @@
         <v>37379</v>
       </c>
       <c r="B194" s="1" t="n">
-        <v>37379</v>
+        <v>37375</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>37379</v>
+        <v>37376</v>
       </c>
       <c r="D194" s="1" t="n">
         <v>37375</v>
@@ -9575,10 +9575,10 @@
         <v>37380</v>
       </c>
       <c r="B195" s="1" t="n">
-        <v>37380</v>
+        <v>37378</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>37380</v>
+        <v>37378</v>
       </c>
       <c r="D195" s="1" t="n">
         <v>37378</v>
@@ -9622,10 +9622,10 @@
         <v>37385</v>
       </c>
       <c r="B196" s="1" t="n">
-        <v>37385</v>
+        <v>37379</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>37385</v>
+        <v>37379</v>
       </c>
       <c r="D196" s="1" t="n">
         <v>37379</v>
@@ -9716,10 +9716,10 @@
         <v>37388</v>
       </c>
       <c r="B198" s="1" t="n">
-        <v>37388</v>
+        <v>37385</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>37388</v>
+        <v>37385</v>
       </c>
       <c r="D198" s="1" t="n">
         <v>37385</v>
@@ -9763,10 +9763,10 @@
         <v>37391</v>
       </c>
       <c r="B199" s="1" t="n">
-        <v>37391</v>
+        <v>37389</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>37391</v>
+        <v>37389</v>
       </c>
       <c r="D199" s="1" t="n">
         <v>37389</v>
@@ -9810,10 +9810,10 @@
         <v>37391</v>
       </c>
       <c r="B200" s="1" t="n">
-        <v>37391</v>
+        <v>37389</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>37391</v>
+        <v>37389</v>
       </c>
       <c r="D200" s="1" t="n">
         <v>37389</v>
@@ -9857,10 +9857,10 @@
         <v>37527</v>
       </c>
       <c r="B201" s="1" t="n">
-        <v>37527</v>
+        <v>37522</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>37527</v>
+        <v>37523</v>
       </c>
       <c r="D201" s="1" t="n">
         <v>37522</v>
@@ -9904,10 +9904,10 @@
         <v>37542</v>
       </c>
       <c r="B202" s="1" t="n">
-        <v>37542</v>
+        <v>37539</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>37542</v>
+        <v>37539</v>
       </c>
       <c r="D202" s="1" t="n">
         <v>37539</v>
@@ -9951,10 +9951,10 @@
         <v>37546</v>
       </c>
       <c r="B203" s="1" t="n">
-        <v>37546</v>
+        <v>37543</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>37546</v>
+        <v>37544</v>
       </c>
       <c r="D203" s="1" t="n">
         <v>37543</v>
@@ -9998,10 +9998,10 @@
         <v>37666</v>
       </c>
       <c r="B204" s="1" t="n">
-        <v>37666</v>
+        <v>37662</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>37666</v>
+        <v>37663</v>
       </c>
       <c r="D204" s="1" t="n">
         <v>37662</v>
@@ -10045,10 +10045,10 @@
         <v>37757</v>
       </c>
       <c r="B205" s="1" t="n">
-        <v>37757</v>
+        <v>37753</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>37757</v>
+        <v>37754</v>
       </c>
       <c r="D205" s="1" t="n">
         <v>37753</v>
@@ -10092,10 +10092,10 @@
         <v>37757</v>
       </c>
       <c r="B206" s="1" t="n">
-        <v>37757</v>
+        <v>37753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>37757</v>
+        <v>37754</v>
       </c>
       <c r="D206" s="1" t="n">
         <v>37753</v>
@@ -10139,10 +10139,10 @@
         <v>37877</v>
       </c>
       <c r="B207" s="1" t="n">
-        <v>37877</v>
+        <v>37873</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>37877</v>
+        <v>37874</v>
       </c>
       <c r="D207" s="1" t="n">
         <v>37873</v>
@@ -10186,10 +10186,10 @@
         <v>37890</v>
       </c>
       <c r="B208" s="1" t="n">
-        <v>37890</v>
+        <v>37886</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>37890</v>
+        <v>37887</v>
       </c>
       <c r="D208" s="1" t="n">
         <v>37886</v>
@@ -10233,10 +10233,10 @@
         <v>37909</v>
       </c>
       <c r="B209" s="1" t="n">
-        <v>37909</v>
+        <v>37895</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>37909</v>
+        <v>37925</v>
       </c>
       <c r="D209" s="1" t="n">
         <v>37910</v>
@@ -10280,10 +10280,10 @@
         <v>37915</v>
       </c>
       <c r="B210" s="1" t="n">
-        <v>37915</v>
+        <v>37871</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>37915</v>
+        <v>37884</v>
       </c>
       <c r="D210" s="1" t="n">
         <v>37877</v>
@@ -10327,10 +10327,10 @@
         <v>38023</v>
       </c>
       <c r="B211" s="1" t="n">
-        <v>38023</v>
+        <v>38019</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>38023</v>
+        <v>38020</v>
       </c>
       <c r="D211" s="1" t="n">
         <v>38019</v>
@@ -10374,10 +10374,10 @@
         <v>38067</v>
       </c>
       <c r="B212" s="1" t="n">
-        <v>38067</v>
+        <v>38062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>38067</v>
+        <v>38062</v>
       </c>
       <c r="D212" s="1" t="n">
         <v>38062</v>
@@ -10421,10 +10421,10 @@
         <v>38129</v>
       </c>
       <c r="B213" s="1" t="n">
-        <v>38129</v>
+        <v>38125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>38129</v>
+        <v>38126</v>
       </c>
       <c r="D213" s="1" t="n">
         <v>38125</v>
@@ -10468,10 +10468,10 @@
         <v>38143</v>
       </c>
       <c r="B214" s="1" t="n">
-        <v>38143</v>
+        <v>38139</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>38143</v>
+        <v>38140</v>
       </c>
       <c r="D214" s="1" t="n">
         <v>38139</v>
@@ -10515,10 +10515,10 @@
         <v>38268</v>
       </c>
       <c r="B215" s="1" t="n">
-        <v>38268</v>
+        <v>38264</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>38268</v>
+        <v>38265</v>
       </c>
       <c r="D215" s="1" t="n">
         <v>38264</v>
@@ -10562,10 +10562,10 @@
         <v>38313</v>
       </c>
       <c r="B216" s="1" t="n">
-        <v>38313</v>
+        <v>38308</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>38313</v>
+        <v>38309</v>
       </c>
       <c r="D216" s="1" t="n">
         <v>38308</v>
@@ -10609,10 +10609,10 @@
         <v>38373</v>
       </c>
       <c r="B217" s="1" t="n">
-        <v>38373</v>
+        <v>38369</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>38373</v>
+        <v>38370</v>
       </c>
       <c r="D217" s="1" t="n">
         <v>38369</v>
@@ -10656,10 +10656,10 @@
         <v>38409</v>
       </c>
       <c r="B218" s="1" t="n">
-        <v>38409</v>
+        <v>38395</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>38409</v>
+        <v>38408</v>
       </c>
       <c r="D218" s="1" t="n">
         <v>38401</v>
@@ -10703,10 +10703,10 @@
         <v>38415</v>
       </c>
       <c r="B219" s="1" t="n">
-        <v>38415</v>
+        <v>38411</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>38415</v>
+        <v>38412</v>
       </c>
       <c r="D219" s="1" t="n">
         <v>38411</v>
@@ -10750,10 +10750,10 @@
         <v>38426</v>
       </c>
       <c r="B220" s="1" t="n">
-        <v>38426</v>
+        <v>38412</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>38426</v>
+        <v>38442</v>
       </c>
       <c r="D220" s="1" t="n">
         <v>38427</v>
@@ -10797,10 +10797,10 @@
         <v>38446</v>
       </c>
       <c r="B221" s="1" t="n">
-        <v>38446</v>
+        <v>38442</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>38446</v>
+        <v>38442</v>
       </c>
       <c r="D221" s="1" t="n">
         <v>38442</v>
@@ -10844,7 +10844,7 @@
         <v>38489</v>
       </c>
       <c r="B222" s="1" t="n">
-        <v>38489</v>
+        <v>38473</v>
       </c>
       <c r="C222" s="1" t="n">
         <v>38489</v>
@@ -10891,10 +10891,10 @@
         <v>38514</v>
       </c>
       <c r="B223" s="1" t="n">
-        <v>38514</v>
+        <v>38875</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>38514</v>
+        <v>38511</v>
       </c>
       <c r="D223" s="1" t="n">
         <v>38693</v>
@@ -10938,10 +10938,10 @@
         <v>38610</v>
       </c>
       <c r="B224" s="1" t="n">
-        <v>38610</v>
+        <v>38596</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>38610</v>
+        <v>38625</v>
       </c>
       <c r="D224" s="1" t="n">
         <v>38610</v>
@@ -10985,10 +10985,10 @@
         <v>38615</v>
       </c>
       <c r="B225" s="1" t="n">
-        <v>38615</v>
+        <v>38608</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>38615</v>
+        <v>38608</v>
       </c>
       <c r="D225" s="1" t="n">
         <v>38608</v>
@@ -11032,10 +11032,10 @@
         <v>38618</v>
       </c>
       <c r="B226" s="1" t="n">
-        <v>38618</v>
+        <v>38614</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>38618</v>
+        <v>38615</v>
       </c>
       <c r="D226" s="1" t="n">
         <v>38614</v>
@@ -11079,10 +11079,10 @@
         <v>38692</v>
       </c>
       <c r="B227" s="1" t="n">
-        <v>38692</v>
+        <v>38682</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>38692</v>
+        <v>38683</v>
       </c>
       <c r="D227" s="1" t="n">
         <v>38682</v>
@@ -11126,10 +11126,10 @@
         <v>38701</v>
       </c>
       <c r="B228" s="1" t="n">
-        <v>38701</v>
+        <v>38687</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>38701</v>
+        <v>38700</v>
       </c>
       <c r="D228" s="1" t="n">
         <v>38693</v>
@@ -11173,10 +11173,10 @@
         <v>38737</v>
       </c>
       <c r="B229" s="1" t="n">
-        <v>38737</v>
+        <v>38733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>38737</v>
+        <v>38734</v>
       </c>
       <c r="D229" s="1" t="n">
         <v>38733</v>
@@ -11220,7 +11220,7 @@
         <v>38742</v>
       </c>
       <c r="B230" s="1" t="n">
-        <v>38742</v>
+        <v>38737</v>
       </c>
       <c r="C230" s="1" t="n">
         <v>38742</v>
@@ -11267,7 +11267,7 @@
         <v>38770</v>
       </c>
       <c r="B231" s="1" t="n">
-        <v>38770</v>
+        <v>38768</v>
       </c>
       <c r="C231" s="1" t="n">
         <v>38770</v>
@@ -11314,7 +11314,7 @@
         <v>38798</v>
       </c>
       <c r="B232" s="1" t="n">
-        <v>38798</v>
+        <v>38796</v>
       </c>
       <c r="C232" s="1" t="n">
         <v>38798</v>
@@ -11361,7 +11361,7 @@
         <v>38833</v>
       </c>
       <c r="B233" s="1" t="n">
-        <v>38833</v>
+        <v>38831</v>
       </c>
       <c r="C233" s="1" t="n">
         <v>38833</v>
@@ -11408,10 +11408,10 @@
         <v>38856</v>
       </c>
       <c r="B234" s="1" t="n">
-        <v>38856</v>
+        <v>38852</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>38856</v>
+        <v>38853</v>
       </c>
       <c r="D234" s="1" t="n">
         <v>38852</v>
@@ -11455,7 +11455,7 @@
         <v>38861</v>
       </c>
       <c r="B235" s="1" t="n">
-        <v>38861</v>
+        <v>38859</v>
       </c>
       <c r="C235" s="1" t="n">
         <v>38861</v>
@@ -11502,7 +11502,7 @@
         <v>38896</v>
       </c>
       <c r="B236" s="1" t="n">
-        <v>38896</v>
+        <v>38894</v>
       </c>
       <c r="C236" s="1" t="n">
         <v>38896</v>
@@ -11549,7 +11549,7 @@
         <v>38924</v>
       </c>
       <c r="B237" s="1" t="n">
-        <v>38924</v>
+        <v>38922</v>
       </c>
       <c r="C237" s="1" t="n">
         <v>38924</v>
@@ -11596,10 +11596,10 @@
         <v>38970</v>
       </c>
       <c r="B238" s="1" t="n">
-        <v>38970</v>
+        <v>38961</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>38970</v>
+        <v>38966</v>
       </c>
       <c r="D238" s="1" t="n">
         <v>38963</v>
@@ -11643,7 +11643,7 @@
         <v>38980</v>
       </c>
       <c r="B239" s="1" t="n">
-        <v>38980</v>
+        <v>38978</v>
       </c>
       <c r="C239" s="1" t="n">
         <v>38980</v>
@@ -11690,10 +11690,10 @@
         <v>39005</v>
       </c>
       <c r="B240" s="1" t="n">
-        <v>39005</v>
+        <v>38991</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>39005</v>
+        <v>39004</v>
       </c>
       <c r="D240" s="1" t="n">
         <v>38997</v>
@@ -11737,10 +11737,10 @@
         <v>39003</v>
       </c>
       <c r="B241" s="1" t="n">
-        <v>39003</v>
+        <v>38999</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>39003</v>
+        <v>39000</v>
       </c>
       <c r="D241" s="1" t="n">
         <v>38999</v>
@@ -11784,7 +11784,7 @@
         <v>39015</v>
       </c>
       <c r="B242" s="1" t="n">
-        <v>39015</v>
+        <v>39013</v>
       </c>
       <c r="C242" s="1" t="n">
         <v>39015</v>
@@ -11831,7 +11831,7 @@
         <v>39043</v>
       </c>
       <c r="B243" s="1" t="n">
-        <v>39043</v>
+        <v>39041</v>
       </c>
       <c r="C243" s="1" t="n">
         <v>39043</v>
@@ -11878,7 +11878,7 @@
         <v>39051</v>
       </c>
       <c r="B244" s="1" t="n">
-        <v>39051</v>
+        <v>39022</v>
       </c>
       <c r="C244" s="1" t="n">
         <v>39051</v>
@@ -11923,10 +11923,10 @@
         <v>39052</v>
       </c>
       <c r="B245" s="1" t="n">
-        <v>39052</v>
+        <v>39048</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>39052</v>
+        <v>39049</v>
       </c>
       <c r="D245" s="1" t="n">
         <v>39048</v>
@@ -11970,7 +11970,7 @@
         <v>39106</v>
       </c>
       <c r="B246" s="1" t="n">
-        <v>39106</v>
+        <v>39104</v>
       </c>
       <c r="C246" s="1" t="n">
         <v>39106</v>
@@ -12017,10 +12017,10 @@
         <v>39097</v>
       </c>
       <c r="B247" s="1" t="n">
-        <v>39097</v>
+        <v>39091</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>39097</v>
+        <v>39092</v>
       </c>
       <c r="D247" s="1" t="n">
         <v>39091</v>
@@ -12064,7 +12064,7 @@
         <v>39112</v>
       </c>
       <c r="B248" s="1" t="n">
-        <v>39112</v>
+        <v>39083</v>
       </c>
       <c r="C248" s="1" t="n">
         <v>39112</v>
@@ -12109,10 +12109,10 @@
         <v>39115</v>
       </c>
       <c r="B249" s="1" t="n">
-        <v>39115</v>
+        <v>39111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>39115</v>
+        <v>39112</v>
       </c>
       <c r="D249" s="1" t="n">
         <v>39111</v>
@@ -12156,7 +12156,7 @@
         <v>39134</v>
       </c>
       <c r="B250" s="1" t="n">
-        <v>39134</v>
+        <v>39132</v>
       </c>
       <c r="C250" s="1" t="n">
         <v>39134</v>
@@ -12203,7 +12203,7 @@
         <v>39162</v>
       </c>
       <c r="B251" s="1" t="n">
-        <v>39162</v>
+        <v>39160</v>
       </c>
       <c r="C251" s="1" t="n">
         <v>39162</v>
@@ -12250,7 +12250,7 @@
         <v>39190</v>
       </c>
       <c r="B252" s="1" t="n">
-        <v>39190</v>
+        <v>39188</v>
       </c>
       <c r="C252" s="1" t="n">
         <v>39190</v>
@@ -12297,10 +12297,10 @@
         <v>39195</v>
       </c>
       <c r="B253" s="1" t="n">
-        <v>39195</v>
+        <v>39188</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>39195</v>
+        <v>39189</v>
       </c>
       <c r="D253" s="1" t="n">
         <v>39188</v>
@@ -12344,10 +12344,10 @@
         <v>39199</v>
       </c>
       <c r="B254" s="1" t="n">
-        <v>39199</v>
+        <v>39195</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>39199</v>
+        <v>39196</v>
       </c>
       <c r="D254" s="1" t="n">
         <v>39195</v>
@@ -12391,10 +12391,10 @@
         <v>39209</v>
       </c>
       <c r="B255" s="1" t="n">
-        <v>39209</v>
+        <v>39202</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>39209</v>
+        <v>39204</v>
       </c>
       <c r="D255" s="1" t="n">
         <v>39203</v>
@@ -12438,10 +12438,10 @@
         <v>39213</v>
       </c>
       <c r="B256" s="1" t="n">
-        <v>39213</v>
+        <v>39210</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>39213</v>
+        <v>39211</v>
       </c>
       <c r="D256" s="1" t="n">
         <v>39210</v>
@@ -12485,10 +12485,10 @@
         <v>39215</v>
       </c>
       <c r="B257" s="1" t="n">
-        <v>39215</v>
+        <v>39209</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>39215</v>
+        <v>39211</v>
       </c>
       <c r="D257" s="1" t="n">
         <v>39210</v>
@@ -12532,10 +12532,10 @@
         <v>39217</v>
       </c>
       <c r="B258" s="1" t="n">
-        <v>39217</v>
+        <v>39211</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>39217</v>
+        <v>39212</v>
       </c>
       <c r="D258" s="1" t="n">
         <v>39211</v>
@@ -12579,10 +12579,10 @@
         <v>39222</v>
       </c>
       <c r="B259" s="1" t="n">
-        <v>39222</v>
+        <v>39218</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>39222</v>
+        <v>39220</v>
       </c>
       <c r="D259" s="1" t="n">
         <v>39219</v>
@@ -12626,10 +12626,10 @@
         <v>39223</v>
       </c>
       <c r="B260" s="1" t="n">
-        <v>39223</v>
+        <v>39216</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>39223</v>
+        <v>39217</v>
       </c>
       <c r="D260" s="1" t="n">
         <v>39216</v>
@@ -12673,10 +12673,10 @@
         <v>39223</v>
       </c>
       <c r="B261" s="1" t="n">
-        <v>39223</v>
+        <v>39220</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>39223</v>
+        <v>39221</v>
       </c>
       <c r="D261" s="1" t="n">
         <v>39220</v>
@@ -12720,10 +12720,10 @@
         <v>39225</v>
       </c>
       <c r="B262" s="1" t="n">
-        <v>39225</v>
+        <v>39223</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>39225</v>
+        <v>39224</v>
       </c>
       <c r="D262" s="1" t="n">
         <v>39223</v>
@@ -12767,10 +12767,10 @@
         <v>39348</v>
       </c>
       <c r="B263" s="1" t="n">
-        <v>39348</v>
+        <v>39342</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>39348</v>
+        <v>39344</v>
       </c>
       <c r="D263" s="1" t="n">
         <v>39343</v>
@@ -12814,10 +12814,10 @@
         <v>39383</v>
       </c>
       <c r="B264" s="1" t="n">
-        <v>39383</v>
+        <v>39377</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>39383</v>
+        <v>39379</v>
       </c>
       <c r="D264" s="1" t="n">
         <v>39378</v>
@@ -12861,10 +12861,10 @@
         <v>39388</v>
       </c>
       <c r="B265" s="1" t="n">
-        <v>39388</v>
+        <v>39384</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>39388</v>
+        <v>39385</v>
       </c>
       <c r="D265" s="1" t="n">
         <v>39384</v>
@@ -12908,10 +12908,10 @@
         <v>39411</v>
       </c>
       <c r="B266" s="1" t="n">
-        <v>39411</v>
+        <v>39374</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>39411</v>
+        <v>39376</v>
       </c>
       <c r="D266" s="1" t="n">
         <v>39375</v>
@@ -12955,10 +12955,10 @@
         <v>39472</v>
       </c>
       <c r="B267" s="1" t="n">
-        <v>39472</v>
+        <v>39468</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>39472</v>
+        <v>39469</v>
       </c>
       <c r="D267" s="1" t="n">
         <v>39468</v>
@@ -13002,10 +13002,10 @@
         <v>39474</v>
       </c>
       <c r="B268" s="1" t="n">
-        <v>39474</v>
+        <v>39468</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>39474</v>
+        <v>39470</v>
       </c>
       <c r="D268" s="1" t="n">
         <v>39469</v>
@@ -13049,10 +13049,10 @@
         <v>39509</v>
       </c>
       <c r="B269" s="1" t="n">
-        <v>39509</v>
+        <v>39503</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>39509</v>
+        <v>39505</v>
       </c>
       <c r="D269" s="1" t="n">
         <v>39504</v>
@@ -13096,10 +13096,10 @@
         <v>39537</v>
       </c>
       <c r="B270" s="1" t="n">
-        <v>39537</v>
+        <v>39527</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>39537</v>
+        <v>39533</v>
       </c>
       <c r="D270" s="1" t="n">
         <v>39530</v>
@@ -13143,10 +13143,10 @@
         <v>39565</v>
       </c>
       <c r="B271" s="1" t="n">
-        <v>39565</v>
+        <v>39559</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>39565</v>
+        <v>39561</v>
       </c>
       <c r="D271" s="1" t="n">
         <v>39560</v>
@@ -13190,10 +13190,10 @@
         <v>39584</v>
       </c>
       <c r="B272" s="1" t="n">
-        <v>39584</v>
+        <v>39580</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>39584</v>
+        <v>39581</v>
       </c>
       <c r="D272" s="1" t="n">
         <v>39580</v>
@@ -13237,10 +13237,10 @@
         <v>39593</v>
       </c>
       <c r="B273" s="1" t="n">
-        <v>39593</v>
+        <v>39587</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>39593</v>
+        <v>39589</v>
       </c>
       <c r="D273" s="1" t="n">
         <v>39588</v>
@@ -13284,10 +13284,10 @@
         <v>39606</v>
       </c>
       <c r="B274" s="1" t="n">
-        <v>39606</v>
+        <v>39602</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>39606</v>
+        <v>39603</v>
       </c>
       <c r="D274" s="1" t="n">
         <v>39602</v>
@@ -13331,10 +13331,10 @@
         <v>39621</v>
       </c>
       <c r="B275" s="1" t="n">
-        <v>39621</v>
+        <v>39615</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>39621</v>
+        <v>39617</v>
       </c>
       <c r="D275" s="1" t="n">
         <v>39616</v>
@@ -13378,10 +13378,10 @@
         <v>39712</v>
       </c>
       <c r="B276" s="1" t="n">
-        <v>39712</v>
+        <v>39706</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>39712</v>
+        <v>39708</v>
       </c>
       <c r="D276" s="1" t="n">
         <v>39707</v>
@@ -13425,10 +13425,10 @@
         <v>39747</v>
       </c>
       <c r="B277" s="1" t="n">
-        <v>39747</v>
+        <v>39741</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>39747</v>
+        <v>39743</v>
       </c>
       <c r="D277" s="1" t="n">
         <v>39742</v>
@@ -13472,10 +13472,10 @@
         <v>39766</v>
       </c>
       <c r="B278" s="1" t="n">
-        <v>39766</v>
+        <v>39762</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>39766</v>
+        <v>39763</v>
       </c>
       <c r="D278" s="1" t="n">
         <v>39762</v>
@@ -13517,10 +13517,10 @@
         <v>39775</v>
       </c>
       <c r="B279" s="1" t="n">
-        <v>39775</v>
+        <v>39769</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>39775</v>
+        <v>39771</v>
       </c>
       <c r="D279" s="1" t="n">
         <v>39770</v>
@@ -13562,10 +13562,10 @@
         <v>39845</v>
       </c>
       <c r="B280" s="1" t="n">
-        <v>39845</v>
+        <v>39839</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>39845</v>
+        <v>39841</v>
       </c>
       <c r="D280" s="1" t="n">
         <v>39840</v>
@@ -13607,10 +13607,10 @@
         <v>39857</v>
       </c>
       <c r="B281" s="1" t="n">
-        <v>39857</v>
+        <v>39853</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>39857</v>
+        <v>39854</v>
       </c>
       <c r="D281" s="1" t="n">
         <v>39853</v>
@@ -13652,10 +13652,10 @@
         <v>39871</v>
       </c>
       <c r="B282" s="1" t="n">
-        <v>39871</v>
+        <v>39867</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>39871</v>
+        <v>39868</v>
       </c>
       <c r="D282" s="1" t="n">
         <v>39867</v>
@@ -13697,10 +13697,10 @@
         <v>39873</v>
       </c>
       <c r="B283" s="1" t="n">
-        <v>39873</v>
+        <v>39956</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>39873</v>
+        <v>39958</v>
       </c>
       <c r="D283" s="1" t="n">
         <v>39957</v>
@@ -13742,10 +13742,10 @@
         <v>39901</v>
       </c>
       <c r="B284" s="1" t="n">
-        <v>39901</v>
+        <v>39895</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>39901</v>
+        <v>39897</v>
       </c>
       <c r="D284" s="1" t="n">
         <v>39896</v>
@@ -13787,10 +13787,10 @@
         <v>39929</v>
       </c>
       <c r="B285" s="1" t="n">
-        <v>39929</v>
+        <v>39923</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>39929</v>
+        <v>39925</v>
       </c>
       <c r="D285" s="1" t="n">
         <v>39924</v>
@@ -13832,10 +13832,10 @@
         <v>39948</v>
       </c>
       <c r="B286" s="1" t="n">
-        <v>39948</v>
+        <v>39945</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>39948</v>
+        <v>39946</v>
       </c>
       <c r="D286" s="1" t="n">
         <v>39945</v>
@@ -13877,10 +13877,10 @@
         <v>39950</v>
       </c>
       <c r="B287" s="1" t="n">
-        <v>39950</v>
+        <v>39944</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>39950</v>
+        <v>39946</v>
       </c>
       <c r="D287" s="1" t="n">
         <v>39945</v>
@@ -13922,7 +13922,7 @@
         <v>39962</v>
       </c>
       <c r="B288" s="1" t="n">
-        <v>39962</v>
+        <v>39959</v>
       </c>
       <c r="C288" s="1" t="n">
         <v>39962</v>
@@ -13967,10 +13967,10 @@
         <v>39964</v>
       </c>
       <c r="B289" s="1" t="n">
-        <v>39964</v>
+        <v>39958</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>39964</v>
+        <v>39960</v>
       </c>
       <c r="D289" s="1" t="n">
         <v>39959</v>
@@ -14012,10 +14012,10 @@
         <v>40059</v>
       </c>
       <c r="B290" s="1" t="n">
-        <v>40059</v>
+        <v>40056</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>40059</v>
+        <v>40057</v>
       </c>
       <c r="D290" s="1" t="n">
         <v>40056</v>
@@ -14059,10 +14059,10 @@
         <v>40069</v>
       </c>
       <c r="B291" s="1" t="n">
-        <v>40069</v>
+        <v>40063</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>40069</v>
+        <v>40065</v>
       </c>
       <c r="D291" s="1" t="n">
         <v>40064</v>
@@ -14104,10 +14104,10 @@
         <v>40082</v>
       </c>
       <c r="B292" s="1" t="n">
-        <v>40082</v>
+        <v>40078</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>40082</v>
+        <v>40079</v>
       </c>
       <c r="D292" s="1" t="n">
         <v>40078</v>
@@ -14149,10 +14149,10 @@
         <v>40083</v>
       </c>
       <c r="B293" s="1" t="n">
-        <v>40083</v>
+        <v>40077</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>40083</v>
+        <v>40079</v>
       </c>
       <c r="D293" s="1" t="n">
         <v>40078</v>
@@ -14194,10 +14194,10 @@
         <v>40111</v>
       </c>
       <c r="B294" s="1" t="n">
-        <v>40111</v>
+        <v>40105</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>40111</v>
+        <v>40107</v>
       </c>
       <c r="D294" s="1" t="n">
         <v>40106</v>
@@ -14239,10 +14239,10 @@
         <v>40139</v>
       </c>
       <c r="B295" s="1" t="n">
-        <v>40139</v>
+        <v>40133</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>40139</v>
+        <v>40135</v>
       </c>
       <c r="D295" s="1" t="n">
         <v>40134</v>
@@ -14284,10 +14284,10 @@
         <v>40200</v>
       </c>
       <c r="B296" s="1" t="n">
-        <v>40200</v>
+        <v>40196</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>40200</v>
+        <v>40197</v>
       </c>
       <c r="D296" s="1" t="n">
         <v>40196</v>
@@ -14329,10 +14329,10 @@
         <v>40209</v>
       </c>
       <c r="B297" s="1" t="n">
-        <v>40209</v>
+        <v>40203</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>40209</v>
+        <v>40205</v>
       </c>
       <c r="D297" s="1" t="n">
         <v>40204</v>
@@ -14374,10 +14374,10 @@
         <v>40222</v>
       </c>
       <c r="B298" s="1" t="n">
-        <v>40222</v>
+        <v>40219</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>40222</v>
+        <v>40220</v>
       </c>
       <c r="D298" s="1" t="n">
         <v>40219</v>
@@ -14419,10 +14419,10 @@
         <v>40237</v>
       </c>
       <c r="B299" s="1" t="n">
-        <v>40237</v>
+        <v>40231</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>40237</v>
+        <v>40233</v>
       </c>
       <c r="D299" s="1" t="n">
         <v>40232</v>
@@ -14464,10 +14464,10 @@
         <v>40265</v>
       </c>
       <c r="B300" s="1" t="n">
-        <v>40265</v>
+        <v>40259</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>40265</v>
+        <v>40261</v>
       </c>
       <c r="D300" s="1" t="n">
         <v>40260</v>
@@ -14509,10 +14509,10 @@
         <v>40300</v>
       </c>
       <c r="B301" s="1" t="n">
-        <v>40300</v>
+        <v>40294</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>40300</v>
+        <v>40296</v>
       </c>
       <c r="D301" s="1" t="n">
         <v>40295</v>
@@ -14554,10 +14554,10 @@
         <v>40328</v>
       </c>
       <c r="B302" s="1" t="n">
-        <v>40328</v>
+        <v>40322</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>40328</v>
+        <v>40324</v>
       </c>
       <c r="D302" s="1" t="n">
         <v>40323</v>
@@ -14599,10 +14599,10 @@
         <v>40340</v>
       </c>
       <c r="B303" s="1" t="n">
-        <v>40340</v>
+        <v>40337</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>40340</v>
+        <v>40338</v>
       </c>
       <c r="D303" s="1" t="n">
         <v>40337</v>
@@ -14644,10 +14644,10 @@
         <v>40356</v>
       </c>
       <c r="B304" s="1" t="n">
-        <v>40356</v>
+        <v>40350</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>40356</v>
+        <v>40352</v>
       </c>
       <c r="D304" s="1" t="n">
         <v>40351</v>
@@ -14689,10 +14689,10 @@
         <v>40356</v>
       </c>
       <c r="B305" s="1" t="n">
-        <v>40356</v>
+        <v>40350</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>40356</v>
+        <v>40352</v>
       </c>
       <c r="D305" s="1" t="n">
         <v>40351</v>
@@ -14734,10 +14734,10 @@
         <v>40444</v>
       </c>
       <c r="B306" s="1" t="n">
-        <v>40444</v>
+        <v>40429</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>40444</v>
+        <v>40443</v>
       </c>
       <c r="D306" s="1" t="n">
         <v>40436</v>
@@ -14779,10 +14779,10 @@
         <v>40451</v>
       </c>
       <c r="B307" s="1" t="n">
-        <v>40451</v>
+        <v>40448</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>40451</v>
+        <v>40449</v>
       </c>
       <c r="D307" s="1" t="n">
         <v>40448</v>
@@ -14824,10 +14824,10 @@
         <v>40475</v>
       </c>
       <c r="B308" s="1" t="n">
-        <v>40475</v>
+        <v>40469</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>40475</v>
+        <v>40471</v>
       </c>
       <c r="D308" s="1" t="n">
         <v>40470</v>
@@ -14869,10 +14869,10 @@
         <v>40503</v>
       </c>
       <c r="B309" s="1" t="n">
-        <v>40503</v>
+        <v>40497</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>40503</v>
+        <v>40499</v>
       </c>
       <c r="D309" s="1" t="n">
         <v>40498</v>
@@ -14914,10 +14914,10 @@
         <v>40515</v>
       </c>
       <c r="B310" s="1" t="n">
-        <v>40515</v>
+        <v>40511</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>40515</v>
+        <v>40513</v>
       </c>
       <c r="D310" s="1" t="n">
         <v>40512</v>
@@ -14959,10 +14959,10 @@
         <v>40528</v>
       </c>
       <c r="B311" s="1" t="n">
-        <v>40528</v>
+        <v>40525</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>40528</v>
+        <v>40526</v>
       </c>
       <c r="D311" s="1" t="n">
         <v>40525</v>
@@ -15004,10 +15004,10 @@
         <v>40531</v>
       </c>
       <c r="B312" s="1" t="n">
-        <v>40531</v>
+        <v>40525</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>40531</v>
+        <v>40527</v>
       </c>
       <c r="D312" s="1" t="n">
         <v>40526</v>
@@ -15049,10 +15049,10 @@
         <v>40550</v>
       </c>
       <c r="B313" s="1" t="n">
-        <v>40550</v>
+        <v>40547</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>40550</v>
+        <v>40549</v>
       </c>
       <c r="D313" s="1" t="n">
         <v>40548</v>
@@ -15094,10 +15094,10 @@
         <v>40573</v>
       </c>
       <c r="B314" s="1" t="n">
-        <v>40573</v>
+        <v>40569</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>40573</v>
+        <v>40570</v>
       </c>
       <c r="D314" s="1" t="n">
         <v>40569</v>
@@ -15139,10 +15139,10 @@
         <v>40573</v>
       </c>
       <c r="B315" s="1" t="n">
-        <v>40573</v>
+        <v>40569</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>40573</v>
+        <v>40570</v>
       </c>
       <c r="D315" s="1" t="n">
         <v>40569</v>
@@ -15184,10 +15184,10 @@
         <v>40575</v>
       </c>
       <c r="B316" s="1" t="n">
-        <v>40575</v>
+        <v>40572</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>40575</v>
+        <v>40574</v>
       </c>
       <c r="D316" s="1" t="n">
         <v>40573</v>
@@ -15229,10 +15229,10 @@
         <v>40576</v>
       </c>
       <c r="B317" s="1" t="n">
-        <v>40576</v>
+        <v>40572</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>40576</v>
+        <v>40575</v>
       </c>
       <c r="D317" s="1" t="n">
         <v>40573</v>
@@ -15274,10 +15274,10 @@
         <v>40577</v>
       </c>
       <c r="B318" s="1" t="n">
-        <v>40577</v>
+        <v>40574</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>40577</v>
+        <v>40575</v>
       </c>
       <c r="D318" s="1" t="n">
         <v>40574</v>
@@ -15319,10 +15319,10 @@
         <v>40580</v>
       </c>
       <c r="B319" s="1" t="n">
-        <v>40580</v>
+        <v>40575</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>40580</v>
+        <v>40576</v>
       </c>
       <c r="D319" s="1" t="n">
         <v>40575</v>
@@ -15364,10 +15364,10 @@
         <v>40587</v>
       </c>
       <c r="B320" s="1" t="n">
-        <v>40587</v>
+        <v>40582</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>40587</v>
+        <v>40584</v>
       </c>
       <c r="D320" s="1" t="n">
         <v>40583</v>
@@ -15409,10 +15409,10 @@
         <v>40590</v>
       </c>
       <c r="B321" s="1" t="n">
-        <v>40590</v>
+        <v>40586</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>40590</v>
+        <v>40588</v>
       </c>
       <c r="D321" s="1" t="n">
         <v>40587</v>
@@ -15454,10 +15454,10 @@
         <v>40591</v>
       </c>
       <c r="B322" s="1" t="n">
-        <v>40591</v>
+        <v>40586</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>40591</v>
+        <v>40588</v>
       </c>
       <c r="D322" s="1" t="n">
         <v>40587</v>
@@ -15501,10 +15501,10 @@
         <v>40594</v>
       </c>
       <c r="B323" s="1" t="n">
-        <v>40594</v>
+        <v>40589</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>40594</v>
+        <v>40591</v>
       </c>
       <c r="D323" s="1" t="n">
         <v>40590</v>
@@ -15546,10 +15546,10 @@
         <v>40594</v>
       </c>
       <c r="B324" s="1" t="n">
-        <v>40594</v>
+        <v>40590</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>40594</v>
+        <v>40591</v>
       </c>
       <c r="D324" s="1" t="n">
         <v>40590</v>
@@ -15591,10 +15591,10 @@
         <v>40595</v>
       </c>
       <c r="B325" s="1" t="n">
-        <v>40595</v>
+        <v>40591</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>40595</v>
+        <v>40592</v>
       </c>
       <c r="D325" s="1" t="n">
         <v>40591</v>
@@ -15636,10 +15636,10 @@
         <v>40597</v>
       </c>
       <c r="B326" s="1" t="n">
-        <v>40597</v>
+        <v>40593</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>40597</v>
+        <v>40596</v>
       </c>
       <c r="D326" s="1" t="n">
         <v>40594</v>
@@ -15681,10 +15681,10 @@
         <v>40597</v>
       </c>
       <c r="B327" s="1" t="n">
-        <v>40597</v>
+        <v>40593</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>40597</v>
+        <v>40595</v>
       </c>
       <c r="D327" s="1" t="n">
         <v>40594</v>
@@ -15726,10 +15726,10 @@
         <v>40643</v>
       </c>
       <c r="B328" s="1" t="n">
-        <v>40643</v>
+        <v>40637</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>40643</v>
+        <v>40639</v>
       </c>
       <c r="D328" s="1" t="n">
         <v>40638</v>
@@ -15771,10 +15771,10 @@
         <v>40692</v>
       </c>
       <c r="B329" s="1" t="n">
-        <v>40692</v>
+        <v>40687</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>40692</v>
+        <v>40689</v>
       </c>
       <c r="D329" s="1" t="n">
         <v>40688</v>
@@ -15819,7 +15819,7 @@
         <v>40716</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>40716</v>
+        <v>40717</v>
       </c>
       <c r="D330" s="1" t="n">
         <v>40716</v>
@@ -15861,10 +15861,10 @@
         <v>40745</v>
       </c>
       <c r="B331" s="1" t="n">
-        <v>40745</v>
+        <v>40739</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>40745</v>
+        <v>40742</v>
       </c>
       <c r="D331" s="1" t="n">
         <v>40740</v>
@@ -15906,7 +15906,7 @@
         <v>40779</v>
       </c>
       <c r="B332" s="1" t="n">
-        <v>40779</v>
+        <v>40771</v>
       </c>
       <c r="C332" s="1" t="n">
         <v>40779</v>
@@ -15951,10 +15951,10 @@
         <v>40803</v>
       </c>
       <c r="B333" s="1" t="n">
-        <v>40803</v>
+        <v>40785</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>40803</v>
+        <v>40738</v>
       </c>
       <c r="D333" s="1" t="n">
         <v>40761</v>
@@ -15996,10 +15996,10 @@
         <v>40811</v>
       </c>
       <c r="B334" s="1" t="n">
-        <v>40811</v>
+        <v>40805</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>40811</v>
+        <v>40807</v>
       </c>
       <c r="D334" s="1" t="n">
         <v>40806</v>
@@ -16041,7 +16041,7 @@
         <v>40818</v>
       </c>
       <c r="B335" s="1" t="n">
-        <v>40818</v>
+        <v>40806</v>
       </c>
       <c r="C335" s="1" t="n">
         <v>40818</v>
@@ -16086,10 +16086,10 @@
         <v>40823</v>
       </c>
       <c r="B336" s="1" t="n">
-        <v>40823</v>
+        <v>40819</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>40823</v>
+        <v>40820</v>
       </c>
       <c r="D336" s="1" t="n">
         <v>40819</v>
@@ -16131,7 +16131,7 @@
         <v>40834</v>
       </c>
       <c r="B337" s="1" t="n">
-        <v>40834</v>
+        <v>40832</v>
       </c>
       <c r="C337" s="1" t="n">
         <v>40834</v>
@@ -16176,10 +16176,10 @@
         <v>40839</v>
       </c>
       <c r="B338" s="1" t="n">
-        <v>40839</v>
+        <v>40834</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>40839</v>
+        <v>40836</v>
       </c>
       <c r="D338" s="1" t="n">
         <v>40835</v>
@@ -16221,10 +16221,10 @@
         <v>40841</v>
       </c>
       <c r="B339" s="1" t="n">
-        <v>40841</v>
+        <v>40837</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>40841</v>
+        <v>40840</v>
       </c>
       <c r="D339" s="1" t="n">
         <v>40838</v>
@@ -16266,10 +16266,10 @@
         <v>40881</v>
       </c>
       <c r="B340" s="1" t="n">
-        <v>40881</v>
+        <v>40875</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>40881</v>
+        <v>40877</v>
       </c>
       <c r="D340" s="1" t="n">
         <v>40876</v>
@@ -16311,7 +16311,7 @@
         <v>40889</v>
       </c>
       <c r="B341" s="1" t="n">
-        <v>40889</v>
+        <v>40884</v>
       </c>
       <c r="C341" s="1" t="n">
         <v>40889</v>
@@ -16356,10 +16356,10 @@
         <v>40920</v>
       </c>
       <c r="B342" s="1" t="n">
-        <v>40920</v>
+        <v>40917</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>40920</v>
+        <v>40919</v>
       </c>
       <c r="D342" s="1" t="n">
         <v>40918</v>
@@ -16401,10 +16401,10 @@
         <v>40937</v>
       </c>
       <c r="B343" s="1" t="n">
-        <v>40937</v>
+        <v>40931</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>40937</v>
+        <v>40933</v>
       </c>
       <c r="D343" s="1" t="n">
         <v>40932</v>
@@ -16446,10 +16446,10 @@
         <v>40965</v>
       </c>
       <c r="B344" s="1" t="n">
-        <v>40965</v>
+        <v>40954</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>40965</v>
+        <v>40959</v>
       </c>
       <c r="D344" s="1" t="n">
         <v>40956</v>
@@ -16491,10 +16491,10 @@
         <v>40972</v>
       </c>
       <c r="B345" s="1" t="n">
-        <v>40972</v>
+        <v>40966</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>40972</v>
+        <v>40968</v>
       </c>
       <c r="D345" s="1" t="n">
         <v>40967</v>
@@ -16536,10 +16536,10 @@
         <v>40993</v>
       </c>
       <c r="B346" s="1" t="n">
-        <v>40993</v>
+        <v>40987</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>40993</v>
+        <v>40989</v>
       </c>
       <c r="D346" s="1" t="n">
         <v>40988</v>
@@ -16581,10 +16581,10 @@
         <v>40998</v>
       </c>
       <c r="B347" s="1" t="n">
-        <v>40998</v>
+        <v>40994</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>40998</v>
+        <v>40996</v>
       </c>
       <c r="D347" s="1" t="n">
         <v>40995</v>
@@ -16624,10 +16624,10 @@
         <v>41019</v>
       </c>
       <c r="B348" s="1" t="n">
-        <v>41019</v>
+        <v>41015</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>41019</v>
+        <v>41016</v>
       </c>
       <c r="D348" s="1" t="n">
         <v>41015</v>
@@ -16669,10 +16669,10 @@
         <v>41021</v>
       </c>
       <c r="B349" s="1" t="n">
-        <v>41021</v>
+        <v>41010</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>41021</v>
+        <v>41016</v>
       </c>
       <c r="D349" s="1" t="n">
         <v>41013</v>
@@ -16714,10 +16714,10 @@
         <v>41028</v>
       </c>
       <c r="B350" s="1" t="n">
-        <v>41028</v>
+        <v>41022</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>41028</v>
+        <v>41022</v>
       </c>
       <c r="D350" s="1" t="n">
         <v>41022</v>
@@ -16759,10 +16759,10 @@
         <v>41042</v>
       </c>
       <c r="B351" s="1" t="n">
-        <v>41042</v>
+        <v>41036</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>41042</v>
+        <v>41038</v>
       </c>
       <c r="D351" s="1" t="n">
         <v>41037</v>
@@ -16804,10 +16804,10 @@
         <v>41047</v>
       </c>
       <c r="B352" s="1" t="n">
-        <v>41047</v>
+        <v>41043</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>41047</v>
+        <v>41045</v>
       </c>
       <c r="D352" s="1" t="n">
         <v>41044</v>
@@ -16849,10 +16849,10 @@
         <v>41047</v>
       </c>
       <c r="B353" s="1" t="n">
-        <v>41047</v>
+        <v>41043</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>41047</v>
+        <v>41044</v>
       </c>
       <c r="D353" s="1" t="n">
         <v>41043</v>
@@ -16894,7 +16894,7 @@
         <v>41052</v>
       </c>
       <c r="B354" s="1" t="n">
-        <v>41052</v>
+        <v>41047</v>
       </c>
       <c r="C354" s="1" t="n">
         <v>41052</v>
@@ -16939,7 +16939,7 @@
         <v>41054</v>
       </c>
       <c r="B355" s="1" t="n">
-        <v>41054</v>
+        <v>41052</v>
       </c>
       <c r="C355" s="1" t="n">
         <v>41054</v>
@@ -16984,10 +16984,10 @@
         <v>41055</v>
       </c>
       <c r="B356" s="1" t="n">
-        <v>41055</v>
+        <v>41050</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>41055</v>
+        <v>41052</v>
       </c>
       <c r="D356" s="1" t="n">
         <v>41051</v>
@@ -17029,10 +17029,10 @@
         <v>41056</v>
       </c>
       <c r="B357" s="1" t="n">
-        <v>41056</v>
+        <v>41052</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>41056</v>
+        <v>41053</v>
       </c>
       <c r="D357" s="1" t="n">
         <v>41052</v>
@@ -17074,10 +17074,10 @@
         <v>41084</v>
       </c>
       <c r="B358" s="1" t="n">
-        <v>41084</v>
+        <v>41078</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>41084</v>
+        <v>41080</v>
       </c>
       <c r="D358" s="1" t="n">
         <v>41079</v>
@@ -17119,10 +17119,10 @@
         <v>41168</v>
       </c>
       <c r="B359" s="1" t="n">
-        <v>41168</v>
+        <v>41156</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>41168</v>
+        <v>41161</v>
       </c>
       <c r="D359" s="1" t="n">
         <v>41158</v>
@@ -17164,10 +17164,10 @@
         <v>41175</v>
       </c>
       <c r="B360" s="1" t="n">
-        <v>41175</v>
+        <v>41169</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>41175</v>
+        <v>41171</v>
       </c>
       <c r="D360" s="1" t="n">
         <v>41170</v>
@@ -17209,10 +17209,10 @@
         <v>41200</v>
       </c>
       <c r="B361" s="1" t="n">
-        <v>41200</v>
+        <v>41197</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>41200</v>
+        <v>41198</v>
       </c>
       <c r="D361" s="1" t="n">
         <v>41197</v>
@@ -17254,10 +17254,10 @@
         <v>41210</v>
       </c>
       <c r="B362" s="1" t="n">
-        <v>41210</v>
+        <v>41199</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>41210</v>
+        <v>41201</v>
       </c>
       <c r="D362" s="1" t="n">
         <v>41200</v>
@@ -17299,10 +17299,10 @@
         <v>41231</v>
       </c>
       <c r="B363" s="1" t="n">
-        <v>41231</v>
+        <v>41214</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>41231</v>
+        <v>41226</v>
       </c>
       <c r="D363" s="1" t="n">
         <v>41220</v>
@@ -17344,10 +17344,10 @@
         <v>41245</v>
       </c>
       <c r="B364" s="1" t="n">
-        <v>41245</v>
+        <v>41239</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>41245</v>
+        <v>41241</v>
       </c>
       <c r="D364" s="1" t="n">
         <v>41240</v>
@@ -17389,10 +17389,10 @@
         <v>41284</v>
       </c>
       <c r="B365" s="1" t="n">
-        <v>41284</v>
+        <v>41281</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>41284</v>
+        <v>41283</v>
       </c>
       <c r="D365" s="1" t="n">
         <v>41282</v>
@@ -17434,10 +17434,10 @@
         <v>41301</v>
       </c>
       <c r="B366" s="1" t="n">
-        <v>41301</v>
+        <v>41289</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>41301</v>
+        <v>41295</v>
       </c>
       <c r="D366" s="1" t="n">
         <v>41292</v>
@@ -17479,10 +17479,10 @@
         <v>41301</v>
       </c>
       <c r="B367" s="1" t="n">
-        <v>41301</v>
+        <v>41295</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>41301</v>
+        <v>41297</v>
       </c>
       <c r="D367" s="1" t="n">
         <v>41296</v>
@@ -17524,10 +17524,10 @@
         <v>41313</v>
       </c>
       <c r="B368" s="1" t="n">
-        <v>41313</v>
+        <v>41309</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>41313</v>
+        <v>41310</v>
       </c>
       <c r="D368" s="1" t="n">
         <v>41309</v>
@@ -17569,10 +17569,10 @@
         <v>41322</v>
       </c>
       <c r="B369" s="1" t="n">
-        <v>41322</v>
+        <v>41311</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>41322</v>
+        <v>41318</v>
       </c>
       <c r="D369" s="1" t="n">
         <v>41314</v>
@@ -17614,10 +17614,10 @@
         <v>41329</v>
       </c>
       <c r="B370" s="1" t="n">
-        <v>41329</v>
+        <v>41323</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>41329</v>
+        <v>41325</v>
       </c>
       <c r="D370" s="1" t="n">
         <v>41324</v>
@@ -17659,10 +17659,10 @@
         <v>41336</v>
       </c>
       <c r="B371" s="1" t="n">
-        <v>41336</v>
+        <v>41321</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>41336</v>
+        <v>41333</v>
       </c>
       <c r="D371" s="1" t="n">
         <v>41327</v>
@@ -17704,10 +17704,10 @@
         <v>41350</v>
       </c>
       <c r="B372" s="1" t="n">
-        <v>41350</v>
+        <v>41337</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>41350</v>
+        <v>41347</v>
       </c>
       <c r="D372" s="1" t="n">
         <v>41342</v>
@@ -17749,10 +17749,10 @@
         <v>41357</v>
       </c>
       <c r="B373" s="1" t="n">
-        <v>41357</v>
+        <v>41351</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>41357</v>
+        <v>41353</v>
       </c>
       <c r="D373" s="1" t="n">
         <v>41352</v>
@@ -17794,10 +17794,10 @@
         <v>41364</v>
       </c>
       <c r="B374" s="1" t="n">
-        <v>41364</v>
+        <v>41344</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>41364</v>
+        <v>41359</v>
       </c>
       <c r="D374" s="1" t="n">
         <v>41351</v>
@@ -17839,10 +17839,10 @@
         <v>41378</v>
       </c>
       <c r="B375" s="1" t="n">
-        <v>41378</v>
+        <v>41363</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>41378</v>
+        <v>41374</v>
       </c>
       <c r="D375" s="1" t="n">
         <v>41368</v>
@@ -17884,10 +17884,10 @@
         <v>41392</v>
       </c>
       <c r="B376" s="1" t="n">
-        <v>41392</v>
+        <v>41386</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>41392</v>
+        <v>41388</v>
       </c>
       <c r="D376" s="1" t="n">
         <v>41387</v>
@@ -17929,10 +17929,10 @@
         <v>41413</v>
       </c>
       <c r="B377" s="1" t="n">
-        <v>41413</v>
+        <v>41399</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>41413</v>
+        <v>41410</v>
       </c>
       <c r="D377" s="1" t="n">
         <v>41404</v>
@@ -17974,10 +17974,10 @@
         <v>41420</v>
       </c>
       <c r="B378" s="1" t="n">
-        <v>41420</v>
+        <v>41414</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>41420</v>
+        <v>41416</v>
       </c>
       <c r="D378" s="1" t="n">
         <v>41415</v>
@@ -18019,10 +18019,10 @@
         <v>41427</v>
       </c>
       <c r="B379" s="1" t="n">
-        <v>41427</v>
+        <v>41411</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>41427</v>
+        <v>41422</v>
       </c>
       <c r="D379" s="1" t="n">
         <v>41416</v>
@@ -18064,10 +18064,10 @@
         <v>41438</v>
       </c>
       <c r="B380" s="1" t="n">
-        <v>41438</v>
+        <v>41435</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>41438</v>
+        <v>41436</v>
       </c>
       <c r="D380" s="1" t="n">
         <v>41435</v>
@@ -18109,10 +18109,10 @@
         <v>41438</v>
       </c>
       <c r="B381" s="1" t="n">
-        <v>41438</v>
+        <v>41435</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>41438</v>
+        <v>41437</v>
       </c>
       <c r="D381" s="1" t="n">
         <v>41436</v>
@@ -18154,10 +18154,10 @@
         <v>41455</v>
       </c>
       <c r="B382" s="1" t="n">
-        <v>41455</v>
+        <v>41436</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>41455</v>
+        <v>41449</v>
       </c>
       <c r="D382" s="1" t="n">
         <v>41442</v>
@@ -18199,10 +18199,10 @@
         <v>41455</v>
       </c>
       <c r="B383" s="1" t="n">
-        <v>41455</v>
+        <v>41449</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>41455</v>
+        <v>41451</v>
       </c>
       <c r="D383" s="1" t="n">
         <v>41450</v>
@@ -18244,10 +18244,10 @@
         <v>41462</v>
       </c>
       <c r="B384" s="1" t="n">
-        <v>41462</v>
+        <v>41445</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>41462</v>
+        <v>41453</v>
       </c>
       <c r="D384" s="1" t="n">
         <v>41449</v>
@@ -18289,10 +18289,10 @@
         <v>41494</v>
       </c>
       <c r="B385" s="1" t="n">
-        <v>41494</v>
+        <v>41491</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>41494</v>
+        <v>41493</v>
       </c>
       <c r="D385" s="1" t="n">
         <v>41492</v>
@@ -18334,10 +18334,10 @@
         <v>41504</v>
       </c>
       <c r="B386" s="1" t="n">
-        <v>41504</v>
+        <v>41489</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>41504</v>
+        <v>41498</v>
       </c>
       <c r="D386" s="1" t="n">
         <v>41493</v>
@@ -18379,10 +18379,10 @@
         <v>41517</v>
       </c>
       <c r="B387" s="1" t="n">
-        <v>41517</v>
+        <v>41503</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>41517</v>
+        <v>41513</v>
       </c>
       <c r="D387" s="1" t="n">
         <v>41508</v>
@@ -18424,10 +18424,10 @@
         <v>41531</v>
       </c>
       <c r="B388" s="1" t="n">
-        <v>41531</v>
+        <v>41526</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>41531</v>
+        <v>41528</v>
       </c>
       <c r="D388" s="1" t="n">
         <v>41527</v>
@@ -18469,10 +18469,10 @@
         <v>41538</v>
       </c>
       <c r="B389" s="1" t="n">
-        <v>41538</v>
+        <v>41527</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>41538</v>
+        <v>41534</v>
       </c>
       <c r="D389" s="1" t="n">
         <v>41530</v>
@@ -18514,10 +18514,10 @@
         <v>41545</v>
       </c>
       <c r="B390" s="1" t="n">
-        <v>41545</v>
+        <v>41530</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>41545</v>
+        <v>41542</v>
       </c>
       <c r="D390" s="1" t="n">
         <v>41536</v>
@@ -18559,10 +18559,10 @@
         <v>41548</v>
       </c>
       <c r="B391" s="1" t="n">
-        <v>41548</v>
+        <v>41544</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>41548</v>
+        <v>41545</v>
       </c>
       <c r="D391" s="1" t="n">
         <v>41544</v>
@@ -18604,10 +18604,10 @@
         <v>41560</v>
       </c>
       <c r="B392" s="1" t="n">
-        <v>41560</v>
+        <v>41547</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>41560</v>
+        <v>41556</v>
       </c>
       <c r="D392" s="1" t="n">
         <v>41551</v>
@@ -18649,10 +18649,10 @@
         <v>41574</v>
       </c>
       <c r="B393" s="1" t="n">
-        <v>41574</v>
+        <v>41568</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>41574</v>
+        <v>41570</v>
       </c>
       <c r="D393" s="1" t="n">
         <v>41569</v>
@@ -18694,10 +18694,10 @@
         <v>41585</v>
       </c>
       <c r="B394" s="1" t="n">
-        <v>41585</v>
+        <v>41582</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>41585</v>
+        <v>41584</v>
       </c>
       <c r="D394" s="1" t="n">
         <v>41583</v>
@@ -18739,7 +18739,7 @@
         <v>41595</v>
       </c>
       <c r="B395" s="1" t="n">
-        <v>41595</v>
+        <v>41593</v>
       </c>
       <c r="C395" s="1" t="n">
         <v>41595</v>
@@ -18784,10 +18784,10 @@
         <v>41602</v>
       </c>
       <c r="B396" s="1" t="n">
-        <v>41602</v>
+        <v>41596</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>41602</v>
+        <v>41598</v>
       </c>
       <c r="D396" s="1" t="n">
         <v>41597</v>
@@ -18829,10 +18829,10 @@
         <v>41620</v>
       </c>
       <c r="B397" s="1" t="n">
-        <v>41620</v>
+        <v>41617</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>41620</v>
+        <v>41618</v>
       </c>
       <c r="D397" s="1" t="n">
         <v>41617</v>
@@ -18874,7 +18874,7 @@
         <v>41623</v>
       </c>
       <c r="B398" s="1" t="n">
-        <v>41623</v>
+        <v>41611</v>
       </c>
       <c r="C398" s="1" t="n">
         <v>41623</v>
@@ -18919,10 +18919,10 @@
         <v>41648</v>
       </c>
       <c r="B399" s="1" t="n">
-        <v>41648</v>
+        <v>41645</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>41648</v>
+        <v>41647</v>
       </c>
       <c r="D399" s="1" t="n">
         <v>41646</v>
@@ -18964,7 +18964,7 @@
         <v>41663</v>
       </c>
       <c r="B400" s="1" t="n">
-        <v>41663</v>
+        <v>41654</v>
       </c>
       <c r="C400" s="1" t="n">
         <v>41663</v>
@@ -19009,10 +19009,10 @@
         <v>41665</v>
       </c>
       <c r="B401" s="1" t="n">
-        <v>41665</v>
+        <v>41659</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>41665</v>
+        <v>41661</v>
       </c>
       <c r="D401" s="1" t="n">
         <v>41660</v>
@@ -19054,10 +19054,10 @@
         <v>41692</v>
       </c>
       <c r="B402" s="1" t="n">
-        <v>41692</v>
+        <v>41687</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>41692</v>
+        <v>41689</v>
       </c>
       <c r="D402" s="1" t="n">
         <v>41688</v>
@@ -19099,10 +19099,10 @@
         <v>41692</v>
       </c>
       <c r="B403" s="1" t="n">
-        <v>41692</v>
+        <v>41681</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>41692</v>
+        <v>41689</v>
       </c>
       <c r="D403" s="1" t="n">
         <v>41685</v>
@@ -19144,10 +19144,10 @@
         <v>41700</v>
       </c>
       <c r="B404" s="1" t="n">
-        <v>41700</v>
+        <v>41689</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>41700</v>
+        <v>41698</v>
       </c>
       <c r="D404" s="1" t="n">
         <v>41693</v>
@@ -19189,10 +19189,10 @@
         <v>41728</v>
       </c>
       <c r="B405" s="1" t="n">
-        <v>41728</v>
+        <v>41722</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>41728</v>
+        <v>41724</v>
       </c>
       <c r="D405" s="1" t="n">
         <v>41723</v>
@@ -19234,10 +19234,10 @@
         <v>41732</v>
       </c>
       <c r="B406" s="1" t="n">
-        <v>41732</v>
+        <v>41730</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>41732</v>
+        <v>41731</v>
       </c>
       <c r="D406" s="1" t="n">
         <v>41730</v>
@@ -19279,10 +19279,10 @@
         <v>41748</v>
       </c>
       <c r="B407" s="1" t="n">
-        <v>41748</v>
+        <v>41734</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>41748</v>
+        <v>41744</v>
       </c>
       <c r="D407" s="1" t="n">
         <v>41739</v>
@@ -19324,10 +19324,10 @@
         <v>41748</v>
       </c>
       <c r="B408" s="1" t="n">
-        <v>41748</v>
+        <v>41735</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>41748</v>
+        <v>41745</v>
       </c>
       <c r="D408" s="1" t="n">
         <v>41740</v>
@@ -19369,10 +19369,10 @@
         <v>41757</v>
       </c>
       <c r="B409" s="1" t="n">
-        <v>41757</v>
+        <v>41751</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>41757</v>
+        <v>41752</v>
       </c>
       <c r="D409" s="1" t="n">
         <v>41751</v>
@@ -19414,7 +19414,7 @@
         <v>41760</v>
       </c>
       <c r="B410" s="1" t="n">
-        <v>41760</v>
+        <v>41757</v>
       </c>
       <c r="C410" s="1" t="n">
         <v>41760</v>
@@ -19459,10 +19459,10 @@
         <v>41775</v>
       </c>
       <c r="B411" s="1" t="n">
-        <v>41775</v>
+        <v>41771</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>41775</v>
+        <v>41773</v>
       </c>
       <c r="D411" s="1" t="n">
         <v>41772</v>
@@ -19504,10 +19504,10 @@
         <v>41778</v>
       </c>
       <c r="B412" s="1" t="n">
-        <v>41778</v>
+        <v>41772</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>41778</v>
+        <v>41773</v>
       </c>
       <c r="D412" s="1" t="n">
         <v>41772</v>
@@ -19549,10 +19549,10 @@
         <v>41779</v>
       </c>
       <c r="B413" s="1" t="n">
-        <v>41779</v>
+        <v>41762</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>41779</v>
+        <v>41774</v>
       </c>
       <c r="D413" s="1" t="n">
         <v>41768</v>
@@ -19594,10 +19594,10 @@
         <v>41797</v>
       </c>
       <c r="B414" s="1" t="n">
-        <v>41797</v>
+        <v>41793</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>41797</v>
+        <v>41794</v>
       </c>
       <c r="D414" s="1" t="n">
         <v>41793</v>
@@ -19639,7 +19639,7 @@
         <v>41802</v>
       </c>
       <c r="B415" s="1" t="n">
-        <v>41802</v>
+        <v>41799</v>
       </c>
       <c r="C415" s="1" t="n">
         <v>41802</v>
@@ -19684,10 +19684,10 @@
         <v>41818</v>
       </c>
       <c r="B416" s="1" t="n">
-        <v>41818</v>
+        <v>41813</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>41818</v>
+        <v>41815</v>
       </c>
       <c r="D416" s="1" t="n">
         <v>41814</v>
@@ -19729,10 +19729,10 @@
         <v>41854</v>
       </c>
       <c r="B417" s="1" t="n">
-        <v>41854</v>
+        <v>41838</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>41854</v>
+        <v>41850</v>
       </c>
       <c r="D417" s="1" t="n">
         <v>41844</v>
@@ -19774,10 +19774,10 @@
         <v>41867</v>
       </c>
       <c r="B418" s="1" t="n">
-        <v>41867</v>
+        <v>41855</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>41867</v>
+        <v>41864</v>
       </c>
       <c r="D418" s="1" t="n">
         <v>41859</v>
@@ -19819,10 +19819,10 @@
         <v>41896</v>
       </c>
       <c r="B419" s="1" t="n">
-        <v>41896</v>
+        <v>41890</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>41896</v>
+        <v>41892</v>
       </c>
       <c r="D419" s="1" t="n">
         <v>41891</v>
@@ -19864,10 +19864,10 @@
         <v>41903</v>
       </c>
       <c r="B420" s="1" t="n">
-        <v>41903</v>
+        <v>41891</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>41903</v>
+        <v>41900</v>
       </c>
       <c r="D420" s="1" t="n">
         <v>41895</v>
@@ -19909,10 +19909,10 @@
         <v>41921</v>
       </c>
       <c r="B421" s="1" t="n">
-        <v>41921</v>
+        <v>41918</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>41921</v>
+        <v>41919</v>
       </c>
       <c r="D421" s="1" t="n">
         <v>41918</v>
@@ -19954,10 +19954,10 @@
         <v>41937</v>
       </c>
       <c r="B422" s="1" t="n">
-        <v>41937</v>
+        <v>41926</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>41937</v>
+        <v>41934</v>
       </c>
       <c r="D422" s="1" t="n">
         <v>41930</v>
@@ -19999,10 +19999,10 @@
         <v>41937</v>
       </c>
       <c r="B423" s="1" t="n">
-        <v>41937</v>
+        <v>41932</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>41937</v>
+        <v>41934</v>
       </c>
       <c r="D423" s="1" t="n">
         <v>41933</v>
@@ -20044,10 +20044,10 @@
         <v>41945</v>
       </c>
       <c r="B424" s="1" t="n">
-        <v>41945</v>
+        <v>41933</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>41945</v>
+        <v>41943</v>
       </c>
       <c r="D424" s="1" t="n">
         <v>41938</v>
@@ -20089,10 +20089,10 @@
         <v>41966</v>
       </c>
       <c r="B425" s="1" t="n">
-        <v>41966</v>
+        <v>41960</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>41966</v>
+        <v>41962</v>
       </c>
       <c r="D425" s="1" t="n">
         <v>41961</v>
@@ -20134,10 +20134,10 @@
         <v>41977</v>
       </c>
       <c r="B426" s="1" t="n">
-        <v>41977</v>
+        <v>41974</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>41977</v>
+        <v>41975</v>
       </c>
       <c r="D426" s="1" t="n">
         <v>41974</v>
@@ -20179,10 +20179,10 @@
         <v>41994</v>
       </c>
       <c r="B427" s="1" t="n">
-        <v>41994</v>
+        <v>41981</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>41994</v>
+        <v>41991</v>
       </c>
       <c r="D427" s="1" t="n">
         <v>41986</v>
@@ -20224,10 +20224,10 @@
         <v>41994</v>
       </c>
       <c r="B428" s="1" t="n">
-        <v>41994</v>
+        <v>41988</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>41994</v>
+        <v>41990</v>
       </c>
       <c r="D428" s="1" t="n">
         <v>41989</v>
@@ -20269,10 +20269,10 @@
         <v>41994</v>
       </c>
       <c r="B429" s="1" t="n">
-        <v>41994</v>
+        <v>41982</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>41994</v>
+        <v>41990</v>
       </c>
       <c r="D429" s="1" t="n">
         <v>41986</v>
@@ -20314,10 +20314,10 @@
         <v>42018</v>
       </c>
       <c r="B430" s="1" t="n">
-        <v>42018</v>
+        <v>42016</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>42018</v>
+        <v>42017</v>
       </c>
       <c r="D430" s="1" t="n">
         <v>42016</v>
@@ -20359,10 +20359,10 @@
         <v>42029</v>
       </c>
       <c r="B431" s="1" t="n">
-        <v>42029</v>
+        <v>42023</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>42029</v>
+        <v>42025</v>
       </c>
       <c r="D431" s="1" t="n">
         <v>42024</v>
@@ -20404,10 +20404,10 @@
         <v>42050</v>
       </c>
       <c r="B432" s="1" t="n">
-        <v>42050</v>
+        <v>42033</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>42050</v>
+        <v>42044</v>
       </c>
       <c r="D432" s="1" t="n">
         <v>42038</v>
@@ -20449,10 +20449,10 @@
         <v>42057</v>
       </c>
       <c r="B433" s="1" t="n">
-        <v>42057</v>
+        <v>42051</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>42057</v>
+        <v>42053</v>
       </c>
       <c r="D433" s="1" t="n">
         <v>42052</v>
@@ -20494,10 +20494,10 @@
         <v>42077</v>
       </c>
       <c r="B434" s="1" t="n">
-        <v>42077</v>
+        <v>42065</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>42077</v>
+        <v>42074</v>
       </c>
       <c r="D434" s="1" t="n">
         <v>42069</v>
@@ -20539,10 +20539,10 @@
         <v>42077</v>
       </c>
       <c r="B435" s="1" t="n">
-        <v>42077</v>
+        <v>42072</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>42077</v>
+        <v>42074</v>
       </c>
       <c r="D435" s="1" t="n">
         <v>42073</v>
@@ -20584,10 +20584,10 @@
         <v>42089</v>
       </c>
       <c r="B436" s="1" t="n">
-        <v>42089</v>
+        <v>42086</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>42089</v>
+        <v>42087</v>
       </c>
       <c r="D436" s="1" t="n">
         <v>42086</v>
@@ -20629,10 +20629,10 @@
         <v>42093</v>
       </c>
       <c r="B437" s="1" t="n">
-        <v>42093</v>
+        <v>42086</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>42093</v>
+        <v>42088</v>
       </c>
       <c r="D437" s="1" t="n">
         <v>42087</v>
@@ -20674,10 +20674,10 @@
         <v>42099</v>
       </c>
       <c r="B438" s="1" t="n">
-        <v>42099</v>
+        <v>42087</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>42099</v>
+        <v>42096</v>
       </c>
       <c r="D438" s="1" t="n">
         <v>42091</v>
@@ -20719,10 +20719,10 @@
         <v>42119</v>
       </c>
       <c r="B439" s="1" t="n">
-        <v>42119</v>
+        <v>42114</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>42119</v>
+        <v>42116</v>
       </c>
       <c r="D439" s="1" t="n">
         <v>42115</v>
@@ -20764,10 +20764,10 @@
         <v>42141</v>
       </c>
       <c r="B440" s="1" t="n">
-        <v>42141</v>
+        <v>42125</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>42141</v>
+        <v>42135</v>
       </c>
       <c r="D440" s="1" t="n">
         <v>42130</v>
@@ -20809,10 +20809,10 @@
         <v>42141</v>
       </c>
       <c r="B441" s="1" t="n">
-        <v>42141</v>
+        <v>42137</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>42141</v>
+        <v>42138</v>
       </c>
       <c r="D441" s="1" t="n">
         <v>42137</v>
@@ -20854,10 +20854,10 @@
         <v>42155</v>
       </c>
       <c r="B442" s="1" t="n">
-        <v>42155</v>
+        <v>42149</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>42155</v>
+        <v>42151</v>
       </c>
       <c r="D442" s="1" t="n">
         <v>42150</v>
@@ -20899,7 +20899,7 @@
         <v>42170</v>
       </c>
       <c r="B443" s="1" t="n">
-        <v>42170</v>
+        <v>42160</v>
       </c>
       <c r="C443" s="1" t="n">
         <v>42170</v>
@@ -20944,10 +20944,10 @@
         <v>42183</v>
       </c>
       <c r="B444" s="1" t="n">
-        <v>42183</v>
+        <v>42177</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>42183</v>
+        <v>42179</v>
       </c>
       <c r="D444" s="1" t="n">
         <v>42178</v>
@@ -20989,10 +20989,10 @@
         <v>42183</v>
       </c>
       <c r="B445" s="1" t="n">
-        <v>42183</v>
+        <v>42174</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>42183</v>
+        <v>42181</v>
       </c>
       <c r="D445" s="1" t="n">
         <v>42177</v>
@@ -21034,10 +21034,10 @@
         <v>42203</v>
       </c>
       <c r="B446" s="1" t="n">
-        <v>42203</v>
+        <v>42189</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>42203</v>
+        <v>42199</v>
       </c>
       <c r="D446" s="1" t="n">
         <v>42194</v>
@@ -21079,10 +21079,10 @@
         <v>42211</v>
       </c>
       <c r="B447" s="1" t="n">
-        <v>42211</v>
+        <v>42205</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>42211</v>
+        <v>42207</v>
       </c>
       <c r="D447" s="1" t="n">
         <v>42206</v>
@@ -21124,10 +21124,10 @@
         <v>42218</v>
       </c>
       <c r="B448" s="1" t="n">
-        <v>42218</v>
+        <v>42204</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>42218</v>
+        <v>42215</v>
       </c>
       <c r="D448" s="1" t="n">
         <v>42209</v>
@@ -21169,10 +21169,10 @@
         <v>42231</v>
       </c>
       <c r="B449" s="1" t="n">
-        <v>42231</v>
+        <v>42218</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>42231</v>
+        <v>42228</v>
       </c>
       <c r="D449" s="1" t="n">
         <v>42223</v>
@@ -21214,10 +21214,10 @@
         <v>42259</v>
       </c>
       <c r="B450" s="1" t="n">
-        <v>42259</v>
+        <v>42254</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>42259</v>
+        <v>42256</v>
       </c>
       <c r="D450" s="1" t="n">
         <v>42255</v>
@@ -21259,10 +21259,10 @@
         <v>42270</v>
       </c>
       <c r="B451" s="1" t="n">
-        <v>42270</v>
+        <v>42268</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>42270</v>
+        <v>42269</v>
       </c>
       <c r="D451" s="1" t="n">
         <v>42268</v>
@@ -21310,10 +21310,10 @@
         <v>42295</v>
       </c>
       <c r="B452" s="1" t="n">
-        <v>42295</v>
+        <v>42282</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>42295</v>
+        <v>42291</v>
       </c>
       <c r="D452" s="1" t="n">
         <v>42286</v>
@@ -21361,10 +21361,10 @@
         <v>42302</v>
       </c>
       <c r="B453" s="1" t="n">
-        <v>42302</v>
+        <v>42296</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>42302</v>
+        <v>42298</v>
       </c>
       <c r="D453" s="1" t="n">
         <v>42297</v>
@@ -21412,10 +21412,10 @@
         <v>42316</v>
       </c>
       <c r="B454" s="1" t="n">
-        <v>42316</v>
+        <v>42305</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>42316</v>
+        <v>42314</v>
       </c>
       <c r="D454" s="1" t="n">
         <v>42309</v>
@@ -21459,10 +21459,10 @@
         <v>42323</v>
       </c>
       <c r="B455" s="1" t="n">
-        <v>42323</v>
+        <v>42307</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>42323</v>
+        <v>42319</v>
       </c>
       <c r="D455" s="1" t="n">
         <v>42313</v>
@@ -21510,10 +21510,10 @@
         <v>42330</v>
       </c>
       <c r="B456" s="1" t="n">
-        <v>42330</v>
+        <v>42324</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>42330</v>
+        <v>42326</v>
       </c>
       <c r="D456" s="1" t="n">
         <v>42325</v>
@@ -21561,10 +21561,10 @@
         <v>42334</v>
       </c>
       <c r="B457" s="1" t="n">
-        <v>42334</v>
+        <v>42331</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>42334</v>
+        <v>42332</v>
       </c>
       <c r="D457" s="1" t="n">
         <v>42331</v>
@@ -21612,10 +21612,10 @@
         <v>42341</v>
       </c>
       <c r="B458" s="1" t="n">
-        <v>42341</v>
+        <v>42338</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>42341</v>
+        <v>42340</v>
       </c>
       <c r="D458" s="1" t="n">
         <v>42339</v>
@@ -21663,10 +21663,10 @@
         <v>42350</v>
       </c>
       <c r="B459" s="1" t="n">
-        <v>42350</v>
+        <v>42338</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>42350</v>
+        <v>42347</v>
       </c>
       <c r="D459" s="1" t="n">
         <v>42342</v>
@@ -21714,10 +21714,10 @@
         <v>42357</v>
       </c>
       <c r="B460" s="1" t="n">
-        <v>42357</v>
+        <v>42352</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>42357</v>
+        <v>42354</v>
       </c>
       <c r="D460" s="1" t="n">
         <v>42353</v>
@@ -21765,10 +21765,10 @@
         <v>42385</v>
       </c>
       <c r="B461" s="1" t="n">
-        <v>42385</v>
+        <v>42380</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>42385</v>
+        <v>42382</v>
       </c>
       <c r="D461" s="1" t="n">
         <v>42381</v>
@@ -21816,10 +21816,10 @@
         <v>42385</v>
       </c>
       <c r="B462" s="1" t="n">
-        <v>42385</v>
+        <v>42373</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>42385</v>
+        <v>42382</v>
       </c>
       <c r="D462" s="1" t="n">
         <v>42377</v>
@@ -21867,10 +21867,10 @@
         <v>42399</v>
       </c>
       <c r="B463" s="1" t="n">
-        <v>42399</v>
+        <v>42394</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>42399</v>
+        <v>42396</v>
       </c>
       <c r="D463" s="1" t="n">
         <v>42395</v>
@@ -21918,10 +21918,10 @@
         <v>42404</v>
       </c>
       <c r="B464" s="1" t="n">
-        <v>42404</v>
+        <v>42401</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>42404</v>
+        <v>42402</v>
       </c>
       <c r="D464" s="1" t="n">
         <v>42401</v>
@@ -21969,10 +21969,10 @@
         <v>42406</v>
       </c>
       <c r="B465" s="1" t="n">
-        <v>42406</v>
+        <v>42401</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>42406</v>
+        <v>42403</v>
       </c>
       <c r="D465" s="1" t="n">
         <v>42402</v>
@@ -22020,10 +22020,10 @@
         <v>42406</v>
       </c>
       <c r="B466" s="1" t="n">
-        <v>42406</v>
+        <v>42401</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>42406</v>
+        <v>42402</v>
       </c>
       <c r="D466" s="1" t="n">
         <v>42401</v>
@@ -22071,10 +22071,10 @@
         <v>42406</v>
       </c>
       <c r="B467" s="1" t="n">
-        <v>42406</v>
+        <v>42394</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>42406</v>
+        <v>42404</v>
       </c>
       <c r="D467" s="1" t="n">
         <v>42399</v>
@@ -22116,10 +22116,10 @@
         <v>42410</v>
       </c>
       <c r="B468" s="1" t="n">
-        <v>42410</v>
+        <v>42404</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>42410</v>
+        <v>42408</v>
       </c>
       <c r="D468" s="1" t="n">
         <v>42406</v>
@@ -22167,10 +22167,10 @@
         <v>42414</v>
       </c>
       <c r="B469" s="1" t="n">
-        <v>42414</v>
+        <v>42408</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>42414</v>
+        <v>42411</v>
       </c>
       <c r="D469" s="1" t="n">
         <v>42409</v>
@@ -22218,10 +22218,10 @@
         <v>42416</v>
       </c>
       <c r="B470" s="1" t="n">
-        <v>42416</v>
+        <v>42411</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>42416</v>
+        <v>42415</v>
       </c>
       <c r="D470" s="1" t="n">
         <v>42413</v>
@@ -22269,10 +22269,10 @@
         <v>42420</v>
       </c>
       <c r="B471" s="1" t="n">
-        <v>42420</v>
+        <v>42415</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>42420</v>
+        <v>42416</v>
       </c>
       <c r="D471" s="1" t="n">
         <v>42415</v>
@@ -22320,10 +22320,10 @@
         <v>42420</v>
       </c>
       <c r="B472" s="1" t="n">
-        <v>42420</v>
+        <v>42415</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>42420</v>
+        <v>42418</v>
       </c>
       <c r="D472" s="1" t="n">
         <v>42416</v>
@@ -22371,10 +22371,10 @@
         <v>42420</v>
       </c>
       <c r="B473" s="1" t="n">
-        <v>42420</v>
+        <v>42417</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>42420</v>
+        <v>42418</v>
       </c>
       <c r="D473" s="1" t="n">
         <v>42417</v>
@@ -22422,10 +22422,10 @@
         <v>42422</v>
       </c>
       <c r="B474" s="1" t="n">
-        <v>42422</v>
+        <v>42419</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>42422</v>
+        <v>42420</v>
       </c>
       <c r="D474" s="1" t="n">
         <v>42419</v>
@@ -22473,10 +22473,10 @@
         <v>42423</v>
       </c>
       <c r="B475" s="1" t="n">
-        <v>42423</v>
+        <v>42418</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>42423</v>
+        <v>42422</v>
       </c>
       <c r="D475" s="1" t="n">
         <v>42420</v>
@@ -22524,10 +22524,10 @@
         <v>42476</v>
       </c>
       <c r="B476" s="1" t="n">
-        <v>42476</v>
+        <v>42463</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>42476</v>
+        <v>42473</v>
       </c>
       <c r="D476" s="1" t="n">
         <v>42468</v>
@@ -22577,7 +22577,7 @@
         <v>42501</v>
       </c>
       <c r="B477" s="1" t="n">
-        <v>42501</v>
+        <v>42491</v>
       </c>
       <c r="C477" s="1" t="n">
         <v>42501</v>
@@ -22630,10 +22630,10 @@
         <v>42503</v>
       </c>
       <c r="B478" s="1" t="n">
-        <v>42503</v>
+        <v>42499</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>42503</v>
+        <v>42501</v>
       </c>
       <c r="D478" s="1" t="n">
         <v>42500</v>
@@ -22683,10 +22683,10 @@
         <v>42519</v>
       </c>
       <c r="B479" s="1" t="n">
-        <v>42519</v>
+        <v>42513</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>42519</v>
+        <v>42516</v>
       </c>
       <c r="D479" s="1" t="n">
         <v>42514</v>
@@ -22736,7 +22736,7 @@
         <v>42536</v>
       </c>
       <c r="B480" s="1" t="n">
-        <v>42536</v>
+        <v>42524</v>
       </c>
       <c r="C480" s="1" t="n">
         <v>42536</v>
@@ -22789,10 +22789,10 @@
         <v>42554</v>
       </c>
       <c r="B481" s="1" t="n">
-        <v>42554</v>
+        <v>42539</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>42554</v>
+        <v>42551</v>
       </c>
       <c r="D481" s="1" t="n">
         <v>42545</v>
@@ -22838,10 +22838,10 @@
         <v>42558</v>
       </c>
       <c r="B482" s="1" t="n">
-        <v>42558</v>
+        <v>42555</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>42558</v>
+        <v>42556</v>
       </c>
       <c r="D482" s="1" t="n">
         <v>42555</v>
@@ -22887,7 +22887,7 @@
         <v>42564</v>
       </c>
       <c r="B483" s="1" t="n">
-        <v>42564</v>
+        <v>42552</v>
       </c>
       <c r="C483" s="1" t="n">
         <v>42564</v>
@@ -22940,10 +22940,10 @@
         <v>42568</v>
       </c>
       <c r="B484" s="1" t="n">
-        <v>42568</v>
+        <v>42562</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>42568</v>
+        <v>42564</v>
       </c>
       <c r="D484" s="1" t="n">
         <v>42563</v>
@@ -22991,10 +22991,10 @@
         <v>42580</v>
       </c>
       <c r="B485" s="1" t="n">
-        <v>42580</v>
+        <v>42576</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>42580</v>
+        <v>42578</v>
       </c>
       <c r="D485" s="1" t="n">
         <v>42577</v>
@@ -23042,7 +23042,7 @@
         <v>42627</v>
       </c>
       <c r="B486" s="1" t="n">
-        <v>42627</v>
+        <v>42617</v>
       </c>
       <c r="C486" s="1" t="n">
         <v>42627</v>
@@ -23095,10 +23095,10 @@
         <v>42638</v>
       </c>
       <c r="B487" s="1" t="n">
-        <v>42638</v>
+        <v>42632</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>42638</v>
+        <v>42635</v>
       </c>
       <c r="D487" s="1" t="n">
         <v>42633</v>
@@ -23146,10 +23146,10 @@
         <v>42649</v>
       </c>
       <c r="B488" s="1" t="n">
-        <v>42649</v>
+        <v>42646</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>42649</v>
+        <v>42647</v>
       </c>
       <c r="D488" s="1" t="n">
         <v>42646</v>
@@ -23197,7 +23197,7 @@
         <v>42655</v>
       </c>
       <c r="B489" s="1" t="n">
-        <v>42655</v>
+        <v>42644</v>
       </c>
       <c r="C489" s="1" t="n">
         <v>42655</v>
@@ -23248,10 +23248,10 @@
         <v>42673</v>
       </c>
       <c r="B490" s="1" t="n">
-        <v>42673</v>
+        <v>42667</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>42673</v>
+        <v>42670</v>
       </c>
       <c r="D490" s="1" t="n">
         <v>42668</v>
@@ -23299,7 +23299,7 @@
         <v>42683</v>
       </c>
       <c r="B491" s="1" t="n">
-        <v>42683</v>
+        <v>42675</v>
       </c>
       <c r="C491" s="1" t="n">
         <v>42683</v>
@@ -23350,7 +23350,7 @@
         <v>42699</v>
       </c>
       <c r="B492" s="1" t="n">
-        <v>42699</v>
+        <v>42695</v>
       </c>
       <c r="C492" s="1" t="n">
         <v>42699</v>
@@ -23401,10 +23401,10 @@
         <v>42712</v>
       </c>
       <c r="B493" s="1" t="n">
-        <v>42712</v>
+        <v>42709</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>42712</v>
+        <v>42710</v>
       </c>
       <c r="D493" s="1" t="n">
         <v>42709</v>
@@ -23452,7 +23452,7 @@
         <v>42717</v>
       </c>
       <c r="B494" s="1" t="n">
-        <v>42717</v>
+        <v>42703</v>
       </c>
       <c r="C494" s="1" t="n">
         <v>42717</v>
@@ -23503,7 +23503,7 @@
         <v>42385</v>
       </c>
       <c r="B495" s="1" t="n">
-        <v>42385</v>
+        <v>42372</v>
       </c>
       <c r="C495" s="1" t="n">
         <v>42385</v>
@@ -23554,10 +23554,10 @@
         <v>42765</v>
       </c>
       <c r="B496" s="1" t="n">
-        <v>42765</v>
+        <v>42758</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>42765</v>
+        <v>42762</v>
       </c>
       <c r="D496" s="1" t="n">
         <v>42760</v>
@@ -23605,10 +23605,10 @@
         <v>42777</v>
       </c>
       <c r="B497" s="1" t="n">
-        <v>42777</v>
+        <v>42766</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>42777</v>
+        <v>42774</v>
       </c>
       <c r="D497" s="1" t="n">
         <v>42770</v>
@@ -23658,7 +23658,7 @@
         <v>42782</v>
       </c>
       <c r="B498" s="1" t="n">
-        <v>42782</v>
+        <v>42772</v>
       </c>
       <c r="C498" s="1" t="n">
         <v>42782</v>
@@ -23709,7 +23709,7 @@
         <v>42789</v>
       </c>
       <c r="B499" s="1" t="n">
-        <v>42789</v>
+        <v>42786</v>
       </c>
       <c r="C499" s="1" t="n">
         <v>42789</v>
@@ -23760,10 +23760,10 @@
         <v>42796</v>
       </c>
       <c r="B500" s="1" t="n">
-        <v>42796</v>
+        <v>42793</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>42796</v>
+        <v>42794</v>
       </c>
       <c r="D500" s="1" t="n">
         <v>42793</v>
@@ -23811,7 +23811,7 @@
         <v>42802</v>
       </c>
       <c r="B501" s="1" t="n">
-        <v>42802</v>
+        <v>42794</v>
       </c>
       <c r="C501" s="1" t="n">
         <v>42802</v>
@@ -23862,7 +23862,7 @@
         <v>42818</v>
       </c>
       <c r="B502" s="1" t="n">
-        <v>42818</v>
+        <v>42814</v>
       </c>
       <c r="C502" s="1" t="n">
         <v>42818</v>
@@ -23913,7 +23913,7 @@
         <v>42836</v>
       </c>
       <c r="B503" s="1" t="n">
-        <v>42836</v>
+        <v>42824</v>
       </c>
       <c r="C503" s="1" t="n">
         <v>42836</v>
@@ -23964,7 +23964,7 @@
         <v>42853</v>
       </c>
       <c r="B504" s="1" t="n">
-        <v>42853</v>
+        <v>42849</v>
       </c>
       <c r="C504" s="1" t="n">
         <v>42853</v>
@@ -24015,10 +24015,10 @@
         <v>42868</v>
       </c>
       <c r="B505" s="1" t="n">
-        <v>42868</v>
+        <v>42852</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>42868</v>
+        <v>42864</v>
       </c>
       <c r="D505" s="1" t="n">
         <v>42858</v>
@@ -24066,10 +24066,10 @@
         <v>42881</v>
       </c>
       <c r="B506" s="1" t="n">
-        <v>42881</v>
+        <v>42878</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>42881</v>
+        <v>42879</v>
       </c>
       <c r="D506" s="1" t="n">
         <v>42878</v>
@@ -24115,7 +24115,7 @@
         <v>42892</v>
       </c>
       <c r="B507" s="1" t="n">
-        <v>42892</v>
+        <v>42880</v>
       </c>
       <c r="C507" s="1" t="n">
         <v>42892</v>
@@ -24166,7 +24166,7 @@
         <v>42921</v>
       </c>
       <c r="B508" s="1" t="n">
-        <v>42921</v>
+        <v>42919</v>
       </c>
       <c r="C508" s="1" t="n">
         <v>42921</v>
@@ -24217,7 +24217,7 @@
         <v>42927</v>
       </c>
       <c r="B509" s="1" t="n">
-        <v>42927</v>
+        <v>42915</v>
       </c>
       <c r="C509" s="1" t="n">
         <v>42927</v>
@@ -24268,10 +24268,10 @@
         <v>42939</v>
       </c>
       <c r="B510" s="1" t="n">
-        <v>42939</v>
+        <v>42925</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>42939</v>
+        <v>42937</v>
       </c>
       <c r="D510" s="1" t="n">
         <v>42931</v>
@@ -24317,10 +24317,10 @@
         <v>42995</v>
       </c>
       <c r="B511" s="1" t="n">
-        <v>42995</v>
+        <v>42978</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>42995</v>
+        <v>42990</v>
       </c>
       <c r="D511" s="1" t="n">
         <v>42984</v>
@@ -24368,10 +24368,10 @@
         <v>43004</v>
       </c>
       <c r="B512" s="1" t="n">
-        <v>43004</v>
+        <v>42996</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>43004</v>
+        <v>43000</v>
       </c>
       <c r="D512" s="1" t="n">
         <v>42998</v>
@@ -24419,10 +24419,10 @@
         <v>43013</v>
       </c>
       <c r="B513" s="1" t="n">
-        <v>43013</v>
+        <v>43010</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>43013</v>
+        <v>43011</v>
       </c>
       <c r="D513" s="1" t="n">
         <v>43010</v>
@@ -24470,10 +24470,10 @@
         <v>43023</v>
       </c>
       <c r="B514" s="1" t="n">
-        <v>43023</v>
+        <v>43010</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>43023</v>
+        <v>43018</v>
       </c>
       <c r="D514" s="1" t="n">
         <v>43014</v>
@@ -24521,10 +24521,10 @@
         <v>43031</v>
       </c>
       <c r="B515" s="1" t="n">
-        <v>43031</v>
+        <v>43024</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>43031</v>
+        <v>43028</v>
       </c>
       <c r="D515" s="1" t="n">
         <v>43026</v>
@@ -24572,10 +24572,10 @@
         <v>43051</v>
       </c>
       <c r="B516" s="1" t="n">
-        <v>43051</v>
+        <v>43034</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>43051</v>
+        <v>43046</v>
       </c>
       <c r="D516" s="1" t="n">
         <v>43040</v>
@@ -24623,10 +24623,10 @@
         <v>43065</v>
       </c>
       <c r="B517" s="1" t="n">
-        <v>43065</v>
+        <v>43059</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>43065</v>
+        <v>43063</v>
       </c>
       <c r="D517" s="1" t="n">
         <v>43061</v>
@@ -24674,10 +24674,10 @@
         <v>43076</v>
       </c>
       <c r="B518" s="1" t="n">
-        <v>43076</v>
+        <v>43073</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>43076</v>
+        <v>43074</v>
       </c>
       <c r="D518" s="1" t="n">
         <v>43073</v>
@@ -24725,10 +24725,10 @@
         <v>43093</v>
       </c>
       <c r="B519" s="1" t="n">
-        <v>43093</v>
+        <v>43080</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>43093</v>
+        <v>43088</v>
       </c>
       <c r="D519" s="1" t="n">
         <v>43084</v>
@@ -24776,10 +24776,10 @@
         <v>43101</v>
       </c>
       <c r="B520" s="1" t="n">
-        <v>43101</v>
+        <v>43083</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>43101</v>
+        <v>43091</v>
       </c>
       <c r="D520" s="1" t="n">
         <v>43087</v>
@@ -24827,7 +24827,7 @@
         <v>43116</v>
       </c>
       <c r="B521" s="1" t="n">
-        <v>43116</v>
+        <v>43104</v>
       </c>
       <c r="C521" s="1" t="n">
         <v>43116</v>
@@ -24878,10 +24878,10 @@
         <v>43125</v>
       </c>
       <c r="B522" s="1" t="n">
-        <v>43125</v>
+        <v>43122</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>43125</v>
+        <v>43123</v>
       </c>
       <c r="D522" s="1" t="n">
         <v>43122</v>
@@ -24929,10 +24929,10 @@
         <v>43127</v>
       </c>
       <c r="B523" s="1" t="n">
-        <v>43127</v>
+        <v>43118</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>43127</v>
+        <v>43125</v>
       </c>
       <c r="D523" s="1" t="n">
         <v>43121</v>
@@ -24980,7 +24980,7 @@
         <v>43144</v>
       </c>
       <c r="B524" s="1" t="n">
-        <v>43144</v>
+        <v>43132</v>
       </c>
       <c r="C524" s="1" t="n">
         <v>43144</v>
@@ -25031,7 +25031,7 @@
         <v>43145</v>
       </c>
       <c r="B525" s="1" t="n">
-        <v>43145</v>
+        <v>43137</v>
       </c>
       <c r="C525" s="1" t="n">
         <v>43145</v>
@@ -25082,7 +25082,7 @@
         <v>43153</v>
       </c>
       <c r="B526" s="1" t="n">
-        <v>43153</v>
+        <v>43146</v>
       </c>
       <c r="C526" s="1" t="n">
         <v>43153</v>
@@ -25133,7 +25133,7 @@
         <v>43172</v>
       </c>
       <c r="B527" s="1" t="n">
-        <v>43172</v>
+        <v>43165</v>
       </c>
       <c r="C527" s="1" t="n">
         <v>43172</v>
@@ -25184,7 +25184,7 @@
         <v>43181</v>
       </c>
       <c r="B528" s="1" t="n">
-        <v>43181</v>
+        <v>43174</v>
       </c>
       <c r="C528" s="1" t="n">
         <v>43181</v>
@@ -25235,7 +25235,7 @@
         <v>43207</v>
       </c>
       <c r="B529" s="1" t="n">
-        <v>43207</v>
+        <v>43206</v>
       </c>
       <c r="C529" s="1" t="n">
         <v>43207</v>
@@ -25286,7 +25286,7 @@
         <v>43208</v>
       </c>
       <c r="B530" s="1" t="n">
-        <v>43208</v>
+        <v>43194</v>
       </c>
       <c r="C530" s="1" t="n">
         <v>43208</v>
@@ -25337,10 +25337,10 @@
         <v>43209</v>
       </c>
       <c r="B531" s="1" t="n">
-        <v>43209</v>
+        <v>43195</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>43209</v>
+        <v>43207</v>
       </c>
       <c r="D531" s="1" t="n">
         <v>43201</v>
@@ -25388,7 +25388,7 @@
         <v>43215</v>
       </c>
       <c r="B532" s="1" t="n">
-        <v>43215</v>
+        <v>43209</v>
       </c>
       <c r="C532" s="1" t="n">
         <v>43215</v>
@@ -25439,10 +25439,10 @@
         <v>43226</v>
       </c>
       <c r="B533" s="1" t="n">
-        <v>43226</v>
+        <v>43208</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>43226</v>
+        <v>43220</v>
       </c>
       <c r="D533" s="1" t="n">
         <v>43214</v>
@@ -25490,7 +25490,7 @@
         <v>43235</v>
       </c>
       <c r="B534" s="1" t="n">
-        <v>43235</v>
+        <v>43223</v>
       </c>
       <c r="C534" s="1" t="n">
         <v>43235</v>
@@ -25541,7 +25541,7 @@
         <v>43236</v>
       </c>
       <c r="B535" s="1" t="n">
-        <v>43236</v>
+        <v>43230</v>
       </c>
       <c r="C535" s="1" t="n">
         <v>43236</v>
@@ -25592,7 +25592,7 @@
         <v>43263</v>
       </c>
       <c r="B536" s="1" t="n">
-        <v>43263</v>
+        <v>43251</v>
       </c>
       <c r="C536" s="1" t="n">
         <v>43263</v>
@@ -25643,7 +25643,7 @@
         <v>43298</v>
       </c>
       <c r="B537" s="1" t="n">
-        <v>43298</v>
+        <v>43286</v>
       </c>
       <c r="C537" s="1" t="n">
         <v>43298</v>
@@ -25694,7 +25694,7 @@
         <v>43336</v>
       </c>
       <c r="B538" s="1" t="n">
-        <v>43336</v>
+        <v>43327</v>
       </c>
       <c r="C538" s="1" t="n">
         <v>43336</v>
@@ -25745,7 +25745,7 @@
         <v>43356</v>
       </c>
       <c r="B539" s="1" t="n">
-        <v>43356</v>
+        <v>43349</v>
       </c>
       <c r="C539" s="1" t="n">
         <v>43356</v>
@@ -25796,7 +25796,7 @@
         <v>43361</v>
       </c>
       <c r="B540" s="1" t="n">
-        <v>43361</v>
+        <v>43349</v>
       </c>
       <c r="C540" s="1" t="n">
         <v>43361</v>
@@ -25847,7 +25847,7 @@
         <v>43383</v>
       </c>
       <c r="B541" s="1" t="n">
-        <v>43383</v>
+        <v>43376</v>
       </c>
       <c r="C541" s="1" t="n">
         <v>43383</v>
@@ -25898,7 +25898,7 @@
         <v>43389</v>
       </c>
       <c r="B542" s="1" t="n">
-        <v>43389</v>
+        <v>43378</v>
       </c>
       <c r="C542" s="1" t="n">
         <v>43389</v>
@@ -25949,10 +25949,10 @@
         <v>43389</v>
       </c>
       <c r="B543" s="1" t="n">
-        <v>43389</v>
+        <v>43383</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>43389</v>
+        <v>43385</v>
       </c>
       <c r="D543" s="1" t="n">
         <v>43384</v>
@@ -26000,7 +26000,7 @@
         <v>43390</v>
       </c>
       <c r="B544" s="1" t="n">
-        <v>43390</v>
+        <v>43384</v>
       </c>
       <c r="C544" s="1" t="n">
         <v>43390</v>
@@ -26102,7 +26102,7 @@
         <v>43417</v>
       </c>
       <c r="B546" s="1" t="n">
-        <v>43417</v>
+        <v>43405</v>
       </c>
       <c r="C546" s="1" t="n">
         <v>43417</v>
@@ -26153,7 +26153,7 @@
         <v>43426</v>
       </c>
       <c r="B547" s="1" t="n">
-        <v>43426</v>
+        <v>43419</v>
       </c>
       <c r="C547" s="1" t="n">
         <v>43426</v>
@@ -26204,10 +26204,10 @@
         <v>43450</v>
       </c>
       <c r="B548" s="1" t="n">
-        <v>43450</v>
+        <v>43435</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>43450</v>
+        <v>43447</v>
       </c>
       <c r="D548" s="1" t="n">
         <v>43441</v>
@@ -26255,7 +26255,7 @@
         <v>43452</v>
       </c>
       <c r="B549" s="1" t="n">
-        <v>43452</v>
+        <v>43440</v>
       </c>
       <c r="C549" s="1" t="n">
         <v>43452</v>
@@ -26306,7 +26306,7 @@
         <v>43455</v>
       </c>
       <c r="B550" s="1" t="n">
-        <v>43455</v>
+        <v>43445</v>
       </c>
       <c r="C550" s="1" t="n">
         <v>43455</v>
@@ -26357,7 +26357,7 @@
         <v>43480</v>
       </c>
       <c r="B551" s="1" t="n">
-        <v>43480</v>
+        <v>43469</v>
       </c>
       <c r="C551" s="1" t="n">
         <v>43480</v>
@@ -26408,7 +26408,7 @@
         <v>43489</v>
       </c>
       <c r="B552" s="1" t="n">
-        <v>43489</v>
+        <v>43482</v>
       </c>
       <c r="C552" s="1" t="n">
         <v>43489</v>
@@ -26459,7 +26459,7 @@
         <v>43508</v>
       </c>
       <c r="B553" s="1" t="n">
-        <v>43508</v>
+        <v>43496</v>
       </c>
       <c r="C553" s="1" t="n">
         <v>43508</v>
@@ -26510,7 +26510,7 @@
         <v>43516</v>
       </c>
       <c r="B554" s="1" t="n">
-        <v>43516</v>
+        <v>43510</v>
       </c>
       <c r="C554" s="1" t="n">
         <v>43516</v>
@@ -26561,10 +26561,10 @@
         <v>43531</v>
       </c>
       <c r="B555" s="1" t="n">
-        <v>43531</v>
+        <v>43527</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>43531</v>
+        <v>43529</v>
       </c>
       <c r="D555" s="1" t="n">
         <v>43528</v>
@@ -26612,7 +26612,7 @@
         <v>43536</v>
       </c>
       <c r="B556" s="1" t="n">
-        <v>43536</v>
+        <v>43524</v>
       </c>
       <c r="C556" s="1" t="n">
         <v>43536</v>
@@ -26663,7 +26663,7 @@
         <v>43552</v>
       </c>
       <c r="B557" s="1" t="n">
-        <v>43552</v>
+        <v>43545</v>
       </c>
       <c r="C557" s="1" t="n">
         <v>43552</v>
@@ -26714,7 +26714,7 @@
         <v>43571</v>
       </c>
       <c r="B558" s="1" t="n">
-        <v>43571</v>
+        <v>43559</v>
       </c>
       <c r="C558" s="1" t="n">
         <v>43571</v>
@@ -26765,7 +26765,7 @@
         <v>43572</v>
       </c>
       <c r="B559" s="1" t="n">
-        <v>43572</v>
+        <v>43566</v>
       </c>
       <c r="C559" s="1" t="n">
         <v>43572</v>
@@ -26816,7 +26816,7 @@
         <v>43594</v>
       </c>
       <c r="B560" s="1" t="n">
-        <v>43594</v>
+        <v>43592</v>
       </c>
       <c r="C560" s="1" t="n">
         <v>43594</v>
@@ -26867,7 +26867,7 @@
         <v>43599</v>
       </c>
       <c r="B561" s="1" t="n">
-        <v>43599</v>
+        <v>43587</v>
       </c>
       <c r="C561" s="1" t="n">
         <v>43599</v>
@@ -26918,7 +26918,7 @@
         <v>43601</v>
       </c>
       <c r="B562" s="1" t="n">
-        <v>43601</v>
+        <v>43594</v>
       </c>
       <c r="C562" s="1" t="n">
         <v>43601</v>
@@ -27020,7 +27020,7 @@
         <v>43627</v>
       </c>
       <c r="B564" s="1" t="n">
-        <v>43627</v>
+        <v>43616</v>
       </c>
       <c r="C564" s="1" t="n">
         <v>43627</v>
@@ -27071,7 +27071,7 @@
         <v>43662</v>
       </c>
       <c r="B565" s="1" t="n">
-        <v>43662</v>
+        <v>43650</v>
       </c>
       <c r="C565" s="1" t="n">
         <v>43662</v>
@@ -27122,7 +27122,7 @@
         <v>43720</v>
       </c>
       <c r="B566" s="1" t="n">
-        <v>43720</v>
+        <v>43713</v>
       </c>
       <c r="C566" s="1" t="n">
         <v>43720</v>
@@ -27173,7 +27173,7 @@
         <v>43725</v>
       </c>
       <c r="B567" s="1" t="n">
-        <v>43725</v>
+        <v>43713</v>
       </c>
       <c r="C567" s="1" t="n">
         <v>43725</v>
@@ -27224,7 +27224,7 @@
         <v>43751</v>
       </c>
       <c r="B568" s="1" t="n">
-        <v>43751</v>
+        <v>43749</v>
       </c>
       <c r="C568" s="1" t="n">
         <v>43751</v>
@@ -27275,7 +27275,7 @@
         <v>43753</v>
       </c>
       <c r="B569" s="1" t="n">
-        <v>43753</v>
+        <v>43741</v>
       </c>
       <c r="C569" s="1" t="n">
         <v>43753</v>
@@ -27326,7 +27326,7 @@
         <v>43762</v>
       </c>
       <c r="B570" s="1" t="n">
-        <v>43762</v>
+        <v>43755</v>
       </c>
       <c r="C570" s="1" t="n">
         <v>43762</v>
@@ -27377,7 +27377,7 @@
         <v>43781</v>
       </c>
       <c r="B571" s="1" t="n">
-        <v>43781</v>
+        <v>43770</v>
       </c>
       <c r="C571" s="1" t="n">
         <v>43781</v>
@@ -27428,7 +27428,7 @@
         <v>43790</v>
       </c>
       <c r="B572" s="1" t="n">
-        <v>43790</v>
+        <v>43783</v>
       </c>
       <c r="C572" s="1" t="n">
         <v>43790</v>
@@ -27479,7 +27479,7 @@
         <v>43816</v>
       </c>
       <c r="B573" s="1" t="n">
-        <v>43816</v>
+        <v>43804</v>
       </c>
       <c r="C573" s="1" t="n">
         <v>43816</v>
@@ -27530,7 +27530,7 @@
         <v>43824</v>
       </c>
       <c r="B574" s="1" t="n">
-        <v>43824</v>
+        <v>43800</v>
       </c>
       <c r="C574" s="1" t="n">
         <v>43824</v>
@@ -27581,10 +27581,10 @@
         <v>43849</v>
       </c>
       <c r="B575" s="1" t="n">
-        <v>43849</v>
+        <v>43832</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>43849</v>
+        <v>43844</v>
       </c>
       <c r="D575" s="1" t="n">
         <v>43838</v>
@@ -27632,10 +27632,10 @@
         <v>43850</v>
       </c>
       <c r="B576" s="1" t="n">
-        <v>43850</v>
+        <v>43846</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>43850</v>
+        <v>43848</v>
       </c>
       <c r="D576" s="1" t="n">
         <v>43847</v>
@@ -27683,10 +27683,10 @@
         <v>43856</v>
       </c>
       <c r="B577" s="1" t="n">
-        <v>43856</v>
+        <v>43846</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>43856</v>
+        <v>43852</v>
       </c>
       <c r="D577" s="1" t="n">
         <v>43849</v>
@@ -27734,10 +27734,10 @@
         <v>43856</v>
       </c>
       <c r="B578" s="1" t="n">
-        <v>43856</v>
+        <v>43846</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>43856</v>
+        <v>43855</v>
       </c>
       <c r="D578" s="1" t="n">
         <v>43850</v>
@@ -27785,10 +27785,10 @@
         <v>43862</v>
       </c>
       <c r="B579" s="1" t="n">
-        <v>43862</v>
+        <v>43854</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>43862</v>
+        <v>43860</v>
       </c>
       <c r="D579" s="1" t="n">
         <v>43857</v>
@@ -27836,10 +27836,10 @@
         <v>43863</v>
       </c>
       <c r="B580" s="1" t="n">
-        <v>43863</v>
+        <v>43855</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>43863</v>
+        <v>43860</v>
       </c>
       <c r="D580" s="1" t="n">
         <v>43857</v>
@@ -27887,10 +27887,10 @@
         <v>43864</v>
       </c>
       <c r="B581" s="1" t="n">
-        <v>43864</v>
+        <v>43860</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>43864</v>
+        <v>43862</v>
       </c>
       <c r="D581" s="1" t="n">
         <v>43861</v>
@@ -27936,10 +27936,10 @@
         <v>43892</v>
       </c>
       <c r="B582" s="1" t="n">
-        <v>43892</v>
+        <v>43878</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>43892</v>
+        <v>43886</v>
       </c>
       <c r="D582" s="1" t="n">
         <v>43882</v>
@@ -27987,10 +27987,10 @@
         <v>43904</v>
       </c>
       <c r="B583" s="1" t="n">
-        <v>43904</v>
+        <v>43888</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>43904</v>
+        <v>43900</v>
       </c>
       <c r="D583" s="1" t="n">
         <v>43894</v>
@@ -28038,10 +28038,10 @@
         <v>43919</v>
       </c>
       <c r="B584" s="1" t="n">
-        <v>43919</v>
+        <v>43910</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="D584" s="1" t="n">
         <v>43912</v>
@@ -28089,10 +28089,10 @@
         <v>43954</v>
       </c>
       <c r="B585" s="1" t="n">
-        <v>43954</v>
+        <v>43944</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>43954</v>
+        <v>43950</v>
       </c>
       <c r="D585" s="1" t="n">
         <v>43947</v>
@@ -28140,10 +28140,10 @@
         <v>43975</v>
       </c>
       <c r="B586" s="1" t="n">
-        <v>43975</v>
+        <v>43970</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="D586" s="1" t="n">
         <v>43972</v>
@@ -28189,10 +28189,10 @@
         <v>43982</v>
       </c>
       <c r="B587" s="1" t="n">
-        <v>43982</v>
+        <v>43972</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>43982</v>
+        <v>43978</v>
       </c>
       <c r="D587" s="1" t="n">
         <v>43975</v>
@@ -28240,10 +28240,10 @@
         <v>43997</v>
       </c>
       <c r="B588" s="1" t="n">
-        <v>43997</v>
+        <v>43993</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>43997</v>
+        <v>43996</v>
       </c>
       <c r="D588" s="1" t="n">
         <v>43994</v>
@@ -28289,10 +28289,10 @@
         <v>44003</v>
       </c>
       <c r="B589" s="1" t="n">
-        <v>44003</v>
+        <v>44001</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>44003</v>
+        <v>44002</v>
       </c>
       <c r="D589" s="1" t="n">
         <v>44001</v>
@@ -28338,10 +28338,10 @@
         <v>44031</v>
       </c>
       <c r="B590" s="1" t="n">
-        <v>44031</v>
+        <v>44029</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="D590" s="1" t="n">
         <v>44029</v>
@@ -28387,10 +28387,10 @@
         <v>44045</v>
       </c>
       <c r="B591" s="1" t="n">
-        <v>44045</v>
+        <v>44029</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>44045</v>
+        <v>44040</v>
       </c>
       <c r="D591" s="1" t="n">
         <v>44034</v>
@@ -28438,10 +28438,10 @@
         <v>44066</v>
       </c>
       <c r="B592" s="1" t="n">
-        <v>44066</v>
+        <v>44064</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>44066</v>
+        <v>44065</v>
       </c>
       <c r="D592" s="1" t="n">
         <v>44064</v>
@@ -28489,10 +28489,10 @@
         <v>44087</v>
       </c>
       <c r="B593" s="1" t="n">
-        <v>44087</v>
+        <v>44077</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>44087</v>
+        <v>44083</v>
       </c>
       <c r="D593" s="1" t="n">
         <v>44080</v>
@@ -28540,10 +28540,10 @@
         <v>44094</v>
       </c>
       <c r="B594" s="1" t="n">
-        <v>44094</v>
+        <v>44077</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>44094</v>
+        <v>44089</v>
       </c>
       <c r="D594" s="1" t="n">
         <v>44083</v>
@@ -28591,10 +28591,10 @@
         <v>44101</v>
       </c>
       <c r="B595" s="1" t="n">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="D595" s="1" t="n">
         <v>44100</v>
@@ -28642,10 +28642,10 @@
         <v>44111</v>
       </c>
       <c r="B596" s="1" t="n">
-        <v>44111</v>
+        <v>44107</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>44111</v>
+        <v>44110</v>
       </c>
       <c r="D596" s="1" t="n">
         <v>44108</v>
@@ -28691,10 +28691,10 @@
         <v>44122</v>
       </c>
       <c r="B597" s="1" t="n">
-        <v>44122</v>
+        <v>44105</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>44122</v>
+        <v>44117</v>
       </c>
       <c r="D597" s="1" t="n">
         <v>44111</v>
@@ -28742,10 +28742,10 @@
         <v>44122</v>
       </c>
       <c r="B598" s="1" t="n">
-        <v>44122</v>
+        <v>44121</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>44122</v>
+        <v>44121</v>
       </c>
       <c r="D598" s="1" t="n">
         <v>44121</v>
@@ -28793,10 +28793,10 @@
         <v>44129</v>
       </c>
       <c r="B599" s="1" t="n">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="D599" s="1" t="n">
         <v>44128</v>
@@ -28844,10 +28844,10 @@
         <v>44164</v>
       </c>
       <c r="B600" s="1" t="n">
-        <v>44164</v>
+        <v>44154</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>44164</v>
+        <v>44160</v>
       </c>
       <c r="D600" s="1" t="n">
         <v>44157</v>
@@ -28895,10 +28895,10 @@
         <v>44164</v>
       </c>
       <c r="B601" s="1" t="n">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="D601" s="1" t="n">
         <v>44163</v>
@@ -28946,10 +28946,10 @@
         <v>44185</v>
       </c>
       <c r="B602" s="1" t="n">
-        <v>44185</v>
+        <v>44168</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>44185</v>
+        <v>44180</v>
       </c>
       <c r="D602" s="1" t="n">
         <v>44174</v>
@@ -28997,10 +28997,10 @@
         <v>44213</v>
       </c>
       <c r="B603" s="1" t="n">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="D603" s="1" t="n">
         <v>44212</v>
@@ -29048,10 +29048,10 @@
         <v>44227</v>
       </c>
       <c r="B604" s="1" t="n">
-        <v>44227</v>
+        <v>44217</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>44227</v>
+        <v>44224</v>
       </c>
       <c r="D604" s="1" t="n">
         <v>44220</v>
@@ -29099,10 +29099,10 @@
         <v>44241</v>
       </c>
       <c r="B605" s="1" t="n">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="D605" s="1" t="n">
         <v>44240</v>
@@ -29150,10 +29150,10 @@
         <v>44251</v>
       </c>
       <c r="B606" s="1" t="n">
-        <v>44251</v>
+        <v>44249</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="D606" s="1" t="n">
         <v>44249</v>
@@ -29201,10 +29201,10 @@
         <v>44255</v>
       </c>
       <c r="B607" s="1" t="n">
-        <v>44255</v>
+        <v>44245</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>44255</v>
+        <v>44252</v>
       </c>
       <c r="D607" s="1" t="n">
         <v>44248</v>
@@ -29252,10 +29252,10 @@
         <v>44276</v>
       </c>
       <c r="B608" s="1" t="n">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="D608" s="1" t="n">
         <v>44275</v>
@@ -29303,10 +29303,10 @@
         <v>44283</v>
       </c>
       <c r="B609" s="1" t="n">
-        <v>44283</v>
+        <v>44274</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>44283</v>
+        <v>44280</v>
       </c>
       <c r="D609" s="1" t="n">
         <v>44277</v>
@@ -29354,10 +29354,10 @@
         <v>44304</v>
       </c>
       <c r="B610" s="1" t="n">
-        <v>44304</v>
+        <v>44300</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>44304</v>
+        <v>44301</v>
       </c>
       <c r="D610" s="1" t="n">
         <v>44300</v>
@@ -29405,10 +29405,10 @@
         <v>44311</v>
       </c>
       <c r="B611" s="1" t="n">
-        <v>44311</v>
+        <v>44302</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>44311</v>
+        <v>44309</v>
       </c>
       <c r="D611" s="1" t="n">
         <v>44305</v>
@@ -29456,10 +29456,10 @@
         <v>44332</v>
       </c>
       <c r="B612" s="1" t="n">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="D612" s="1" t="n">
         <v>44331</v>
@@ -29507,10 +29507,10 @@
         <v>44339</v>
       </c>
       <c r="B613" s="1" t="n">
-        <v>44339</v>
+        <v>44320</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>44339</v>
+        <v>44334</v>
       </c>
       <c r="D613" s="1" t="n">
         <v>44327</v>
@@ -29558,10 +29558,10 @@
         <v>44346</v>
       </c>
       <c r="B614" s="1" t="n">
-        <v>44346</v>
+        <v>44337</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>44346</v>
+        <v>44342</v>
       </c>
       <c r="D614" s="1" t="n">
         <v>44339</v>
@@ -29609,10 +29609,10 @@
         <v>44360</v>
       </c>
       <c r="B615" s="1" t="n">
-        <v>44360</v>
+        <v>44343</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>44360</v>
+        <v>44355</v>
       </c>
       <c r="D615" s="1" t="n">
         <v>44349</v>
@@ -29660,10 +29660,10 @@
         <v>44363</v>
       </c>
       <c r="B616" s="1" t="n">
-        <v>44363</v>
+        <v>44361</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="D616" s="1" t="n">
         <v>44361</v>
@@ -29711,10 +29711,10 @@
         <v>44367</v>
       </c>
       <c r="B617" s="1" t="n">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="D617" s="1" t="n">
         <v>44366</v>
@@ -29762,10 +29762,10 @@
         <v>44374</v>
       </c>
       <c r="B618" s="1" t="n">
-        <v>44374</v>
+        <v>44365</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>44374</v>
+        <v>44371</v>
       </c>
       <c r="D618" s="1" t="n">
         <v>44368</v>
@@ -29813,10 +29813,10 @@
         <v>44395</v>
       </c>
       <c r="B619" s="1" t="n">
-        <v>44395</v>
+        <v>44378</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>44395</v>
+        <v>44390</v>
       </c>
       <c r="D619" s="1" t="n">
         <v>44384</v>
@@ -29864,10 +29864,10 @@
         <v>44395</v>
       </c>
       <c r="B620" s="1" t="n">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="D620" s="1" t="n">
         <v>44394</v>
@@ -29915,10 +29915,10 @@
         <v>44430</v>
       </c>
       <c r="B621" s="1" t="n">
-        <v>44430</v>
+        <v>44429</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>44430</v>
+        <v>44429</v>
       </c>
       <c r="D621" s="1" t="n">
         <v>44429</v>
@@ -29966,10 +29966,10 @@
         <v>44451</v>
       </c>
       <c r="B622" s="1" t="n">
-        <v>44451</v>
+        <v>44434</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>44451</v>
+        <v>44445</v>
       </c>
       <c r="D622" s="1" t="n">
         <v>44439</v>
@@ -30017,10 +30017,10 @@
         <v>44451</v>
       </c>
       <c r="B623" s="1" t="n">
-        <v>44451</v>
+        <v>44443</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>44451</v>
+        <v>44449</v>
       </c>
       <c r="D623" s="1" t="n">
         <v>44446</v>
@@ -30068,10 +30068,10 @@
         <v>44458</v>
       </c>
       <c r="B624" s="1" t="n">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="D624" s="1" t="n">
         <v>44457</v>
@@ -30119,10 +30119,10 @@
         <v>44475</v>
       </c>
       <c r="B625" s="1" t="n">
-        <v>44475</v>
+        <v>44471</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="D625" s="1" t="n">
         <v>44472</v>
@@ -30170,10 +30170,10 @@
         <v>44486</v>
       </c>
       <c r="B626" s="1" t="n">
-        <v>44486</v>
+        <v>44485</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>44486</v>
+        <v>44485</v>
       </c>
       <c r="D626" s="1" t="n">
         <v>44485</v>
@@ -30221,10 +30221,10 @@
         <v>44486</v>
       </c>
       <c r="B627" s="1" t="n">
-        <v>44486</v>
+        <v>44469</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>44486</v>
+        <v>44481</v>
       </c>
       <c r="D627" s="1" t="n">
         <v>44475</v>
@@ -30272,10 +30272,10 @@
         <v>44493</v>
       </c>
       <c r="B628" s="1" t="n">
-        <v>44493</v>
+        <v>44485</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>44493</v>
+        <v>44491</v>
       </c>
       <c r="D628" s="1" t="n">
         <v>44488</v>
@@ -30323,10 +30323,10 @@
         <v>44514</v>
       </c>
       <c r="B629" s="1" t="n">
-        <v>44514</v>
+        <v>44497</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>44514</v>
+        <v>44509</v>
       </c>
       <c r="D629" s="1" t="n">
         <v>44503</v>
@@ -30374,10 +30374,10 @@
         <v>44514</v>
       </c>
       <c r="B630" s="1" t="n">
-        <v>44514</v>
+        <v>44513</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>44514</v>
+        <v>44513</v>
       </c>
       <c r="D630" s="1" t="n">
         <v>44513</v>
@@ -30425,10 +30425,10 @@
         <v>44528</v>
       </c>
       <c r="B631" s="1" t="n">
-        <v>44528</v>
+        <v>44519</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>44528</v>
+        <v>44525</v>
       </c>
       <c r="D631" s="1" t="n">
         <v>44522</v>
@@ -30476,10 +30476,10 @@
         <v>44540</v>
       </c>
       <c r="B632" s="1" t="n">
-        <v>44540</v>
+        <v>44535</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>44540</v>
+        <v>44538</v>
       </c>
       <c r="D632" s="1" t="n">
         <v>44536</v>
@@ -30527,10 +30527,10 @@
         <v>44542</v>
       </c>
       <c r="B633" s="1" t="n">
-        <v>44542</v>
+        <v>44525</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>44542</v>
+        <v>44538</v>
       </c>
       <c r="D633" s="1" t="n">
         <v>44531</v>
@@ -30578,10 +30578,10 @@
         <v>44542</v>
       </c>
       <c r="B634" s="1" t="n">
-        <v>44542</v>
+        <v>44541</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>44542</v>
+        <v>44541</v>
       </c>
       <c r="D634" s="1" t="n">
         <v>44541</v>
@@ -30629,10 +30629,10 @@
         <v>44570</v>
       </c>
       <c r="B635" s="1" t="n">
-        <v>44570</v>
+        <v>44568</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>44570</v>
+        <v>44568</v>
       </c>
       <c r="D635" s="1" t="n">
         <v>44568</v>
@@ -30680,10 +30680,10 @@
         <v>44584</v>
       </c>
       <c r="B636" s="1" t="n">
-        <v>44584</v>
+        <v>44567</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>44584</v>
+        <v>44579</v>
       </c>
       <c r="D636" s="1" t="n">
         <v>44573</v>
@@ -30731,10 +30731,10 @@
         <v>44591</v>
       </c>
       <c r="B637" s="1" t="n">
-        <v>44591</v>
+        <v>44582</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>44591</v>
+        <v>44587</v>
       </c>
       <c r="D637" s="1" t="n">
         <v>44584</v>
@@ -30782,10 +30782,10 @@
         <v>44598</v>
       </c>
       <c r="B638" s="1" t="n">
-        <v>44598</v>
+        <v>44596</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="D638" s="1" t="n">
         <v>44596</v>
@@ -30833,10 +30833,10 @@
         <v>44605</v>
       </c>
       <c r="B639" s="1" t="n">
-        <v>44605</v>
+        <v>44588</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>44605</v>
+        <v>44600</v>
       </c>
       <c r="D639" s="1" t="n">
         <v>44594</v>
@@ -30884,10 +30884,10 @@
         <v>44619</v>
       </c>
       <c r="B640" s="1" t="n">
-        <v>44619</v>
+        <v>44610</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>44619</v>
+        <v>44615</v>
       </c>
       <c r="D640" s="1" t="n">
         <v>44612</v>
@@ -30935,10 +30935,10 @@
         <v>44626</v>
       </c>
       <c r="B641" s="1" t="n">
-        <v>44626</v>
+        <v>44624</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>44626</v>
+        <v>44624</v>
       </c>
       <c r="D641" s="1" t="n">
         <v>44624</v>
@@ -30986,10 +30986,10 @@
         <v>44633</v>
       </c>
       <c r="B642" s="1" t="n">
-        <v>44633</v>
+        <v>44616</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>44633</v>
+        <v>44628</v>
       </c>
       <c r="D642" s="1" t="n">
         <v>44622</v>
@@ -31037,10 +31037,10 @@
         <v>44647</v>
       </c>
       <c r="B643" s="1" t="n">
-        <v>44647</v>
+        <v>44638</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>44647</v>
+        <v>44643</v>
       </c>
       <c r="D643" s="1" t="n">
         <v>44640</v>
@@ -31081,6 +31081,57 @@
       </c>
       <c r="S643" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>44654</v>
+      </c>
+      <c r="B644" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="C644" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="D644" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E644" t="s">
+        <v>29</v>
+      </c>
+      <c r="F644" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G644" t="n">
+        <v>18</v>
+      </c>
+      <c r="H644" t="n">
+        <v>22</v>
+      </c>
+      <c r="I644" t="n">
+        <v>33</v>
+      </c>
+      <c r="J644" t="n">
+        <v>4</v>
+      </c>
+      <c r="K644" t="n">
+        <v>3</v>
+      </c>
+      <c r="L644"/>
+      <c r="M644"/>
+      <c r="N644"/>
+      <c r="O644" t="n">
+        <v>2</v>
+      </c>
+      <c r="P644"/>
+      <c r="Q644" t="n">
+        <v>6</v>
+      </c>
+      <c r="R644" t="n">
+        <v>3</v>
+      </c>
+      <c r="S644" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -31134,6 +31134,57 @@
         <v>9</v>
       </c>
     </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>44664</v>
+      </c>
+      <c r="B645" s="1" t="n">
+        <v>44662</v>
+      </c>
+      <c r="C645" s="1" t="n">
+        <v>44663</v>
+      </c>
+      <c r="D645" s="1" t="n">
+        <v>44662</v>
+      </c>
+      <c r="E645" t="s">
+        <v>27</v>
+      </c>
+      <c r="F645" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G645" t="n">
+        <v>23</v>
+      </c>
+      <c r="H645" t="n">
+        <v>22</v>
+      </c>
+      <c r="I645" t="n">
+        <v>33</v>
+      </c>
+      <c r="J645" t="n">
+        <v>4</v>
+      </c>
+      <c r="K645" t="n">
+        <v>3</v>
+      </c>
+      <c r="L645"/>
+      <c r="M645"/>
+      <c r="N645"/>
+      <c r="O645" t="n">
+        <v>1</v>
+      </c>
+      <c r="P645"/>
+      <c r="Q645" t="n">
+        <v>2</v>
+      </c>
+      <c r="R645" t="n">
+        <v>1</v>
+      </c>
+      <c r="S645" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -29825,7 +29825,7 @@
         <v>28</v>
       </c>
       <c r="F619" t="n">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G619" t="n">
         <v>20</v>
@@ -29876,7 +29876,7 @@
         <v>29</v>
       </c>
       <c r="F620" t="n">
-        <v>1250</v>
+        <v>1001</v>
       </c>
       <c r="G620" t="n">
         <v>14</v>
@@ -31185,6 +31185,57 @@
         <v>11</v>
       </c>
     </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B646" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="C646" s="1" t="n">
+        <v>44671</v>
+      </c>
+      <c r="D646" s="1" t="n">
+        <v>44661</v>
+      </c>
+      <c r="E646" t="s">
+        <v>28</v>
+      </c>
+      <c r="F646" t="n">
+        <v>957</v>
+      </c>
+      <c r="G646" t="n">
+        <v>23</v>
+      </c>
+      <c r="H646" t="n">
+        <v>24</v>
+      </c>
+      <c r="I646" t="n">
+        <v>32</v>
+      </c>
+      <c r="J646" t="n">
+        <v>5</v>
+      </c>
+      <c r="K646" t="n">
+        <v>4</v>
+      </c>
+      <c r="L646"/>
+      <c r="M646"/>
+      <c r="N646"/>
+      <c r="O646" t="n">
+        <v>1</v>
+      </c>
+      <c r="P646"/>
+      <c r="Q646" t="n">
+        <v>2</v>
+      </c>
+      <c r="R646" t="n">
+        <v>1</v>
+      </c>
+      <c r="S646" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -31236,6 +31236,57 @@
         <v>8</v>
       </c>
     </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B647" s="1" t="n">
+        <v>44673</v>
+      </c>
+      <c r="C647" s="1" t="n">
+        <v>44678</v>
+      </c>
+      <c r="D647" s="1" t="n">
+        <v>44675</v>
+      </c>
+      <c r="E647" t="s">
+        <v>24</v>
+      </c>
+      <c r="F647" t="n">
+        <v>1014</v>
+      </c>
+      <c r="G647" t="n">
+        <v>16</v>
+      </c>
+      <c r="H647" t="n">
+        <v>21</v>
+      </c>
+      <c r="I647" t="n">
+        <v>34</v>
+      </c>
+      <c r="J647" t="n">
+        <v>4</v>
+      </c>
+      <c r="K647" t="n">
+        <v>4</v>
+      </c>
+      <c r="L647"/>
+      <c r="M647"/>
+      <c r="N647"/>
+      <c r="O647" t="n">
+        <v>3</v>
+      </c>
+      <c r="P647"/>
+      <c r="Q647" t="n">
+        <v>5</v>
+      </c>
+      <c r="R647" t="n">
+        <v>2</v>
+      </c>
+      <c r="S647" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -31287,6 +31287,57 @@
         <v>11</v>
       </c>
     </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="B648" s="1" t="n">
+        <v>44687</v>
+      </c>
+      <c r="C648" s="1" t="n">
+        <v>44687</v>
+      </c>
+      <c r="D648" s="1" t="n">
+        <v>44687</v>
+      </c>
+      <c r="E648" t="s">
+        <v>29</v>
+      </c>
+      <c r="F648" t="n">
+        <v>1002</v>
+      </c>
+      <c r="G648" t="n">
+        <v>16</v>
+      </c>
+      <c r="H648" t="n">
+        <v>23</v>
+      </c>
+      <c r="I648" t="n">
+        <v>34</v>
+      </c>
+      <c r="J648" t="n">
+        <v>4</v>
+      </c>
+      <c r="K648" t="n">
+        <v>4</v>
+      </c>
+      <c r="L648"/>
+      <c r="M648"/>
+      <c r="N648"/>
+      <c r="O648" t="n">
+        <v>3</v>
+      </c>
+      <c r="P648"/>
+      <c r="Q648" t="n">
+        <v>4</v>
+      </c>
+      <c r="R648" t="n">
+        <v>3</v>
+      </c>
+      <c r="S648" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -31338,6 +31338,57 @@
         <v>9</v>
       </c>
     </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>44696</v>
+      </c>
+      <c r="B649" s="1" t="n">
+        <v>44679</v>
+      </c>
+      <c r="C649" s="1" t="n">
+        <v>44691</v>
+      </c>
+      <c r="D649" s="1" t="n">
+        <v>44685</v>
+      </c>
+      <c r="E649" t="s">
+        <v>28</v>
+      </c>
+      <c r="F649" t="n">
+        <v>908</v>
+      </c>
+      <c r="G649" t="n">
+        <v>24</v>
+      </c>
+      <c r="H649" t="n">
+        <v>19</v>
+      </c>
+      <c r="I649" t="n">
+        <v>36</v>
+      </c>
+      <c r="J649" t="n">
+        <v>5</v>
+      </c>
+      <c r="K649" t="n">
+        <v>2</v>
+      </c>
+      <c r="L649"/>
+      <c r="M649"/>
+      <c r="N649"/>
+      <c r="O649" t="n">
+        <v>2</v>
+      </c>
+      <c r="P649"/>
+      <c r="Q649" t="n">
+        <v>2</v>
+      </c>
+      <c r="R649" t="n">
+        <v>1</v>
+      </c>
+      <c r="S649" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -23500,16 +23500,16 @@
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>42385</v>
+        <v>42751</v>
       </c>
       <c r="B495" s="1" t="n">
-        <v>42372</v>
+        <v>42738</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>42385</v>
+        <v>42751</v>
       </c>
       <c r="D495" s="1" t="n">
-        <v>42378</v>
+        <v>42744</v>
       </c>
       <c r="E495" t="s">
         <v>28</v>
@@ -27999,7 +27999,7 @@
         <v>28</v>
       </c>
       <c r="F583" t="n">
-        <v>212</v>
+        <v>912</v>
       </c>
       <c r="G583" t="n">
         <v>19</v>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -31389,6 +31389,57 @@
         <v>9</v>
       </c>
     </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>44710</v>
+      </c>
+      <c r="B650" s="1" t="n">
+        <v>44701</v>
+      </c>
+      <c r="C650" s="1" t="n">
+        <v>44706</v>
+      </c>
+      <c r="D650" s="1" t="n">
+        <v>44703</v>
+      </c>
+      <c r="E650" t="s">
+        <v>24</v>
+      </c>
+      <c r="F650" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G650" t="n">
+        <v>15</v>
+      </c>
+      <c r="H650" t="n">
+        <v>20</v>
+      </c>
+      <c r="I650" t="n">
+        <v>36</v>
+      </c>
+      <c r="J650" t="n">
+        <v>3</v>
+      </c>
+      <c r="K650" t="n">
+        <v>5</v>
+      </c>
+      <c r="L650"/>
+      <c r="M650"/>
+      <c r="N650"/>
+      <c r="O650" t="n">
+        <v>3</v>
+      </c>
+      <c r="P650"/>
+      <c r="Q650" t="n">
+        <v>4</v>
+      </c>
+      <c r="R650" t="n">
+        <v>2</v>
+      </c>
+      <c r="S650" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -31406,7 +31406,7 @@
         <v>24</v>
       </c>
       <c r="F650" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="G650" t="n">
         <v>15</v>
@@ -31438,6 +31438,57 @@
       </c>
       <c r="S650" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>44717</v>
+      </c>
+      <c r="B651" s="1" t="n">
+        <v>44716</v>
+      </c>
+      <c r="C651" s="1" t="n">
+        <v>44716</v>
+      </c>
+      <c r="D651" s="1" t="n">
+        <v>44716</v>
+      </c>
+      <c r="E651" t="s">
+        <v>29</v>
+      </c>
+      <c r="F651" t="n">
+        <v>1211</v>
+      </c>
+      <c r="G651" t="n">
+        <v>17</v>
+      </c>
+      <c r="H651" t="n">
+        <v>20</v>
+      </c>
+      <c r="I651" t="n">
+        <v>35</v>
+      </c>
+      <c r="J651" t="n">
+        <v>4</v>
+      </c>
+      <c r="K651" t="n">
+        <v>3</v>
+      </c>
+      <c r="L651"/>
+      <c r="M651"/>
+      <c r="N651"/>
+      <c r="O651" t="n">
+        <v>3</v>
+      </c>
+      <c r="P651"/>
+      <c r="Q651" t="n">
+        <v>5</v>
+      </c>
+      <c r="R651" t="n">
+        <v>3</v>
+      </c>
+      <c r="S651" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -110,8 +110,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -148,7 +150,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,10 +437,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -31491,6 +31493,57 @@
         <v>10</v>
       </c>
     </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>44724</v>
+      </c>
+      <c r="B652" s="1" t="n">
+        <v>44706</v>
+      </c>
+      <c r="C652" s="1" t="n">
+        <v>44719</v>
+      </c>
+      <c r="D652" s="1" t="n">
+        <v>44712</v>
+      </c>
+      <c r="E652" t="s">
+        <v>28</v>
+      </c>
+      <c r="F652" t="n">
+        <v>917</v>
+      </c>
+      <c r="G652" t="n">
+        <v>22</v>
+      </c>
+      <c r="H652" t="n">
+        <v>23</v>
+      </c>
+      <c r="I652" t="n">
+        <v>37</v>
+      </c>
+      <c r="J652" t="n">
+        <v>5</v>
+      </c>
+      <c r="K652" t="n">
+        <v>4</v>
+      </c>
+      <c r="L652"/>
+      <c r="M652"/>
+      <c r="N652"/>
+      <c r="O652" t="n">
+        <v>1</v>
+      </c>
+      <c r="P652"/>
+      <c r="Q652" t="n">
+        <v>0</v>
+      </c>
+      <c r="R652" t="n">
+        <v>1</v>
+      </c>
+      <c r="S652" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -31544,6 +31544,57 @@
         <v>7</v>
       </c>
     </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>44738</v>
+      </c>
+      <c r="B653" s="1" t="n">
+        <v>44729</v>
+      </c>
+      <c r="C653" s="1" t="n">
+        <v>44734</v>
+      </c>
+      <c r="D653" s="1" t="n">
+        <v>44731</v>
+      </c>
+      <c r="E653" t="s">
+        <v>24</v>
+      </c>
+      <c r="F653" t="n">
+        <v>1004</v>
+      </c>
+      <c r="G653" t="n">
+        <v>14</v>
+      </c>
+      <c r="H653" t="n">
+        <v>19</v>
+      </c>
+      <c r="I653" t="n">
+        <v>36</v>
+      </c>
+      <c r="J653" t="n">
+        <v>3</v>
+      </c>
+      <c r="K653" t="n">
+        <v>4</v>
+      </c>
+      <c r="L653"/>
+      <c r="M653"/>
+      <c r="N653"/>
+      <c r="O653" t="n">
+        <v>4</v>
+      </c>
+      <c r="P653"/>
+      <c r="Q653" t="n">
+        <v>4</v>
+      </c>
+      <c r="R653" t="n">
+        <v>3</v>
+      </c>
+      <c r="S653" t="n">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -31595,6 +31595,57 @@
         <v>13</v>
       </c>
     </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="B654" s="1" t="n">
+        <v>44743</v>
+      </c>
+      <c r="C654" s="1" t="n">
+        <v>44743</v>
+      </c>
+      <c r="D654" s="1" t="n">
+        <v>44743</v>
+      </c>
+      <c r="E654" t="s">
+        <v>29</v>
+      </c>
+      <c r="F654" t="n">
+        <v>1333</v>
+      </c>
+      <c r="G654" t="n">
+        <v>15</v>
+      </c>
+      <c r="H654" t="n">
+        <v>22</v>
+      </c>
+      <c r="I654" t="n">
+        <v>36</v>
+      </c>
+      <c r="J654" t="n">
+        <v>4</v>
+      </c>
+      <c r="K654" t="n">
+        <v>4</v>
+      </c>
+      <c r="L654"/>
+      <c r="M654"/>
+      <c r="N654"/>
+      <c r="O654" t="n">
+        <v>3</v>
+      </c>
+      <c r="P654"/>
+      <c r="Q654" t="n">
+        <v>3</v>
+      </c>
+      <c r="R654" t="n">
+        <v>3</v>
+      </c>
+      <c r="S654" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -31646,6 +31646,57 @@
         <v>10</v>
       </c>
     </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B655" s="1" t="n">
+        <v>44752</v>
+      </c>
+      <c r="C655" s="1" t="n">
+        <v>44754</v>
+      </c>
+      <c r="D655" s="1" t="n">
+        <v>44753</v>
+      </c>
+      <c r="E655" t="s">
+        <v>27</v>
+      </c>
+      <c r="F655" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G655" t="n">
+        <v>20</v>
+      </c>
+      <c r="H655" t="n">
+        <v>18</v>
+      </c>
+      <c r="I655" t="n">
+        <v>36</v>
+      </c>
+      <c r="J655" t="n">
+        <v>4</v>
+      </c>
+      <c r="K655" t="n">
+        <v>3</v>
+      </c>
+      <c r="L655"/>
+      <c r="M655"/>
+      <c r="N655"/>
+      <c r="O655" t="n">
+        <v>3</v>
+      </c>
+      <c r="P655"/>
+      <c r="Q655" t="n">
+        <v>2</v>
+      </c>
+      <c r="R655" t="n">
+        <v>1</v>
+      </c>
+      <c r="S655" t="n">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -31697,6 +31697,57 @@
         <v>13</v>
       </c>
     </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>44759</v>
+      </c>
+      <c r="B656" s="1" t="n">
+        <v>44742</v>
+      </c>
+      <c r="C656" s="1" t="n">
+        <v>44754</v>
+      </c>
+      <c r="D656" s="1" t="n">
+        <v>44748</v>
+      </c>
+      <c r="E656" t="s">
+        <v>28</v>
+      </c>
+      <c r="F656" t="n">
+        <v>917</v>
+      </c>
+      <c r="G656" t="n">
+        <v>21</v>
+      </c>
+      <c r="H656" t="n">
+        <v>21</v>
+      </c>
+      <c r="I656" t="n">
+        <v>36</v>
+      </c>
+      <c r="J656" t="n">
+        <v>6</v>
+      </c>
+      <c r="K656" t="n">
+        <v>5</v>
+      </c>
+      <c r="L656"/>
+      <c r="M656"/>
+      <c r="N656"/>
+      <c r="O656" t="n">
+        <v>1</v>
+      </c>
+      <c r="P656"/>
+      <c r="Q656" t="n">
+        <v>2</v>
+      </c>
+      <c r="R656" t="n">
+        <v>1</v>
+      </c>
+      <c r="S656" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -31748,6 +31748,57 @@
         <v>7</v>
       </c>
     </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>44780</v>
+      </c>
+      <c r="B657" s="1" t="n">
+        <v>44778</v>
+      </c>
+      <c r="C657" s="1" t="n">
+        <v>44779</v>
+      </c>
+      <c r="D657" s="1" t="n">
+        <v>44778</v>
+      </c>
+      <c r="E657" t="s">
+        <v>29</v>
+      </c>
+      <c r="F657" t="n">
+        <v>1180</v>
+      </c>
+      <c r="G657" t="n">
+        <v>17</v>
+      </c>
+      <c r="H657" t="n">
+        <v>22</v>
+      </c>
+      <c r="I657" t="n">
+        <v>35</v>
+      </c>
+      <c r="J657" t="n">
+        <v>3</v>
+      </c>
+      <c r="K657" t="n">
+        <v>4</v>
+      </c>
+      <c r="L657"/>
+      <c r="M657"/>
+      <c r="N657"/>
+      <c r="O657" t="n">
+        <v>4</v>
+      </c>
+      <c r="P657"/>
+      <c r="Q657" t="n">
+        <v>4</v>
+      </c>
+      <c r="R657" t="n">
+        <v>3</v>
+      </c>
+      <c r="S657" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -31799,6 +31799,57 @@
         <v>8</v>
       </c>
     </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>44808</v>
+      </c>
+      <c r="B658" s="1" t="n">
+        <v>44806</v>
+      </c>
+      <c r="C658" s="1" t="n">
+        <v>44807</v>
+      </c>
+      <c r="D658" s="1" t="n">
+        <v>44806</v>
+      </c>
+      <c r="E658" t="s">
+        <v>29</v>
+      </c>
+      <c r="F658" t="n">
+        <v>1127</v>
+      </c>
+      <c r="G658" t="n">
+        <v>16</v>
+      </c>
+      <c r="H658" t="n">
+        <v>21</v>
+      </c>
+      <c r="I658" t="n">
+        <v>36</v>
+      </c>
+      <c r="J658" t="n">
+        <v>3</v>
+      </c>
+      <c r="K658" t="n">
+        <v>2</v>
+      </c>
+      <c r="L658"/>
+      <c r="M658"/>
+      <c r="N658"/>
+      <c r="O658" t="n">
+        <v>5</v>
+      </c>
+      <c r="P658"/>
+      <c r="Q658" t="n">
+        <v>4</v>
+      </c>
+      <c r="R658" t="n">
+        <v>3</v>
+      </c>
+      <c r="S658" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -31850,6 +31850,108 @@
         <v>10</v>
       </c>
     </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>44815</v>
+      </c>
+      <c r="B659" s="1" t="n">
+        <v>44805</v>
+      </c>
+      <c r="C659" s="1" t="n">
+        <v>44810</v>
+      </c>
+      <c r="D659" s="1" t="n">
+        <v>44807</v>
+      </c>
+      <c r="E659" t="s">
+        <v>24</v>
+      </c>
+      <c r="F659" t="n">
+        <v>1004</v>
+      </c>
+      <c r="G659" t="n">
+        <v>17</v>
+      </c>
+      <c r="H659" t="n">
+        <v>18</v>
+      </c>
+      <c r="I659" t="n">
+        <v>35</v>
+      </c>
+      <c r="J659" t="n">
+        <v>4</v>
+      </c>
+      <c r="K659" t="n">
+        <v>5</v>
+      </c>
+      <c r="L659"/>
+      <c r="M659"/>
+      <c r="N659"/>
+      <c r="O659" t="n">
+        <v>3</v>
+      </c>
+      <c r="P659"/>
+      <c r="Q659" t="n">
+        <v>4</v>
+      </c>
+      <c r="R659" t="n">
+        <v>2</v>
+      </c>
+      <c r="S659" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>44815</v>
+      </c>
+      <c r="B660" s="1" t="n">
+        <v>44798</v>
+      </c>
+      <c r="C660" s="1" t="n">
+        <v>44810</v>
+      </c>
+      <c r="D660" s="1" t="n">
+        <v>44804</v>
+      </c>
+      <c r="E660" t="s">
+        <v>28</v>
+      </c>
+      <c r="F660" t="n">
+        <v>905</v>
+      </c>
+      <c r="G660" t="n">
+        <v>24</v>
+      </c>
+      <c r="H660" t="n">
+        <v>20</v>
+      </c>
+      <c r="I660" t="n">
+        <v>35</v>
+      </c>
+      <c r="J660" t="n">
+        <v>4</v>
+      </c>
+      <c r="K660" t="n">
+        <v>5</v>
+      </c>
+      <c r="L660"/>
+      <c r="M660"/>
+      <c r="N660"/>
+      <c r="O660" t="n">
+        <v>2</v>
+      </c>
+      <c r="P660"/>
+      <c r="Q660" t="n">
+        <v>3</v>
+      </c>
+      <c r="R660" t="n">
+        <v>0</v>
+      </c>
+      <c r="S660" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -31952,6 +31952,57 @@
         <v>7</v>
       </c>
     </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>44836</v>
+      </c>
+      <c r="B661" s="1" t="n">
+        <v>44834</v>
+      </c>
+      <c r="C661" s="1" t="n">
+        <v>44835</v>
+      </c>
+      <c r="D661" s="1" t="n">
+        <v>44834</v>
+      </c>
+      <c r="E661" t="s">
+        <v>29</v>
+      </c>
+      <c r="F661" t="n">
+        <v>1254</v>
+      </c>
+      <c r="G661" t="n">
+        <v>17</v>
+      </c>
+      <c r="H661" t="n">
+        <v>21</v>
+      </c>
+      <c r="I661" t="n">
+        <v>37</v>
+      </c>
+      <c r="J661" t="n">
+        <v>3</v>
+      </c>
+      <c r="K661" t="n">
+        <v>4</v>
+      </c>
+      <c r="L661"/>
+      <c r="M661"/>
+      <c r="N661"/>
+      <c r="O661" t="n">
+        <v>4</v>
+      </c>
+      <c r="P661"/>
+      <c r="Q661" t="n">
+        <v>3</v>
+      </c>
+      <c r="R661" t="n">
+        <v>3</v>
+      </c>
+      <c r="S661" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -32003,6 +32003,57 @@
         <v>8</v>
       </c>
     </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>44850</v>
+      </c>
+      <c r="B662" s="1" t="n">
+        <v>44833</v>
+      </c>
+      <c r="C662" s="1" t="n">
+        <v>44845</v>
+      </c>
+      <c r="D662" s="1" t="n">
+        <v>44839</v>
+      </c>
+      <c r="E662" t="s">
+        <v>28</v>
+      </c>
+      <c r="F662" t="n">
+        <v>938</v>
+      </c>
+      <c r="G662" t="n">
+        <v>22</v>
+      </c>
+      <c r="H662" t="n">
+        <v>21</v>
+      </c>
+      <c r="I662" t="n">
+        <v>34</v>
+      </c>
+      <c r="J662" t="n">
+        <v>6</v>
+      </c>
+      <c r="K662" t="n">
+        <v>4</v>
+      </c>
+      <c r="L662"/>
+      <c r="M662"/>
+      <c r="N662"/>
+      <c r="O662" t="n">
+        <v>2</v>
+      </c>
+      <c r="P662"/>
+      <c r="Q662" t="n">
+        <v>2</v>
+      </c>
+      <c r="R662" t="n">
+        <v>0</v>
+      </c>
+      <c r="S662" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -32054,6 +32054,57 @@
         <v>9</v>
       </c>
     </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>44861</v>
+      </c>
+      <c r="B663" s="1" t="n">
+        <v>44857</v>
+      </c>
+      <c r="C663" s="1" t="n">
+        <v>44859</v>
+      </c>
+      <c r="D663" s="1" t="n">
+        <v>44858</v>
+      </c>
+      <c r="E663" t="s">
+        <v>27</v>
+      </c>
+      <c r="F663" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G663" t="n">
+        <v>21</v>
+      </c>
+      <c r="H663" t="n">
+        <v>22</v>
+      </c>
+      <c r="I663" t="n">
+        <v>35</v>
+      </c>
+      <c r="J663" t="n">
+        <v>3</v>
+      </c>
+      <c r="K663" t="n">
+        <v>4</v>
+      </c>
+      <c r="L663"/>
+      <c r="M663"/>
+      <c r="N663"/>
+      <c r="O663" t="n">
+        <v>2</v>
+      </c>
+      <c r="P663"/>
+      <c r="Q663" t="n">
+        <v>3</v>
+      </c>
+      <c r="R663" t="n">
+        <v>1</v>
+      </c>
+      <c r="S663" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -32105,6 +32105,57 @@
         <v>9</v>
       </c>
     </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>44864</v>
+      </c>
+      <c r="B664" s="1" t="n">
+        <v>44855</v>
+      </c>
+      <c r="C664" s="1" t="n">
+        <v>44861</v>
+      </c>
+      <c r="D664" s="1" t="n">
+        <v>44858</v>
+      </c>
+      <c r="E664" t="s">
+        <v>24</v>
+      </c>
+      <c r="F664" t="n">
+        <v>1004</v>
+      </c>
+      <c r="G664" t="n">
+        <v>16</v>
+      </c>
+      <c r="H664" t="n">
+        <v>21</v>
+      </c>
+      <c r="I664" t="n">
+        <v>35</v>
+      </c>
+      <c r="J664" t="n">
+        <v>4</v>
+      </c>
+      <c r="K664" t="n">
+        <v>4</v>
+      </c>
+      <c r="L664"/>
+      <c r="M664"/>
+      <c r="N664"/>
+      <c r="O664" t="n">
+        <v>2</v>
+      </c>
+      <c r="P664"/>
+      <c r="Q664" t="n">
+        <v>4</v>
+      </c>
+      <c r="R664" t="n">
+        <v>1</v>
+      </c>
+      <c r="S664" t="n">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -32156,6 +32156,57 @@
         <v>13</v>
       </c>
     </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>44871</v>
+      </c>
+      <c r="B665" s="1" t="n">
+        <v>44869</v>
+      </c>
+      <c r="C665" s="1" t="n">
+        <v>44870</v>
+      </c>
+      <c r="D665" s="1" t="n">
+        <v>44869</v>
+      </c>
+      <c r="E665" t="s">
+        <v>29</v>
+      </c>
+      <c r="F665" t="n">
+        <v>1002</v>
+      </c>
+      <c r="G665" t="n">
+        <v>17</v>
+      </c>
+      <c r="H665" t="n">
+        <v>21</v>
+      </c>
+      <c r="I665" t="n">
+        <v>34</v>
+      </c>
+      <c r="J665" t="n">
+        <v>3</v>
+      </c>
+      <c r="K665" t="n">
+        <v>3</v>
+      </c>
+      <c r="L665"/>
+      <c r="M665"/>
+      <c r="N665"/>
+      <c r="O665" t="n">
+        <v>5</v>
+      </c>
+      <c r="P665"/>
+      <c r="Q665" t="n">
+        <v>4</v>
+      </c>
+      <c r="R665" t="n">
+        <v>4</v>
+      </c>
+      <c r="S665" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -32207,6 +32207,57 @@
         <v>9</v>
       </c>
     </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>44878</v>
+      </c>
+      <c r="B666" s="1" t="n">
+        <v>44861</v>
+      </c>
+      <c r="C666" s="1" t="n">
+        <v>44873</v>
+      </c>
+      <c r="D666" s="1" t="n">
+        <v>44867</v>
+      </c>
+      <c r="E666" t="s">
+        <v>28</v>
+      </c>
+      <c r="F666" t="n">
+        <v>923</v>
+      </c>
+      <c r="G666" t="n">
+        <v>23</v>
+      </c>
+      <c r="H666" t="n">
+        <v>21</v>
+      </c>
+      <c r="I666" t="n">
+        <v>34</v>
+      </c>
+      <c r="J666" t="n">
+        <v>5</v>
+      </c>
+      <c r="K666" t="n">
+        <v>4</v>
+      </c>
+      <c r="L666"/>
+      <c r="M666"/>
+      <c r="N666"/>
+      <c r="O666" t="n">
+        <v>1</v>
+      </c>
+      <c r="P666"/>
+      <c r="Q666" t="n">
+        <v>2</v>
+      </c>
+      <c r="R666" t="n">
+        <v>1</v>
+      </c>
+      <c r="S666" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -32258,6 +32258,57 @@
         <v>9</v>
       </c>
     </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>44892</v>
+      </c>
+      <c r="B667" s="1" t="n">
+        <v>44883</v>
+      </c>
+      <c r="C667" s="1" t="n">
+        <v>44888</v>
+      </c>
+      <c r="D667" s="1" t="n">
+        <v>44885</v>
+      </c>
+      <c r="E667" t="s">
+        <v>24</v>
+      </c>
+      <c r="F667" t="n">
+        <v>1004</v>
+      </c>
+      <c r="G667" t="n">
+        <v>15</v>
+      </c>
+      <c r="H667" t="n">
+        <v>24</v>
+      </c>
+      <c r="I667" t="n">
+        <v>31</v>
+      </c>
+      <c r="J667" t="n">
+        <v>4</v>
+      </c>
+      <c r="K667" t="n">
+        <v>5</v>
+      </c>
+      <c r="L667"/>
+      <c r="M667"/>
+      <c r="N667"/>
+      <c r="O667" t="n">
+        <v>3</v>
+      </c>
+      <c r="P667"/>
+      <c r="Q667" t="n">
+        <v>4</v>
+      </c>
+      <c r="R667" t="n">
+        <v>2</v>
+      </c>
+      <c r="S667" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -32309,6 +32309,57 @@
         <v>12</v>
       </c>
     </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="B668" s="1" t="n">
+        <v>44896</v>
+      </c>
+      <c r="C668" s="1" t="n">
+        <v>44897</v>
+      </c>
+      <c r="D668" s="1" t="n">
+        <v>44896</v>
+      </c>
+      <c r="E668" t="s">
+        <v>29</v>
+      </c>
+      <c r="F668" t="n">
+        <v>1352</v>
+      </c>
+      <c r="G668" t="n">
+        <v>17</v>
+      </c>
+      <c r="H668" t="n">
+        <v>23</v>
+      </c>
+      <c r="I668" t="n">
+        <v>34</v>
+      </c>
+      <c r="J668" t="n">
+        <v>3</v>
+      </c>
+      <c r="K668" t="n">
+        <v>3</v>
+      </c>
+      <c r="L668"/>
+      <c r="M668"/>
+      <c r="N668"/>
+      <c r="O668" t="n">
+        <v>3</v>
+      </c>
+      <c r="P668"/>
+      <c r="Q668" t="n">
+        <v>5</v>
+      </c>
+      <c r="R668" t="n">
+        <v>4</v>
+      </c>
+      <c r="S668" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -32360,6 +32360,57 @@
         <v>8</v>
       </c>
     </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="B669" s="1" t="n">
+        <v>44889</v>
+      </c>
+      <c r="C669" s="1" t="n">
+        <v>44901</v>
+      </c>
+      <c r="D669" s="1" t="n">
+        <v>44895</v>
+      </c>
+      <c r="E669" t="s">
+        <v>28</v>
+      </c>
+      <c r="F669" t="n">
+        <v>923</v>
+      </c>
+      <c r="G669" t="n">
+        <v>21</v>
+      </c>
+      <c r="H669" t="n">
+        <v>23</v>
+      </c>
+      <c r="I669" t="n">
+        <v>34</v>
+      </c>
+      <c r="J669" t="n">
+        <v>3</v>
+      </c>
+      <c r="K669" t="n">
+        <v>5</v>
+      </c>
+      <c r="L669"/>
+      <c r="M669"/>
+      <c r="N669"/>
+      <c r="O669" t="n">
+        <v>1</v>
+      </c>
+      <c r="P669"/>
+      <c r="Q669" t="n">
+        <v>1</v>
+      </c>
+      <c r="R669" t="n">
+        <v>0</v>
+      </c>
+      <c r="S669" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -32411,6 +32411,57 @@
         <v>12</v>
       </c>
     </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>44934</v>
+      </c>
+      <c r="B670" s="1" t="n">
+        <v>44931</v>
+      </c>
+      <c r="C670" s="1" t="n">
+        <v>44932</v>
+      </c>
+      <c r="D670" s="1" t="n">
+        <v>44931</v>
+      </c>
+      <c r="E670" t="s">
+        <v>29</v>
+      </c>
+      <c r="F670" t="n">
+        <v>1104</v>
+      </c>
+      <c r="G670" t="n">
+        <v>16</v>
+      </c>
+      <c r="H670" t="n">
+        <v>25</v>
+      </c>
+      <c r="I670" t="n">
+        <v>32</v>
+      </c>
+      <c r="J670" t="n">
+        <v>3</v>
+      </c>
+      <c r="K670" t="n">
+        <v>4</v>
+      </c>
+      <c r="L670"/>
+      <c r="M670"/>
+      <c r="N670"/>
+      <c r="O670" t="n">
+        <v>4</v>
+      </c>
+      <c r="P670"/>
+      <c r="Q670" t="n">
+        <v>3</v>
+      </c>
+      <c r="R670" t="n">
+        <v>3</v>
+      </c>
+      <c r="S670" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -32462,6 +32462,57 @@
         <v>10</v>
       </c>
     </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>44948</v>
+      </c>
+      <c r="B671" s="1" t="n">
+        <v>44931</v>
+      </c>
+      <c r="C671" s="1" t="n">
+        <v>44943</v>
+      </c>
+      <c r="D671" s="1" t="n">
+        <v>44937</v>
+      </c>
+      <c r="E671" t="s">
+        <v>28</v>
+      </c>
+      <c r="F671" t="n">
+        <v>936</v>
+      </c>
+      <c r="G671" t="n">
+        <v>25</v>
+      </c>
+      <c r="H671" t="n">
+        <v>19</v>
+      </c>
+      <c r="I671" t="n">
+        <v>34</v>
+      </c>
+      <c r="J671" t="n">
+        <v>4</v>
+      </c>
+      <c r="K671" t="n">
+        <v>5</v>
+      </c>
+      <c r="L671"/>
+      <c r="M671"/>
+      <c r="N671"/>
+      <c r="O671" t="n">
+        <v>2</v>
+      </c>
+      <c r="P671"/>
+      <c r="Q671" t="n">
+        <v>2</v>
+      </c>
+      <c r="R671" t="n">
+        <v>1</v>
+      </c>
+      <c r="S671" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -32513,6 +32513,57 @@
         <v>8</v>
       </c>
     </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>44955</v>
+      </c>
+      <c r="B672" s="1" t="n">
+        <v>44946</v>
+      </c>
+      <c r="C672" s="1" t="n">
+        <v>44951</v>
+      </c>
+      <c r="D672" s="1" t="n">
+        <v>44948</v>
+      </c>
+      <c r="E672" t="s">
+        <v>24</v>
+      </c>
+      <c r="F672" t="n">
+        <v>1004</v>
+      </c>
+      <c r="G672" t="n">
+        <v>15</v>
+      </c>
+      <c r="H672" t="n">
+        <v>21</v>
+      </c>
+      <c r="I672" t="n">
+        <v>33</v>
+      </c>
+      <c r="J672" t="n">
+        <v>4</v>
+      </c>
+      <c r="K672" t="n">
+        <v>4</v>
+      </c>
+      <c r="L672"/>
+      <c r="M672"/>
+      <c r="N672"/>
+      <c r="O672" t="n">
+        <v>3</v>
+      </c>
+      <c r="P672"/>
+      <c r="Q672" t="n">
+        <v>6</v>
+      </c>
+      <c r="R672" t="n">
+        <v>2</v>
+      </c>
+      <c r="S672" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -32564,6 +32564,108 @@
         <v>12</v>
       </c>
     </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>44962</v>
+      </c>
+      <c r="B673" s="1" t="n">
+        <v>44959</v>
+      </c>
+      <c r="C673" s="1" t="n">
+        <v>44960</v>
+      </c>
+      <c r="D673" s="1" t="n">
+        <v>44959</v>
+      </c>
+      <c r="E673" t="s">
+        <v>29</v>
+      </c>
+      <c r="F673" t="n">
+        <v>1212</v>
+      </c>
+      <c r="G673" t="n">
+        <v>18</v>
+      </c>
+      <c r="H673" t="n">
+        <v>22</v>
+      </c>
+      <c r="I673" t="n">
+        <v>31</v>
+      </c>
+      <c r="J673" t="n">
+        <v>4</v>
+      </c>
+      <c r="K673" t="n">
+        <v>4</v>
+      </c>
+      <c r="L673"/>
+      <c r="M673"/>
+      <c r="N673"/>
+      <c r="O673" t="n">
+        <v>3</v>
+      </c>
+      <c r="P673"/>
+      <c r="Q673" t="n">
+        <v>4</v>
+      </c>
+      <c r="R673" t="n">
+        <v>4</v>
+      </c>
+      <c r="S673" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="B674" s="1" t="n">
+        <v>44959</v>
+      </c>
+      <c r="C674" s="1" t="n">
+        <v>44971</v>
+      </c>
+      <c r="D674" s="1" t="n">
+        <v>44965</v>
+      </c>
+      <c r="E674" t="s">
+        <v>28</v>
+      </c>
+      <c r="F674" t="n">
+        <v>921</v>
+      </c>
+      <c r="G674" t="n">
+        <v>24</v>
+      </c>
+      <c r="H674" t="n">
+        <v>23</v>
+      </c>
+      <c r="I674" t="n">
+        <v>31</v>
+      </c>
+      <c r="J674" t="n">
+        <v>5</v>
+      </c>
+      <c r="K674" t="n">
+        <v>5</v>
+      </c>
+      <c r="L674"/>
+      <c r="M674"/>
+      <c r="N674"/>
+      <c r="O674" t="n">
+        <v>1</v>
+      </c>
+      <c r="P674"/>
+      <c r="Q674" t="n">
+        <v>2</v>
+      </c>
+      <c r="R674" t="n">
+        <v>0</v>
+      </c>
+      <c r="S674" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -32666,6 +32666,57 @@
         <v>9</v>
       </c>
     </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>44980</v>
+      </c>
+      <c r="B675" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="C675" s="1" t="n">
+        <v>44978</v>
+      </c>
+      <c r="D675" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="E675" t="s">
+        <v>27</v>
+      </c>
+      <c r="F675" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G675" t="n">
+        <v>18</v>
+      </c>
+      <c r="H675" t="n">
+        <v>22</v>
+      </c>
+      <c r="I675" t="n">
+        <v>35</v>
+      </c>
+      <c r="J675" t="n">
+        <v>4</v>
+      </c>
+      <c r="K675" t="n">
+        <v>4</v>
+      </c>
+      <c r="L675"/>
+      <c r="M675"/>
+      <c r="N675"/>
+      <c r="O675" t="n">
+        <v>1</v>
+      </c>
+      <c r="P675"/>
+      <c r="Q675" t="n">
+        <v>2</v>
+      </c>
+      <c r="R675" t="n">
+        <v>0</v>
+      </c>
+      <c r="S675" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -32717,6 +32717,57 @@
         <v>14</v>
       </c>
     </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>44983</v>
+      </c>
+      <c r="B676" s="1" t="n">
+        <v>44974</v>
+      </c>
+      <c r="C676" s="1" t="n">
+        <v>44979</v>
+      </c>
+      <c r="D676" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="E676" t="s">
+        <v>24</v>
+      </c>
+      <c r="F676" t="n">
+        <v>998</v>
+      </c>
+      <c r="G676" t="n">
+        <v>17</v>
+      </c>
+      <c r="H676" t="n">
+        <v>21</v>
+      </c>
+      <c r="I676" t="n">
+        <v>31</v>
+      </c>
+      <c r="J676" t="n">
+        <v>4</v>
+      </c>
+      <c r="K676" t="n">
+        <v>4</v>
+      </c>
+      <c r="L676"/>
+      <c r="M676"/>
+      <c r="N676"/>
+      <c r="O676" t="n">
+        <v>3</v>
+      </c>
+      <c r="P676"/>
+      <c r="Q676" t="n">
+        <v>4</v>
+      </c>
+      <c r="R676" t="n">
+        <v>2</v>
+      </c>
+      <c r="S676" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -32768,6 +32768,57 @@
         <v>14</v>
       </c>
     </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>44990</v>
+      </c>
+      <c r="B677" s="1" t="n">
+        <v>44988</v>
+      </c>
+      <c r="C677" s="1" t="n">
+        <v>44988</v>
+      </c>
+      <c r="D677" s="1" t="n">
+        <v>44988</v>
+      </c>
+      <c r="E677" t="s">
+        <v>29</v>
+      </c>
+      <c r="F677" t="n">
+        <v>1162</v>
+      </c>
+      <c r="G677" t="n">
+        <v>19</v>
+      </c>
+      <c r="H677" t="n">
+        <v>21</v>
+      </c>
+      <c r="I677" t="n">
+        <v>29</v>
+      </c>
+      <c r="J677" t="n">
+        <v>3</v>
+      </c>
+      <c r="K677" t="n">
+        <v>4</v>
+      </c>
+      <c r="L677"/>
+      <c r="M677"/>
+      <c r="N677"/>
+      <c r="O677" t="n">
+        <v>2</v>
+      </c>
+      <c r="P677"/>
+      <c r="Q677" t="n">
+        <v>9</v>
+      </c>
+      <c r="R677" t="n">
+        <v>3</v>
+      </c>
+      <c r="S677" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -32819,6 +32819,108 @@
         <v>10</v>
       </c>
     </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>45004</v>
+      </c>
+      <c r="B678" s="1" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C678" s="1" t="n">
+        <v>44999</v>
+      </c>
+      <c r="D678" s="1" t="n">
+        <v>44994</v>
+      </c>
+      <c r="E678" t="s">
+        <v>28</v>
+      </c>
+      <c r="F678" t="n">
+        <v>943</v>
+      </c>
+      <c r="G678" t="n">
+        <v>20</v>
+      </c>
+      <c r="H678" t="n">
+        <v>23</v>
+      </c>
+      <c r="I678" t="n">
+        <v>32</v>
+      </c>
+      <c r="J678" t="n">
+        <v>5</v>
+      </c>
+      <c r="K678" t="n">
+        <v>5</v>
+      </c>
+      <c r="L678"/>
+      <c r="M678"/>
+      <c r="N678"/>
+      <c r="O678" t="n">
+        <v>2</v>
+      </c>
+      <c r="P678"/>
+      <c r="Q678" t="n">
+        <v>4</v>
+      </c>
+      <c r="R678" t="n">
+        <v>0</v>
+      </c>
+      <c r="S678" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B679" s="1" t="n">
+        <v>45002</v>
+      </c>
+      <c r="C679" s="1" t="n">
+        <v>45007</v>
+      </c>
+      <c r="D679" s="1" t="n">
+        <v>45004</v>
+      </c>
+      <c r="E679" t="s">
+        <v>24</v>
+      </c>
+      <c r="F679" t="n">
+        <v>1005</v>
+      </c>
+      <c r="G679" t="n">
+        <v>15</v>
+      </c>
+      <c r="H679" t="n">
+        <v>22</v>
+      </c>
+      <c r="I679" t="n">
+        <v>31</v>
+      </c>
+      <c r="J679" t="n">
+        <v>4</v>
+      </c>
+      <c r="K679" t="n">
+        <v>3</v>
+      </c>
+      <c r="L679"/>
+      <c r="M679"/>
+      <c r="N679"/>
+      <c r="O679" t="n">
+        <v>3</v>
+      </c>
+      <c r="P679"/>
+      <c r="Q679" t="n">
+        <v>6</v>
+      </c>
+      <c r="R679" t="n">
+        <v>2</v>
+      </c>
+      <c r="S679" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -32921,6 +32921,57 @@
         <v>14</v>
       </c>
     </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>45018</v>
+      </c>
+      <c r="B680" s="1" t="n">
+        <v>45016</v>
+      </c>
+      <c r="C680" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="D680" s="1" t="n">
+        <v>45016</v>
+      </c>
+      <c r="E680" t="s">
+        <v>29</v>
+      </c>
+      <c r="F680" t="n">
+        <v>1102</v>
+      </c>
+      <c r="G680" t="n">
+        <v>16</v>
+      </c>
+      <c r="H680" t="n">
+        <v>22</v>
+      </c>
+      <c r="I680" t="n">
+        <v>31</v>
+      </c>
+      <c r="J680" t="n">
+        <v>3</v>
+      </c>
+      <c r="K680" t="n">
+        <v>4</v>
+      </c>
+      <c r="L680"/>
+      <c r="M680"/>
+      <c r="N680"/>
+      <c r="O680" t="n">
+        <v>3</v>
+      </c>
+      <c r="P680"/>
+      <c r="Q680" t="n">
+        <v>7</v>
+      </c>
+      <c r="R680" t="n">
+        <v>3</v>
+      </c>
+      <c r="S680" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -32972,6 +32972,108 @@
         <v>11</v>
       </c>
     </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>45025</v>
+      </c>
+      <c r="B681" s="1" t="n">
+        <v>45013</v>
+      </c>
+      <c r="C681" s="1" t="n">
+        <v>45020</v>
+      </c>
+      <c r="D681" s="1" t="n">
+        <v>45016</v>
+      </c>
+      <c r="E681" t="s">
+        <v>28</v>
+      </c>
+      <c r="F681" t="n">
+        <v>909</v>
+      </c>
+      <c r="G681" t="n">
+        <v>21</v>
+      </c>
+      <c r="H681" t="n">
+        <v>15</v>
+      </c>
+      <c r="I681" t="n">
+        <v>37</v>
+      </c>
+      <c r="J681" t="n">
+        <v>4</v>
+      </c>
+      <c r="K681" t="n">
+        <v>6</v>
+      </c>
+      <c r="L681"/>
+      <c r="M681"/>
+      <c r="N681"/>
+      <c r="O681" t="n">
+        <v>2</v>
+      </c>
+      <c r="P681"/>
+      <c r="Q681" t="n">
+        <v>4</v>
+      </c>
+      <c r="R681" t="n">
+        <v>2</v>
+      </c>
+      <c r="S681" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B682" s="1" t="n">
+        <v>45037</v>
+      </c>
+      <c r="C682" s="1" t="n">
+        <v>45042</v>
+      </c>
+      <c r="D682" s="1" t="n">
+        <v>45039</v>
+      </c>
+      <c r="E682" t="s">
+        <v>24</v>
+      </c>
+      <c r="F682" t="n">
+        <v>1016</v>
+      </c>
+      <c r="G682" t="n">
+        <v>16</v>
+      </c>
+      <c r="H682" t="n">
+        <v>22</v>
+      </c>
+      <c r="I682" t="n">
+        <v>31</v>
+      </c>
+      <c r="J682" t="n">
+        <v>4</v>
+      </c>
+      <c r="K682" t="n">
+        <v>4</v>
+      </c>
+      <c r="L682"/>
+      <c r="M682"/>
+      <c r="N682"/>
+      <c r="O682" t="n">
+        <v>2</v>
+      </c>
+      <c r="P682"/>
+      <c r="Q682" t="n">
+        <v>5</v>
+      </c>
+      <c r="R682" t="n">
+        <v>2</v>
+      </c>
+      <c r="S682" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -33074,6 +33074,57 @@
         <v>14</v>
       </c>
     </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>45053</v>
+      </c>
+      <c r="B683" s="1" t="n">
+        <v>45051</v>
+      </c>
+      <c r="C683" s="1" t="n">
+        <v>45052</v>
+      </c>
+      <c r="D683" s="1" t="n">
+        <v>45051</v>
+      </c>
+      <c r="E683" t="s">
+        <v>29</v>
+      </c>
+      <c r="F683" t="n">
+        <v>1175</v>
+      </c>
+      <c r="G683" t="n">
+        <v>19</v>
+      </c>
+      <c r="H683" t="n">
+        <v>20</v>
+      </c>
+      <c r="I683" t="n">
+        <v>31</v>
+      </c>
+      <c r="J683" t="n">
+        <v>4</v>
+      </c>
+      <c r="K683" t="n">
+        <v>3</v>
+      </c>
+      <c r="L683"/>
+      <c r="M683"/>
+      <c r="N683"/>
+      <c r="O683" t="n">
+        <v>4</v>
+      </c>
+      <c r="P683"/>
+      <c r="Q683" t="n">
+        <v>5</v>
+      </c>
+      <c r="R683" t="n">
+        <v>2</v>
+      </c>
+      <c r="S683" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -33125,6 +33125,57 @@
         <v>12</v>
       </c>
     </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>45060</v>
+      </c>
+      <c r="B684" s="1" t="n">
+        <v>45043</v>
+      </c>
+      <c r="C684" s="1" t="n">
+        <v>45055</v>
+      </c>
+      <c r="D684" s="1" t="n">
+        <v>45049</v>
+      </c>
+      <c r="E684" t="s">
+        <v>28</v>
+      </c>
+      <c r="F684" t="n">
+        <v>906</v>
+      </c>
+      <c r="G684" t="n">
+        <v>22</v>
+      </c>
+      <c r="H684" t="n">
+        <v>17</v>
+      </c>
+      <c r="I684" t="n">
+        <v>35</v>
+      </c>
+      <c r="J684" t="n">
+        <v>4</v>
+      </c>
+      <c r="K684" t="n">
+        <v>5</v>
+      </c>
+      <c r="L684"/>
+      <c r="M684"/>
+      <c r="N684"/>
+      <c r="O684" t="n">
+        <v>1</v>
+      </c>
+      <c r="P684"/>
+      <c r="Q684" t="n">
+        <v>3</v>
+      </c>
+      <c r="R684" t="n">
+        <v>1</v>
+      </c>
+      <c r="S684" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -33176,6 +33176,57 @@
         <v>12</v>
       </c>
     </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>45074</v>
+      </c>
+      <c r="B685" s="1" t="n">
+        <v>45065</v>
+      </c>
+      <c r="C685" s="1" t="n">
+        <v>45070</v>
+      </c>
+      <c r="D685" s="1" t="n">
+        <v>45067</v>
+      </c>
+      <c r="E685" t="s">
+        <v>24</v>
+      </c>
+      <c r="F685" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G685" t="n">
+        <v>15</v>
+      </c>
+      <c r="H685" t="n">
+        <v>20</v>
+      </c>
+      <c r="I685" t="n">
+        <v>34</v>
+      </c>
+      <c r="J685" t="n">
+        <v>4</v>
+      </c>
+      <c r="K685" t="n">
+        <v>4</v>
+      </c>
+      <c r="L685"/>
+      <c r="M685"/>
+      <c r="N685"/>
+      <c r="O685" t="n">
+        <v>3</v>
+      </c>
+      <c r="P685"/>
+      <c r="Q685" t="n">
+        <v>6</v>
+      </c>
+      <c r="R685" t="n">
+        <v>1</v>
+      </c>
+      <c r="S685" t="n">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -33227,6 +33227,57 @@
         <v>13</v>
       </c>
     </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>45081</v>
+      </c>
+      <c r="B686" s="1" t="n">
+        <v>45079</v>
+      </c>
+      <c r="C686" s="1" t="n">
+        <v>45079</v>
+      </c>
+      <c r="D686" s="1" t="n">
+        <v>45079</v>
+      </c>
+      <c r="E686" t="s">
+        <v>29</v>
+      </c>
+      <c r="F686" t="n">
+        <v>1136</v>
+      </c>
+      <c r="G686" t="n">
+        <v>19</v>
+      </c>
+      <c r="H686" t="n">
+        <v>20</v>
+      </c>
+      <c r="I686" t="n">
+        <v>32</v>
+      </c>
+      <c r="J686" t="n">
+        <v>3</v>
+      </c>
+      <c r="K686" t="n">
+        <v>3</v>
+      </c>
+      <c r="L686"/>
+      <c r="M686"/>
+      <c r="N686"/>
+      <c r="O686" t="n">
+        <v>2</v>
+      </c>
+      <c r="P686"/>
+      <c r="Q686" t="n">
+        <v>6</v>
+      </c>
+      <c r="R686" t="n">
+        <v>3</v>
+      </c>
+      <c r="S686" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -33278,6 +33278,57 @@
         <v>12</v>
       </c>
     </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>45092</v>
+      </c>
+      <c r="B687" s="1" t="n">
+        <v>45088</v>
+      </c>
+      <c r="C687" s="1" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D687" s="1" t="n">
+        <v>45089</v>
+      </c>
+      <c r="E687" t="s">
+        <v>27</v>
+      </c>
+      <c r="F687" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G687" t="n">
+        <v>21</v>
+      </c>
+      <c r="H687" t="n">
+        <v>18</v>
+      </c>
+      <c r="I687" t="n">
+        <v>31</v>
+      </c>
+      <c r="J687" t="n">
+        <v>4</v>
+      </c>
+      <c r="K687" t="n">
+        <v>4</v>
+      </c>
+      <c r="L687"/>
+      <c r="M687"/>
+      <c r="N687"/>
+      <c r="O687" t="n">
+        <v>2</v>
+      </c>
+      <c r="P687"/>
+      <c r="Q687" t="n">
+        <v>5</v>
+      </c>
+      <c r="R687" t="n">
+        <v>1</v>
+      </c>
+      <c r="S687" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -33329,6 +33329,57 @@
         <v>14</v>
       </c>
     </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>45095</v>
+      </c>
+      <c r="B688" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="C688" s="1" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D688" s="1" t="n">
+        <v>45084</v>
+      </c>
+      <c r="E688" t="s">
+        <v>28</v>
+      </c>
+      <c r="F688" t="n">
+        <v>935</v>
+      </c>
+      <c r="G688" t="n">
+        <v>21</v>
+      </c>
+      <c r="H688" t="n">
+        <v>20</v>
+      </c>
+      <c r="I688" t="n">
+        <v>34</v>
+      </c>
+      <c r="J688" t="n">
+        <v>6</v>
+      </c>
+      <c r="K688" t="n">
+        <v>6</v>
+      </c>
+      <c r="L688"/>
+      <c r="M688"/>
+      <c r="N688"/>
+      <c r="O688" t="n">
+        <v>2</v>
+      </c>
+      <c r="P688"/>
+      <c r="Q688" t="n">
+        <v>2</v>
+      </c>
+      <c r="R688" t="n">
+        <v>0</v>
+      </c>
+      <c r="S688" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -33380,6 +33380,57 @@
         <v>9</v>
       </c>
     </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>45102</v>
+      </c>
+      <c r="B689" s="1" t="n">
+        <v>45093</v>
+      </c>
+      <c r="C689" s="1" t="n">
+        <v>45098</v>
+      </c>
+      <c r="D689" s="1" t="n">
+        <v>45095</v>
+      </c>
+      <c r="E689" t="s">
+        <v>24</v>
+      </c>
+      <c r="F689" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G689" t="n">
+        <v>16</v>
+      </c>
+      <c r="H689" t="n">
+        <v>22</v>
+      </c>
+      <c r="I689" t="n">
+        <v>29</v>
+      </c>
+      <c r="J689" t="n">
+        <v>5</v>
+      </c>
+      <c r="K689" t="n">
+        <v>4</v>
+      </c>
+      <c r="L689"/>
+      <c r="M689"/>
+      <c r="N689"/>
+      <c r="O689" t="n">
+        <v>3</v>
+      </c>
+      <c r="P689"/>
+      <c r="Q689" t="n">
+        <v>5</v>
+      </c>
+      <c r="R689" t="n">
+        <v>2</v>
+      </c>
+      <c r="S689" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -33431,6 +33431,57 @@
         <v>14</v>
       </c>
     </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>45109</v>
+      </c>
+      <c r="B690" s="1" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C690" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D690" s="1" t="n">
+        <v>45107</v>
+      </c>
+      <c r="E690" t="s">
+        <v>29</v>
+      </c>
+      <c r="F690" t="n">
+        <v>1076</v>
+      </c>
+      <c r="G690" t="n">
+        <v>19</v>
+      </c>
+      <c r="H690" t="n">
+        <v>19</v>
+      </c>
+      <c r="I690" t="n">
+        <v>31</v>
+      </c>
+      <c r="J690" t="n">
+        <v>2</v>
+      </c>
+      <c r="K690" t="n">
+        <v>3</v>
+      </c>
+      <c r="L690"/>
+      <c r="M690"/>
+      <c r="N690"/>
+      <c r="O690" t="n">
+        <v>4</v>
+      </c>
+      <c r="P690"/>
+      <c r="Q690" t="n">
+        <v>6</v>
+      </c>
+      <c r="R690" t="n">
+        <v>3</v>
+      </c>
+      <c r="S690" t="n">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -33482,6 +33482,57 @@
         <v>13</v>
       </c>
     </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>45123</v>
+      </c>
+      <c r="B691" s="1" t="n">
+        <v>45105</v>
+      </c>
+      <c r="C691" s="1" t="n">
+        <v>45119</v>
+      </c>
+      <c r="D691" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="E691" t="s">
+        <v>28</v>
+      </c>
+      <c r="F691" t="n">
+        <v>910</v>
+      </c>
+      <c r="G691" t="n">
+        <v>24</v>
+      </c>
+      <c r="H691" t="n">
+        <v>19</v>
+      </c>
+      <c r="I691" t="n">
+        <v>34</v>
+      </c>
+      <c r="J691" t="n">
+        <v>4</v>
+      </c>
+      <c r="K691" t="n">
+        <v>4</v>
+      </c>
+      <c r="L691"/>
+      <c r="M691"/>
+      <c r="N691"/>
+      <c r="O691" t="n">
+        <v>2</v>
+      </c>
+      <c r="P691"/>
+      <c r="Q691" t="n">
+        <v>2</v>
+      </c>
+      <c r="R691" t="n">
+        <v>1</v>
+      </c>
+      <c r="S691" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -33533,6 +33533,57 @@
         <v>10</v>
       </c>
     </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>45144</v>
+      </c>
+      <c r="B692" s="1" t="n">
+        <v>45142</v>
+      </c>
+      <c r="C692" s="1" t="n">
+        <v>45143</v>
+      </c>
+      <c r="D692" s="1" t="n">
+        <v>45142</v>
+      </c>
+      <c r="E692" t="s">
+        <v>29</v>
+      </c>
+      <c r="F692" t="n">
+        <v>1272</v>
+      </c>
+      <c r="G692" t="n">
+        <v>18</v>
+      </c>
+      <c r="H692" t="n">
+        <v>19</v>
+      </c>
+      <c r="I692" t="n">
+        <v>34</v>
+      </c>
+      <c r="J692" t="n">
+        <v>4</v>
+      </c>
+      <c r="K692" t="n">
+        <v>5</v>
+      </c>
+      <c r="L692"/>
+      <c r="M692"/>
+      <c r="N692"/>
+      <c r="O692" t="n">
+        <v>3</v>
+      </c>
+      <c r="P692"/>
+      <c r="Q692" t="n">
+        <v>5</v>
+      </c>
+      <c r="R692" t="n">
+        <v>2</v>
+      </c>
+      <c r="S692" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -33584,6 +33584,57 @@
         <v>10</v>
       </c>
     </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>45172</v>
+      </c>
+      <c r="B693" s="1" t="n">
+        <v>45169</v>
+      </c>
+      <c r="C693" s="1" t="n">
+        <v>45170</v>
+      </c>
+      <c r="D693" s="1" t="n">
+        <v>45169</v>
+      </c>
+      <c r="E693" t="s">
+        <v>29</v>
+      </c>
+      <c r="F693" t="n">
+        <v>1228</v>
+      </c>
+      <c r="G693" t="n">
+        <v>18</v>
+      </c>
+      <c r="H693" t="n">
+        <v>21</v>
+      </c>
+      <c r="I693" t="n">
+        <v>33</v>
+      </c>
+      <c r="J693" t="n">
+        <v>3</v>
+      </c>
+      <c r="K693" t="n">
+        <v>2</v>
+      </c>
+      <c r="L693"/>
+      <c r="M693"/>
+      <c r="N693"/>
+      <c r="O693" t="n">
+        <v>3</v>
+      </c>
+      <c r="P693"/>
+      <c r="Q693" t="n">
+        <v>6</v>
+      </c>
+      <c r="R693" t="n">
+        <v>2</v>
+      </c>
+      <c r="S693" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -33635,6 +33635,57 @@
         <v>12</v>
       </c>
     </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="B694" s="1" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C694" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D694" s="1" t="n">
+        <v>45178</v>
+      </c>
+      <c r="E694" t="s">
+        <v>24</v>
+      </c>
+      <c r="F694" t="n">
+        <v>1019</v>
+      </c>
+      <c r="G694" t="n">
+        <v>16</v>
+      </c>
+      <c r="H694" t="n">
+        <v>21</v>
+      </c>
+      <c r="I694" t="n">
+        <v>31</v>
+      </c>
+      <c r="J694" t="n">
+        <v>4</v>
+      </c>
+      <c r="K694" t="n">
+        <v>4</v>
+      </c>
+      <c r="L694"/>
+      <c r="M694"/>
+      <c r="N694"/>
+      <c r="O694" t="n">
+        <v>3</v>
+      </c>
+      <c r="P694"/>
+      <c r="Q694" t="n">
+        <v>5</v>
+      </c>
+      <c r="R694" t="n">
+        <v>3</v>
+      </c>
+      <c r="S694" t="n">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -33640,50 +33640,152 @@
         <v>45186</v>
       </c>
       <c r="B694" s="1" t="n">
-        <v>45176</v>
+        <v>45169</v>
       </c>
       <c r="C694" s="1" t="n">
         <v>45181</v>
       </c>
       <c r="D694" s="1" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="E694" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F694" t="n">
-        <v>1019</v>
+        <v>950</v>
       </c>
       <c r="G694" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H694" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I694" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J694" t="n">
         <v>4</v>
       </c>
       <c r="K694" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L694"/>
       <c r="M694"/>
       <c r="N694"/>
       <c r="O694" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P694"/>
       <c r="Q694" t="n">
+        <v>3</v>
+      </c>
+      <c r="R694" t="n">
+        <v>1</v>
+      </c>
+      <c r="S694" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="B695" s="1" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C695" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D695" s="1" t="n">
+        <v>45178</v>
+      </c>
+      <c r="E695" t="s">
+        <v>24</v>
+      </c>
+      <c r="F695" t="n">
+        <v>1019</v>
+      </c>
+      <c r="G695" t="n">
+        <v>16</v>
+      </c>
+      <c r="H695" t="n">
+        <v>21</v>
+      </c>
+      <c r="I695" t="n">
+        <v>31</v>
+      </c>
+      <c r="J695" t="n">
+        <v>4</v>
+      </c>
+      <c r="K695" t="n">
+        <v>4</v>
+      </c>
+      <c r="L695"/>
+      <c r="M695"/>
+      <c r="N695"/>
+      <c r="O695" t="n">
+        <v>3</v>
+      </c>
+      <c r="P695"/>
+      <c r="Q695" t="n">
         <v>5</v>
       </c>
-      <c r="R694" t="n">
-        <v>3</v>
-      </c>
-      <c r="S694" t="n">
+      <c r="R695" t="n">
+        <v>3</v>
+      </c>
+      <c r="S695" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B696" s="1" t="n">
+        <v>45193</v>
+      </c>
+      <c r="C696" s="1" t="n">
+        <v>45195</v>
+      </c>
+      <c r="D696" s="1" t="n">
+        <v>45194</v>
+      </c>
+      <c r="E696" t="s">
+        <v>27</v>
+      </c>
+      <c r="F696" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G696" t="n">
+        <v>20</v>
+      </c>
+      <c r="H696" t="n">
+        <v>18</v>
+      </c>
+      <c r="I696" t="n">
+        <v>34</v>
+      </c>
+      <c r="J696" t="n">
+        <v>3</v>
+      </c>
+      <c r="K696" t="n">
+        <v>3</v>
+      </c>
+      <c r="L696"/>
+      <c r="M696"/>
+      <c r="N696"/>
+      <c r="O696" t="n">
+        <v>2</v>
+      </c>
+      <c r="P696"/>
+      <c r="Q696" t="n">
+        <v>2</v>
+      </c>
+      <c r="R696" t="n">
+        <v>1</v>
+      </c>
+      <c r="S696" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -33652,7 +33652,7 @@
         <v>28</v>
       </c>
       <c r="F694" t="n">
-        <v>950</v>
+        <v>910</v>
       </c>
       <c r="G694" t="n">
         <v>21</v>
@@ -33786,6 +33786,57 @@
       </c>
       <c r="S696" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B697" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C697" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="D697" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="E697" t="s">
+        <v>29</v>
+      </c>
+      <c r="F697" t="n">
+        <v>1196</v>
+      </c>
+      <c r="G697" t="n">
+        <v>17</v>
+      </c>
+      <c r="H697" t="n">
+        <v>19</v>
+      </c>
+      <c r="I697" t="n">
+        <v>35</v>
+      </c>
+      <c r="J697" t="n">
+        <v>3</v>
+      </c>
+      <c r="K697" t="n">
+        <v>4</v>
+      </c>
+      <c r="L697"/>
+      <c r="M697"/>
+      <c r="N697"/>
+      <c r="O697" t="n">
+        <v>2</v>
+      </c>
+      <c r="P697"/>
+      <c r="Q697" t="n">
+        <v>5</v>
+      </c>
+      <c r="R697" t="n">
+        <v>3</v>
+      </c>
+      <c r="S697" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -33839,6 +33839,57 @@
         <v>12</v>
       </c>
     </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>45214</v>
+      </c>
+      <c r="B698" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C698" s="1" t="n">
+        <v>45209</v>
+      </c>
+      <c r="D698" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="E698" t="s">
+        <v>28</v>
+      </c>
+      <c r="F698" t="n">
+        <v>933</v>
+      </c>
+      <c r="G698" t="n">
+        <v>20</v>
+      </c>
+      <c r="H698" t="n">
+        <v>21</v>
+      </c>
+      <c r="I698" t="n">
+        <v>34</v>
+      </c>
+      <c r="J698" t="n">
+        <v>4</v>
+      </c>
+      <c r="K698" t="n">
+        <v>4</v>
+      </c>
+      <c r="L698"/>
+      <c r="M698"/>
+      <c r="N698"/>
+      <c r="O698" t="n">
+        <v>1</v>
+      </c>
+      <c r="P698"/>
+      <c r="Q698" t="n">
+        <v>2</v>
+      </c>
+      <c r="R698" t="n">
+        <v>2</v>
+      </c>
+      <c r="S698" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -33890,6 +33890,57 @@
         <v>12</v>
       </c>
     </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>45228</v>
+      </c>
+      <c r="B699" s="1" t="n">
+        <v>45219</v>
+      </c>
+      <c r="C699" s="1" t="n">
+        <v>45224</v>
+      </c>
+      <c r="D699" s="1" t="n">
+        <v>45221</v>
+      </c>
+      <c r="E699" t="s">
+        <v>24</v>
+      </c>
+      <c r="F699" t="n">
+        <v>1018</v>
+      </c>
+      <c r="G699" t="n">
+        <v>15</v>
+      </c>
+      <c r="H699" t="n">
+        <v>20</v>
+      </c>
+      <c r="I699" t="n">
+        <v>32</v>
+      </c>
+      <c r="J699" t="n">
+        <v>5</v>
+      </c>
+      <c r="K699" t="n">
+        <v>4</v>
+      </c>
+      <c r="L699"/>
+      <c r="M699"/>
+      <c r="N699"/>
+      <c r="O699" t="n">
+        <v>3</v>
+      </c>
+      <c r="P699"/>
+      <c r="Q699" t="n">
+        <v>6</v>
+      </c>
+      <c r="R699" t="n">
+        <v>2</v>
+      </c>
+      <c r="S699" t="n">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -33941,6 +33941,57 @@
         <v>13</v>
       </c>
     </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>45235</v>
+      </c>
+      <c r="B700" s="1" t="n">
+        <v>45232</v>
+      </c>
+      <c r="C700" s="1" t="n">
+        <v>45233</v>
+      </c>
+      <c r="D700" s="1" t="n">
+        <v>45232</v>
+      </c>
+      <c r="E700" t="s">
+        <v>29</v>
+      </c>
+      <c r="F700" t="n">
+        <v>1387</v>
+      </c>
+      <c r="G700" t="n">
+        <v>18</v>
+      </c>
+      <c r="H700" t="n">
+        <v>21</v>
+      </c>
+      <c r="I700" t="n">
+        <v>31</v>
+      </c>
+      <c r="J700" t="n">
+        <v>3</v>
+      </c>
+      <c r="K700" t="n">
+        <v>4</v>
+      </c>
+      <c r="L700"/>
+      <c r="M700"/>
+      <c r="N700"/>
+      <c r="O700" t="n">
+        <v>4</v>
+      </c>
+      <c r="P700"/>
+      <c r="Q700" t="n">
+        <v>5</v>
+      </c>
+      <c r="R700" t="n">
+        <v>4</v>
+      </c>
+      <c r="S700" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -33992,6 +33992,57 @@
         <v>10</v>
       </c>
     </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>45256</v>
+      </c>
+      <c r="B701" s="1" t="n">
+        <v>45247</v>
+      </c>
+      <c r="C701" s="1" t="n">
+        <v>45252</v>
+      </c>
+      <c r="D701" s="1" t="n">
+        <v>45249</v>
+      </c>
+      <c r="E701" t="s">
+        <v>24</v>
+      </c>
+      <c r="F701" t="n">
+        <v>1021</v>
+      </c>
+      <c r="G701" t="n">
+        <v>16</v>
+      </c>
+      <c r="H701" t="n">
+        <v>20</v>
+      </c>
+      <c r="I701" t="n">
+        <v>29</v>
+      </c>
+      <c r="J701" t="n">
+        <v>4</v>
+      </c>
+      <c r="K701" t="n">
+        <v>4</v>
+      </c>
+      <c r="L701"/>
+      <c r="M701"/>
+      <c r="N701"/>
+      <c r="O701" t="n">
+        <v>3</v>
+      </c>
+      <c r="P701"/>
+      <c r="Q701" t="n">
+        <v>6</v>
+      </c>
+      <c r="R701" t="n">
+        <v>2</v>
+      </c>
+      <c r="S701" t="n">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -34043,6 +34043,57 @@
         <v>16</v>
       </c>
     </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>45263</v>
+      </c>
+      <c r="B702" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C702" s="1" t="n">
+        <v>45262</v>
+      </c>
+      <c r="D702" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="E702" t="s">
+        <v>29</v>
+      </c>
+      <c r="F702" t="n">
+        <v>1306</v>
+      </c>
+      <c r="G702" t="n">
+        <v>19</v>
+      </c>
+      <c r="H702" t="n">
+        <v>21</v>
+      </c>
+      <c r="I702" t="n">
+        <v>28</v>
+      </c>
+      <c r="J702" t="n">
+        <v>4</v>
+      </c>
+      <c r="K702" t="n">
+        <v>3</v>
+      </c>
+      <c r="L702"/>
+      <c r="M702"/>
+      <c r="N702"/>
+      <c r="O702" t="n">
+        <v>4</v>
+      </c>
+      <c r="P702"/>
+      <c r="Q702" t="n">
+        <v>5</v>
+      </c>
+      <c r="R702" t="n">
+        <v>3</v>
+      </c>
+      <c r="S702" t="n">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -34094,6 +34094,108 @@
         <v>13</v>
       </c>
     </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B703" s="1" t="n">
+        <v>45296</v>
+      </c>
+      <c r="C703" s="1" t="n">
+        <v>45297</v>
+      </c>
+      <c r="D703" s="1" t="n">
+        <v>45296</v>
+      </c>
+      <c r="E703" t="s">
+        <v>29</v>
+      </c>
+      <c r="F703" t="n">
+        <v>1270</v>
+      </c>
+      <c r="G703" t="n">
+        <v>17</v>
+      </c>
+      <c r="H703" t="n">
+        <v>20</v>
+      </c>
+      <c r="I703" t="n">
+        <v>30</v>
+      </c>
+      <c r="J703" t="n">
+        <v>3</v>
+      </c>
+      <c r="K703" t="n">
+        <v>3</v>
+      </c>
+      <c r="L703"/>
+      <c r="M703"/>
+      <c r="N703"/>
+      <c r="O703" t="n">
+        <v>3</v>
+      </c>
+      <c r="P703"/>
+      <c r="Q703" t="n">
+        <v>5</v>
+      </c>
+      <c r="R703" t="n">
+        <v>3</v>
+      </c>
+      <c r="S703" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>45319</v>
+      </c>
+      <c r="B704" s="1" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C704" s="1" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D704" s="1" t="n">
+        <v>45312</v>
+      </c>
+      <c r="E704" t="s">
+        <v>24</v>
+      </c>
+      <c r="F704" t="n">
+        <v>1003</v>
+      </c>
+      <c r="G704" t="n">
+        <v>17</v>
+      </c>
+      <c r="H704" t="n">
+        <v>20</v>
+      </c>
+      <c r="I704" t="n">
+        <v>25</v>
+      </c>
+      <c r="J704" t="n">
+        <v>4</v>
+      </c>
+      <c r="K704" t="n">
+        <v>4</v>
+      </c>
+      <c r="L704"/>
+      <c r="M704"/>
+      <c r="N704"/>
+      <c r="O704" t="n">
+        <v>3</v>
+      </c>
+      <c r="P704"/>
+      <c r="Q704" t="n">
+        <v>6</v>
+      </c>
+      <c r="R704" t="n">
+        <v>3</v>
+      </c>
+      <c r="S704" t="n">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -34196,6 +34196,57 @@
         <v>18</v>
       </c>
     </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>45326</v>
+      </c>
+      <c r="B705" s="1" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C705" s="1" t="n">
+        <v>45324</v>
+      </c>
+      <c r="D705" s="1" t="n">
+        <v>45323</v>
+      </c>
+      <c r="E705" t="s">
+        <v>29</v>
+      </c>
+      <c r="F705" t="n">
+        <v>1394</v>
+      </c>
+      <c r="G705" t="n">
+        <v>17</v>
+      </c>
+      <c r="H705" t="n">
+        <v>19</v>
+      </c>
+      <c r="I705" t="n">
+        <v>29</v>
+      </c>
+      <c r="J705" t="n">
+        <v>4</v>
+      </c>
+      <c r="K705" t="n">
+        <v>3</v>
+      </c>
+      <c r="L705"/>
+      <c r="M705"/>
+      <c r="N705"/>
+      <c r="O705" t="n">
+        <v>3</v>
+      </c>
+      <c r="P705"/>
+      <c r="Q705" t="n">
+        <v>5</v>
+      </c>
+      <c r="R705" t="n">
+        <v>3</v>
+      </c>
+      <c r="S705" t="n">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -34247,6 +34247,159 @@
         <v>17</v>
       </c>
     </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>45330</v>
+      </c>
+      <c r="B706" s="1" t="n">
+        <v>45324</v>
+      </c>
+      <c r="C706" s="1" t="n">
+        <v>45328</v>
+      </c>
+      <c r="D706" s="1" t="n">
+        <v>45326</v>
+      </c>
+      <c r="E706" t="s">
+        <v>27</v>
+      </c>
+      <c r="F706" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G706" t="n">
+        <v>20</v>
+      </c>
+      <c r="H706" t="n">
+        <v>19</v>
+      </c>
+      <c r="I706" t="n">
+        <v>28</v>
+      </c>
+      <c r="J706" t="n">
+        <v>4</v>
+      </c>
+      <c r="K706" t="n">
+        <v>5</v>
+      </c>
+      <c r="L706"/>
+      <c r="M706"/>
+      <c r="N706"/>
+      <c r="O706" t="n">
+        <v>2</v>
+      </c>
+      <c r="P706"/>
+      <c r="Q706" t="n">
+        <v>4</v>
+      </c>
+      <c r="R706" t="n">
+        <v>1</v>
+      </c>
+      <c r="S706" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>45347</v>
+      </c>
+      <c r="B707" s="1" t="n">
+        <v>45338</v>
+      </c>
+      <c r="C707" s="1" t="n">
+        <v>45343</v>
+      </c>
+      <c r="D707" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="E707" t="s">
+        <v>24</v>
+      </c>
+      <c r="F707" t="n">
+        <v>1009</v>
+      </c>
+      <c r="G707" t="n">
+        <v>16</v>
+      </c>
+      <c r="H707" t="n">
+        <v>20</v>
+      </c>
+      <c r="I707" t="n">
+        <v>28</v>
+      </c>
+      <c r="J707" t="n">
+        <v>4</v>
+      </c>
+      <c r="K707" t="n">
+        <v>3</v>
+      </c>
+      <c r="L707"/>
+      <c r="M707"/>
+      <c r="N707"/>
+      <c r="O707" t="n">
+        <v>3</v>
+      </c>
+      <c r="P707"/>
+      <c r="Q707" t="n">
+        <v>7</v>
+      </c>
+      <c r="R707" t="n">
+        <v>3</v>
+      </c>
+      <c r="S707" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>45354</v>
+      </c>
+      <c r="B708" s="1" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C708" s="1" t="n">
+        <v>45353</v>
+      </c>
+      <c r="D708" s="1" t="n">
+        <v>45352</v>
+      </c>
+      <c r="E708" t="s">
+        <v>29</v>
+      </c>
+      <c r="F708" t="n">
+        <v>1083</v>
+      </c>
+      <c r="G708" t="n">
+        <v>18</v>
+      </c>
+      <c r="H708" t="n">
+        <v>20</v>
+      </c>
+      <c r="I708" t="n">
+        <v>27</v>
+      </c>
+      <c r="J708" t="n">
+        <v>4</v>
+      </c>
+      <c r="K708" t="n">
+        <v>4</v>
+      </c>
+      <c r="L708"/>
+      <c r="M708"/>
+      <c r="N708"/>
+      <c r="O708" t="n">
+        <v>2</v>
+      </c>
+      <c r="P708"/>
+      <c r="Q708" t="n">
+        <v>7</v>
+      </c>
+      <c r="R708" t="n">
+        <v>2</v>
+      </c>
+      <c r="S708" t="n">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -34400,6 +34400,108 @@
         <v>16</v>
       </c>
     </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>45375</v>
+      </c>
+      <c r="B709" s="1" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C709" s="1" t="n">
+        <v>45371</v>
+      </c>
+      <c r="D709" s="1" t="n">
+        <v>45368</v>
+      </c>
+      <c r="E709" t="s">
+        <v>24</v>
+      </c>
+      <c r="F709" t="n">
+        <v>1027</v>
+      </c>
+      <c r="G709" t="n">
+        <v>16</v>
+      </c>
+      <c r="H709" t="n">
+        <v>19</v>
+      </c>
+      <c r="I709" t="n">
+        <v>25</v>
+      </c>
+      <c r="J709" t="n">
+        <v>3</v>
+      </c>
+      <c r="K709" t="n">
+        <v>4</v>
+      </c>
+      <c r="L709"/>
+      <c r="M709"/>
+      <c r="N709"/>
+      <c r="O709" t="n">
+        <v>3</v>
+      </c>
+      <c r="P709"/>
+      <c r="Q709" t="n">
+        <v>6</v>
+      </c>
+      <c r="R709" t="n">
+        <v>5</v>
+      </c>
+      <c r="S709" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>45375</v>
+      </c>
+      <c r="B710" s="1" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C710" s="1" t="n">
+        <v>45374</v>
+      </c>
+      <c r="D710" s="1" t="n">
+        <v>45373</v>
+      </c>
+      <c r="E710" t="s">
+        <v>29</v>
+      </c>
+      <c r="F710" t="n">
+        <v>1305</v>
+      </c>
+      <c r="G710" t="n">
+        <v>17</v>
+      </c>
+      <c r="H710" t="n">
+        <v>22</v>
+      </c>
+      <c r="I710" t="n">
+        <v>27</v>
+      </c>
+      <c r="J710" t="n">
+        <v>4</v>
+      </c>
+      <c r="K710" t="n">
+        <v>4</v>
+      </c>
+      <c r="L710"/>
+      <c r="M710"/>
+      <c r="N710"/>
+      <c r="O710" t="n">
+        <v>2</v>
+      </c>
+      <c r="P710"/>
+      <c r="Q710" t="n">
+        <v>6</v>
+      </c>
+      <c r="R710" t="n">
+        <v>4</v>
+      </c>
+      <c r="S710" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -34502,6 +34502,57 @@
         <v>14</v>
       </c>
     </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>45389</v>
+      </c>
+      <c r="B711" s="1" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C711" s="1" t="n">
+        <v>45388</v>
+      </c>
+      <c r="D711" s="1" t="n">
+        <v>45387</v>
+      </c>
+      <c r="E711" t="s">
+        <v>29</v>
+      </c>
+      <c r="F711" t="n">
+        <v>1334</v>
+      </c>
+      <c r="G711" t="n">
+        <v>16</v>
+      </c>
+      <c r="H711" t="n">
+        <v>21</v>
+      </c>
+      <c r="I711" t="n">
+        <v>26</v>
+      </c>
+      <c r="J711" t="n">
+        <v>3</v>
+      </c>
+      <c r="K711" t="n">
+        <v>4</v>
+      </c>
+      <c r="L711"/>
+      <c r="M711"/>
+      <c r="N711"/>
+      <c r="O711" t="n">
+        <v>2</v>
+      </c>
+      <c r="P711"/>
+      <c r="Q711" t="n">
+        <v>6</v>
+      </c>
+      <c r="R711" t="n">
+        <v>4</v>
+      </c>
+      <c r="S711" t="n">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t xml:space="preserve">Panelbase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opinions</t>
   </si>
 </sst>
 </file>
@@ -34553,6 +34556,57 @@
         <v>18</v>
       </c>
     </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>45403</v>
+      </c>
+      <c r="B712" s="1" t="n">
+        <v>45394</v>
+      </c>
+      <c r="C712" s="1" t="n">
+        <v>45399</v>
+      </c>
+      <c r="D712" s="1" t="n">
+        <v>45396</v>
+      </c>
+      <c r="E712" t="s">
+        <v>31</v>
+      </c>
+      <c r="F712" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G712" t="n">
+        <v>16</v>
+      </c>
+      <c r="H712" t="n">
+        <v>20</v>
+      </c>
+      <c r="I712" t="n">
+        <v>27</v>
+      </c>
+      <c r="J712" t="n">
+        <v>5</v>
+      </c>
+      <c r="K712" t="n">
+        <v>6</v>
+      </c>
+      <c r="L712"/>
+      <c r="M712"/>
+      <c r="N712"/>
+      <c r="O712" t="n">
+        <v>3</v>
+      </c>
+      <c r="P712"/>
+      <c r="Q712" t="n">
+        <v>4</v>
+      </c>
+      <c r="R712" t="n">
+        <v>3</v>
+      </c>
+      <c r="S712" t="n">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -34607,6 +34607,57 @@
         <v>16</v>
       </c>
     </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>45410</v>
+      </c>
+      <c r="B713" s="1" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C713" s="1" t="n">
+        <v>45407</v>
+      </c>
+      <c r="D713" s="1" t="n">
+        <v>45404</v>
+      </c>
+      <c r="E713" t="s">
+        <v>24</v>
+      </c>
+      <c r="F713" t="n">
+        <v>1027</v>
+      </c>
+      <c r="G713" t="n">
+        <v>14</v>
+      </c>
+      <c r="H713" t="n">
+        <v>20</v>
+      </c>
+      <c r="I713" t="n">
+        <v>27</v>
+      </c>
+      <c r="J713" t="n">
+        <v>3</v>
+      </c>
+      <c r="K713" t="n">
+        <v>3</v>
+      </c>
+      <c r="L713"/>
+      <c r="M713"/>
+      <c r="N713"/>
+      <c r="O713" t="n">
+        <v>2</v>
+      </c>
+      <c r="P713"/>
+      <c r="Q713" t="n">
+        <v>6</v>
+      </c>
+      <c r="R713" t="n">
+        <v>4</v>
+      </c>
+      <c r="S713" t="n">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -34658,6 +34658,57 @@
         <v>21</v>
       </c>
     </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>45417</v>
+      </c>
+      <c r="B714" s="1" t="n">
+        <v>45414</v>
+      </c>
+      <c r="C714" s="1" t="n">
+        <v>45415</v>
+      </c>
+      <c r="D714" s="1" t="n">
+        <v>45414</v>
+      </c>
+      <c r="E714" t="s">
+        <v>29</v>
+      </c>
+      <c r="F714" t="n">
+        <v>1316</v>
+      </c>
+      <c r="G714" t="n">
+        <v>16</v>
+      </c>
+      <c r="H714" t="n">
+        <v>19</v>
+      </c>
+      <c r="I714" t="n">
+        <v>29</v>
+      </c>
+      <c r="J714" t="n">
+        <v>3</v>
+      </c>
+      <c r="K714" t="n">
+        <v>4</v>
+      </c>
+      <c r="L714"/>
+      <c r="M714"/>
+      <c r="N714"/>
+      <c r="O714" t="n">
+        <v>2</v>
+      </c>
+      <c r="P714"/>
+      <c r="Q714" t="n">
+        <v>6</v>
+      </c>
+      <c r="R714" t="n">
+        <v>3</v>
+      </c>
+      <c r="S714" t="n">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -34709,6 +34709,57 @@
         <v>18</v>
       </c>
     </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B715" s="1" t="n">
+        <v>45423</v>
+      </c>
+      <c r="C715" s="1" t="n">
+        <v>45427</v>
+      </c>
+      <c r="D715" s="1" t="n">
+        <v>45425</v>
+      </c>
+      <c r="E715" t="s">
+        <v>27</v>
+      </c>
+      <c r="F715" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G715" t="n">
+        <v>20</v>
+      </c>
+      <c r="H715" t="n">
+        <v>23</v>
+      </c>
+      <c r="I715" t="n">
+        <v>23</v>
+      </c>
+      <c r="J715" t="n">
+        <v>5</v>
+      </c>
+      <c r="K715" t="n">
+        <v>4</v>
+      </c>
+      <c r="L715"/>
+      <c r="M715"/>
+      <c r="N715"/>
+      <c r="O715" t="n">
+        <v>2</v>
+      </c>
+      <c r="P715"/>
+      <c r="Q715" t="n">
+        <v>3</v>
+      </c>
+      <c r="R715" t="n">
+        <v>1</v>
+      </c>
+      <c r="S715" t="n">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -34760,6 +34760,57 @@
         <v>19</v>
       </c>
     </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>45431</v>
+      </c>
+      <c r="B716" s="1" t="n">
+        <v>45420</v>
+      </c>
+      <c r="C716" s="1" t="n">
+        <v>45427</v>
+      </c>
+      <c r="D716" s="1" t="n">
+        <v>45423</v>
+      </c>
+      <c r="E716" t="s">
+        <v>31</v>
+      </c>
+      <c r="F716" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G716" t="n">
+        <v>16</v>
+      </c>
+      <c r="H716" t="n">
+        <v>19</v>
+      </c>
+      <c r="I716" t="n">
+        <v>27</v>
+      </c>
+      <c r="J716" t="n">
+        <v>3</v>
+      </c>
+      <c r="K716" t="n">
+        <v>5</v>
+      </c>
+      <c r="L716"/>
+      <c r="M716"/>
+      <c r="N716"/>
+      <c r="O716" t="n">
+        <v>3</v>
+      </c>
+      <c r="P716"/>
+      <c r="Q716" t="n">
+        <v>6</v>
+      </c>
+      <c r="R716" t="n">
+        <v>3</v>
+      </c>
+      <c r="S716" t="n">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -34811,6 +34811,57 @@
         <v>18</v>
       </c>
     </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>45438</v>
+      </c>
+      <c r="B717" s="1" t="n">
+        <v>45429</v>
+      </c>
+      <c r="C717" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="D717" s="1" t="n">
+        <v>45431</v>
+      </c>
+      <c r="E717" t="s">
+        <v>24</v>
+      </c>
+      <c r="F717" t="n">
+        <v>1021</v>
+      </c>
+      <c r="G717" t="n">
+        <v>15</v>
+      </c>
+      <c r="H717" t="n">
+        <v>22</v>
+      </c>
+      <c r="I717" t="n">
+        <v>23</v>
+      </c>
+      <c r="J717" t="n">
+        <v>4</v>
+      </c>
+      <c r="K717" t="n">
+        <v>4</v>
+      </c>
+      <c r="L717"/>
+      <c r="M717"/>
+      <c r="N717"/>
+      <c r="O717" t="n">
+        <v>3</v>
+      </c>
+      <c r="P717"/>
+      <c r="Q717" t="n">
+        <v>5</v>
+      </c>
+      <c r="R717" t="n">
+        <v>3</v>
+      </c>
+      <c r="S717" t="n">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -34862,6 +34862,57 @@
         <v>21</v>
       </c>
     </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>45445</v>
+      </c>
+      <c r="B718" s="1" t="n">
+        <v>45442</v>
+      </c>
+      <c r="C718" s="1" t="n">
+        <v>45443</v>
+      </c>
+      <c r="D718" s="1" t="n">
+        <v>45442</v>
+      </c>
+      <c r="E718" t="s">
+        <v>29</v>
+      </c>
+      <c r="F718" t="n">
+        <v>1770</v>
+      </c>
+      <c r="G718" t="n">
+        <v>17</v>
+      </c>
+      <c r="H718" t="n">
+        <v>22</v>
+      </c>
+      <c r="I718" t="n">
+        <v>22</v>
+      </c>
+      <c r="J718" t="n">
+        <v>3</v>
+      </c>
+      <c r="K718" t="n">
+        <v>4</v>
+      </c>
+      <c r="L718"/>
+      <c r="M718"/>
+      <c r="N718"/>
+      <c r="O718" t="n">
+        <v>2</v>
+      </c>
+      <c r="P718"/>
+      <c r="Q718" t="n">
+        <v>5</v>
+      </c>
+      <c r="R718" t="n">
+        <v>3</v>
+      </c>
+      <c r="S718" t="n">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -34913,6 +34913,57 @@
         <v>22</v>
       </c>
     </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="B719" s="1" t="n">
+        <v>45464</v>
+      </c>
+      <c r="C719" s="1" t="n">
+        <v>45469</v>
+      </c>
+      <c r="D719" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="E719" t="s">
+        <v>24</v>
+      </c>
+      <c r="F719" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G719" t="n">
+        <v>19</v>
+      </c>
+      <c r="H719" t="n">
+        <v>21</v>
+      </c>
+      <c r="I719" t="n">
+        <v>20</v>
+      </c>
+      <c r="J719" t="n">
+        <v>3</v>
+      </c>
+      <c r="K719" t="n">
+        <v>5</v>
+      </c>
+      <c r="L719"/>
+      <c r="M719"/>
+      <c r="N719"/>
+      <c r="O719" t="n">
+        <v>3</v>
+      </c>
+      <c r="P719"/>
+      <c r="Q719" t="n">
+        <v>5</v>
+      </c>
+      <c r="R719" t="n">
+        <v>3</v>
+      </c>
+      <c r="S719" t="n">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -34964,6 +34964,57 @@
         <v>21</v>
       </c>
     </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>45480</v>
+      </c>
+      <c r="B720" s="1" t="n">
+        <v>45477</v>
+      </c>
+      <c r="C720" s="1" t="n">
+        <v>45478</v>
+      </c>
+      <c r="D720" s="1" t="n">
+        <v>45477</v>
+      </c>
+      <c r="E720" t="s">
+        <v>29</v>
+      </c>
+      <c r="F720" t="n">
+        <v>1465</v>
+      </c>
+      <c r="G720" t="n">
+        <v>20</v>
+      </c>
+      <c r="H720" t="n">
+        <v>24</v>
+      </c>
+      <c r="I720" t="n">
+        <v>18</v>
+      </c>
+      <c r="J720" t="n">
+        <v>3</v>
+      </c>
+      <c r="K720" t="n">
+        <v>4</v>
+      </c>
+      <c r="L720"/>
+      <c r="M720"/>
+      <c r="N720"/>
+      <c r="O720" t="n">
+        <v>3</v>
+      </c>
+      <c r="P720"/>
+      <c r="Q720" t="n">
+        <v>4</v>
+      </c>
+      <c r="R720" t="n">
+        <v>4</v>
+      </c>
+      <c r="S720" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -35015,6 +35015,57 @@
         <v>20</v>
       </c>
     </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>45508</v>
+      </c>
+      <c r="B721" s="1" t="n">
+        <v>45506</v>
+      </c>
+      <c r="C721" s="1" t="n">
+        <v>45507</v>
+      </c>
+      <c r="D721" s="1" t="n">
+        <v>45506</v>
+      </c>
+      <c r="E721" t="s">
+        <v>29</v>
+      </c>
+      <c r="F721" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G721" t="n">
+        <v>20</v>
+      </c>
+      <c r="H721" t="n">
+        <v>24</v>
+      </c>
+      <c r="I721" t="n">
+        <v>19</v>
+      </c>
+      <c r="J721" t="n">
+        <v>4</v>
+      </c>
+      <c r="K721" t="n">
+        <v>4</v>
+      </c>
+      <c r="L721"/>
+      <c r="M721"/>
+      <c r="N721"/>
+      <c r="O721" t="n">
+        <v>2</v>
+      </c>
+      <c r="P721"/>
+      <c r="Q721" t="n">
+        <v>5</v>
+      </c>
+      <c r="R721" t="n">
+        <v>4</v>
+      </c>
+      <c r="S721" t="n">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -35032,7 +35032,7 @@
         <v>29</v>
       </c>
       <c r="F721" t="n">
-        <v>1300</v>
+        <v>1388</v>
       </c>
       <c r="G721" t="n">
         <v>20</v>
@@ -35064,6 +35064,57 @@
       </c>
       <c r="S721" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B722" s="1" t="n">
+        <v>45533</v>
+      </c>
+      <c r="C722" s="1" t="n">
+        <v>45535</v>
+      </c>
+      <c r="D722" s="1" t="n">
+        <v>45534</v>
+      </c>
+      <c r="E722" t="s">
+        <v>29</v>
+      </c>
+      <c r="F722" t="n">
+        <v>1423</v>
+      </c>
+      <c r="G722" t="n">
+        <v>21</v>
+      </c>
+      <c r="H722" t="n">
+        <v>25</v>
+      </c>
+      <c r="I722" t="n">
+        <v>18</v>
+      </c>
+      <c r="J722" t="n">
+        <v>4</v>
+      </c>
+      <c r="K722" t="n">
+        <v>4</v>
+      </c>
+      <c r="L722"/>
+      <c r="M722"/>
+      <c r="N722"/>
+      <c r="O722" t="n">
+        <v>2</v>
+      </c>
+      <c r="P722"/>
+      <c r="Q722" t="n">
+        <v>4</v>
+      </c>
+      <c r="R722" t="n">
+        <v>3</v>
+      </c>
+      <c r="S722" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S723"/>
+  <dimension ref="A1:S724"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32602,6 +32602,55 @@
         <v>20</v>
       </c>
     </row>
+    <row r="724">
+      <c r="A724" s="2">
+        <v>45554</v>
+      </c>
+      <c r="B724" s="2">
+        <v>45549</v>
+      </c>
+      <c r="C724" s="2">
+        <v>45552</v>
+      </c>
+      <c r="D724" s="2">
+        <v>45550</v>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>Ipsos MRBI</t>
+        </is>
+      </c>
+      <c r="F724">
+        <v>1200</v>
+      </c>
+      <c r="G724">
+        <v>19</v>
+      </c>
+      <c r="H724">
+        <v>27</v>
+      </c>
+      <c r="I724">
+        <v>20</v>
+      </c>
+      <c r="J724">
+        <v>6</v>
+      </c>
+      <c r="K724">
+        <v>5</v>
+      </c>
+      <c r="O724">
+        <v>2</v>
+      </c>
+      <c r="Q724">
+        <v>4</v>
+      </c>
+      <c r="R724">
+        <v>1</v>
+      </c>
+      <c r="S724">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S724"/>
+  <dimension ref="A1:S725"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32651,6 +32651,55 @@
         <v>16</v>
       </c>
     </row>
+    <row r="725">
+      <c r="A725" s="2">
+        <v>45557</v>
+      </c>
+      <c r="B725" s="2">
+        <v>45548</v>
+      </c>
+      <c r="C725" s="2">
+        <v>45554</v>
+      </c>
+      <c r="D725" s="2">
+        <v>45551</v>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>Opinions</t>
+        </is>
+      </c>
+      <c r="F725">
+        <v>1000</v>
+      </c>
+      <c r="G725">
+        <v>20</v>
+      </c>
+      <c r="H725">
+        <v>24</v>
+      </c>
+      <c r="I725">
+        <v>18</v>
+      </c>
+      <c r="J725">
+        <v>4</v>
+      </c>
+      <c r="K725">
+        <v>4</v>
+      </c>
+      <c r="O725">
+        <v>3</v>
+      </c>
+      <c r="Q725">
+        <v>5</v>
+      </c>
+      <c r="R725">
+        <v>2</v>
+      </c>
+      <c r="S725">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S725"/>
+  <dimension ref="A1:S726"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32700,6 +32700,55 @@
         <v>20</v>
       </c>
     </row>
+    <row r="726">
+      <c r="A726" s="2">
+        <v>45571</v>
+      </c>
+      <c r="B726" s="2">
+        <v>45568</v>
+      </c>
+      <c r="C726" s="2">
+        <v>45569</v>
+      </c>
+      <c r="D726" s="2">
+        <v>45568</v>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>Ireland Thinks</t>
+        </is>
+      </c>
+      <c r="F726">
+        <v>1413</v>
+      </c>
+      <c r="G726">
+        <v>19</v>
+      </c>
+      <c r="H726">
+        <v>26</v>
+      </c>
+      <c r="I726">
+        <v>19</v>
+      </c>
+      <c r="J726">
+        <v>5</v>
+      </c>
+      <c r="K726">
+        <v>4</v>
+      </c>
+      <c r="O726">
+        <v>2</v>
+      </c>
+      <c r="Q726">
+        <v>6</v>
+      </c>
+      <c r="R726">
+        <v>4</v>
+      </c>
+      <c r="S726">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S726"/>
+  <dimension ref="A1:S727"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32749,6 +32749,55 @@
         <v>15</v>
       </c>
     </row>
+    <row r="727">
+      <c r="A727" s="2">
+        <v>45585</v>
+      </c>
+      <c r="B727" s="2">
+        <v>45575</v>
+      </c>
+      <c r="C727" s="2">
+        <v>45581</v>
+      </c>
+      <c r="D727" s="2">
+        <v>45578</v>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>Opinions</t>
+        </is>
+      </c>
+      <c r="F727">
+        <v>1005</v>
+      </c>
+      <c r="G727">
+        <v>19</v>
+      </c>
+      <c r="H727">
+        <v>24</v>
+      </c>
+      <c r="I727">
+        <v>16</v>
+      </c>
+      <c r="J727">
+        <v>5</v>
+      </c>
+      <c r="K727">
+        <v>4</v>
+      </c>
+      <c r="O727">
+        <v>3</v>
+      </c>
+      <c r="Q727">
+        <v>5</v>
+      </c>
+      <c r="R727">
+        <v>2</v>
+      </c>
+      <c r="S727">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S727"/>
+  <dimension ref="A1:S728"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32798,6 +32798,55 @@
         <v>22</v>
       </c>
     </row>
+    <row r="728">
+      <c r="A728" s="2">
+        <v>45592</v>
+      </c>
+      <c r="B728" s="2">
+        <v>45583</v>
+      </c>
+      <c r="C728" s="2">
+        <v>45588</v>
+      </c>
+      <c r="D728" s="2">
+        <v>45585</v>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>Red C</t>
+        </is>
+      </c>
+      <c r="F728">
+        <v>1003</v>
+      </c>
+      <c r="G728">
+        <v>21</v>
+      </c>
+      <c r="H728">
+        <v>22</v>
+      </c>
+      <c r="I728">
+        <v>17</v>
+      </c>
+      <c r="J728">
+        <v>4</v>
+      </c>
+      <c r="K728">
+        <v>3</v>
+      </c>
+      <c r="O728">
+        <v>3</v>
+      </c>
+      <c r="Q728">
+        <v>5</v>
+      </c>
+      <c r="R728">
+        <v>3</v>
+      </c>
+      <c r="S728">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S728"/>
+  <dimension ref="A1:S729"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32847,6 +32847,55 @@
         <v>22</v>
       </c>
     </row>
+    <row r="729">
+      <c r="A729" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B729" s="2">
+        <v>45597</v>
+      </c>
+      <c r="C729" s="2">
+        <v>45598</v>
+      </c>
+      <c r="D729" s="2">
+        <v>45597</v>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>Ireland Thinks</t>
+        </is>
+      </c>
+      <c r="F729">
+        <v>1832</v>
+      </c>
+      <c r="G729">
+        <v>20</v>
+      </c>
+      <c r="H729">
+        <v>26</v>
+      </c>
+      <c r="I729">
+        <v>18</v>
+      </c>
+      <c r="J729">
+        <v>4</v>
+      </c>
+      <c r="K729">
+        <v>4</v>
+      </c>
+      <c r="O729">
+        <v>2</v>
+      </c>
+      <c r="Q729">
+        <v>6</v>
+      </c>
+      <c r="R729">
+        <v>3</v>
+      </c>
+      <c r="S729">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S729"/>
+  <dimension ref="A1:S731"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32896,6 +32896,104 @@
         <v>17</v>
       </c>
     </row>
+    <row r="730">
+      <c r="A730" s="2">
+        <v>45606</v>
+      </c>
+      <c r="B730" s="2">
+        <v>45597</v>
+      </c>
+      <c r="C730" s="2">
+        <v>45603</v>
+      </c>
+      <c r="D730" s="2">
+        <v>45600</v>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>Red C</t>
+        </is>
+      </c>
+      <c r="F730">
+        <v>1208</v>
+      </c>
+      <c r="G730">
+        <v>21</v>
+      </c>
+      <c r="H730">
+        <v>22</v>
+      </c>
+      <c r="I730">
+        <v>18</v>
+      </c>
+      <c r="J730">
+        <v>3</v>
+      </c>
+      <c r="K730">
+        <v>4</v>
+      </c>
+      <c r="O730">
+        <v>2</v>
+      </c>
+      <c r="Q730">
+        <v>6</v>
+      </c>
+      <c r="R730">
+        <v>5</v>
+      </c>
+      <c r="S730">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="2">
+        <v>45611</v>
+      </c>
+      <c r="B731" s="2">
+        <v>45608</v>
+      </c>
+      <c r="C731" s="2">
+        <v>45609</v>
+      </c>
+      <c r="D731" s="2">
+        <v>45608</v>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>Ipsos MRBI</t>
+        </is>
+      </c>
+      <c r="F731">
+        <v>1200</v>
+      </c>
+      <c r="G731">
+        <v>19</v>
+      </c>
+      <c r="H731">
+        <v>25</v>
+      </c>
+      <c r="I731">
+        <v>19</v>
+      </c>
+      <c r="J731">
+        <v>5</v>
+      </c>
+      <c r="K731">
+        <v>3</v>
+      </c>
+      <c r="O731">
+        <v>2</v>
+      </c>
+      <c r="Q731">
+        <v>4</v>
+      </c>
+      <c r="R731">
+        <v>3</v>
+      </c>
+      <c r="S731">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S731"/>
+  <dimension ref="A1:S733"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32994,6 +32994,104 @@
         <v>20</v>
       </c>
     </row>
+    <row r="732">
+      <c r="A732" s="2">
+        <v>45613</v>
+      </c>
+      <c r="B732" s="2">
+        <v>45603</v>
+      </c>
+      <c r="C732" s="2">
+        <v>45609</v>
+      </c>
+      <c r="D732" s="2">
+        <v>45606</v>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>Opinions</t>
+        </is>
+      </c>
+      <c r="F732">
+        <v>1000</v>
+      </c>
+      <c r="G732">
+        <v>20</v>
+      </c>
+      <c r="H732">
+        <v>23</v>
+      </c>
+      <c r="I732">
+        <v>18</v>
+      </c>
+      <c r="J732">
+        <v>4</v>
+      </c>
+      <c r="K732">
+        <v>4</v>
+      </c>
+      <c r="O732">
+        <v>2</v>
+      </c>
+      <c r="Q732">
+        <v>6</v>
+      </c>
+      <c r="R732">
+        <v>2</v>
+      </c>
+      <c r="S732">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="2">
+        <v>45620</v>
+      </c>
+      <c r="B733" s="2">
+        <v>45617</v>
+      </c>
+      <c r="C733" s="2">
+        <v>45618</v>
+      </c>
+      <c r="D733" s="2">
+        <v>45617</v>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>Ireland Thinks</t>
+        </is>
+      </c>
+      <c r="F733">
+        <v>1420</v>
+      </c>
+      <c r="G733">
+        <v>20</v>
+      </c>
+      <c r="H733">
+        <v>22</v>
+      </c>
+      <c r="I733">
+        <v>20</v>
+      </c>
+      <c r="J733">
+        <v>4</v>
+      </c>
+      <c r="K733">
+        <v>3</v>
+      </c>
+      <c r="O733">
+        <v>2</v>
+      </c>
+      <c r="Q733">
+        <v>5</v>
+      </c>
+      <c r="R733">
+        <v>5</v>
+      </c>
+      <c r="S733">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S733"/>
+  <dimension ref="A1:S734"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33092,6 +33092,55 @@
         <v>19</v>
       </c>
     </row>
+    <row r="734">
+      <c r="A734" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B734" s="2">
+        <v>45616</v>
+      </c>
+      <c r="C734" s="2">
+        <v>45619</v>
+      </c>
+      <c r="D734" s="2">
+        <v>45617</v>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>Ipsos MRBI</t>
+        </is>
+      </c>
+      <c r="F734">
+        <v>1200</v>
+      </c>
+      <c r="G734">
+        <v>21</v>
+      </c>
+      <c r="H734">
+        <v>19</v>
+      </c>
+      <c r="I734">
+        <v>20</v>
+      </c>
+      <c r="J734">
+        <v>4</v>
+      </c>
+      <c r="K734">
+        <v>4</v>
+      </c>
+      <c r="O734">
+        <v>3</v>
+      </c>
+      <c r="Q734">
+        <v>6</v>
+      </c>
+      <c r="R734">
+        <v>3</v>
+      </c>
+      <c r="S734">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S734"/>
+  <dimension ref="A1:S735"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33141,6 +33141,55 @@
         <v>20</v>
       </c>
     </row>
+    <row r="735">
+      <c r="A735" s="2">
+        <v>45623</v>
+      </c>
+      <c r="B735" s="2">
+        <v>45616</v>
+      </c>
+      <c r="C735" s="2">
+        <v>45622</v>
+      </c>
+      <c r="D735" s="2">
+        <v>45619</v>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>Red C</t>
+        </is>
+      </c>
+      <c r="F735">
+        <v>1000</v>
+      </c>
+      <c r="G735">
+        <v>21</v>
+      </c>
+      <c r="H735">
+        <v>20</v>
+      </c>
+      <c r="I735">
+        <v>20</v>
+      </c>
+      <c r="J735">
+        <v>4</v>
+      </c>
+      <c r="K735">
+        <v>4</v>
+      </c>
+      <c r="O735">
+        <v>2</v>
+      </c>
+      <c r="Q735">
+        <v>6</v>
+      </c>
+      <c r="R735">
+        <v>4</v>
+      </c>
+      <c r="S735">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S735"/>
+  <dimension ref="A1:T740"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,6 +460,11 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>OTH_IND</t>
         </is>
       </c>
@@ -494,7 +499,7 @@
       <c r="J2">
         <v>8</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>8</v>
       </c>
     </row>
@@ -528,7 +533,7 @@
       <c r="J3">
         <v>10</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>4</v>
       </c>
     </row>
@@ -562,7 +567,7 @@
       <c r="J4">
         <v>9</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>6</v>
       </c>
     </row>
@@ -599,7 +604,7 @@
       <c r="M5">
         <v>3</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>2</v>
       </c>
     </row>
@@ -633,7 +638,7 @@
       <c r="J6">
         <v>8</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>6</v>
       </c>
     </row>
@@ -670,7 +675,7 @@
       <c r="M7">
         <v>5</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>-1</v>
       </c>
     </row>
@@ -704,7 +709,7 @@
       <c r="J8">
         <v>8</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>8</v>
       </c>
     </row>
@@ -741,7 +746,7 @@
       <c r="M9">
         <v>4</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>4</v>
       </c>
     </row>
@@ -775,7 +780,7 @@
       <c r="J10">
         <v>7</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>7</v>
       </c>
     </row>
@@ -812,7 +817,7 @@
       <c r="M11">
         <v>4</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>3</v>
       </c>
     </row>
@@ -849,7 +854,7 @@
       <c r="M12">
         <v>5</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>4</v>
       </c>
     </row>
@@ -883,7 +888,7 @@
       <c r="J13">
         <v>8</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>5</v>
       </c>
     </row>
@@ -917,7 +922,7 @@
       <c r="J14">
         <v>7</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>6</v>
       </c>
     </row>
@@ -951,7 +956,7 @@
       <c r="J15">
         <v>6</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>7</v>
       </c>
     </row>
@@ -988,7 +993,7 @@
       <c r="L16">
         <v>5</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>3</v>
       </c>
     </row>
@@ -1022,7 +1027,7 @@
       <c r="J17">
         <v>6</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>9</v>
       </c>
     </row>
@@ -1056,7 +1061,7 @@
       <c r="J18">
         <v>5</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>10</v>
       </c>
     </row>
@@ -1093,7 +1098,7 @@
       <c r="M19">
         <v>5</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>3</v>
       </c>
     </row>
@@ -1133,7 +1138,7 @@
       <c r="M20">
         <v>3</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>5</v>
       </c>
     </row>
@@ -1167,7 +1172,7 @@
       <c r="J21">
         <v>6</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>6</v>
       </c>
     </row>
@@ -1204,7 +1209,7 @@
       <c r="L22">
         <v>3</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>5</v>
       </c>
     </row>
@@ -1241,7 +1246,7 @@
       <c r="L23">
         <v>19</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>5</v>
       </c>
     </row>
@@ -1275,7 +1280,7 @@
       <c r="J24">
         <v>4</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>31</v>
       </c>
     </row>
@@ -1315,7 +1320,7 @@
       <c r="M25">
         <v>4</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>3</v>
       </c>
     </row>
@@ -1352,7 +1357,7 @@
       <c r="L26">
         <v>17</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>4</v>
       </c>
     </row>
@@ -1392,7 +1397,7 @@
       <c r="M27">
         <v>3</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>2</v>
       </c>
     </row>
@@ -1429,7 +1434,7 @@
       <c r="L28">
         <v>15</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>5</v>
       </c>
     </row>
@@ -1469,7 +1474,7 @@
       <c r="M29">
         <v>3</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>2</v>
       </c>
     </row>
@@ -1509,7 +1514,7 @@
       <c r="L30">
         <v>15</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>3</v>
       </c>
     </row>
@@ -1549,7 +1554,7 @@
       <c r="M31">
         <v>2</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>4</v>
       </c>
     </row>
@@ -1589,7 +1594,7 @@
       <c r="L32">
         <v>15</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>4</v>
       </c>
     </row>
@@ -1626,7 +1631,7 @@
       <c r="L33">
         <v>17</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>7</v>
       </c>
     </row>
@@ -1669,7 +1674,7 @@
       <c r="M34">
         <v>2</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>2</v>
       </c>
     </row>
@@ -1703,7 +1708,7 @@
       <c r="J35">
         <v>5</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>21</v>
       </c>
     </row>
@@ -1743,7 +1748,7 @@
       <c r="M36">
         <v>5</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>2</v>
       </c>
     </row>
@@ -1783,7 +1788,7 @@
       <c r="M37">
         <v>5</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>2</v>
       </c>
     </row>
@@ -1823,7 +1828,7 @@
       <c r="M38">
         <v>5</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>3</v>
       </c>
     </row>
@@ -1863,7 +1868,7 @@
       <c r="M39">
         <v>4</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>3</v>
       </c>
     </row>
@@ -1903,7 +1908,7 @@
       <c r="M40">
         <v>4</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>3</v>
       </c>
     </row>
@@ -1943,7 +1948,7 @@
       <c r="M41">
         <v>4</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>5</v>
       </c>
     </row>
@@ -1983,7 +1988,7 @@
       <c r="M42">
         <v>4</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>2</v>
       </c>
     </row>
@@ -2023,7 +2028,7 @@
       <c r="M43">
         <v>3</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>4</v>
       </c>
     </row>
@@ -2063,7 +2068,7 @@
       <c r="M44">
         <v>4</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>3</v>
       </c>
     </row>
@@ -2103,7 +2108,7 @@
       <c r="M45">
         <v>3</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>3</v>
       </c>
     </row>
@@ -2143,7 +2148,7 @@
       <c r="M46">
         <v>3</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>3</v>
       </c>
     </row>
@@ -2183,7 +2188,7 @@
       <c r="M47">
         <v>3</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>2</v>
       </c>
     </row>
@@ -2223,7 +2228,7 @@
       <c r="M48">
         <v>4</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>4</v>
       </c>
     </row>
@@ -2263,7 +2268,7 @@
       <c r="M49">
         <v>3</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>3</v>
       </c>
     </row>
@@ -2303,7 +2308,7 @@
       <c r="M50">
         <v>5</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>3</v>
       </c>
     </row>
@@ -2343,7 +2348,7 @@
       <c r="M51">
         <v>4</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>4</v>
       </c>
     </row>
@@ -2383,7 +2388,7 @@
       <c r="M52">
         <v>6</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>5</v>
       </c>
     </row>
@@ -2423,7 +2428,7 @@
       <c r="M53">
         <v>6</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>5</v>
       </c>
     </row>
@@ -2463,7 +2468,7 @@
       <c r="M54">
         <v>7</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>5</v>
       </c>
     </row>
@@ -2503,7 +2508,7 @@
       <c r="M55">
         <v>6</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <v>5</v>
       </c>
     </row>
@@ -2546,7 +2551,7 @@
       <c r="M56">
         <v>4</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>2</v>
       </c>
     </row>
@@ -2589,7 +2594,7 @@
       <c r="M57">
         <v>3</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>2</v>
       </c>
     </row>
@@ -2632,7 +2637,7 @@
       <c r="M58">
         <v>4</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <v>2</v>
       </c>
     </row>
@@ -2675,7 +2680,7 @@
       <c r="M59">
         <v>4</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <v>3</v>
       </c>
     </row>
@@ -2718,7 +2723,7 @@
       <c r="M60">
         <v>5</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <v>2</v>
       </c>
     </row>
@@ -2761,7 +2766,7 @@
       <c r="M61">
         <v>5</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>3</v>
       </c>
     </row>
@@ -2804,7 +2809,7 @@
       <c r="M62">
         <v>4</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <v>3</v>
       </c>
     </row>
@@ -2847,7 +2852,7 @@
       <c r="M63">
         <v>5</v>
       </c>
-      <c r="S63">
+      <c r="T63">
         <v>3</v>
       </c>
     </row>
@@ -2890,7 +2895,7 @@
       <c r="M64">
         <v>4</v>
       </c>
-      <c r="S64">
+      <c r="T64">
         <v>1</v>
       </c>
     </row>
@@ -2933,7 +2938,7 @@
       <c r="M65">
         <v>3</v>
       </c>
-      <c r="S65">
+      <c r="T65">
         <v>2</v>
       </c>
     </row>
@@ -2976,7 +2981,7 @@
       <c r="M66">
         <v>4</v>
       </c>
-      <c r="S66">
+      <c r="T66">
         <v>2</v>
       </c>
     </row>
@@ -3019,7 +3024,7 @@
       <c r="M67">
         <v>4</v>
       </c>
-      <c r="S67">
+      <c r="T67">
         <v>1</v>
       </c>
     </row>
@@ -3062,7 +3067,7 @@
       <c r="M68">
         <v>5</v>
       </c>
-      <c r="S68">
+      <c r="T68">
         <v>2</v>
       </c>
     </row>
@@ -3105,7 +3110,7 @@
       <c r="M69">
         <v>4</v>
       </c>
-      <c r="S69">
+      <c r="T69">
         <v>3</v>
       </c>
     </row>
@@ -3148,7 +3153,7 @@
       <c r="M70">
         <v>3</v>
       </c>
-      <c r="S70">
+      <c r="T70">
         <v>2</v>
       </c>
     </row>
@@ -3191,7 +3196,7 @@
       <c r="M71">
         <v>6</v>
       </c>
-      <c r="S71">
+      <c r="T71">
         <v>3</v>
       </c>
     </row>
@@ -3234,7 +3239,7 @@
       <c r="M72">
         <v>5</v>
       </c>
-      <c r="S72">
+      <c r="T72">
         <v>4</v>
       </c>
     </row>
@@ -3277,7 +3282,7 @@
       <c r="M73">
         <v>5</v>
       </c>
-      <c r="S73">
+      <c r="T73">
         <v>3</v>
       </c>
     </row>
@@ -3320,7 +3325,7 @@
       <c r="M74">
         <v>6</v>
       </c>
-      <c r="S74">
+      <c r="T74">
         <v>3</v>
       </c>
     </row>
@@ -3363,7 +3368,7 @@
       <c r="M75">
         <v>5</v>
       </c>
-      <c r="S75">
+      <c r="T75">
         <v>5</v>
       </c>
     </row>
@@ -3406,7 +3411,7 @@
       <c r="M76">
         <v>6</v>
       </c>
-      <c r="S76">
+      <c r="T76">
         <v>1</v>
       </c>
     </row>
@@ -3449,7 +3454,7 @@
       <c r="M77">
         <v>5</v>
       </c>
-      <c r="S77">
+      <c r="T77">
         <v>3</v>
       </c>
     </row>
@@ -3492,7 +3497,7 @@
       <c r="M78">
         <v>3</v>
       </c>
-      <c r="S78">
+      <c r="T78">
         <v>1</v>
       </c>
     </row>
@@ -3532,7 +3537,7 @@
       <c r="M79">
         <v>5.3</v>
       </c>
-      <c r="S79">
+      <c r="T79">
         <v>9.1</v>
       </c>
     </row>
@@ -3575,7 +3580,7 @@
       <c r="M80">
         <v>4</v>
       </c>
-      <c r="S80">
+      <c r="T80">
         <v>2</v>
       </c>
     </row>
@@ -3618,7 +3623,7 @@
       <c r="M81">
         <v>4</v>
       </c>
-      <c r="S81">
+      <c r="T81">
         <v>4</v>
       </c>
     </row>
@@ -3661,7 +3666,7 @@
       <c r="M82">
         <v>3</v>
       </c>
-      <c r="S82">
+      <c r="T82">
         <v>2</v>
       </c>
     </row>
@@ -3704,7 +3709,7 @@
       <c r="M83">
         <v>4</v>
       </c>
-      <c r="S83">
+      <c r="T83">
         <v>1</v>
       </c>
     </row>
@@ -3747,7 +3752,7 @@
       <c r="M84">
         <v>3</v>
       </c>
-      <c r="S84">
+      <c r="T84">
         <v>2</v>
       </c>
     </row>
@@ -3790,7 +3795,7 @@
       <c r="M85">
         <v>3</v>
       </c>
-      <c r="S85">
+      <c r="T85">
         <v>2</v>
       </c>
     </row>
@@ -3836,7 +3841,7 @@
       <c r="N86">
         <v>2</v>
       </c>
-      <c r="S86">
+      <c r="T86">
         <v>1</v>
       </c>
     </row>
@@ -3882,7 +3887,7 @@
       <c r="N87">
         <v>1</v>
       </c>
-      <c r="S87">
+      <c r="T87">
         <v>2</v>
       </c>
     </row>
@@ -3928,7 +3933,7 @@
       <c r="N88">
         <v>2</v>
       </c>
-      <c r="S88">
+      <c r="T88">
         <v>1</v>
       </c>
     </row>
@@ -3974,7 +3979,7 @@
       <c r="N89">
         <v>1</v>
       </c>
-      <c r="S89">
+      <c r="T89">
         <v>2</v>
       </c>
     </row>
@@ -4020,7 +4025,7 @@
       <c r="N90">
         <v>1</v>
       </c>
-      <c r="S90">
+      <c r="T90">
         <v>3</v>
       </c>
     </row>
@@ -4066,7 +4071,7 @@
       <c r="N91">
         <v>4</v>
       </c>
-      <c r="S91">
+      <c r="T91">
         <v>4</v>
       </c>
     </row>
@@ -4112,7 +4117,7 @@
       <c r="N92">
         <v>2</v>
       </c>
-      <c r="S92">
+      <c r="T92">
         <v>4</v>
       </c>
     </row>
@@ -4158,7 +4163,7 @@
       <c r="N93">
         <v>1</v>
       </c>
-      <c r="S93">
+      <c r="T93">
         <v>2</v>
       </c>
     </row>
@@ -4204,7 +4209,7 @@
       <c r="N94">
         <v>4</v>
       </c>
-      <c r="S94">
+      <c r="T94">
         <v>3</v>
       </c>
     </row>
@@ -4250,7 +4255,7 @@
       <c r="N95">
         <v>2</v>
       </c>
-      <c r="S95">
+      <c r="T95">
         <v>4</v>
       </c>
     </row>
@@ -4296,7 +4301,7 @@
       <c r="N96">
         <v>2</v>
       </c>
-      <c r="S96">
+      <c r="T96">
         <v>5</v>
       </c>
     </row>
@@ -4342,7 +4347,7 @@
       <c r="N97">
         <v>2</v>
       </c>
-      <c r="S97">
+      <c r="T97">
         <v>3</v>
       </c>
     </row>
@@ -4388,7 +4393,7 @@
       <c r="N98">
         <v>1</v>
       </c>
-      <c r="S98">
+      <c r="T98">
         <v>3</v>
       </c>
     </row>
@@ -4434,7 +4439,7 @@
       <c r="N99">
         <v>1</v>
       </c>
-      <c r="S99">
+      <c r="T99">
         <v>2</v>
       </c>
     </row>
@@ -4480,7 +4485,7 @@
       <c r="N100">
         <v>1</v>
       </c>
-      <c r="S100">
+      <c r="T100">
         <v>1</v>
       </c>
     </row>
@@ -4526,7 +4531,7 @@
       <c r="N101">
         <v>3</v>
       </c>
-      <c r="S101">
+      <c r="T101">
         <v>9</v>
       </c>
     </row>
@@ -4572,7 +4577,7 @@
       <c r="N102">
         <v>1</v>
       </c>
-      <c r="S102">
+      <c r="T102">
         <v>1</v>
       </c>
     </row>
@@ -4621,7 +4626,7 @@
       <c r="N103">
         <v>3</v>
       </c>
-      <c r="S103">
+      <c r="T103">
         <v>2</v>
       </c>
     </row>
@@ -4667,7 +4672,7 @@
       <c r="N104">
         <v>2</v>
       </c>
-      <c r="S104">
+      <c r="T104">
         <v>1</v>
       </c>
     </row>
@@ -4713,7 +4718,7 @@
       <c r="N105">
         <v>2</v>
       </c>
-      <c r="S105">
+      <c r="T105">
         <v>2</v>
       </c>
     </row>
@@ -4762,7 +4767,7 @@
       <c r="N106">
         <v>2</v>
       </c>
-      <c r="S106">
+      <c r="T106">
         <v>3</v>
       </c>
     </row>
@@ -4808,7 +4813,7 @@
       <c r="N107">
         <v>1</v>
       </c>
-      <c r="S107">
+      <c r="T107">
         <v>4</v>
       </c>
     </row>
@@ -4854,7 +4859,7 @@
       <c r="N108">
         <v>1</v>
       </c>
-      <c r="S108">
+      <c r="T108">
         <v>4</v>
       </c>
     </row>
@@ -4900,7 +4905,7 @@
       <c r="N109">
         <v>1.5</v>
       </c>
-      <c r="S109">
+      <c r="T109">
         <v>2.5</v>
       </c>
     </row>
@@ -4949,7 +4954,7 @@
       <c r="N110">
         <v>2</v>
       </c>
-      <c r="S110">
+      <c r="T110">
         <v>2</v>
       </c>
     </row>
@@ -4998,7 +5003,7 @@
       <c r="N111">
         <v>1</v>
       </c>
-      <c r="S111">
+      <c r="T111">
         <v>4</v>
       </c>
     </row>
@@ -5047,7 +5052,7 @@
       <c r="N112">
         <v>1</v>
       </c>
-      <c r="S112">
+      <c r="T112">
         <v>1</v>
       </c>
     </row>
@@ -5093,7 +5098,7 @@
       <c r="N113">
         <v>2</v>
       </c>
-      <c r="S113">
+      <c r="T113">
         <v>5</v>
       </c>
     </row>
@@ -5136,7 +5141,7 @@
       <c r="N114">
         <v>2</v>
       </c>
-      <c r="S114">
+      <c r="T114">
         <v>8</v>
       </c>
     </row>
@@ -5185,7 +5190,7 @@
       <c r="N115">
         <v>1</v>
       </c>
-      <c r="S115">
+      <c r="T115">
         <v>1</v>
       </c>
     </row>
@@ -5231,7 +5236,7 @@
       <c r="N116">
         <v>1</v>
       </c>
-      <c r="S116">
+      <c r="T116">
         <v>4</v>
       </c>
     </row>
@@ -5280,7 +5285,7 @@
       <c r="N117">
         <v>1</v>
       </c>
-      <c r="S117">
+      <c r="T117">
         <v>0</v>
       </c>
     </row>
@@ -5323,7 +5328,7 @@
       <c r="N118">
         <v>5</v>
       </c>
-      <c r="S118">
+      <c r="T118">
         <v>4</v>
       </c>
     </row>
@@ -5369,7 +5374,7 @@
       <c r="N119">
         <v>2</v>
       </c>
-      <c r="S119">
+      <c r="T119">
         <v>2</v>
       </c>
     </row>
@@ -5409,7 +5414,7 @@
       <c r="L120">
         <v>5</v>
       </c>
-      <c r="S120">
+      <c r="T120">
         <v>6</v>
       </c>
     </row>
@@ -5458,7 +5463,7 @@
       <c r="N121">
         <v>2</v>
       </c>
-      <c r="S121">
+      <c r="T121">
         <v>1</v>
       </c>
     </row>
@@ -5498,7 +5503,7 @@
       <c r="L122">
         <v>4</v>
       </c>
-      <c r="S122">
+      <c r="T122">
         <v>7</v>
       </c>
     </row>
@@ -5547,7 +5552,7 @@
       <c r="N123">
         <v>2</v>
       </c>
-      <c r="S123">
+      <c r="T123">
         <v>1</v>
       </c>
     </row>
@@ -5590,7 +5595,7 @@
       <c r="N124">
         <v>1</v>
       </c>
-      <c r="S124">
+      <c r="T124">
         <v>4</v>
       </c>
     </row>
@@ -5639,7 +5644,7 @@
       <c r="N125">
         <v>1</v>
       </c>
-      <c r="S125">
+      <c r="T125">
         <v>4</v>
       </c>
     </row>
@@ -5688,7 +5693,7 @@
       <c r="N126">
         <v>1</v>
       </c>
-      <c r="S126">
+      <c r="T126">
         <v>3</v>
       </c>
     </row>
@@ -5722,7 +5727,7 @@
       <c r="J127">
         <v>12</v>
       </c>
-      <c r="S127">
+      <c r="T127">
         <v>16</v>
       </c>
     </row>
@@ -5771,7 +5776,7 @@
       <c r="N128">
         <v>1</v>
       </c>
-      <c r="S128">
+      <c r="T128">
         <v>2</v>
       </c>
     </row>
@@ -5817,7 +5822,7 @@
       <c r="N129">
         <v>2</v>
       </c>
-      <c r="S129">
+      <c r="T129">
         <v>3</v>
       </c>
     </row>
@@ -5866,7 +5871,7 @@
       <c r="N130">
         <v>2</v>
       </c>
-      <c r="S130">
+      <c r="T130">
         <v>4</v>
       </c>
     </row>
@@ -5909,7 +5914,7 @@
       <c r="N131">
         <v>2</v>
       </c>
-      <c r="S131">
+      <c r="T131">
         <v>6</v>
       </c>
     </row>
@@ -5958,7 +5963,7 @@
       <c r="N132">
         <v>2</v>
       </c>
-      <c r="S132">
+      <c r="T132">
         <v>2</v>
       </c>
     </row>
@@ -6007,7 +6012,7 @@
       <c r="N133">
         <v>1</v>
       </c>
-      <c r="S133">
+      <c r="T133">
         <v>2</v>
       </c>
     </row>
@@ -6050,7 +6055,7 @@
       <c r="N134">
         <v>2</v>
       </c>
-      <c r="S134">
+      <c r="T134">
         <v>5</v>
       </c>
     </row>
@@ -6099,7 +6104,7 @@
       <c r="N135">
         <v>1</v>
       </c>
-      <c r="S135">
+      <c r="T135">
         <v>4</v>
       </c>
     </row>
@@ -6142,7 +6147,7 @@
       <c r="N136">
         <v>2</v>
       </c>
-      <c r="S136">
+      <c r="T136">
         <v>4</v>
       </c>
     </row>
@@ -6191,7 +6196,7 @@
       <c r="N137">
         <v>1</v>
       </c>
-      <c r="S137">
+      <c r="T137">
         <v>3</v>
       </c>
     </row>
@@ -6234,7 +6239,7 @@
       <c r="N138">
         <v>2</v>
       </c>
-      <c r="S138">
+      <c r="T138">
         <v>4</v>
       </c>
     </row>
@@ -6280,7 +6285,7 @@
       <c r="N139">
         <v>2</v>
       </c>
-      <c r="S139">
+      <c r="T139">
         <v>5</v>
       </c>
     </row>
@@ -6329,7 +6334,7 @@
       <c r="N140">
         <v>2</v>
       </c>
-      <c r="S140">
+      <c r="T140">
         <v>4</v>
       </c>
     </row>
@@ -6372,7 +6377,7 @@
       <c r="N141">
         <v>2</v>
       </c>
-      <c r="S141">
+      <c r="T141">
         <v>9</v>
       </c>
     </row>
@@ -6418,7 +6423,7 @@
       <c r="N142">
         <v>2</v>
       </c>
-      <c r="S142">
+      <c r="T142">
         <v>6</v>
       </c>
     </row>
@@ -6467,7 +6472,7 @@
       <c r="N143">
         <v>2</v>
       </c>
-      <c r="S143">
+      <c r="T143">
         <v>7</v>
       </c>
     </row>
@@ -6510,7 +6515,7 @@
       <c r="N144">
         <v>2</v>
       </c>
-      <c r="S144">
+      <c r="T144">
         <v>8</v>
       </c>
     </row>
@@ -6559,7 +6564,7 @@
       <c r="N145">
         <v>2</v>
       </c>
-      <c r="S145">
+      <c r="T145">
         <v>5</v>
       </c>
     </row>
@@ -6602,7 +6607,7 @@
       <c r="N146">
         <v>3</v>
       </c>
-      <c r="S146">
+      <c r="T146">
         <v>11</v>
       </c>
     </row>
@@ -6651,7 +6656,7 @@
       <c r="N147">
         <v>1</v>
       </c>
-      <c r="S147">
+      <c r="T147">
         <v>3</v>
       </c>
     </row>
@@ -6697,7 +6702,7 @@
       <c r="N148">
         <v>2</v>
       </c>
-      <c r="S148">
+      <c r="T148">
         <v>2</v>
       </c>
     </row>
@@ -6746,7 +6751,7 @@
       <c r="N149">
         <v>1</v>
       </c>
-      <c r="S149">
+      <c r="T149">
         <v>3</v>
       </c>
     </row>
@@ -6795,7 +6800,7 @@
       <c r="N150">
         <v>1</v>
       </c>
-      <c r="S150">
+      <c r="T150">
         <v>3</v>
       </c>
     </row>
@@ -6838,7 +6843,7 @@
       <c r="L151">
         <v>3</v>
       </c>
-      <c r="S151">
+      <c r="T151">
         <v>5</v>
       </c>
     </row>
@@ -6887,7 +6892,7 @@
       <c r="N152">
         <v>1</v>
       </c>
-      <c r="S152">
+      <c r="T152">
         <v>1</v>
       </c>
     </row>
@@ -6936,7 +6941,7 @@
       <c r="N153">
         <v>1</v>
       </c>
-      <c r="S153">
+      <c r="T153">
         <v>3</v>
       </c>
     </row>
@@ -6982,7 +6987,7 @@
       <c r="N154">
         <v>1</v>
       </c>
-      <c r="S154">
+      <c r="T154">
         <v>2</v>
       </c>
     </row>
@@ -7016,7 +7021,7 @@
       <c r="J155">
         <v>13</v>
       </c>
-      <c r="S155">
+      <c r="T155">
         <v>11</v>
       </c>
     </row>
@@ -7062,7 +7067,7 @@
       <c r="N156">
         <v>2</v>
       </c>
-      <c r="S156">
+      <c r="T156">
         <v>3</v>
       </c>
     </row>
@@ -7108,7 +7113,7 @@
       <c r="N157">
         <v>1</v>
       </c>
-      <c r="S157">
+      <c r="T157">
         <v>2</v>
       </c>
     </row>
@@ -7154,7 +7159,7 @@
       <c r="N158">
         <v>1</v>
       </c>
-      <c r="S158">
+      <c r="T158">
         <v>1</v>
       </c>
     </row>
@@ -7203,7 +7208,7 @@
       <c r="N159">
         <v>2</v>
       </c>
-      <c r="S159">
+      <c r="T159">
         <v>3</v>
       </c>
     </row>
@@ -7249,7 +7254,7 @@
       <c r="N160">
         <v>1</v>
       </c>
-      <c r="S160">
+      <c r="T160">
         <v>2</v>
       </c>
     </row>
@@ -7298,7 +7303,7 @@
       <c r="N161">
         <v>1</v>
       </c>
-      <c r="S161">
+      <c r="T161">
         <v>2</v>
       </c>
     </row>
@@ -7344,7 +7349,7 @@
       <c r="M162">
         <v>1</v>
       </c>
-      <c r="S162">
+      <c r="T162">
         <v>4</v>
       </c>
     </row>
@@ -7390,7 +7395,7 @@
       <c r="N163">
         <v>2</v>
       </c>
-      <c r="S163">
+      <c r="T163">
         <v>2</v>
       </c>
     </row>
@@ -7436,7 +7441,7 @@
       <c r="N164">
         <v>1</v>
       </c>
-      <c r="S164">
+      <c r="T164">
         <v>4</v>
       </c>
     </row>
@@ -7482,7 +7487,7 @@
       <c r="M165">
         <v>1</v>
       </c>
-      <c r="S165">
+      <c r="T165">
         <v>3</v>
       </c>
     </row>
@@ -7528,7 +7533,7 @@
       <c r="M166">
         <v>1</v>
       </c>
-      <c r="S166">
+      <c r="T166">
         <v>4</v>
       </c>
     </row>
@@ -7571,7 +7576,7 @@
       <c r="L167">
         <v>4</v>
       </c>
-      <c r="S167">
+      <c r="T167">
         <v>4</v>
       </c>
     </row>
@@ -7617,7 +7622,7 @@
       <c r="M168">
         <v>1</v>
       </c>
-      <c r="S168">
+      <c r="T168">
         <v>3</v>
       </c>
     </row>
@@ -7660,7 +7665,7 @@
       <c r="L169">
         <v>5</v>
       </c>
-      <c r="S169">
+      <c r="T169">
         <v>5</v>
       </c>
     </row>
@@ -7706,7 +7711,7 @@
       <c r="M170">
         <v>1</v>
       </c>
-      <c r="S170">
+      <c r="T170">
         <v>3</v>
       </c>
     </row>
@@ -7752,7 +7757,7 @@
       <c r="M171">
         <v>1</v>
       </c>
-      <c r="S171">
+      <c r="T171">
         <v>4</v>
       </c>
     </row>
@@ -7795,7 +7800,7 @@
       <c r="L172">
         <v>4</v>
       </c>
-      <c r="S172">
+      <c r="T172">
         <v>6</v>
       </c>
     </row>
@@ -7838,7 +7843,7 @@
       <c r="L173">
         <v>3</v>
       </c>
-      <c r="S173">
+      <c r="T173">
         <v>5</v>
       </c>
     </row>
@@ -7881,7 +7886,7 @@
       <c r="L174">
         <v>2</v>
       </c>
-      <c r="S174">
+      <c r="T174">
         <v>4</v>
       </c>
     </row>
@@ -7924,7 +7929,7 @@
       <c r="L175">
         <v>4</v>
       </c>
-      <c r="S175">
+      <c r="T175">
         <v>6</v>
       </c>
     </row>
@@ -7970,7 +7975,7 @@
       <c r="M176">
         <v>1</v>
       </c>
-      <c r="S176">
+      <c r="T176">
         <v>3</v>
       </c>
     </row>
@@ -8016,7 +8021,7 @@
       <c r="M177">
         <v>1</v>
       </c>
-      <c r="S177">
+      <c r="T177">
         <v>9</v>
       </c>
     </row>
@@ -8062,7 +8067,7 @@
       <c r="M178">
         <v>1</v>
       </c>
-      <c r="S178">
+      <c r="T178">
         <v>5</v>
       </c>
     </row>
@@ -8105,7 +8110,7 @@
       <c r="L179">
         <v>3</v>
       </c>
-      <c r="S179">
+      <c r="T179">
         <v>7</v>
       </c>
     </row>
@@ -8148,7 +8153,7 @@
       <c r="L180">
         <v>3</v>
       </c>
-      <c r="S180">
+      <c r="T180">
         <v>4</v>
       </c>
     </row>
@@ -8191,7 +8196,7 @@
       <c r="L181">
         <v>4</v>
       </c>
-      <c r="S181">
+      <c r="T181">
         <v>9</v>
       </c>
     </row>
@@ -8237,7 +8242,7 @@
       <c r="M182">
         <v>1</v>
       </c>
-      <c r="S182">
+      <c r="T182">
         <v>5</v>
       </c>
     </row>
@@ -8280,7 +8285,7 @@
       <c r="L183">
         <v>2</v>
       </c>
-      <c r="S183">
+      <c r="T183">
         <v>6</v>
       </c>
     </row>
@@ -8323,7 +8328,7 @@
       <c r="L184">
         <v>4</v>
       </c>
-      <c r="S184">
+      <c r="T184">
         <v>8</v>
       </c>
     </row>
@@ -8369,7 +8374,7 @@
       <c r="M185">
         <v>1</v>
       </c>
-      <c r="S185">
+      <c r="T185">
         <v>1</v>
       </c>
     </row>
@@ -8409,7 +8414,7 @@
       <c r="L186">
         <v>7</v>
       </c>
-      <c r="S186">
+      <c r="T186">
         <v>10</v>
       </c>
     </row>
@@ -8452,7 +8457,7 @@
       <c r="L187">
         <v>3</v>
       </c>
-      <c r="S187">
+      <c r="T187">
         <v>9</v>
       </c>
     </row>
@@ -8498,7 +8503,7 @@
       <c r="M188">
         <v>1</v>
       </c>
-      <c r="S188">
+      <c r="T188">
         <v>3</v>
       </c>
     </row>
@@ -8541,7 +8546,7 @@
       <c r="L189">
         <v>5</v>
       </c>
-      <c r="S189">
+      <c r="T189">
         <v>2</v>
       </c>
     </row>
@@ -8584,7 +8589,7 @@
       <c r="L190">
         <v>3</v>
       </c>
-      <c r="S190">
+      <c r="T190">
         <v>11</v>
       </c>
     </row>
@@ -8627,7 +8632,7 @@
       <c r="L191">
         <v>4</v>
       </c>
-      <c r="S191">
+      <c r="T191">
         <v>9</v>
       </c>
     </row>
@@ -8670,7 +8675,7 @@
       <c r="L192">
         <v>5</v>
       </c>
-      <c r="S192">
+      <c r="T192">
         <v>4</v>
       </c>
     </row>
@@ -8713,7 +8718,7 @@
       <c r="L193">
         <v>4</v>
       </c>
-      <c r="S193">
+      <c r="T193">
         <v>12</v>
       </c>
     </row>
@@ -8756,7 +8761,7 @@
       <c r="L194">
         <v>2</v>
       </c>
-      <c r="S194">
+      <c r="T194">
         <v>9</v>
       </c>
     </row>
@@ -8799,7 +8804,7 @@
       <c r="L195">
         <v>3</v>
       </c>
-      <c r="S195">
+      <c r="T195">
         <v>9</v>
       </c>
     </row>
@@ -8842,7 +8847,7 @@
       <c r="L196">
         <v>3</v>
       </c>
-      <c r="S196">
+      <c r="T196">
         <v>9</v>
       </c>
     </row>
@@ -8885,7 +8890,7 @@
       <c r="L197">
         <v>5</v>
       </c>
-      <c r="S197">
+      <c r="T197">
         <v>10</v>
       </c>
     </row>
@@ -8928,7 +8933,7 @@
       <c r="L198">
         <v>3</v>
       </c>
-      <c r="S198">
+      <c r="T198">
         <v>8</v>
       </c>
     </row>
@@ -8971,7 +8976,7 @@
       <c r="L199">
         <v>2</v>
       </c>
-      <c r="S199">
+      <c r="T199">
         <v>7</v>
       </c>
     </row>
@@ -9014,7 +9019,7 @@
       <c r="L200">
         <v>2</v>
       </c>
-      <c r="S200">
+      <c r="T200">
         <v>10</v>
       </c>
     </row>
@@ -9057,7 +9062,7 @@
       <c r="L201">
         <v>5</v>
       </c>
-      <c r="S201">
+      <c r="T201">
         <v>7</v>
       </c>
     </row>
@@ -9100,7 +9105,7 @@
       <c r="L202">
         <v>3</v>
       </c>
-      <c r="S202">
+      <c r="T202">
         <v>16</v>
       </c>
     </row>
@@ -9143,7 +9148,7 @@
       <c r="L203">
         <v>5</v>
       </c>
-      <c r="S203">
+      <c r="T203">
         <v>9</v>
       </c>
     </row>
@@ -9186,7 +9191,7 @@
       <c r="L204">
         <v>6</v>
       </c>
-      <c r="S204">
+      <c r="T204">
         <v>9</v>
       </c>
     </row>
@@ -9229,7 +9234,7 @@
       <c r="L205">
         <v>4</v>
       </c>
-      <c r="S205">
+      <c r="T205">
         <v>9</v>
       </c>
     </row>
@@ -9272,7 +9277,7 @@
       <c r="L206">
         <v>4</v>
       </c>
-      <c r="S206">
+      <c r="T206">
         <v>9</v>
       </c>
     </row>
@@ -9315,7 +9320,7 @@
       <c r="L207">
         <v>4</v>
       </c>
-      <c r="S207">
+      <c r="T207">
         <v>11</v>
       </c>
     </row>
@@ -9358,7 +9363,7 @@
       <c r="L208">
         <v>5</v>
       </c>
-      <c r="S208">
+      <c r="T208">
         <v>10</v>
       </c>
     </row>
@@ -9401,7 +9406,7 @@
       <c r="L209">
         <v>3</v>
       </c>
-      <c r="S209">
+      <c r="T209">
         <v>11</v>
       </c>
     </row>
@@ -9444,7 +9449,7 @@
       <c r="L210">
         <v>4</v>
       </c>
-      <c r="S210">
+      <c r="T210">
         <v>12</v>
       </c>
     </row>
@@ -9487,7 +9492,7 @@
       <c r="L211">
         <v>3</v>
       </c>
-      <c r="S211">
+      <c r="T211">
         <v>9</v>
       </c>
     </row>
@@ -9530,7 +9535,7 @@
       <c r="L212">
         <v>3</v>
       </c>
-      <c r="S212">
+      <c r="T212">
         <v>12</v>
       </c>
     </row>
@@ -9573,7 +9578,7 @@
       <c r="L213">
         <v>4</v>
       </c>
-      <c r="S213">
+      <c r="T213">
         <v>10</v>
       </c>
     </row>
@@ -9616,7 +9621,7 @@
       <c r="L214">
         <v>4</v>
       </c>
-      <c r="S214">
+      <c r="T214">
         <v>9</v>
       </c>
     </row>
@@ -9659,7 +9664,7 @@
       <c r="L215">
         <v>3</v>
       </c>
-      <c r="S215">
+      <c r="T215">
         <v>9</v>
       </c>
     </row>
@@ -9702,7 +9707,7 @@
       <c r="L216">
         <v>4</v>
       </c>
-      <c r="S216">
+      <c r="T216">
         <v>8</v>
       </c>
     </row>
@@ -9745,7 +9750,7 @@
       <c r="L217">
         <v>4</v>
       </c>
-      <c r="S217">
+      <c r="T217">
         <v>8</v>
       </c>
     </row>
@@ -9788,7 +9793,7 @@
       <c r="L218">
         <v>3</v>
       </c>
-      <c r="S218">
+      <c r="T218">
         <v>9</v>
       </c>
     </row>
@@ -9831,7 +9836,7 @@
       <c r="L219">
         <v>3</v>
       </c>
-      <c r="S219">
+      <c r="T219">
         <v>12</v>
       </c>
     </row>
@@ -9874,7 +9879,7 @@
       <c r="L220">
         <v>3</v>
       </c>
-      <c r="S220">
+      <c r="T220">
         <v>9</v>
       </c>
     </row>
@@ -9917,7 +9922,7 @@
       <c r="L221">
         <v>4</v>
       </c>
-      <c r="S221">
+      <c r="T221">
         <v>12</v>
       </c>
     </row>
@@ -9960,7 +9965,7 @@
       <c r="L222">
         <v>4</v>
       </c>
-      <c r="S222">
+      <c r="T222">
         <v>12</v>
       </c>
     </row>
@@ -10003,7 +10008,7 @@
       <c r="L223">
         <v>4</v>
       </c>
-      <c r="S223">
+      <c r="T223">
         <v>10</v>
       </c>
     </row>
@@ -10046,7 +10051,7 @@
       <c r="L224">
         <v>4</v>
       </c>
-      <c r="S224">
+      <c r="T224">
         <v>10</v>
       </c>
     </row>
@@ -10089,7 +10094,7 @@
       <c r="L225">
         <v>5</v>
       </c>
-      <c r="S225">
+      <c r="T225">
         <v>6</v>
       </c>
     </row>
@@ -10132,7 +10137,7 @@
       <c r="L226">
         <v>4</v>
       </c>
-      <c r="S226">
+      <c r="T226">
         <v>8</v>
       </c>
     </row>
@@ -10175,7 +10180,7 @@
       <c r="L227">
         <v>4</v>
       </c>
-      <c r="S227">
+      <c r="T227">
         <v>9</v>
       </c>
     </row>
@@ -10218,7 +10223,7 @@
       <c r="L228">
         <v>3</v>
       </c>
-      <c r="S228">
+      <c r="T228">
         <v>8</v>
       </c>
     </row>
@@ -10261,7 +10266,7 @@
       <c r="L229">
         <v>3</v>
       </c>
-      <c r="S229">
+      <c r="T229">
         <v>7</v>
       </c>
     </row>
@@ -10304,7 +10309,7 @@
       <c r="L230">
         <v>3</v>
       </c>
-      <c r="S230">
+      <c r="T230">
         <v>8</v>
       </c>
     </row>
@@ -10347,7 +10352,7 @@
       <c r="L231">
         <v>4</v>
       </c>
-      <c r="S231">
+      <c r="T231">
         <v>9</v>
       </c>
     </row>
@@ -10390,7 +10395,7 @@
       <c r="L232">
         <v>4</v>
       </c>
-      <c r="S232">
+      <c r="T232">
         <v>9</v>
       </c>
     </row>
@@ -10433,7 +10438,7 @@
       <c r="L233">
         <v>4</v>
       </c>
-      <c r="S233">
+      <c r="T233">
         <v>9</v>
       </c>
     </row>
@@ -10476,7 +10481,7 @@
       <c r="L234">
         <v>3</v>
       </c>
-      <c r="S234">
+      <c r="T234">
         <v>9</v>
       </c>
     </row>
@@ -10519,7 +10524,7 @@
       <c r="L235">
         <v>3</v>
       </c>
-      <c r="S235">
+      <c r="T235">
         <v>8</v>
       </c>
     </row>
@@ -10562,7 +10567,7 @@
       <c r="L236">
         <v>3</v>
       </c>
-      <c r="S236">
+      <c r="T236">
         <v>9</v>
       </c>
     </row>
@@ -10605,7 +10610,7 @@
       <c r="L237">
         <v>2</v>
       </c>
-      <c r="S237">
+      <c r="T237">
         <v>7</v>
       </c>
     </row>
@@ -10648,7 +10653,7 @@
       <c r="L238">
         <v>4</v>
       </c>
-      <c r="S238">
+      <c r="T238">
         <v>8</v>
       </c>
     </row>
@@ -10691,7 +10696,7 @@
       <c r="L239">
         <v>4</v>
       </c>
-      <c r="S239">
+      <c r="T239">
         <v>9</v>
       </c>
     </row>
@@ -10734,7 +10739,7 @@
       <c r="L240">
         <v>4</v>
       </c>
-      <c r="S240">
+      <c r="T240">
         <v>10</v>
       </c>
     </row>
@@ -10777,7 +10782,7 @@
       <c r="L241">
         <v>4</v>
       </c>
-      <c r="S241">
+      <c r="T241">
         <v>6</v>
       </c>
     </row>
@@ -10820,7 +10825,7 @@
       <c r="L242">
         <v>3</v>
       </c>
-      <c r="S242">
+      <c r="T242">
         <v>7</v>
       </c>
     </row>
@@ -10863,7 +10868,7 @@
       <c r="L243">
         <v>4</v>
       </c>
-      <c r="S243">
+      <c r="T243">
         <v>7</v>
       </c>
     </row>
@@ -10903,7 +10908,7 @@
       <c r="K244">
         <v>4</v>
       </c>
-      <c r="S244">
+      <c r="T244">
         <v>10</v>
       </c>
     </row>
@@ -10946,7 +10951,7 @@
       <c r="L245">
         <v>3</v>
       </c>
-      <c r="S245">
+      <c r="T245">
         <v>8</v>
       </c>
     </row>
@@ -10989,7 +10994,7 @@
       <c r="L246">
         <v>3</v>
       </c>
-      <c r="S246">
+      <c r="T246">
         <v>8</v>
       </c>
     </row>
@@ -11032,7 +11037,7 @@
       <c r="L247">
         <v>5</v>
       </c>
-      <c r="S247">
+      <c r="T247">
         <v>10</v>
       </c>
     </row>
@@ -11072,7 +11077,7 @@
       <c r="K248">
         <v>7</v>
       </c>
-      <c r="S248">
+      <c r="T248">
         <v>9</v>
       </c>
     </row>
@@ -11115,7 +11120,7 @@
       <c r="L249">
         <v>1</v>
       </c>
-      <c r="S249">
+      <c r="T249">
         <v>8</v>
       </c>
     </row>
@@ -11158,7 +11163,7 @@
       <c r="L250">
         <v>4</v>
       </c>
-      <c r="S250">
+      <c r="T250">
         <v>7</v>
       </c>
     </row>
@@ -11201,7 +11206,7 @@
       <c r="L251">
         <v>3</v>
       </c>
-      <c r="S251">
+      <c r="T251">
         <v>8</v>
       </c>
     </row>
@@ -11244,7 +11249,7 @@
       <c r="L252">
         <v>3</v>
       </c>
-      <c r="S252">
+      <c r="T252">
         <v>7</v>
       </c>
     </row>
@@ -11287,7 +11292,7 @@
       <c r="L253">
         <v>4</v>
       </c>
-      <c r="S253">
+      <c r="T253">
         <v>9</v>
       </c>
     </row>
@@ -11330,7 +11335,7 @@
       <c r="L254">
         <v>3</v>
       </c>
-      <c r="S254">
+      <c r="T254">
         <v>6</v>
       </c>
     </row>
@@ -11373,7 +11378,7 @@
       <c r="L255">
         <v>3</v>
       </c>
-      <c r="S255">
+      <c r="T255">
         <v>8</v>
       </c>
     </row>
@@ -11416,7 +11421,7 @@
       <c r="L256">
         <v>2</v>
       </c>
-      <c r="S256">
+      <c r="T256">
         <v>6</v>
       </c>
     </row>
@@ -11459,7 +11464,7 @@
       <c r="L257">
         <v>3</v>
       </c>
-      <c r="S257">
+      <c r="T257">
         <v>8</v>
       </c>
     </row>
@@ -11502,7 +11507,7 @@
       <c r="L258">
         <v>3</v>
       </c>
-      <c r="S258">
+      <c r="T258">
         <v>8</v>
       </c>
     </row>
@@ -11545,7 +11550,7 @@
       <c r="L259">
         <v>2</v>
       </c>
-      <c r="S259">
+      <c r="T259">
         <v>6</v>
       </c>
     </row>
@@ -11588,7 +11593,7 @@
       <c r="L260">
         <v>3</v>
       </c>
-      <c r="S260">
+      <c r="T260">
         <v>9</v>
       </c>
     </row>
@@ -11631,7 +11636,7 @@
       <c r="L261">
         <v>2</v>
       </c>
-      <c r="S261">
+      <c r="T261">
         <v>5</v>
       </c>
     </row>
@@ -11674,7 +11679,7 @@
       <c r="L262">
         <v>3</v>
       </c>
-      <c r="S262">
+      <c r="T262">
         <v>7</v>
       </c>
     </row>
@@ -11717,7 +11722,7 @@
       <c r="L263">
         <v>2</v>
       </c>
-      <c r="S263">
+      <c r="T263">
         <v>7</v>
       </c>
     </row>
@@ -11760,7 +11765,7 @@
       <c r="L264">
         <v>2</v>
       </c>
-      <c r="S264">
+      <c r="T264">
         <v>7</v>
       </c>
     </row>
@@ -11803,7 +11808,7 @@
       <c r="L265">
         <v>2</v>
       </c>
-      <c r="S265">
+      <c r="T265">
         <v>7</v>
       </c>
     </row>
@@ -11846,7 +11851,7 @@
       <c r="L266">
         <v>2</v>
       </c>
-      <c r="S266">
+      <c r="T266">
         <v>6</v>
       </c>
     </row>
@@ -11889,7 +11894,7 @@
       <c r="L267">
         <v>3</v>
       </c>
-      <c r="S267">
+      <c r="T267">
         <v>6</v>
       </c>
     </row>
@@ -11932,7 +11937,7 @@
       <c r="L268">
         <v>2</v>
       </c>
-      <c r="S268">
+      <c r="T268">
         <v>4</v>
       </c>
     </row>
@@ -11975,7 +11980,7 @@
       <c r="L269">
         <v>2</v>
       </c>
-      <c r="S269">
+      <c r="T269">
         <v>5</v>
       </c>
     </row>
@@ -12018,7 +12023,7 @@
       <c r="L270">
         <v>1</v>
       </c>
-      <c r="S270">
+      <c r="T270">
         <v>6</v>
       </c>
     </row>
@@ -12061,7 +12066,7 @@
       <c r="L271">
         <v>2</v>
       </c>
-      <c r="S271">
+      <c r="T271">
         <v>6</v>
       </c>
     </row>
@@ -12104,7 +12109,7 @@
       <c r="L272">
         <v>1</v>
       </c>
-      <c r="S272">
+      <c r="T272">
         <v>6</v>
       </c>
     </row>
@@ -12147,7 +12152,7 @@
       <c r="L273">
         <v>2</v>
       </c>
-      <c r="S273">
+      <c r="T273">
         <v>6</v>
       </c>
     </row>
@@ -12190,7 +12195,7 @@
       <c r="L274">
         <v>1</v>
       </c>
-      <c r="S274">
+      <c r="T274">
         <v>6</v>
       </c>
     </row>
@@ -12233,7 +12238,7 @@
       <c r="L275">
         <v>6</v>
       </c>
-      <c r="S275">
+      <c r="T275">
         <v>3</v>
       </c>
     </row>
@@ -12276,7 +12281,7 @@
       <c r="L276">
         <v>3</v>
       </c>
-      <c r="S276">
+      <c r="T276">
         <v>8</v>
       </c>
     </row>
@@ -12319,7 +12324,7 @@
       <c r="L277">
         <v>2</v>
       </c>
-      <c r="S277">
+      <c r="T277">
         <v>8</v>
       </c>
     </row>
@@ -12359,7 +12364,7 @@
       <c r="K278">
         <v>4</v>
       </c>
-      <c r="S278">
+      <c r="T278">
         <v>13</v>
       </c>
     </row>
@@ -12399,7 +12404,7 @@
       <c r="K279">
         <v>5</v>
       </c>
-      <c r="S279">
+      <c r="T279">
         <v>8</v>
       </c>
     </row>
@@ -12439,7 +12444,7 @@
       <c r="K280">
         <v>8</v>
       </c>
-      <c r="S280">
+      <c r="T280">
         <v>8</v>
       </c>
     </row>
@@ -12479,7 +12484,7 @@
       <c r="K281">
         <v>4</v>
       </c>
-      <c r="S281">
+      <c r="T281">
         <v>9</v>
       </c>
     </row>
@@ -12519,7 +12524,7 @@
       <c r="K282">
         <v>5</v>
       </c>
-      <c r="S282">
+      <c r="T282">
         <v>11</v>
       </c>
     </row>
@@ -12559,7 +12564,7 @@
       <c r="K283">
         <v>6</v>
       </c>
-      <c r="S283">
+      <c r="T283">
         <v>8</v>
       </c>
     </row>
@@ -12599,7 +12604,7 @@
       <c r="K284">
         <v>7</v>
       </c>
-      <c r="S284">
+      <c r="T284">
         <v>10</v>
       </c>
     </row>
@@ -12639,7 +12644,7 @@
       <c r="K285">
         <v>7</v>
       </c>
-      <c r="S285">
+      <c r="T285">
         <v>10</v>
       </c>
     </row>
@@ -12679,7 +12684,7 @@
       <c r="K286">
         <v>3</v>
       </c>
-      <c r="S286">
+      <c r="T286">
         <v>9</v>
       </c>
     </row>
@@ -12719,7 +12724,7 @@
       <c r="K287">
         <v>5</v>
       </c>
-      <c r="S287">
+      <c r="T287">
         <v>12</v>
       </c>
     </row>
@@ -12759,7 +12764,7 @@
       <c r="K288">
         <v>3</v>
       </c>
-      <c r="S288">
+      <c r="T288">
         <v>10</v>
       </c>
     </row>
@@ -12799,7 +12804,7 @@
       <c r="K289">
         <v>4</v>
       </c>
-      <c r="S289">
+      <c r="T289">
         <v>13</v>
       </c>
     </row>
@@ -12842,7 +12847,7 @@
       <c r="L290">
         <v>0</v>
       </c>
-      <c r="S290">
+      <c r="T290">
         <v>12</v>
       </c>
     </row>
@@ -12882,7 +12887,7 @@
       <c r="K291">
         <v>5</v>
       </c>
-      <c r="S291">
+      <c r="T291">
         <v>11</v>
       </c>
     </row>
@@ -12922,7 +12927,7 @@
       <c r="K292">
         <v>4</v>
       </c>
-      <c r="S292">
+      <c r="T292">
         <v>11</v>
       </c>
     </row>
@@ -12962,7 +12967,7 @@
       <c r="K293">
         <v>4</v>
       </c>
-      <c r="S293">
+      <c r="T293">
         <v>11</v>
       </c>
     </row>
@@ -13002,7 +13007,7 @@
       <c r="K294">
         <v>3</v>
       </c>
-      <c r="S294">
+      <c r="T294">
         <v>9</v>
       </c>
     </row>
@@ -13042,7 +13047,7 @@
       <c r="K295">
         <v>5</v>
       </c>
-      <c r="S295">
+      <c r="T295">
         <v>9</v>
       </c>
     </row>
@@ -13082,7 +13087,7 @@
       <c r="K296">
         <v>3</v>
       </c>
-      <c r="S296">
+      <c r="T296">
         <v>11</v>
       </c>
     </row>
@@ -13122,7 +13127,7 @@
       <c r="K297">
         <v>5</v>
       </c>
-      <c r="S297">
+      <c r="T297">
         <v>9</v>
       </c>
     </row>
@@ -13162,7 +13167,7 @@
       <c r="K298">
         <v>2</v>
       </c>
-      <c r="S298">
+      <c r="T298">
         <v>10</v>
       </c>
     </row>
@@ -13202,7 +13207,7 @@
       <c r="K299">
         <v>5</v>
       </c>
-      <c r="S299">
+      <c r="T299">
         <v>8</v>
       </c>
     </row>
@@ -13242,7 +13247,7 @@
       <c r="K300">
         <v>5</v>
       </c>
-      <c r="S300">
+      <c r="T300">
         <v>9</v>
       </c>
     </row>
@@ -13282,7 +13287,7 @@
       <c r="K301">
         <v>6</v>
       </c>
-      <c r="S301">
+      <c r="T301">
         <v>8</v>
       </c>
     </row>
@@ -13322,7 +13327,7 @@
       <c r="K302">
         <v>5</v>
       </c>
-      <c r="S302">
+      <c r="T302">
         <v>9</v>
       </c>
     </row>
@@ -13362,7 +13367,7 @@
       <c r="K303">
         <v>3</v>
       </c>
-      <c r="S303">
+      <c r="T303">
         <v>11</v>
       </c>
     </row>
@@ -13402,7 +13407,7 @@
       <c r="K304">
         <v>2</v>
       </c>
-      <c r="S304">
+      <c r="T304">
         <v>6</v>
       </c>
     </row>
@@ -13442,7 +13447,7 @@
       <c r="K305">
         <v>2</v>
       </c>
-      <c r="S305">
+      <c r="T305">
         <v>6</v>
       </c>
     </row>
@@ -13482,7 +13487,7 @@
       <c r="K306">
         <v>2</v>
       </c>
-      <c r="S306">
+      <c r="T306">
         <v>7</v>
       </c>
     </row>
@@ -13522,7 +13527,7 @@
       <c r="K307">
         <v>2</v>
       </c>
-      <c r="S307">
+      <c r="T307">
         <v>9</v>
       </c>
     </row>
@@ -13562,7 +13567,7 @@
       <c r="K308">
         <v>4</v>
       </c>
-      <c r="S308">
+      <c r="T308">
         <v>10</v>
       </c>
     </row>
@@ -13602,7 +13607,7 @@
       <c r="K309">
         <v>3</v>
       </c>
-      <c r="S309">
+      <c r="T309">
         <v>9</v>
       </c>
     </row>
@@ -13642,7 +13647,7 @@
       <c r="K310">
         <v>3</v>
       </c>
-      <c r="S310">
+      <c r="T310">
         <v>12</v>
       </c>
     </row>
@@ -13682,7 +13687,7 @@
       <c r="K311">
         <v>2</v>
       </c>
-      <c r="S311">
+      <c r="T311">
         <v>11</v>
       </c>
     </row>
@@ -13722,7 +13727,7 @@
       <c r="K312">
         <v>2</v>
       </c>
-      <c r="S312">
+      <c r="T312">
         <v>10</v>
       </c>
     </row>
@@ -13762,7 +13767,7 @@
       <c r="K313">
         <v>4</v>
       </c>
-      <c r="S313">
+      <c r="T313">
         <v>12</v>
       </c>
     </row>
@@ -13802,7 +13807,7 @@
       <c r="K314">
         <v>2</v>
       </c>
-      <c r="S314">
+      <c r="T314">
         <v>15</v>
       </c>
     </row>
@@ -13842,7 +13847,7 @@
       <c r="K315">
         <v>2</v>
       </c>
-      <c r="S315">
+      <c r="T315">
         <v>15</v>
       </c>
     </row>
@@ -13882,7 +13887,7 @@
       <c r="K316">
         <v>1</v>
       </c>
-      <c r="S316">
+      <c r="T316">
         <v>12</v>
       </c>
     </row>
@@ -13922,7 +13927,7 @@
       <c r="K317">
         <v>3</v>
       </c>
-      <c r="S317">
+      <c r="T317">
         <v>11</v>
       </c>
     </row>
@@ -13962,7 +13967,7 @@
       <c r="K318">
         <v>1</v>
       </c>
-      <c r="S318">
+      <c r="T318">
         <v>15</v>
       </c>
     </row>
@@ -14002,7 +14007,7 @@
       <c r="K319">
         <v>2</v>
       </c>
-      <c r="S319">
+      <c r="T319">
         <v>11</v>
       </c>
     </row>
@@ -14042,7 +14047,7 @@
       <c r="K320">
         <v>3</v>
       </c>
-      <c r="S320">
+      <c r="T320">
         <v>14</v>
       </c>
     </row>
@@ -14082,7 +14087,7 @@
       <c r="K321">
         <v>1</v>
       </c>
-      <c r="S321">
+      <c r="T321">
         <v>16</v>
       </c>
     </row>
@@ -14125,7 +14130,7 @@
       <c r="L322">
         <v>0</v>
       </c>
-      <c r="S322">
+      <c r="T322">
         <v>14</v>
       </c>
     </row>
@@ -14165,7 +14170,7 @@
       <c r="K323">
         <v>2</v>
       </c>
-      <c r="S323">
+      <c r="T323">
         <v>14</v>
       </c>
     </row>
@@ -14205,7 +14210,7 @@
       <c r="K324">
         <v>1</v>
       </c>
-      <c r="S324">
+      <c r="T324">
         <v>14</v>
       </c>
     </row>
@@ -14245,7 +14250,7 @@
       <c r="K325">
         <v>2</v>
       </c>
-      <c r="S325">
+      <c r="T325">
         <v>15</v>
       </c>
     </row>
@@ -14285,7 +14290,7 @@
       <c r="K326">
         <v>3</v>
       </c>
-      <c r="S326">
+      <c r="T326">
         <v>14</v>
       </c>
     </row>
@@ -14325,7 +14330,7 @@
       <c r="K327">
         <v>1</v>
       </c>
-      <c r="S327">
+      <c r="T327">
         <v>24</v>
       </c>
     </row>
@@ -14365,7 +14370,7 @@
       <c r="K328">
         <v>2</v>
       </c>
-      <c r="S328">
+      <c r="T328">
         <v>14</v>
       </c>
     </row>
@@ -14405,7 +14410,7 @@
       <c r="K329">
         <v>3</v>
       </c>
-      <c r="S329">
+      <c r="T329">
         <v>10</v>
       </c>
     </row>
@@ -14445,7 +14450,7 @@
       <c r="K330">
         <v>1</v>
       </c>
-      <c r="S330">
+      <c r="T330">
         <v>11</v>
       </c>
     </row>
@@ -14485,7 +14490,7 @@
       <c r="K331">
         <v>2</v>
       </c>
-      <c r="S331">
+      <c r="T331">
         <v>14</v>
       </c>
     </row>
@@ -14525,7 +14530,7 @@
       <c r="K332">
         <v>2</v>
       </c>
-      <c r="S332">
+      <c r="T332">
         <v>14</v>
       </c>
     </row>
@@ -14565,7 +14570,7 @@
       <c r="K333">
         <v>2</v>
       </c>
-      <c r="S333">
+      <c r="T333">
         <v>17</v>
       </c>
     </row>
@@ -14605,7 +14610,7 @@
       <c r="K334">
         <v>2</v>
       </c>
-      <c r="S334">
+      <c r="T334">
         <v>19</v>
       </c>
     </row>
@@ -14645,7 +14650,7 @@
       <c r="K335">
         <v>3</v>
       </c>
-      <c r="S335">
+      <c r="T335">
         <v>17</v>
       </c>
     </row>
@@ -14685,7 +14690,7 @@
       <c r="K336">
         <v>2</v>
       </c>
-      <c r="S336">
+      <c r="T336">
         <v>12</v>
       </c>
     </row>
@@ -14725,7 +14730,7 @@
       <c r="K337">
         <v>1</v>
       </c>
-      <c r="S337">
+      <c r="T337">
         <v>17</v>
       </c>
     </row>
@@ -14765,7 +14770,7 @@
       <c r="K338">
         <v>2</v>
       </c>
-      <c r="S338">
+      <c r="T338">
         <v>20</v>
       </c>
     </row>
@@ -14805,7 +14810,7 @@
       <c r="K339">
         <v>1</v>
       </c>
-      <c r="S339">
+      <c r="T339">
         <v>14</v>
       </c>
     </row>
@@ -14845,7 +14850,7 @@
       <c r="K340">
         <v>1</v>
       </c>
-      <c r="S340">
+      <c r="T340">
         <v>19</v>
       </c>
     </row>
@@ -14885,7 +14890,7 @@
       <c r="K341">
         <v>3</v>
       </c>
-      <c r="S341">
+      <c r="T341">
         <v>19</v>
       </c>
     </row>
@@ -14925,7 +14930,7 @@
       <c r="K342">
         <v>3</v>
       </c>
-      <c r="S342">
+      <c r="T342">
         <v>17</v>
       </c>
     </row>
@@ -14965,7 +14970,7 @@
       <c r="K343">
         <v>3</v>
       </c>
-      <c r="S343">
+      <c r="T343">
         <v>18</v>
       </c>
     </row>
@@ -15005,7 +15010,7 @@
       <c r="K344">
         <v>2</v>
       </c>
-      <c r="S344">
+      <c r="T344">
         <v>15</v>
       </c>
     </row>
@@ -15045,7 +15050,7 @@
       <c r="K345">
         <v>2</v>
       </c>
-      <c r="S345">
+      <c r="T345">
         <v>17</v>
       </c>
     </row>
@@ -15085,7 +15090,7 @@
       <c r="K346">
         <v>2</v>
       </c>
-      <c r="S346">
+      <c r="T346">
         <v>15</v>
       </c>
     </row>
@@ -15122,7 +15127,7 @@
       <c r="J347">
         <v>16</v>
       </c>
-      <c r="S347">
+      <c r="T347">
         <v>20</v>
       </c>
     </row>
@@ -15162,7 +15167,7 @@
       <c r="K348">
         <v>2</v>
       </c>
-      <c r="S348">
+      <c r="T348">
         <v>17</v>
       </c>
     </row>
@@ -15202,7 +15207,7 @@
       <c r="K349">
         <v>5</v>
       </c>
-      <c r="S349">
+      <c r="T349">
         <v>17</v>
       </c>
     </row>
@@ -15242,7 +15247,7 @@
       <c r="K350">
         <v>2</v>
       </c>
-      <c r="S350">
+      <c r="T350">
         <v>16</v>
       </c>
     </row>
@@ -15282,7 +15287,7 @@
       <c r="K351">
         <v>2</v>
       </c>
-      <c r="S351">
+      <c r="T351">
         <v>16</v>
       </c>
     </row>
@@ -15322,7 +15327,7 @@
       <c r="K352">
         <v>2</v>
       </c>
-      <c r="S352">
+      <c r="T352">
         <v>15</v>
       </c>
     </row>
@@ -15362,7 +15367,7 @@
       <c r="K353">
         <v>1</v>
       </c>
-      <c r="S353">
+      <c r="T353">
         <v>16</v>
       </c>
     </row>
@@ -15402,7 +15407,7 @@
       <c r="K354">
         <v>2</v>
       </c>
-      <c r="S354">
+      <c r="T354">
         <v>18</v>
       </c>
     </row>
@@ -15442,7 +15447,7 @@
       <c r="K355">
         <v>2</v>
       </c>
-      <c r="S355">
+      <c r="T355">
         <v>15</v>
       </c>
     </row>
@@ -15482,7 +15487,7 @@
       <c r="K356">
         <v>2</v>
       </c>
-      <c r="S356">
+      <c r="T356">
         <v>16</v>
       </c>
     </row>
@@ -15522,7 +15527,7 @@
       <c r="K357">
         <v>1</v>
       </c>
-      <c r="S357">
+      <c r="T357">
         <v>14</v>
       </c>
     </row>
@@ -15562,7 +15567,7 @@
       <c r="K358">
         <v>2</v>
       </c>
-      <c r="S358">
+      <c r="T358">
         <v>17</v>
       </c>
     </row>
@@ -15602,7 +15607,7 @@
       <c r="K359">
         <v>2</v>
       </c>
-      <c r="S359">
+      <c r="T359">
         <v>19</v>
       </c>
     </row>
@@ -15642,7 +15647,7 @@
       <c r="K360">
         <v>2</v>
       </c>
-      <c r="S360">
+      <c r="T360">
         <v>16</v>
       </c>
     </row>
@@ -15682,7 +15687,7 @@
       <c r="K361">
         <v>2</v>
       </c>
-      <c r="S361">
+      <c r="T361">
         <v>14</v>
       </c>
     </row>
@@ -15722,7 +15727,7 @@
       <c r="K362">
         <v>2</v>
       </c>
-      <c r="S362">
+      <c r="T362">
         <v>15</v>
       </c>
     </row>
@@ -15762,7 +15767,7 @@
       <c r="K363">
         <v>3</v>
       </c>
-      <c r="S363">
+      <c r="T363">
         <v>19</v>
       </c>
     </row>
@@ -15802,7 +15807,7 @@
       <c r="K364">
         <v>3</v>
       </c>
-      <c r="S364">
+      <c r="T364">
         <v>18</v>
       </c>
     </row>
@@ -15842,7 +15847,7 @@
       <c r="K365">
         <v>3</v>
       </c>
-      <c r="S365">
+      <c r="T365">
         <v>18</v>
       </c>
     </row>
@@ -15882,7 +15887,7 @@
       <c r="K366">
         <v>3</v>
       </c>
-      <c r="S366">
+      <c r="T366">
         <v>17</v>
       </c>
     </row>
@@ -15922,7 +15927,7 @@
       <c r="K367">
         <v>2</v>
       </c>
-      <c r="S367">
+      <c r="T367">
         <v>19</v>
       </c>
     </row>
@@ -15962,7 +15967,7 @@
       <c r="K368">
         <v>1</v>
       </c>
-      <c r="S368">
+      <c r="T368">
         <v>20</v>
       </c>
     </row>
@@ -16002,7 +16007,7 @@
       <c r="K369">
         <v>1</v>
       </c>
-      <c r="S369">
+      <c r="T369">
         <v>14</v>
       </c>
     </row>
@@ -16042,7 +16047,7 @@
       <c r="K370">
         <v>2</v>
       </c>
-      <c r="S370">
+      <c r="T370">
         <v>16</v>
       </c>
     </row>
@@ -16082,7 +16087,7 @@
       <c r="K371">
         <v>2</v>
       </c>
-      <c r="S371">
+      <c r="T371">
         <v>19</v>
       </c>
     </row>
@@ -16122,7 +16127,7 @@
       <c r="K372">
         <v>1</v>
       </c>
-      <c r="S372">
+      <c r="T372">
         <v>16</v>
       </c>
     </row>
@@ -16162,7 +16167,7 @@
       <c r="K373">
         <v>1</v>
       </c>
-      <c r="S373">
+      <c r="T373">
         <v>20</v>
       </c>
     </row>
@@ -16202,7 +16207,7 @@
       <c r="K374">
         <v>2</v>
       </c>
-      <c r="S374">
+      <c r="T374">
         <v>26</v>
       </c>
     </row>
@@ -16242,7 +16247,7 @@
       <c r="K375">
         <v>2</v>
       </c>
-      <c r="S375">
+      <c r="T375">
         <v>19</v>
       </c>
     </row>
@@ -16282,7 +16287,7 @@
       <c r="K376">
         <v>2</v>
       </c>
-      <c r="S376">
+      <c r="T376">
         <v>18</v>
       </c>
     </row>
@@ -16322,7 +16327,7 @@
       <c r="K377">
         <v>1</v>
       </c>
-      <c r="S377">
+      <c r="T377">
         <v>19</v>
       </c>
     </row>
@@ -16362,7 +16367,7 @@
       <c r="K378">
         <v>2</v>
       </c>
-      <c r="S378">
+      <c r="T378">
         <v>19</v>
       </c>
     </row>
@@ -16402,7 +16407,7 @@
       <c r="K379">
         <v>1</v>
       </c>
-      <c r="S379">
+      <c r="T379">
         <v>17</v>
       </c>
     </row>
@@ -16442,7 +16447,7 @@
       <c r="K380">
         <v>2</v>
       </c>
-      <c r="S380">
+      <c r="T380">
         <v>18</v>
       </c>
     </row>
@@ -16482,7 +16487,7 @@
       <c r="K381">
         <v>2</v>
       </c>
-      <c r="S381">
+      <c r="T381">
         <v>18</v>
       </c>
     </row>
@@ -16522,7 +16527,7 @@
       <c r="K382">
         <v>3</v>
       </c>
-      <c r="S382">
+      <c r="T382">
         <v>23</v>
       </c>
     </row>
@@ -16562,7 +16567,7 @@
       <c r="K383">
         <v>2</v>
       </c>
-      <c r="S383">
+      <c r="T383">
         <v>19</v>
       </c>
     </row>
@@ -16602,7 +16607,7 @@
       <c r="K384">
         <v>1</v>
       </c>
-      <c r="S384">
+      <c r="T384">
         <v>17</v>
       </c>
     </row>
@@ -16642,7 +16647,7 @@
       <c r="K385">
         <v>2</v>
       </c>
-      <c r="S385">
+      <c r="T385">
         <v>21</v>
       </c>
     </row>
@@ -16682,7 +16687,7 @@
       <c r="K386">
         <v>1</v>
       </c>
-      <c r="S386">
+      <c r="T386">
         <v>15</v>
       </c>
     </row>
@@ -16722,7 +16727,7 @@
       <c r="K387">
         <v>2</v>
       </c>
-      <c r="S387">
+      <c r="T387">
         <v>17</v>
       </c>
     </row>
@@ -16762,7 +16767,7 @@
       <c r="K388">
         <v>4</v>
       </c>
-      <c r="S388">
+      <c r="T388">
         <v>19</v>
       </c>
     </row>
@@ -16802,7 +16807,7 @@
       <c r="K389">
         <v>3</v>
       </c>
-      <c r="S389">
+      <c r="T389">
         <v>22</v>
       </c>
     </row>
@@ -16842,7 +16847,7 @@
       <c r="K390">
         <v>1</v>
       </c>
-      <c r="S390">
+      <c r="T390">
         <v>15</v>
       </c>
     </row>
@@ -16882,7 +16887,7 @@
       <c r="K391">
         <v>2</v>
       </c>
-      <c r="S391">
+      <c r="T391">
         <v>21</v>
       </c>
     </row>
@@ -16922,7 +16927,7 @@
       <c r="K392">
         <v>1</v>
       </c>
-      <c r="S392">
+      <c r="T392">
         <v>17</v>
       </c>
     </row>
@@ -16962,7 +16967,7 @@
       <c r="K393">
         <v>2</v>
       </c>
-      <c r="S393">
+      <c r="T393">
         <v>20</v>
       </c>
     </row>
@@ -17002,7 +17007,7 @@
       <c r="K394">
         <v>2</v>
       </c>
-      <c r="S394">
+      <c r="T394">
         <v>24</v>
       </c>
     </row>
@@ -17042,7 +17047,7 @@
       <c r="K395">
         <v>1</v>
       </c>
-      <c r="S395">
+      <c r="T395">
         <v>18</v>
       </c>
     </row>
@@ -17082,7 +17087,7 @@
       <c r="K396">
         <v>2</v>
       </c>
-      <c r="S396">
+      <c r="T396">
         <v>20</v>
       </c>
     </row>
@@ -17122,7 +17127,7 @@
       <c r="K397">
         <v>1</v>
       </c>
-      <c r="S397">
+      <c r="T397">
         <v>17</v>
       </c>
     </row>
@@ -17162,7 +17167,7 @@
       <c r="K398">
         <v>3</v>
       </c>
-      <c r="S398">
+      <c r="T398">
         <v>20</v>
       </c>
     </row>
@@ -17202,7 +17207,7 @@
       <c r="K399">
         <v>2</v>
       </c>
-      <c r="S399">
+      <c r="T399">
         <v>20</v>
       </c>
     </row>
@@ -17242,7 +17247,7 @@
       <c r="K400">
         <v>1</v>
       </c>
-      <c r="S400">
+      <c r="T400">
         <v>15</v>
       </c>
     </row>
@@ -17282,7 +17287,7 @@
       <c r="K401">
         <v>1</v>
       </c>
-      <c r="S401">
+      <c r="T401">
         <v>24</v>
       </c>
     </row>
@@ -17322,7 +17327,7 @@
       <c r="K402">
         <v>2</v>
       </c>
-      <c r="S402">
+      <c r="T402">
         <v>20</v>
       </c>
     </row>
@@ -17362,7 +17367,7 @@
       <c r="K403">
         <v>3</v>
       </c>
-      <c r="S403">
+      <c r="T403">
         <v>21</v>
       </c>
     </row>
@@ -17402,7 +17407,7 @@
       <c r="K404">
         <v>2</v>
       </c>
-      <c r="S404">
+      <c r="T404">
         <v>20</v>
       </c>
     </row>
@@ -17442,7 +17447,7 @@
       <c r="K405">
         <v>3</v>
       </c>
-      <c r="S405">
+      <c r="T405">
         <v>19</v>
       </c>
     </row>
@@ -17482,7 +17487,7 @@
       <c r="K406">
         <v>1</v>
       </c>
-      <c r="S406">
+      <c r="T406">
         <v>20</v>
       </c>
     </row>
@@ -17522,7 +17527,7 @@
       <c r="K407">
         <v>2</v>
       </c>
-      <c r="S407">
+      <c r="T407">
         <v>21</v>
       </c>
     </row>
@@ -17562,7 +17567,7 @@
       <c r="K408">
         <v>4</v>
       </c>
-      <c r="S408">
+      <c r="T408">
         <v>26</v>
       </c>
     </row>
@@ -17602,7 +17607,7 @@
       <c r="K409">
         <v>2</v>
       </c>
-      <c r="S409">
+      <c r="T409">
         <v>23</v>
       </c>
     </row>
@@ -17642,7 +17647,7 @@
       <c r="K410">
         <v>3</v>
       </c>
-      <c r="S410">
+      <c r="T410">
         <v>22</v>
       </c>
     </row>
@@ -17682,7 +17687,7 @@
       <c r="K411">
         <v>2</v>
       </c>
-      <c r="S411">
+      <c r="T411">
         <v>25</v>
       </c>
     </row>
@@ -17722,7 +17727,7 @@
       <c r="K412">
         <v>2</v>
       </c>
-      <c r="S412">
+      <c r="T412">
         <v>28</v>
       </c>
     </row>
@@ -17762,7 +17767,7 @@
       <c r="K413">
         <v>2</v>
       </c>
-      <c r="S413">
+      <c r="T413">
         <v>25</v>
       </c>
     </row>
@@ -17802,7 +17807,7 @@
       <c r="K414">
         <v>2</v>
       </c>
-      <c r="S414">
+      <c r="T414">
         <v>27</v>
       </c>
     </row>
@@ -17842,7 +17847,7 @@
       <c r="K415">
         <v>2</v>
       </c>
-      <c r="S415">
+      <c r="T415">
         <v>32</v>
       </c>
     </row>
@@ -17882,7 +17887,7 @@
       <c r="K416">
         <v>3</v>
       </c>
-      <c r="S416">
+      <c r="T416">
         <v>25</v>
       </c>
     </row>
@@ -17922,7 +17927,7 @@
       <c r="K417">
         <v>1</v>
       </c>
-      <c r="S417">
+      <c r="T417">
         <v>23</v>
       </c>
     </row>
@@ -17962,7 +17967,7 @@
       <c r="K418">
         <v>2</v>
       </c>
-      <c r="S418">
+      <c r="T418">
         <v>23</v>
       </c>
     </row>
@@ -18002,7 +18007,7 @@
       <c r="K419">
         <v>2</v>
       </c>
-      <c r="S419">
+      <c r="T419">
         <v>21</v>
       </c>
     </row>
@@ -18042,7 +18047,7 @@
       <c r="K420">
         <v>1</v>
       </c>
-      <c r="S420">
+      <c r="T420">
         <v>22</v>
       </c>
     </row>
@@ -18082,7 +18087,7 @@
       <c r="K421">
         <v>1.62</v>
       </c>
-      <c r="S421">
+      <c r="T421">
         <v>21.1</v>
       </c>
     </row>
@@ -18122,7 +18127,7 @@
       <c r="K422">
         <v>3</v>
       </c>
-      <c r="S422">
+      <c r="T422">
         <v>26</v>
       </c>
     </row>
@@ -18162,7 +18167,7 @@
       <c r="K423">
         <v>2</v>
       </c>
-      <c r="S423">
+      <c r="T423">
         <v>26</v>
       </c>
     </row>
@@ -18202,7 +18207,7 @@
       <c r="K424">
         <v>1</v>
       </c>
-      <c r="S424">
+      <c r="T424">
         <v>24</v>
       </c>
     </row>
@@ -18242,7 +18247,7 @@
       <c r="K425">
         <v>3</v>
       </c>
-      <c r="S425">
+      <c r="T425">
         <v>27</v>
       </c>
     </row>
@@ -18282,7 +18287,7 @@
       <c r="K426">
         <v>2.89</v>
       </c>
-      <c r="S426">
+      <c r="T426">
         <v>28.56</v>
       </c>
     </row>
@@ -18322,7 +18327,7 @@
       <c r="K427">
         <v>2</v>
       </c>
-      <c r="S427">
+      <c r="T427">
         <v>32</v>
       </c>
     </row>
@@ -18362,7 +18367,7 @@
       <c r="K428">
         <v>2</v>
       </c>
-      <c r="S428">
+      <c r="T428">
         <v>28</v>
       </c>
     </row>
@@ -18402,7 +18407,7 @@
       <c r="K429">
         <v>1</v>
       </c>
-      <c r="S429">
+      <c r="T429">
         <v>30</v>
       </c>
     </row>
@@ -18442,7 +18447,7 @@
       <c r="K430">
         <v>1</v>
       </c>
-      <c r="S430">
+      <c r="T430">
         <v>28</v>
       </c>
     </row>
@@ -18482,7 +18487,7 @@
       <c r="K431">
         <v>2</v>
       </c>
-      <c r="S431">
+      <c r="T431">
         <v>26</v>
       </c>
     </row>
@@ -18522,7 +18527,7 @@
       <c r="K432">
         <v>1</v>
       </c>
-      <c r="S432">
+      <c r="T432">
         <v>23</v>
       </c>
     </row>
@@ -18562,7 +18567,7 @@
       <c r="K433">
         <v>3</v>
       </c>
-      <c r="S433">
+      <c r="T433">
         <v>27</v>
       </c>
     </row>
@@ -18602,7 +18607,7 @@
       <c r="K434">
         <v>3</v>
       </c>
-      <c r="S434">
+      <c r="T434">
         <v>24</v>
       </c>
     </row>
@@ -18642,7 +18647,7 @@
       <c r="K435">
         <v>2</v>
       </c>
-      <c r="S435">
+      <c r="T435">
         <v>25</v>
       </c>
     </row>
@@ -18682,7 +18687,7 @@
       <c r="K436">
         <v>2.73</v>
       </c>
-      <c r="S436">
+      <c r="T436">
         <v>25.46</v>
       </c>
     </row>
@@ -18722,7 +18727,7 @@
       <c r="K437">
         <v>2</v>
       </c>
-      <c r="S437">
+      <c r="T437">
         <v>26</v>
       </c>
     </row>
@@ -18762,7 +18767,7 @@
       <c r="K438">
         <v>3</v>
       </c>
-      <c r="S438">
+      <c r="T438">
         <v>21</v>
       </c>
     </row>
@@ -18802,7 +18807,7 @@
       <c r="K439">
         <v>1</v>
       </c>
-      <c r="S439">
+      <c r="T439">
         <v>25</v>
       </c>
     </row>
@@ -18842,7 +18847,7 @@
       <c r="K440">
         <v>3</v>
       </c>
-      <c r="S440">
+      <c r="T440">
         <v>25</v>
       </c>
     </row>
@@ -18882,7 +18887,7 @@
       <c r="K441">
         <v>2.84</v>
       </c>
-      <c r="S441">
+      <c r="T441">
         <v>20.8</v>
       </c>
     </row>
@@ -18922,7 +18927,7 @@
       <c r="K442">
         <v>3</v>
       </c>
-      <c r="S442">
+      <c r="T442">
         <v>19</v>
       </c>
     </row>
@@ -18962,7 +18967,7 @@
       <c r="K443">
         <v>2</v>
       </c>
-      <c r="S443">
+      <c r="T443">
         <v>25</v>
       </c>
     </row>
@@ -19002,7 +19007,7 @@
       <c r="K444">
         <v>2</v>
       </c>
-      <c r="S444">
+      <c r="T444">
         <v>25</v>
       </c>
     </row>
@@ -19042,7 +19047,7 @@
       <c r="K445">
         <v>1</v>
       </c>
-      <c r="S445">
+      <c r="T445">
         <v>20</v>
       </c>
     </row>
@@ -19082,7 +19087,7 @@
       <c r="K446">
         <v>1</v>
       </c>
-      <c r="S446">
+      <c r="T446">
         <v>32</v>
       </c>
     </row>
@@ -19122,7 +19127,7 @@
       <c r="K447">
         <v>2</v>
       </c>
-      <c r="S447">
+      <c r="T447">
         <v>29</v>
       </c>
     </row>
@@ -19162,7 +19167,7 @@
       <c r="K448">
         <v>1</v>
       </c>
-      <c r="S448">
+      <c r="T448">
         <v>24</v>
       </c>
     </row>
@@ -19202,7 +19207,7 @@
       <c r="K449">
         <v>2</v>
       </c>
-      <c r="S449">
+      <c r="T449">
         <v>26</v>
       </c>
     </row>
@@ -19242,7 +19247,7 @@
       <c r="K450">
         <v>2</v>
       </c>
-      <c r="S450">
+      <c r="T450">
         <v>26</v>
       </c>
     </row>
@@ -19291,7 +19296,7 @@
       <c r="Q451">
         <v>1.51</v>
       </c>
-      <c r="S451">
+      <c r="T451">
         <v>15.14</v>
       </c>
     </row>
@@ -19340,7 +19345,7 @@
       <c r="Q452">
         <v>1</v>
       </c>
-      <c r="S452">
+      <c r="T452">
         <v>21</v>
       </c>
     </row>
@@ -19389,7 +19394,7 @@
       <c r="Q453">
         <v>1</v>
       </c>
-      <c r="S453">
+      <c r="T453">
         <v>21</v>
       </c>
     </row>
@@ -19432,7 +19437,7 @@
       <c r="P454">
         <v>1</v>
       </c>
-      <c r="S454">
+      <c r="T454">
         <v>17</v>
       </c>
     </row>
@@ -19481,7 +19486,7 @@
       <c r="Q455">
         <v>1</v>
       </c>
-      <c r="S455">
+      <c r="T455">
         <v>15</v>
       </c>
     </row>
@@ -19530,7 +19535,7 @@
       <c r="Q456">
         <v>3</v>
       </c>
-      <c r="S456">
+      <c r="T456">
         <v>15</v>
       </c>
     </row>
@@ -19579,7 +19584,7 @@
       <c r="Q457">
         <v>2</v>
       </c>
-      <c r="S457">
+      <c r="T457">
         <v>15</v>
       </c>
     </row>
@@ -19628,7 +19633,7 @@
       <c r="Q458">
         <v>3</v>
       </c>
-      <c r="S458">
+      <c r="T458">
         <v>15</v>
       </c>
     </row>
@@ -19677,7 +19682,7 @@
       <c r="Q459">
         <v>1</v>
       </c>
-      <c r="S459">
+      <c r="T459">
         <v>15</v>
       </c>
     </row>
@@ -19726,7 +19731,7 @@
       <c r="Q460">
         <v>2</v>
       </c>
-      <c r="S460">
+      <c r="T460">
         <v>14</v>
       </c>
     </row>
@@ -19775,7 +19780,7 @@
       <c r="Q461">
         <v>1</v>
       </c>
-      <c r="S461">
+      <c r="T461">
         <v>15</v>
       </c>
     </row>
@@ -19824,7 +19829,7 @@
       <c r="Q462">
         <v>1</v>
       </c>
-      <c r="S462">
+      <c r="T462">
         <v>19</v>
       </c>
     </row>
@@ -19873,7 +19878,7 @@
       <c r="Q463">
         <v>2</v>
       </c>
-      <c r="S463">
+      <c r="T463">
         <v>16</v>
       </c>
     </row>
@@ -19922,7 +19927,7 @@
       <c r="Q464">
         <v>2</v>
       </c>
-      <c r="S464">
+      <c r="T464">
         <v>16</v>
       </c>
     </row>
@@ -19971,7 +19976,7 @@
       <c r="Q465">
         <v>3</v>
       </c>
-      <c r="S465">
+      <c r="T465">
         <v>16</v>
       </c>
     </row>
@@ -20020,7 +20025,7 @@
       <c r="Q466">
         <v>4</v>
       </c>
-      <c r="S466">
+      <c r="T466">
         <v>15</v>
       </c>
     </row>
@@ -20060,7 +20065,7 @@
       <c r="K467">
         <v>1</v>
       </c>
-      <c r="S467">
+      <c r="T467">
         <v>23</v>
       </c>
     </row>
@@ -20109,7 +20114,7 @@
       <c r="Q468">
         <v>3</v>
       </c>
-      <c r="S468">
+      <c r="T468">
         <v>16</v>
       </c>
     </row>
@@ -20158,7 +20163,7 @@
       <c r="Q469">
         <v>4</v>
       </c>
-      <c r="S469">
+      <c r="T469">
         <v>16</v>
       </c>
     </row>
@@ -20207,7 +20212,7 @@
       <c r="Q470">
         <v>3</v>
       </c>
-      <c r="S470">
+      <c r="T470">
         <v>18</v>
       </c>
     </row>
@@ -20256,7 +20261,7 @@
       <c r="Q471">
         <v>3</v>
       </c>
-      <c r="S471">
+      <c r="T471">
         <v>15</v>
       </c>
     </row>
@@ -20305,7 +20310,7 @@
       <c r="Q472">
         <v>4</v>
       </c>
-      <c r="S472">
+      <c r="T472">
         <v>15</v>
       </c>
     </row>
@@ -20354,7 +20359,7 @@
       <c r="Q473">
         <v>4</v>
       </c>
-      <c r="S473">
+      <c r="T473">
         <v>12</v>
       </c>
     </row>
@@ -20403,7 +20408,7 @@
       <c r="Q474">
         <v>3</v>
       </c>
-      <c r="S474">
+      <c r="T474">
         <v>18</v>
       </c>
     </row>
@@ -20452,7 +20457,7 @@
       <c r="Q475">
         <v>4</v>
       </c>
-      <c r="S475">
+      <c r="T475">
         <v>16</v>
       </c>
     </row>
@@ -20504,7 +20509,7 @@
       <c r="Q476">
         <v>2</v>
       </c>
-      <c r="S476">
+      <c r="T476">
         <v>17</v>
       </c>
     </row>
@@ -20556,7 +20561,7 @@
       <c r="Q477">
         <v>2</v>
       </c>
-      <c r="S477">
+      <c r="T477">
         <v>15</v>
       </c>
     </row>
@@ -20608,7 +20613,7 @@
       <c r="Q478">
         <v>4</v>
       </c>
-      <c r="S478">
+      <c r="T478">
         <v>10</v>
       </c>
     </row>
@@ -20660,7 +20665,7 @@
       <c r="Q479">
         <v>4</v>
       </c>
-      <c r="S479">
+      <c r="T479">
         <v>15</v>
       </c>
     </row>
@@ -20712,7 +20717,7 @@
       <c r="Q480">
         <v>1</v>
       </c>
-      <c r="S480">
+      <c r="T480">
         <v>16</v>
       </c>
     </row>
@@ -20758,7 +20763,7 @@
       <c r="Q481">
         <v>2</v>
       </c>
-      <c r="S481">
+      <c r="T481">
         <v>8</v>
       </c>
     </row>
@@ -20804,7 +20809,7 @@
       <c r="Q482">
         <v>2</v>
       </c>
-      <c r="S482">
+      <c r="T482">
         <v>14</v>
       </c>
     </row>
@@ -20856,7 +20861,7 @@
       <c r="Q483">
         <v>2</v>
       </c>
-      <c r="S483">
+      <c r="T483">
         <v>13</v>
       </c>
     </row>
@@ -20905,7 +20910,7 @@
       <c r="Q484">
         <v>4</v>
       </c>
-      <c r="S484">
+      <c r="T484">
         <v>13</v>
       </c>
     </row>
@@ -20954,7 +20959,7 @@
       <c r="Q485">
         <v>3</v>
       </c>
-      <c r="S485">
+      <c r="T485">
         <v>15</v>
       </c>
     </row>
@@ -21006,7 +21011,7 @@
       <c r="Q486">
         <v>1</v>
       </c>
-      <c r="S486">
+      <c r="T486">
         <v>16</v>
       </c>
     </row>
@@ -21055,7 +21060,7 @@
       <c r="Q487">
         <v>4</v>
       </c>
-      <c r="S487">
+      <c r="T487">
         <v>13</v>
       </c>
     </row>
@@ -21104,7 +21109,7 @@
       <c r="Q488">
         <v>2</v>
       </c>
-      <c r="S488">
+      <c r="T488">
         <v>15</v>
       </c>
     </row>
@@ -21153,7 +21158,7 @@
       <c r="Q489">
         <v>0</v>
       </c>
-      <c r="S489">
+      <c r="T489">
         <v>17</v>
       </c>
     </row>
@@ -21202,7 +21207,7 @@
       <c r="Q490">
         <v>3</v>
       </c>
-      <c r="S490">
+      <c r="T490">
         <v>16</v>
       </c>
     </row>
@@ -21251,7 +21256,7 @@
       <c r="Q491">
         <v>0</v>
       </c>
-      <c r="S491">
+      <c r="T491">
         <v>17</v>
       </c>
     </row>
@@ -21300,7 +21305,7 @@
       <c r="Q492">
         <v>4</v>
       </c>
-      <c r="S492">
+      <c r="T492">
         <v>17</v>
       </c>
     </row>
@@ -21349,7 +21354,7 @@
       <c r="Q493">
         <v>2</v>
       </c>
-      <c r="S493">
+      <c r="T493">
         <v>12</v>
       </c>
     </row>
@@ -21398,7 +21403,7 @@
       <c r="Q494">
         <v>1</v>
       </c>
-      <c r="S494">
+      <c r="T494">
         <v>14</v>
       </c>
     </row>
@@ -21447,7 +21452,7 @@
       <c r="Q495">
         <v>1</v>
       </c>
-      <c r="S495">
+      <c r="T495">
         <v>19</v>
       </c>
     </row>
@@ -21496,7 +21501,7 @@
       <c r="Q496">
         <v>4</v>
       </c>
-      <c r="S496">
+      <c r="T496">
         <v>17</v>
       </c>
     </row>
@@ -21548,7 +21553,7 @@
       <c r="Q497">
         <v>2</v>
       </c>
-      <c r="S497">
+      <c r="T497">
         <v>14</v>
       </c>
     </row>
@@ -21597,7 +21602,7 @@
       <c r="Q498">
         <v>2</v>
       </c>
-      <c r="S498">
+      <c r="T498">
         <v>9</v>
       </c>
     </row>
@@ -21646,7 +21651,7 @@
       <c r="Q499">
         <v>3</v>
       </c>
-      <c r="S499">
+      <c r="T499">
         <v>13</v>
       </c>
     </row>
@@ -21695,7 +21700,7 @@
       <c r="Q500">
         <v>1</v>
       </c>
-      <c r="S500">
+      <c r="T500">
         <v>11</v>
       </c>
     </row>
@@ -21744,7 +21749,7 @@
       <c r="Q501">
         <v>1</v>
       </c>
-      <c r="S501">
+      <c r="T501">
         <v>16</v>
       </c>
     </row>
@@ -21793,7 +21798,7 @@
       <c r="Q502">
         <v>3</v>
       </c>
-      <c r="S502">
+      <c r="T502">
         <v>16</v>
       </c>
     </row>
@@ -21842,7 +21847,7 @@
       <c r="Q503">
         <v>2</v>
       </c>
-      <c r="S503">
+      <c r="T503">
         <v>14</v>
       </c>
     </row>
@@ -21891,7 +21896,7 @@
       <c r="Q504">
         <v>4</v>
       </c>
-      <c r="S504">
+      <c r="T504">
         <v>12</v>
       </c>
     </row>
@@ -21940,7 +21945,7 @@
       <c r="Q505">
         <v>1</v>
       </c>
-      <c r="S505">
+      <c r="T505">
         <v>18</v>
       </c>
     </row>
@@ -21986,7 +21991,7 @@
       <c r="Q506">
         <v>1</v>
       </c>
-      <c r="S506">
+      <c r="T506">
         <v>12</v>
       </c>
     </row>
@@ -22035,7 +22040,7 @@
       <c r="Q507">
         <v>1</v>
       </c>
-      <c r="S507">
+      <c r="T507">
         <v>14</v>
       </c>
     </row>
@@ -22084,7 +22089,7 @@
       <c r="Q508">
         <v>2</v>
       </c>
-      <c r="S508">
+      <c r="T508">
         <v>12</v>
       </c>
     </row>
@@ -22133,7 +22138,7 @@
       <c r="Q509">
         <v>1</v>
       </c>
-      <c r="S509">
+      <c r="T509">
         <v>13</v>
       </c>
     </row>
@@ -22179,7 +22184,7 @@
       <c r="Q510">
         <v>0</v>
       </c>
-      <c r="S510">
+      <c r="T510">
         <v>11</v>
       </c>
     </row>
@@ -22228,7 +22233,7 @@
       <c r="Q511">
         <v>1</v>
       </c>
-      <c r="S511">
+      <c r="T511">
         <v>14</v>
       </c>
     </row>
@@ -22277,7 +22282,7 @@
       <c r="Q512">
         <v>4</v>
       </c>
-      <c r="S512">
+      <c r="T512">
         <v>12</v>
       </c>
     </row>
@@ -22326,7 +22331,7 @@
       <c r="Q513">
         <v>2</v>
       </c>
-      <c r="S513">
+      <c r="T513">
         <v>10</v>
       </c>
     </row>
@@ -22375,7 +22380,7 @@
       <c r="Q514">
         <v>1</v>
       </c>
-      <c r="S514">
+      <c r="T514">
         <v>15</v>
       </c>
     </row>
@@ -22424,7 +22429,7 @@
       <c r="Q515">
         <v>2</v>
       </c>
-      <c r="S515">
+      <c r="T515">
         <v>16</v>
       </c>
     </row>
@@ -22473,7 +22478,7 @@
       <c r="Q516">
         <v>1</v>
       </c>
-      <c r="S516">
+      <c r="T516">
         <v>13</v>
       </c>
     </row>
@@ -22522,7 +22527,7 @@
       <c r="Q517">
         <v>3</v>
       </c>
-      <c r="S517">
+      <c r="T517">
         <v>14</v>
       </c>
     </row>
@@ -22571,7 +22576,7 @@
       <c r="Q518">
         <v>1</v>
       </c>
-      <c r="S518">
+      <c r="T518">
         <v>11</v>
       </c>
     </row>
@@ -22620,7 +22625,7 @@
       <c r="Q519">
         <v>2</v>
       </c>
-      <c r="S519">
+      <c r="T519">
         <v>12</v>
       </c>
     </row>
@@ -22669,7 +22674,7 @@
       <c r="Q520">
         <v>2</v>
       </c>
-      <c r="S520">
+      <c r="T520">
         <v>12</v>
       </c>
     </row>
@@ -22718,7 +22723,7 @@
       <c r="Q521">
         <v>1</v>
       </c>
-      <c r="S521">
+      <c r="T521">
         <v>13</v>
       </c>
     </row>
@@ -22767,7 +22772,7 @@
       <c r="Q522">
         <v>1</v>
       </c>
-      <c r="S522">
+      <c r="T522">
         <v>12</v>
       </c>
     </row>
@@ -22816,7 +22821,7 @@
       <c r="Q523">
         <v>2</v>
       </c>
-      <c r="S523">
+      <c r="T523">
         <v>12</v>
       </c>
     </row>
@@ -22865,7 +22870,7 @@
       <c r="Q524">
         <v>1</v>
       </c>
-      <c r="S524">
+      <c r="T524">
         <v>13</v>
       </c>
     </row>
@@ -22914,7 +22919,7 @@
       <c r="Q525">
         <v>1</v>
       </c>
-      <c r="S525">
+      <c r="T525">
         <v>8</v>
       </c>
     </row>
@@ -22963,7 +22968,7 @@
       <c r="Q526">
         <v>2</v>
       </c>
-      <c r="S526">
+      <c r="T526">
         <v>13</v>
       </c>
     </row>
@@ -23012,7 +23017,7 @@
       <c r="Q527">
         <v>0</v>
       </c>
-      <c r="S527">
+      <c r="T527">
         <v>13</v>
       </c>
     </row>
@@ -23061,7 +23066,7 @@
       <c r="Q528">
         <v>2</v>
       </c>
-      <c r="S528">
+      <c r="T528">
         <v>13</v>
       </c>
     </row>
@@ -23110,7 +23115,7 @@
       <c r="Q529">
         <v>1</v>
       </c>
-      <c r="S529">
+      <c r="T529">
         <v>10</v>
       </c>
     </row>
@@ -23159,7 +23164,7 @@
       <c r="Q530">
         <v>3</v>
       </c>
-      <c r="S530">
+      <c r="T530">
         <v>13</v>
       </c>
     </row>
@@ -23208,7 +23213,7 @@
       <c r="Q531">
         <v>1</v>
       </c>
-      <c r="S531">
+      <c r="T531">
         <v>10</v>
       </c>
     </row>
@@ -23257,7 +23262,7 @@
       <c r="Q532">
         <v>2</v>
       </c>
-      <c r="S532">
+      <c r="T532">
         <v>16</v>
       </c>
     </row>
@@ -23306,7 +23311,7 @@
       <c r="Q533">
         <v>0</v>
       </c>
-      <c r="S533">
+      <c r="T533">
         <v>8</v>
       </c>
     </row>
@@ -23355,7 +23360,7 @@
       <c r="Q534">
         <v>1</v>
       </c>
-      <c r="S534">
+      <c r="T534">
         <v>14</v>
       </c>
     </row>
@@ -23404,7 +23409,7 @@
       <c r="Q535">
         <v>1</v>
       </c>
-      <c r="S535">
+      <c r="T535">
         <v>13</v>
       </c>
     </row>
@@ -23453,7 +23458,7 @@
       <c r="Q536">
         <v>1</v>
       </c>
-      <c r="S536">
+      <c r="T536">
         <v>12</v>
       </c>
     </row>
@@ -23502,7 +23507,7 @@
       <c r="Q537">
         <v>1</v>
       </c>
-      <c r="S537">
+      <c r="T537">
         <v>16</v>
       </c>
     </row>
@@ -23551,7 +23556,7 @@
       <c r="Q538">
         <v>2</v>
       </c>
-      <c r="S538">
+      <c r="T538">
         <v>17</v>
       </c>
     </row>
@@ -23600,7 +23605,7 @@
       <c r="Q539">
         <v>2</v>
       </c>
-      <c r="S539">
+      <c r="T539">
         <v>18</v>
       </c>
     </row>
@@ -23649,7 +23654,7 @@
       <c r="Q540">
         <v>0</v>
       </c>
-      <c r="S540">
+      <c r="T540">
         <v>12</v>
       </c>
     </row>
@@ -23698,7 +23703,7 @@
       <c r="Q541">
         <v>1</v>
       </c>
-      <c r="S541">
+      <c r="T541">
         <v>16</v>
       </c>
     </row>
@@ -23747,7 +23752,7 @@
       <c r="Q542">
         <v>0</v>
       </c>
-      <c r="S542">
+      <c r="T542">
         <v>13</v>
       </c>
     </row>
@@ -23796,7 +23801,7 @@
       <c r="Q543">
         <v>1</v>
       </c>
-      <c r="S543">
+      <c r="T543">
         <v>8</v>
       </c>
     </row>
@@ -23845,7 +23850,7 @@
       <c r="Q544">
         <v>2</v>
       </c>
-      <c r="S544">
+      <c r="T544">
         <v>16</v>
       </c>
     </row>
@@ -23894,7 +23899,7 @@
       <c r="Q545">
         <v>3</v>
       </c>
-      <c r="S545">
+      <c r="T545">
         <v>12</v>
       </c>
     </row>
@@ -23943,7 +23948,7 @@
       <c r="Q546">
         <v>1</v>
       </c>
-      <c r="S546">
+      <c r="T546">
         <v>10</v>
       </c>
     </row>
@@ -23992,7 +23997,7 @@
       <c r="Q547">
         <v>2</v>
       </c>
-      <c r="S547">
+      <c r="T547">
         <v>15</v>
       </c>
     </row>
@@ -24041,7 +24046,7 @@
       <c r="Q548">
         <v>2</v>
       </c>
-      <c r="S548">
+      <c r="T548">
         <v>11</v>
       </c>
     </row>
@@ -24090,7 +24095,7 @@
       <c r="Q549">
         <v>2</v>
       </c>
-      <c r="S549">
+      <c r="T549">
         <v>11</v>
       </c>
     </row>
@@ -24139,7 +24144,7 @@
       <c r="Q550">
         <v>3</v>
       </c>
-      <c r="S550">
+      <c r="T550">
         <v>12</v>
       </c>
     </row>
@@ -24188,7 +24193,7 @@
       <c r="Q551">
         <v>1</v>
       </c>
-      <c r="S551">
+      <c r="T551">
         <v>15</v>
       </c>
     </row>
@@ -24237,7 +24242,7 @@
       <c r="Q552">
         <v>2</v>
       </c>
-      <c r="S552">
+      <c r="T552">
         <v>20</v>
       </c>
     </row>
@@ -24286,7 +24291,7 @@
       <c r="Q553">
         <v>1</v>
       </c>
-      <c r="S553">
+      <c r="T553">
         <v>15</v>
       </c>
     </row>
@@ -24335,7 +24340,7 @@
       <c r="Q554">
         <v>2</v>
       </c>
-      <c r="S554">
+      <c r="T554">
         <v>17</v>
       </c>
     </row>
@@ -24384,7 +24389,7 @@
       <c r="Q555">
         <v>1</v>
       </c>
-      <c r="S555">
+      <c r="T555">
         <v>14</v>
       </c>
     </row>
@@ -24433,7 +24438,7 @@
       <c r="Q556">
         <v>0</v>
       </c>
-      <c r="S556">
+      <c r="T556">
         <v>16</v>
       </c>
     </row>
@@ -24482,7 +24487,7 @@
       <c r="Q557">
         <v>3</v>
       </c>
-      <c r="S557">
+      <c r="T557">
         <v>18</v>
       </c>
     </row>
@@ -24531,7 +24536,7 @@
       <c r="Q558">
         <v>1</v>
       </c>
-      <c r="S558">
+      <c r="T558">
         <v>15</v>
       </c>
     </row>
@@ -24580,7 +24585,7 @@
       <c r="Q559">
         <v>2</v>
       </c>
-      <c r="S559">
+      <c r="T559">
         <v>19</v>
       </c>
     </row>
@@ -24629,7 +24634,7 @@
       <c r="Q560">
         <v>2</v>
       </c>
-      <c r="S560">
+      <c r="T560">
         <v>14</v>
       </c>
     </row>
@@ -24678,7 +24683,7 @@
       <c r="Q561">
         <v>1</v>
       </c>
-      <c r="S561">
+      <c r="T561">
         <v>12</v>
       </c>
     </row>
@@ -24727,7 +24732,7 @@
       <c r="Q562">
         <v>2</v>
       </c>
-      <c r="S562">
+      <c r="T562">
         <v>18</v>
       </c>
     </row>
@@ -24776,7 +24781,7 @@
       <c r="Q563">
         <v>3</v>
       </c>
-      <c r="S563">
+      <c r="T563">
         <v>13</v>
       </c>
     </row>
@@ -24825,7 +24830,7 @@
       <c r="Q564">
         <v>1</v>
       </c>
-      <c r="S564">
+      <c r="T564">
         <v>17</v>
       </c>
     </row>
@@ -24874,7 +24879,7 @@
       <c r="Q565">
         <v>1</v>
       </c>
-      <c r="S565">
+      <c r="T565">
         <v>14</v>
       </c>
     </row>
@@ -24923,7 +24928,7 @@
       <c r="Q566">
         <v>1</v>
       </c>
-      <c r="S566">
+      <c r="T566">
         <v>16</v>
       </c>
     </row>
@@ -24972,7 +24977,7 @@
       <c r="Q567">
         <v>1</v>
       </c>
-      <c r="S567">
+      <c r="T567">
         <v>14</v>
       </c>
     </row>
@@ -25021,7 +25026,7 @@
       <c r="Q568">
         <v>1</v>
       </c>
-      <c r="S568">
+      <c r="T568">
         <v>16</v>
       </c>
     </row>
@@ -25070,7 +25075,7 @@
       <c r="Q569">
         <v>1</v>
       </c>
-      <c r="S569">
+      <c r="T569">
         <v>12</v>
       </c>
     </row>
@@ -25119,7 +25124,7 @@
       <c r="Q570">
         <v>2</v>
       </c>
-      <c r="S570">
+      <c r="T570">
         <v>19</v>
       </c>
     </row>
@@ -25168,7 +25173,7 @@
       <c r="Q571">
         <v>2</v>
       </c>
-      <c r="S571">
+      <c r="T571">
         <v>15</v>
       </c>
     </row>
@@ -25217,7 +25222,7 @@
       <c r="Q572">
         <v>2</v>
       </c>
-      <c r="S572">
+      <c r="T572">
         <v>18</v>
       </c>
     </row>
@@ -25266,7 +25271,7 @@
       <c r="Q573">
         <v>1</v>
       </c>
-      <c r="S573">
+      <c r="T573">
         <v>10</v>
       </c>
     </row>
@@ -25315,7 +25320,7 @@
       <c r="Q574">
         <v>3</v>
       </c>
-      <c r="S574">
+      <c r="T574">
         <v>14</v>
       </c>
     </row>
@@ -25364,7 +25369,7 @@
       <c r="Q575">
         <v>1</v>
       </c>
-      <c r="S575">
+      <c r="T575">
         <v>14</v>
       </c>
     </row>
@@ -25413,7 +25418,7 @@
       <c r="Q576">
         <v>2</v>
       </c>
-      <c r="S576">
+      <c r="T576">
         <v>14</v>
       </c>
     </row>
@@ -25462,7 +25467,7 @@
       <c r="Q577">
         <v>3</v>
       </c>
-      <c r="S577">
+      <c r="T577">
         <v>15</v>
       </c>
     </row>
@@ -25511,7 +25516,7 @@
       <c r="Q578">
         <v>3</v>
       </c>
-      <c r="S578">
+      <c r="T578">
         <v>11</v>
       </c>
     </row>
@@ -25560,7 +25565,7 @@
       <c r="Q579">
         <v>5</v>
       </c>
-      <c r="S579">
+      <c r="T579">
         <v>12</v>
       </c>
     </row>
@@ -25609,7 +25614,7 @@
       <c r="Q580">
         <v>3</v>
       </c>
-      <c r="S580">
+      <c r="T580">
         <v>15</v>
       </c>
     </row>
@@ -25655,7 +25660,7 @@
       <c r="Q581">
         <v>2</v>
       </c>
-      <c r="S581">
+      <c r="T581">
         <v>16</v>
       </c>
     </row>
@@ -25704,7 +25709,7 @@
       <c r="R582">
         <v>1</v>
       </c>
-      <c r="S582">
+      <c r="T582">
         <v>12</v>
       </c>
     </row>
@@ -25753,7 +25758,7 @@
       <c r="R583">
         <v>0</v>
       </c>
-      <c r="S583">
+      <c r="T583">
         <v>12</v>
       </c>
     </row>
@@ -25802,7 +25807,7 @@
       <c r="R584">
         <v>2</v>
       </c>
-      <c r="S584">
+      <c r="T584">
         <v>5</v>
       </c>
     </row>
@@ -25851,7 +25856,7 @@
       <c r="R585">
         <v>1</v>
       </c>
-      <c r="S585">
+      <c r="T585">
         <v>9</v>
       </c>
     </row>
@@ -25897,7 +25902,7 @@
       <c r="Q586">
         <v>3</v>
       </c>
-      <c r="S586">
+      <c r="T586">
         <v>6</v>
       </c>
     </row>
@@ -25946,7 +25951,7 @@
       <c r="R587">
         <v>1</v>
       </c>
-      <c r="S587">
+      <c r="T587">
         <v>8</v>
       </c>
     </row>
@@ -25992,7 +25997,7 @@
       <c r="Q588">
         <v>2</v>
       </c>
-      <c r="S588">
+      <c r="T588">
         <v>7</v>
       </c>
     </row>
@@ -26038,7 +26043,7 @@
       <c r="Q589">
         <v>3</v>
       </c>
-      <c r="S589">
+      <c r="T589">
         <v>9</v>
       </c>
     </row>
@@ -26084,7 +26089,7 @@
       <c r="Q590">
         <v>3</v>
       </c>
-      <c r="S590">
+      <c r="T590">
         <v>9</v>
       </c>
     </row>
@@ -26133,7 +26138,7 @@
       <c r="R591">
         <v>0</v>
       </c>
-      <c r="S591">
+      <c r="T591">
         <v>10</v>
       </c>
     </row>
@@ -26182,7 +26187,7 @@
       <c r="R592">
         <v>2</v>
       </c>
-      <c r="S592">
+      <c r="T592">
         <v>7</v>
       </c>
     </row>
@@ -26231,7 +26236,7 @@
       <c r="R593">
         <v>2</v>
       </c>
-      <c r="S593">
+      <c r="T593">
         <v>11</v>
       </c>
     </row>
@@ -26280,7 +26285,7 @@
       <c r="R594">
         <v>0</v>
       </c>
-      <c r="S594">
+      <c r="T594">
         <v>9</v>
       </c>
     </row>
@@ -26329,7 +26334,7 @@
       <c r="R595">
         <v>3</v>
       </c>
-      <c r="S595">
+      <c r="T595">
         <v>7</v>
       </c>
     </row>
@@ -26375,7 +26380,7 @@
       <c r="Q596">
         <v>2</v>
       </c>
-      <c r="S596">
+      <c r="T596">
         <v>8</v>
       </c>
     </row>
@@ -26424,7 +26429,7 @@
       <c r="R597">
         <v>1</v>
       </c>
-      <c r="S597">
+      <c r="T597">
         <v>6</v>
       </c>
     </row>
@@ -26473,7 +26478,7 @@
       <c r="R598">
         <v>3</v>
       </c>
-      <c r="S598">
+      <c r="T598">
         <v>5</v>
       </c>
     </row>
@@ -26522,7 +26527,7 @@
       <c r="R599">
         <v>2</v>
       </c>
-      <c r="S599">
+      <c r="T599">
         <v>9</v>
       </c>
     </row>
@@ -26571,7 +26576,7 @@
       <c r="R600">
         <v>2</v>
       </c>
-      <c r="S600">
+      <c r="T600">
         <v>8</v>
       </c>
     </row>
@@ -26620,7 +26625,7 @@
       <c r="R601">
         <v>4</v>
       </c>
-      <c r="S601">
+      <c r="T601">
         <v>8</v>
       </c>
     </row>
@@ -26669,7 +26674,7 @@
       <c r="R602">
         <v>0</v>
       </c>
-      <c r="S602">
+      <c r="T602">
         <v>8</v>
       </c>
     </row>
@@ -26718,7 +26723,7 @@
       <c r="R603">
         <v>4</v>
       </c>
-      <c r="S603">
+      <c r="T603">
         <v>8</v>
       </c>
     </row>
@@ -26767,7 +26772,7 @@
       <c r="R604">
         <v>2</v>
       </c>
-      <c r="S604">
+      <c r="T604">
         <v>10</v>
       </c>
     </row>
@@ -26816,7 +26821,7 @@
       <c r="R605">
         <v>4.1</v>
       </c>
-      <c r="S605">
+      <c r="T605">
         <v>9.4</v>
       </c>
     </row>
@@ -26865,7 +26870,7 @@
       <c r="R606">
         <v>1</v>
       </c>
-      <c r="S606">
+      <c r="T606">
         <v>14</v>
       </c>
     </row>
@@ -26914,7 +26919,7 @@
       <c r="R607">
         <v>2</v>
       </c>
-      <c r="S607">
+      <c r="T607">
         <v>12</v>
       </c>
     </row>
@@ -26963,7 +26968,7 @@
       <c r="R608">
         <v>2</v>
       </c>
-      <c r="S608">
+      <c r="T608">
         <v>9</v>
       </c>
     </row>
@@ -27012,7 +27017,7 @@
       <c r="R609">
         <v>2</v>
       </c>
-      <c r="S609">
+      <c r="T609">
         <v>12</v>
       </c>
     </row>
@@ -27061,7 +27066,7 @@
       <c r="R610">
         <v>4</v>
       </c>
-      <c r="S610">
+      <c r="T610">
         <v>10</v>
       </c>
     </row>
@@ -27110,7 +27115,7 @@
       <c r="R611">
         <v>2</v>
       </c>
-      <c r="S611">
+      <c r="T611">
         <v>12</v>
       </c>
     </row>
@@ -27159,7 +27164,7 @@
       <c r="R612">
         <v>4</v>
       </c>
-      <c r="S612">
+      <c r="T612">
         <v>9</v>
       </c>
     </row>
@@ -27208,7 +27213,7 @@
       <c r="R613">
         <v>0</v>
       </c>
-      <c r="S613">
+      <c r="T613">
         <v>8</v>
       </c>
     </row>
@@ -27257,7 +27262,7 @@
       <c r="R614">
         <v>2</v>
       </c>
-      <c r="S614">
+      <c r="T614">
         <v>11</v>
       </c>
     </row>
@@ -27306,7 +27311,7 @@
       <c r="R615">
         <v>1</v>
       </c>
-      <c r="S615">
+      <c r="T615">
         <v>9</v>
       </c>
     </row>
@@ -27355,7 +27360,7 @@
       <c r="R616">
         <v>1</v>
       </c>
-      <c r="S616">
+      <c r="T616">
         <v>8</v>
       </c>
     </row>
@@ -27404,7 +27409,7 @@
       <c r="R617">
         <v>4</v>
       </c>
-      <c r="S617">
+      <c r="T617">
         <v>9</v>
       </c>
     </row>
@@ -27453,7 +27458,7 @@
       <c r="R618">
         <v>2</v>
       </c>
-      <c r="S618">
+      <c r="T618">
         <v>12</v>
       </c>
     </row>
@@ -27502,7 +27507,7 @@
       <c r="R619">
         <v>1</v>
       </c>
-      <c r="S619">
+      <c r="T619">
         <v>10</v>
       </c>
     </row>
@@ -27551,7 +27556,7 @@
       <c r="R620">
         <v>4</v>
       </c>
-      <c r="S620">
+      <c r="T620">
         <v>7</v>
       </c>
     </row>
@@ -27600,7 +27605,7 @@
       <c r="R621">
         <v>3</v>
       </c>
-      <c r="S621">
+      <c r="T621">
         <v>9</v>
       </c>
     </row>
@@ -27649,7 +27654,7 @@
       <c r="R622">
         <v>0</v>
       </c>
-      <c r="S622">
+      <c r="T622">
         <v>9</v>
       </c>
     </row>
@@ -27698,7 +27703,7 @@
       <c r="R623">
         <v>2</v>
       </c>
-      <c r="S623">
+      <c r="T623">
         <v>10</v>
       </c>
     </row>
@@ -27747,7 +27752,7 @@
       <c r="R624">
         <v>4</v>
       </c>
-      <c r="S624">
+      <c r="T624">
         <v>7</v>
       </c>
     </row>
@@ -27796,7 +27801,7 @@
       <c r="R625">
         <v>1</v>
       </c>
-      <c r="S625">
+      <c r="T625">
         <v>9</v>
       </c>
     </row>
@@ -27845,7 +27850,7 @@
       <c r="R626">
         <v>3</v>
       </c>
-      <c r="S626">
+      <c r="T626">
         <v>7</v>
       </c>
     </row>
@@ -27894,7 +27899,7 @@
       <c r="R627">
         <v>1</v>
       </c>
-      <c r="S627">
+      <c r="T627">
         <v>9</v>
       </c>
     </row>
@@ -27943,7 +27948,7 @@
       <c r="R628">
         <v>2</v>
       </c>
-      <c r="S628">
+      <c r="T628">
         <v>10</v>
       </c>
     </row>
@@ -27992,7 +27997,7 @@
       <c r="R629">
         <v>1</v>
       </c>
-      <c r="S629">
+      <c r="T629">
         <v>9</v>
       </c>
     </row>
@@ -28041,7 +28046,7 @@
       <c r="R630">
         <v>3</v>
       </c>
-      <c r="S630">
+      <c r="T630">
         <v>7</v>
       </c>
     </row>
@@ -28090,7 +28095,7 @@
       <c r="R631">
         <v>2</v>
       </c>
-      <c r="S631">
+      <c r="T631">
         <v>12</v>
       </c>
     </row>
@@ -28139,7 +28144,7 @@
       <c r="R632">
         <v>1</v>
       </c>
-      <c r="S632">
+      <c r="T632">
         <v>11</v>
       </c>
     </row>
@@ -28188,7 +28193,7 @@
       <c r="R633">
         <v>0</v>
       </c>
-      <c r="S633">
+      <c r="T633">
         <v>10</v>
       </c>
     </row>
@@ -28237,7 +28242,7 @@
       <c r="R634">
         <v>3</v>
       </c>
-      <c r="S634">
+      <c r="T634">
         <v>9</v>
       </c>
     </row>
@@ -28286,7 +28291,7 @@
       <c r="R635">
         <v>2</v>
       </c>
-      <c r="S635">
+      <c r="T635">
         <v>9</v>
       </c>
     </row>
@@ -28335,7 +28340,7 @@
       <c r="R636">
         <v>0</v>
       </c>
-      <c r="S636">
+      <c r="T636">
         <v>10</v>
       </c>
     </row>
@@ -28384,7 +28389,7 @@
       <c r="R637">
         <v>2</v>
       </c>
-      <c r="S637">
+      <c r="T637">
         <v>12</v>
       </c>
     </row>
@@ -28433,7 +28438,7 @@
       <c r="R638">
         <v>3</v>
       </c>
-      <c r="S638">
+      <c r="T638">
         <v>10</v>
       </c>
     </row>
@@ -28482,7 +28487,7 @@
       <c r="R639">
         <v>0</v>
       </c>
-      <c r="S639">
+      <c r="T639">
         <v>9</v>
       </c>
     </row>
@@ -28531,7 +28536,7 @@
       <c r="R640">
         <v>2</v>
       </c>
-      <c r="S640">
+      <c r="T640">
         <v>12</v>
       </c>
     </row>
@@ -28580,7 +28585,7 @@
       <c r="R641">
         <v>2</v>
       </c>
-      <c r="S641">
+      <c r="T641">
         <v>9</v>
       </c>
     </row>
@@ -28629,7 +28634,7 @@
       <c r="R642">
         <v>1</v>
       </c>
-      <c r="S642">
+      <c r="T642">
         <v>9</v>
       </c>
     </row>
@@ -28678,7 +28683,7 @@
       <c r="R643">
         <v>2</v>
       </c>
-      <c r="S643">
+      <c r="T643">
         <v>12</v>
       </c>
     </row>
@@ -28727,7 +28732,7 @@
       <c r="R644">
         <v>3</v>
       </c>
-      <c r="S644">
+      <c r="T644">
         <v>9</v>
       </c>
     </row>
@@ -28776,7 +28781,7 @@
       <c r="R645">
         <v>1</v>
       </c>
-      <c r="S645">
+      <c r="T645">
         <v>11</v>
       </c>
     </row>
@@ -28825,7 +28830,7 @@
       <c r="R646">
         <v>1</v>
       </c>
-      <c r="S646">
+      <c r="T646">
         <v>8</v>
       </c>
     </row>
@@ -28874,7 +28879,7 @@
       <c r="R647">
         <v>2</v>
       </c>
-      <c r="S647">
+      <c r="T647">
         <v>11</v>
       </c>
     </row>
@@ -28923,7 +28928,7 @@
       <c r="R648">
         <v>3</v>
       </c>
-      <c r="S648">
+      <c r="T648">
         <v>9</v>
       </c>
     </row>
@@ -28972,7 +28977,7 @@
       <c r="R649">
         <v>1</v>
       </c>
-      <c r="S649">
+      <c r="T649">
         <v>9</v>
       </c>
     </row>
@@ -29021,7 +29026,7 @@
       <c r="R650">
         <v>2</v>
       </c>
-      <c r="S650">
+      <c r="T650">
         <v>12</v>
       </c>
     </row>
@@ -29070,7 +29075,7 @@
       <c r="R651">
         <v>3</v>
       </c>
-      <c r="S651">
+      <c r="T651">
         <v>10</v>
       </c>
     </row>
@@ -29119,7 +29124,7 @@
       <c r="R652">
         <v>1</v>
       </c>
-      <c r="S652">
+      <c r="T652">
         <v>7</v>
       </c>
     </row>
@@ -29168,7 +29173,7 @@
       <c r="R653">
         <v>3</v>
       </c>
-      <c r="S653">
+      <c r="T653">
         <v>13</v>
       </c>
     </row>
@@ -29217,7 +29222,7 @@
       <c r="R654">
         <v>3</v>
       </c>
-      <c r="S654">
+      <c r="T654">
         <v>10</v>
       </c>
     </row>
@@ -29266,7 +29271,7 @@
       <c r="R655">
         <v>1</v>
       </c>
-      <c r="S655">
+      <c r="T655">
         <v>13</v>
       </c>
     </row>
@@ -29315,7 +29320,7 @@
       <c r="R656">
         <v>1</v>
       </c>
-      <c r="S656">
+      <c r="T656">
         <v>7</v>
       </c>
     </row>
@@ -29364,7 +29369,7 @@
       <c r="R657">
         <v>3</v>
       </c>
-      <c r="S657">
+      <c r="T657">
         <v>8</v>
       </c>
     </row>
@@ -29413,7 +29418,7 @@
       <c r="R658">
         <v>3</v>
       </c>
-      <c r="S658">
+      <c r="T658">
         <v>10</v>
       </c>
     </row>
@@ -29462,7 +29467,7 @@
       <c r="R659">
         <v>2</v>
       </c>
-      <c r="S659">
+      <c r="T659">
         <v>12</v>
       </c>
     </row>
@@ -29511,7 +29516,7 @@
       <c r="R660">
         <v>0</v>
       </c>
-      <c r="S660">
+      <c r="T660">
         <v>7</v>
       </c>
     </row>
@@ -29560,7 +29565,7 @@
       <c r="R661">
         <v>3</v>
       </c>
-      <c r="S661">
+      <c r="T661">
         <v>8</v>
       </c>
     </row>
@@ -29609,7 +29614,7 @@
       <c r="R662">
         <v>0</v>
       </c>
-      <c r="S662">
+      <c r="T662">
         <v>9</v>
       </c>
     </row>
@@ -29658,7 +29663,7 @@
       <c r="R663">
         <v>1</v>
       </c>
-      <c r="S663">
+      <c r="T663">
         <v>9</v>
       </c>
     </row>
@@ -29707,7 +29712,7 @@
       <c r="R664">
         <v>1</v>
       </c>
-      <c r="S664">
+      <c r="T664">
         <v>13</v>
       </c>
     </row>
@@ -29756,7 +29761,7 @@
       <c r="R665">
         <v>4</v>
       </c>
-      <c r="S665">
+      <c r="T665">
         <v>9</v>
       </c>
     </row>
@@ -29805,7 +29810,7 @@
       <c r="R666">
         <v>1</v>
       </c>
-      <c r="S666">
+      <c r="T666">
         <v>9</v>
       </c>
     </row>
@@ -29854,7 +29859,7 @@
       <c r="R667">
         <v>2</v>
       </c>
-      <c r="S667">
+      <c r="T667">
         <v>12</v>
       </c>
     </row>
@@ -29903,7 +29908,7 @@
       <c r="R668">
         <v>4</v>
       </c>
-      <c r="S668">
+      <c r="T668">
         <v>8</v>
       </c>
     </row>
@@ -29952,7 +29957,7 @@
       <c r="R669">
         <v>0</v>
       </c>
-      <c r="S669">
+      <c r="T669">
         <v>12</v>
       </c>
     </row>
@@ -30001,7 +30006,7 @@
       <c r="R670">
         <v>3</v>
       </c>
-      <c r="S670">
+      <c r="T670">
         <v>10</v>
       </c>
     </row>
@@ -30050,7 +30055,7 @@
       <c r="R671">
         <v>1</v>
       </c>
-      <c r="S671">
+      <c r="T671">
         <v>8</v>
       </c>
     </row>
@@ -30099,7 +30104,7 @@
       <c r="R672">
         <v>2</v>
       </c>
-      <c r="S672">
+      <c r="T672">
         <v>12</v>
       </c>
     </row>
@@ -30148,7 +30153,7 @@
       <c r="R673">
         <v>4</v>
       </c>
-      <c r="S673">
+      <c r="T673">
         <v>10</v>
       </c>
     </row>
@@ -30197,7 +30202,7 @@
       <c r="R674">
         <v>0</v>
       </c>
-      <c r="S674">
+      <c r="T674">
         <v>9</v>
       </c>
     </row>
@@ -30246,7 +30251,7 @@
       <c r="R675">
         <v>0</v>
       </c>
-      <c r="S675">
+      <c r="T675">
         <v>14</v>
       </c>
     </row>
@@ -30295,7 +30300,7 @@
       <c r="R676">
         <v>2</v>
       </c>
-      <c r="S676">
+      <c r="T676">
         <v>14</v>
       </c>
     </row>
@@ -30344,7 +30349,7 @@
       <c r="R677">
         <v>3</v>
       </c>
-      <c r="S677">
+      <c r="T677">
         <v>10</v>
       </c>
     </row>
@@ -30393,7 +30398,7 @@
       <c r="R678">
         <v>0</v>
       </c>
-      <c r="S678">
+      <c r="T678">
         <v>9</v>
       </c>
     </row>
@@ -30442,7 +30447,7 @@
       <c r="R679">
         <v>2</v>
       </c>
-      <c r="S679">
+      <c r="T679">
         <v>14</v>
       </c>
     </row>
@@ -30491,7 +30496,7 @@
       <c r="R680">
         <v>3</v>
       </c>
-      <c r="S680">
+      <c r="T680">
         <v>11</v>
       </c>
     </row>
@@ -30540,7 +30545,7 @@
       <c r="R681">
         <v>2</v>
       </c>
-      <c r="S681">
+      <c r="T681">
         <v>9</v>
       </c>
     </row>
@@ -30589,7 +30594,7 @@
       <c r="R682">
         <v>2</v>
       </c>
-      <c r="S682">
+      <c r="T682">
         <v>14</v>
       </c>
     </row>
@@ -30638,7 +30643,7 @@
       <c r="R683">
         <v>2</v>
       </c>
-      <c r="S683">
+      <c r="T683">
         <v>12</v>
       </c>
     </row>
@@ -30687,7 +30692,7 @@
       <c r="R684">
         <v>1</v>
       </c>
-      <c r="S684">
+      <c r="T684">
         <v>12</v>
       </c>
     </row>
@@ -30736,7 +30741,7 @@
       <c r="R685">
         <v>1</v>
       </c>
-      <c r="S685">
+      <c r="T685">
         <v>13</v>
       </c>
     </row>
@@ -30785,7 +30790,7 @@
       <c r="R686">
         <v>3</v>
       </c>
-      <c r="S686">
+      <c r="T686">
         <v>12</v>
       </c>
     </row>
@@ -30834,7 +30839,7 @@
       <c r="R687">
         <v>1</v>
       </c>
-      <c r="S687">
+      <c r="T687">
         <v>14</v>
       </c>
     </row>
@@ -30883,7 +30888,7 @@
       <c r="R688">
         <v>0</v>
       </c>
-      <c r="S688">
+      <c r="T688">
         <v>9</v>
       </c>
     </row>
@@ -30932,7 +30937,7 @@
       <c r="R689">
         <v>2</v>
       </c>
-      <c r="S689">
+      <c r="T689">
         <v>14</v>
       </c>
     </row>
@@ -30981,7 +30986,7 @@
       <c r="R690">
         <v>3</v>
       </c>
-      <c r="S690">
+      <c r="T690">
         <v>13</v>
       </c>
     </row>
@@ -31030,7 +31035,7 @@
       <c r="R691">
         <v>1</v>
       </c>
-      <c r="S691">
+      <c r="T691">
         <v>10</v>
       </c>
     </row>
@@ -31079,7 +31084,7 @@
       <c r="R692">
         <v>2</v>
       </c>
-      <c r="S692">
+      <c r="T692">
         <v>10</v>
       </c>
     </row>
@@ -31128,7 +31133,7 @@
       <c r="R693">
         <v>2</v>
       </c>
-      <c r="S693">
+      <c r="T693">
         <v>12</v>
       </c>
     </row>
@@ -31177,7 +31182,7 @@
       <c r="R694">
         <v>1</v>
       </c>
-      <c r="S694">
+      <c r="T694">
         <v>10</v>
       </c>
     </row>
@@ -31226,7 +31231,7 @@
       <c r="R695">
         <v>3</v>
       </c>
-      <c r="S695">
+      <c r="T695">
         <v>13</v>
       </c>
     </row>
@@ -31275,7 +31280,7 @@
       <c r="R696">
         <v>1</v>
       </c>
-      <c r="S696">
+      <c r="T696">
         <v>17</v>
       </c>
     </row>
@@ -31324,7 +31329,7 @@
       <c r="R697">
         <v>3</v>
       </c>
-      <c r="S697">
+      <c r="T697">
         <v>12</v>
       </c>
     </row>
@@ -31373,7 +31378,7 @@
       <c r="R698">
         <v>2</v>
       </c>
-      <c r="S698">
+      <c r="T698">
         <v>12</v>
       </c>
     </row>
@@ -31422,7 +31427,7 @@
       <c r="R699">
         <v>2</v>
       </c>
-      <c r="S699">
+      <c r="T699">
         <v>13</v>
       </c>
     </row>
@@ -31471,7 +31476,7 @@
       <c r="R700">
         <v>4</v>
       </c>
-      <c r="S700">
+      <c r="T700">
         <v>10</v>
       </c>
     </row>
@@ -31520,7 +31525,7 @@
       <c r="R701">
         <v>2</v>
       </c>
-      <c r="S701">
+      <c r="T701">
         <v>16</v>
       </c>
     </row>
@@ -31569,7 +31574,7 @@
       <c r="R702">
         <v>3</v>
       </c>
-      <c r="S702">
+      <c r="T702">
         <v>13</v>
       </c>
     </row>
@@ -31618,7 +31623,7 @@
       <c r="R703">
         <v>3</v>
       </c>
-      <c r="S703">
+      <c r="T703">
         <v>16</v>
       </c>
     </row>
@@ -31667,7 +31672,7 @@
       <c r="R704">
         <v>3</v>
       </c>
-      <c r="S704">
+      <c r="T704">
         <v>18</v>
       </c>
     </row>
@@ -31716,7 +31721,7 @@
       <c r="R705">
         <v>3</v>
       </c>
-      <c r="S705">
+      <c r="T705">
         <v>17</v>
       </c>
     </row>
@@ -31765,7 +31770,7 @@
       <c r="R706">
         <v>1</v>
       </c>
-      <c r="S706">
+      <c r="T706">
         <v>17</v>
       </c>
     </row>
@@ -31814,7 +31819,7 @@
       <c r="R707">
         <v>3</v>
       </c>
-      <c r="S707">
+      <c r="T707">
         <v>16</v>
       </c>
     </row>
@@ -31863,7 +31868,7 @@
       <c r="R708">
         <v>2</v>
       </c>
-      <c r="S708">
+      <c r="T708">
         <v>16</v>
       </c>
     </row>
@@ -31912,7 +31917,7 @@
       <c r="R709">
         <v>5</v>
       </c>
-      <c r="S709">
+      <c r="T709">
         <v>19</v>
       </c>
     </row>
@@ -31961,7 +31966,7 @@
       <c r="R710">
         <v>4</v>
       </c>
-      <c r="S710">
+      <c r="T710">
         <v>14</v>
       </c>
     </row>
@@ -32010,7 +32015,7 @@
       <c r="R711">
         <v>4</v>
       </c>
-      <c r="S711">
+      <c r="T711">
         <v>18</v>
       </c>
     </row>
@@ -32059,7 +32064,7 @@
       <c r="R712">
         <v>3</v>
       </c>
-      <c r="S712">
+      <c r="T712">
         <v>16</v>
       </c>
     </row>
@@ -32108,7 +32113,7 @@
       <c r="R713">
         <v>4</v>
       </c>
-      <c r="S713">
+      <c r="T713">
         <v>21</v>
       </c>
     </row>
@@ -32157,7 +32162,7 @@
       <c r="R714">
         <v>3</v>
       </c>
-      <c r="S714">
+      <c r="T714">
         <v>18</v>
       </c>
     </row>
@@ -32206,7 +32211,7 @@
       <c r="R715">
         <v>1</v>
       </c>
-      <c r="S715">
+      <c r="T715">
         <v>19</v>
       </c>
     </row>
@@ -32255,7 +32260,7 @@
       <c r="R716">
         <v>3</v>
       </c>
-      <c r="S716">
+      <c r="T716">
         <v>18</v>
       </c>
     </row>
@@ -32304,7 +32309,7 @@
       <c r="R717">
         <v>3</v>
       </c>
-      <c r="S717">
+      <c r="T717">
         <v>21</v>
       </c>
     </row>
@@ -32353,7 +32358,7 @@
       <c r="R718">
         <v>3</v>
       </c>
-      <c r="S718">
+      <c r="T718">
         <v>22</v>
       </c>
     </row>
@@ -32402,7 +32407,7 @@
       <c r="R719">
         <v>3</v>
       </c>
-      <c r="S719">
+      <c r="T719">
         <v>21</v>
       </c>
     </row>
@@ -32451,7 +32456,7 @@
       <c r="R720">
         <v>4</v>
       </c>
-      <c r="S720">
+      <c r="T720">
         <v>20</v>
       </c>
     </row>
@@ -32500,7 +32505,7 @@
       <c r="R721">
         <v>4</v>
       </c>
-      <c r="S721">
+      <c r="T721">
         <v>18</v>
       </c>
     </row>
@@ -32549,7 +32554,7 @@
       <c r="R722">
         <v>3</v>
       </c>
-      <c r="S722">
+      <c r="T722">
         <v>19</v>
       </c>
     </row>
@@ -32598,7 +32603,7 @@
       <c r="R723">
         <v>4</v>
       </c>
-      <c r="S723">
+      <c r="T723">
         <v>20</v>
       </c>
     </row>
@@ -32647,7 +32652,7 @@
       <c r="R724">
         <v>1</v>
       </c>
-      <c r="S724">
+      <c r="T724">
         <v>16</v>
       </c>
     </row>
@@ -32696,7 +32701,7 @@
       <c r="R725">
         <v>2</v>
       </c>
-      <c r="S725">
+      <c r="T725">
         <v>20</v>
       </c>
     </row>
@@ -32745,7 +32750,7 @@
       <c r="R726">
         <v>4</v>
       </c>
-      <c r="S726">
+      <c r="T726">
         <v>15</v>
       </c>
     </row>
@@ -32794,7 +32799,7 @@
       <c r="R727">
         <v>2</v>
       </c>
-      <c r="S727">
+      <c r="T727">
         <v>22</v>
       </c>
     </row>
@@ -32843,7 +32848,7 @@
       <c r="R728">
         <v>3</v>
       </c>
-      <c r="S728">
+      <c r="T728">
         <v>22</v>
       </c>
     </row>
@@ -32892,7 +32897,7 @@
       <c r="R729">
         <v>3</v>
       </c>
-      <c r="S729">
+      <c r="T729">
         <v>17</v>
       </c>
     </row>
@@ -32941,7 +32946,7 @@
       <c r="R730">
         <v>5</v>
       </c>
-      <c r="S730">
+      <c r="T730">
         <v>19</v>
       </c>
     </row>
@@ -32990,7 +32995,7 @@
       <c r="R731">
         <v>3</v>
       </c>
-      <c r="S731">
+      <c r="T731">
         <v>20</v>
       </c>
     </row>
@@ -33039,7 +33044,7 @@
       <c r="R732">
         <v>2</v>
       </c>
-      <c r="S732">
+      <c r="T732">
         <v>21</v>
       </c>
     </row>
@@ -33088,7 +33093,7 @@
       <c r="R733">
         <v>5</v>
       </c>
-      <c r="S733">
+      <c r="T733">
         <v>19</v>
       </c>
     </row>
@@ -33137,7 +33142,7 @@
       <c r="R734">
         <v>3</v>
       </c>
-      <c r="S734">
+      <c r="T734">
         <v>20</v>
       </c>
     </row>
@@ -33160,7 +33165,7 @@
         </is>
       </c>
       <c r="F735">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="G735">
         <v>21</v>
@@ -33186,8 +33191,268 @@
       <c r="R735">
         <v>4</v>
       </c>
-      <c r="S735">
+      <c r="T735">
         <v>19</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="2">
+        <v>45669</v>
+      </c>
+      <c r="B736" s="2">
+        <v>45667</v>
+      </c>
+      <c r="C736" s="2">
+        <v>45668</v>
+      </c>
+      <c r="D736" s="2">
+        <v>45667</v>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>Ireland Thinks</t>
+        </is>
+      </c>
+      <c r="F736">
+        <v>1206</v>
+      </c>
+      <c r="G736">
+        <v>23.8</v>
+      </c>
+      <c r="H736">
+        <v>22.3</v>
+      </c>
+      <c r="I736">
+        <v>19.3</v>
+      </c>
+      <c r="J736">
+        <v>3.8</v>
+      </c>
+      <c r="K736">
+        <v>2.3</v>
+      </c>
+      <c r="O736">
+        <v>2.2</v>
+      </c>
+      <c r="Q736">
+        <v>7.3</v>
+      </c>
+      <c r="R736">
+        <v>5.3</v>
+      </c>
+      <c r="S736">
+        <v>4.9</v>
+      </c>
+      <c r="T736">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="2">
+        <v>45683</v>
+      </c>
+      <c r="B737" s="2">
+        <v>45674</v>
+      </c>
+      <c r="C737" s="2">
+        <v>45679</v>
+      </c>
+      <c r="D737" s="2">
+        <v>45676</v>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>Red C</t>
+        </is>
+      </c>
+      <c r="F737">
+        <v>1003</v>
+      </c>
+      <c r="G737">
+        <v>22</v>
+      </c>
+      <c r="H737">
+        <v>20</v>
+      </c>
+      <c r="I737">
+        <v>22</v>
+      </c>
+      <c r="J737">
+        <v>3</v>
+      </c>
+      <c r="K737">
+        <v>3</v>
+      </c>
+      <c r="O737">
+        <v>2</v>
+      </c>
+      <c r="Q737">
+        <v>7</v>
+      </c>
+      <c r="R737">
+        <v>4</v>
+      </c>
+      <c r="S737">
+        <v>3</v>
+      </c>
+      <c r="T737">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="2">
+        <v>45690</v>
+      </c>
+      <c r="B738" s="2">
+        <v>45688</v>
+      </c>
+      <c r="C738" s="2">
+        <v>45689</v>
+      </c>
+      <c r="D738" s="2">
+        <v>45688</v>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>Ireland Thinks</t>
+        </is>
+      </c>
+      <c r="F738">
+        <v>1591</v>
+      </c>
+      <c r="G738">
+        <v>24</v>
+      </c>
+      <c r="H738">
+        <v>20</v>
+      </c>
+      <c r="I738">
+        <v>22</v>
+      </c>
+      <c r="J738">
+        <v>4</v>
+      </c>
+      <c r="K738">
+        <v>3</v>
+      </c>
+      <c r="O738">
+        <v>2</v>
+      </c>
+      <c r="Q738">
+        <v>8</v>
+      </c>
+      <c r="R738">
+        <v>4</v>
+      </c>
+      <c r="S738">
+        <v>4</v>
+      </c>
+      <c r="T738">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="2">
+        <v>45711</v>
+      </c>
+      <c r="B739" s="2">
+        <v>45702</v>
+      </c>
+      <c r="C739" s="2">
+        <v>45707</v>
+      </c>
+      <c r="D739" s="2">
+        <v>45704</v>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>Red C</t>
+        </is>
+      </c>
+      <c r="F739">
+        <v>1029</v>
+      </c>
+      <c r="G739">
+        <v>20</v>
+      </c>
+      <c r="H739">
+        <v>20</v>
+      </c>
+      <c r="I739">
+        <v>23</v>
+      </c>
+      <c r="J739">
+        <v>4</v>
+      </c>
+      <c r="K739">
+        <v>3</v>
+      </c>
+      <c r="O739">
+        <v>3</v>
+      </c>
+      <c r="Q739">
+        <v>7</v>
+      </c>
+      <c r="R739">
+        <v>4</v>
+      </c>
+      <c r="S739">
+        <v>4</v>
+      </c>
+      <c r="T739">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="2">
+        <v>45718</v>
+      </c>
+      <c r="B740" s="2">
+        <v>45716</v>
+      </c>
+      <c r="C740" s="2">
+        <v>45717</v>
+      </c>
+      <c r="D740" s="2">
+        <v>45716</v>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>Ireland Thinks</t>
+        </is>
+      </c>
+      <c r="F740">
+        <v>1373</v>
+      </c>
+      <c r="G740">
+        <v>22</v>
+      </c>
+      <c r="H740">
+        <v>22</v>
+      </c>
+      <c r="I740">
+        <v>21</v>
+      </c>
+      <c r="J740">
+        <v>4</v>
+      </c>
+      <c r="K740">
+        <v>2</v>
+      </c>
+      <c r="O740">
+        <v>2</v>
+      </c>
+      <c r="Q740">
+        <v>7</v>
+      </c>
+      <c r="R740">
+        <v>3</v>
+      </c>
+      <c r="S740">
+        <v>5</v>
+      </c>
+      <c r="T740">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T740"/>
+  <dimension ref="A1:T741"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33455,6 +33455,58 @@
         <v>12</v>
       </c>
     </row>
+    <row r="741">
+      <c r="A741" s="2">
+        <v>45746</v>
+      </c>
+      <c r="B741" s="2">
+        <v>45737</v>
+      </c>
+      <c r="C741" s="2">
+        <v>45742</v>
+      </c>
+      <c r="D741" s="2">
+        <v>45739</v>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>Red C</t>
+        </is>
+      </c>
+      <c r="F741">
+        <v>1002</v>
+      </c>
+      <c r="G741">
+        <v>22</v>
+      </c>
+      <c r="H741">
+        <v>17</v>
+      </c>
+      <c r="I741">
+        <v>22</v>
+      </c>
+      <c r="J741">
+        <v>4</v>
+      </c>
+      <c r="K741">
+        <v>3</v>
+      </c>
+      <c r="O741">
+        <v>3</v>
+      </c>
+      <c r="Q741">
+        <v>7</v>
+      </c>
+      <c r="R741">
+        <v>4</v>
+      </c>
+      <c r="S741">
+        <v>4</v>
+      </c>
+      <c r="T741">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T741"/>
+  <dimension ref="A1:T742"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33507,6 +33507,58 @@
         <v>14</v>
       </c>
     </row>
+    <row r="742">
+      <c r="A742" s="2">
+        <v>45753</v>
+      </c>
+      <c r="B742" s="2">
+        <v>45750</v>
+      </c>
+      <c r="C742" s="2">
+        <v>45751</v>
+      </c>
+      <c r="D742" s="2">
+        <v>45750</v>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>Ireland Thinks</t>
+        </is>
+      </c>
+      <c r="F742">
+        <v>2072</v>
+      </c>
+      <c r="G742">
+        <v>25</v>
+      </c>
+      <c r="H742">
+        <v>21</v>
+      </c>
+      <c r="I742">
+        <v>21</v>
+      </c>
+      <c r="J742">
+        <v>4</v>
+      </c>
+      <c r="K742">
+        <v>2</v>
+      </c>
+      <c r="O742">
+        <v>3</v>
+      </c>
+      <c r="Q742">
+        <v>8</v>
+      </c>
+      <c r="R742">
+        <v>4</v>
+      </c>
+      <c r="S742">
+        <v>4</v>
+      </c>
+      <c r="T742">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T742"/>
+  <dimension ref="A1:T745"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33559,6 +33559,162 @@
         <v>8</v>
       </c>
     </row>
+    <row r="743">
+      <c r="A743" s="2">
+        <v>45764</v>
+      </c>
+      <c r="B743" s="2">
+        <v>45761</v>
+      </c>
+      <c r="C743" s="2">
+        <v>45762</v>
+      </c>
+      <c r="D743" s="2">
+        <v>45761</v>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>Ipsos B&amp;A</t>
+        </is>
+      </c>
+      <c r="F743">
+        <v>1200</v>
+      </c>
+      <c r="G743">
+        <v>22</v>
+      </c>
+      <c r="H743">
+        <v>16</v>
+      </c>
+      <c r="I743">
+        <v>26</v>
+      </c>
+      <c r="J743">
+        <v>5</v>
+      </c>
+      <c r="K743">
+        <v>3</v>
+      </c>
+      <c r="O743">
+        <v>3</v>
+      </c>
+      <c r="Q743">
+        <v>7</v>
+      </c>
+      <c r="R743">
+        <v>1</v>
+      </c>
+      <c r="S743">
+        <v>1</v>
+      </c>
+      <c r="T743">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="2">
+        <v>45774</v>
+      </c>
+      <c r="B744" s="2">
+        <v>45764</v>
+      </c>
+      <c r="C744" s="2">
+        <v>45770</v>
+      </c>
+      <c r="D744" s="2">
+        <v>45767</v>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>Red C</t>
+        </is>
+      </c>
+      <c r="F744">
+        <v>1055</v>
+      </c>
+      <c r="G744">
+        <v>20</v>
+      </c>
+      <c r="H744">
+        <v>19</v>
+      </c>
+      <c r="I744">
+        <v>24</v>
+      </c>
+      <c r="J744">
+        <v>3</v>
+      </c>
+      <c r="K744">
+        <v>3</v>
+      </c>
+      <c r="O744">
+        <v>3</v>
+      </c>
+      <c r="Q744">
+        <v>7</v>
+      </c>
+      <c r="R744">
+        <v>5</v>
+      </c>
+      <c r="S744">
+        <v>5</v>
+      </c>
+      <c r="T744">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="2">
+        <v>45720</v>
+      </c>
+      <c r="B745" s="2">
+        <v>45778</v>
+      </c>
+      <c r="C745" s="2">
+        <v>45779</v>
+      </c>
+      <c r="D745" s="2">
+        <v>45778</v>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>Ireland Thinks</t>
+        </is>
+      </c>
+      <c r="F745">
+        <v>1649</v>
+      </c>
+      <c r="G745">
+        <v>23</v>
+      </c>
+      <c r="H745">
+        <v>20</v>
+      </c>
+      <c r="I745">
+        <v>22</v>
+      </c>
+      <c r="J745">
+        <v>4</v>
+      </c>
+      <c r="K745">
+        <v>2</v>
+      </c>
+      <c r="O745">
+        <v>3</v>
+      </c>
+      <c r="Q745">
+        <v>8</v>
+      </c>
+      <c r="R745">
+        <v>4</v>
+      </c>
+      <c r="S745">
+        <v>5</v>
+      </c>
+      <c r="T745">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -33665,7 +33665,7 @@
     </row>
     <row r="745">
       <c r="A745" s="2">
-        <v>45720</v>
+        <v>45781</v>
       </c>
       <c r="B745" s="2">
         <v>45778</v>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T745"/>
+  <dimension ref="A1:T746"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33715,6 +33715,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="746">
+      <c r="A746" s="2">
+        <v>45802</v>
+      </c>
+      <c r="B746" s="2">
+        <v>45793</v>
+      </c>
+      <c r="C746" s="2">
+        <v>45799</v>
+      </c>
+      <c r="D746" s="2">
+        <v>45796</v>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>Red C</t>
+        </is>
+      </c>
+      <c r="F746">
+        <v>1004</v>
+      </c>
+      <c r="G746">
+        <v>20</v>
+      </c>
+      <c r="H746">
+        <v>19</v>
+      </c>
+      <c r="I746">
+        <v>22</v>
+      </c>
+      <c r="J746">
+        <v>5</v>
+      </c>
+      <c r="K746">
+        <v>3</v>
+      </c>
+      <c r="O746">
+        <v>3</v>
+      </c>
+      <c r="Q746">
+        <v>7</v>
+      </c>
+      <c r="R746">
+        <v>4</v>
+      </c>
+      <c r="S746">
+        <v>4</v>
+      </c>
+      <c r="T746">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T746"/>
+  <dimension ref="A1:T747"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33767,6 +33767,58 @@
         <v>13</v>
       </c>
     </row>
+    <row r="747">
+      <c r="A747" s="2">
+        <v>45809</v>
+      </c>
+      <c r="B747" s="2">
+        <v>45806</v>
+      </c>
+      <c r="C747" s="2">
+        <v>45807</v>
+      </c>
+      <c r="D747" s="2">
+        <v>45806</v>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>Ireland Thinks</t>
+        </is>
+      </c>
+      <c r="F747">
+        <v>1857</v>
+      </c>
+      <c r="G747">
+        <v>21</v>
+      </c>
+      <c r="H747">
+        <v>21</v>
+      </c>
+      <c r="I747">
+        <v>20</v>
+      </c>
+      <c r="J747">
+        <v>5</v>
+      </c>
+      <c r="K747">
+        <v>1</v>
+      </c>
+      <c r="O747">
+        <v>3</v>
+      </c>
+      <c r="Q747">
+        <v>9</v>
+      </c>
+      <c r="R747">
+        <v>5</v>
+      </c>
+      <c r="S747">
+        <v>5</v>
+      </c>
+      <c r="T747">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T747"/>
+  <dimension ref="A1:T748"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33819,6 +33819,58 @@
         <v>10</v>
       </c>
     </row>
+    <row r="748">
+      <c r="A748" s="2">
+        <v>46202</v>
+      </c>
+      <c r="B748" s="2">
+        <v>45828</v>
+      </c>
+      <c r="C748" s="2">
+        <v>45833</v>
+      </c>
+      <c r="D748" s="2">
+        <v>45830</v>
+      </c>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>Red C</t>
+        </is>
+      </c>
+      <c r="F748">
+        <v>1008</v>
+      </c>
+      <c r="G748">
+        <v>19</v>
+      </c>
+      <c r="H748">
+        <v>18</v>
+      </c>
+      <c r="I748">
+        <v>21</v>
+      </c>
+      <c r="J748">
+        <v>4</v>
+      </c>
+      <c r="K748">
+        <v>3</v>
+      </c>
+      <c r="O748">
+        <v>3</v>
+      </c>
+      <c r="Q748">
+        <v>7</v>
+      </c>
+      <c r="R748">
+        <v>5</v>
+      </c>
+      <c r="S748">
+        <v>5</v>
+      </c>
+      <c r="T748">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T748"/>
+  <dimension ref="A1:T749"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33821,7 +33821,7 @@
     </row>
     <row r="748">
       <c r="A748" s="2">
-        <v>46202</v>
+        <v>45837</v>
       </c>
       <c r="B748" s="2">
         <v>45828</v>
@@ -33869,6 +33869,58 @@
       </c>
       <c r="T748">
         <v>15</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="2">
+        <v>45844</v>
+      </c>
+      <c r="B749" s="2">
+        <v>45842</v>
+      </c>
+      <c r="C749" s="2">
+        <v>45842</v>
+      </c>
+      <c r="D749" s="2">
+        <v>45842</v>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>Ireland Thinks</t>
+        </is>
+      </c>
+      <c r="F749">
+        <v>1532</v>
+      </c>
+      <c r="G749">
+        <v>19</v>
+      </c>
+      <c r="H749">
+        <v>20</v>
+      </c>
+      <c r="I749">
+        <v>20</v>
+      </c>
+      <c r="J749">
+        <v>5</v>
+      </c>
+      <c r="K749">
+        <v>2</v>
+      </c>
+      <c r="O749">
+        <v>3</v>
+      </c>
+      <c r="Q749">
+        <v>8</v>
+      </c>
+      <c r="R749">
+        <v>5</v>
+      </c>
+      <c r="S749">
+        <v>6</v>
+      </c>
+      <c r="T749">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T749"/>
+  <dimension ref="A1:W751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,6 +465,21 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>IND_OTH_IT</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>PREV_INDOTH_II</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>PREV_II</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>OTH_IND</t>
         </is>
       </c>
@@ -499,7 +514,7 @@
       <c r="J2">
         <v>8</v>
       </c>
-      <c r="T2">
+      <c r="W2">
         <v>8</v>
       </c>
     </row>
@@ -533,7 +548,7 @@
       <c r="J3">
         <v>10</v>
       </c>
-      <c r="T3">
+      <c r="W3">
         <v>4</v>
       </c>
     </row>
@@ -567,7 +582,7 @@
       <c r="J4">
         <v>9</v>
       </c>
-      <c r="T4">
+      <c r="W4">
         <v>6</v>
       </c>
     </row>
@@ -604,7 +619,7 @@
       <c r="M5">
         <v>3</v>
       </c>
-      <c r="T5">
+      <c r="W5">
         <v>2</v>
       </c>
     </row>
@@ -638,7 +653,7 @@
       <c r="J6">
         <v>8</v>
       </c>
-      <c r="T6">
+      <c r="W6">
         <v>6</v>
       </c>
     </row>
@@ -675,7 +690,7 @@
       <c r="M7">
         <v>5</v>
       </c>
-      <c r="T7">
+      <c r="W7">
         <v>-1</v>
       </c>
     </row>
@@ -709,7 +724,7 @@
       <c r="J8">
         <v>8</v>
       </c>
-      <c r="T8">
+      <c r="W8">
         <v>8</v>
       </c>
     </row>
@@ -746,7 +761,7 @@
       <c r="M9">
         <v>4</v>
       </c>
-      <c r="T9">
+      <c r="W9">
         <v>4</v>
       </c>
     </row>
@@ -780,7 +795,7 @@
       <c r="J10">
         <v>7</v>
       </c>
-      <c r="T10">
+      <c r="W10">
         <v>7</v>
       </c>
     </row>
@@ -817,7 +832,7 @@
       <c r="M11">
         <v>4</v>
       </c>
-      <c r="T11">
+      <c r="W11">
         <v>3</v>
       </c>
     </row>
@@ -854,7 +869,7 @@
       <c r="M12">
         <v>5</v>
       </c>
-      <c r="T12">
+      <c r="W12">
         <v>4</v>
       </c>
     </row>
@@ -888,7 +903,7 @@
       <c r="J13">
         <v>8</v>
       </c>
-      <c r="T13">
+      <c r="W13">
         <v>5</v>
       </c>
     </row>
@@ -922,7 +937,7 @@
       <c r="J14">
         <v>7</v>
       </c>
-      <c r="T14">
+      <c r="W14">
         <v>6</v>
       </c>
     </row>
@@ -956,7 +971,7 @@
       <c r="J15">
         <v>6</v>
       </c>
-      <c r="T15">
+      <c r="W15">
         <v>7</v>
       </c>
     </row>
@@ -993,7 +1008,7 @@
       <c r="L16">
         <v>5</v>
       </c>
-      <c r="T16">
+      <c r="W16">
         <v>3</v>
       </c>
     </row>
@@ -1027,7 +1042,7 @@
       <c r="J17">
         <v>6</v>
       </c>
-      <c r="T17">
+      <c r="W17">
         <v>9</v>
       </c>
     </row>
@@ -1061,7 +1076,7 @@
       <c r="J18">
         <v>5</v>
       </c>
-      <c r="T18">
+      <c r="W18">
         <v>10</v>
       </c>
     </row>
@@ -1098,7 +1113,7 @@
       <c r="M19">
         <v>5</v>
       </c>
-      <c r="T19">
+      <c r="W19">
         <v>3</v>
       </c>
     </row>
@@ -1138,7 +1153,7 @@
       <c r="M20">
         <v>3</v>
       </c>
-      <c r="T20">
+      <c r="W20">
         <v>5</v>
       </c>
     </row>
@@ -1172,7 +1187,7 @@
       <c r="J21">
         <v>6</v>
       </c>
-      <c r="T21">
+      <c r="W21">
         <v>6</v>
       </c>
     </row>
@@ -1209,7 +1224,7 @@
       <c r="L22">
         <v>3</v>
       </c>
-      <c r="T22">
+      <c r="W22">
         <v>5</v>
       </c>
     </row>
@@ -1246,7 +1261,7 @@
       <c r="L23">
         <v>19</v>
       </c>
-      <c r="T23">
+      <c r="W23">
         <v>5</v>
       </c>
     </row>
@@ -1280,7 +1295,7 @@
       <c r="J24">
         <v>4</v>
       </c>
-      <c r="T24">
+      <c r="W24">
         <v>31</v>
       </c>
     </row>
@@ -1320,7 +1335,7 @@
       <c r="M25">
         <v>4</v>
       </c>
-      <c r="T25">
+      <c r="W25">
         <v>3</v>
       </c>
     </row>
@@ -1357,7 +1372,7 @@
       <c r="L26">
         <v>17</v>
       </c>
-      <c r="T26">
+      <c r="W26">
         <v>4</v>
       </c>
     </row>
@@ -1397,7 +1412,7 @@
       <c r="M27">
         <v>3</v>
       </c>
-      <c r="T27">
+      <c r="W27">
         <v>2</v>
       </c>
     </row>
@@ -1434,7 +1449,7 @@
       <c r="L28">
         <v>15</v>
       </c>
-      <c r="T28">
+      <c r="W28">
         <v>5</v>
       </c>
     </row>
@@ -1474,7 +1489,7 @@
       <c r="M29">
         <v>3</v>
       </c>
-      <c r="T29">
+      <c r="W29">
         <v>2</v>
       </c>
     </row>
@@ -1514,7 +1529,7 @@
       <c r="L30">
         <v>15</v>
       </c>
-      <c r="T30">
+      <c r="W30">
         <v>3</v>
       </c>
     </row>
@@ -1554,7 +1569,7 @@
       <c r="M31">
         <v>2</v>
       </c>
-      <c r="T31">
+      <c r="W31">
         <v>4</v>
       </c>
     </row>
@@ -1594,7 +1609,7 @@
       <c r="L32">
         <v>15</v>
       </c>
-      <c r="T32">
+      <c r="W32">
         <v>4</v>
       </c>
     </row>
@@ -1631,7 +1646,7 @@
       <c r="L33">
         <v>17</v>
       </c>
-      <c r="T33">
+      <c r="W33">
         <v>7</v>
       </c>
     </row>
@@ -1674,7 +1689,7 @@
       <c r="M34">
         <v>2</v>
       </c>
-      <c r="T34">
+      <c r="W34">
         <v>2</v>
       </c>
     </row>
@@ -1708,7 +1723,7 @@
       <c r="J35">
         <v>5</v>
       </c>
-      <c r="T35">
+      <c r="W35">
         <v>21</v>
       </c>
     </row>
@@ -1748,7 +1763,7 @@
       <c r="M36">
         <v>5</v>
       </c>
-      <c r="T36">
+      <c r="W36">
         <v>2</v>
       </c>
     </row>
@@ -1788,7 +1803,7 @@
       <c r="M37">
         <v>5</v>
       </c>
-      <c r="T37">
+      <c r="W37">
         <v>2</v>
       </c>
     </row>
@@ -1828,7 +1843,7 @@
       <c r="M38">
         <v>5</v>
       </c>
-      <c r="T38">
+      <c r="W38">
         <v>3</v>
       </c>
     </row>
@@ -1868,7 +1883,7 @@
       <c r="M39">
         <v>4</v>
       </c>
-      <c r="T39">
+      <c r="W39">
         <v>3</v>
       </c>
     </row>
@@ -1908,7 +1923,7 @@
       <c r="M40">
         <v>4</v>
       </c>
-      <c r="T40">
+      <c r="W40">
         <v>3</v>
       </c>
     </row>
@@ -1948,7 +1963,7 @@
       <c r="M41">
         <v>4</v>
       </c>
-      <c r="T41">
+      <c r="W41">
         <v>5</v>
       </c>
     </row>
@@ -1988,7 +2003,7 @@
       <c r="M42">
         <v>4</v>
       </c>
-      <c r="T42">
+      <c r="W42">
         <v>2</v>
       </c>
     </row>
@@ -2028,7 +2043,7 @@
       <c r="M43">
         <v>3</v>
       </c>
-      <c r="T43">
+      <c r="W43">
         <v>4</v>
       </c>
     </row>
@@ -2068,7 +2083,7 @@
       <c r="M44">
         <v>4</v>
       </c>
-      <c r="T44">
+      <c r="W44">
         <v>3</v>
       </c>
     </row>
@@ -2108,7 +2123,7 @@
       <c r="M45">
         <v>3</v>
       </c>
-      <c r="T45">
+      <c r="W45">
         <v>3</v>
       </c>
     </row>
@@ -2148,7 +2163,7 @@
       <c r="M46">
         <v>3</v>
       </c>
-      <c r="T46">
+      <c r="W46">
         <v>3</v>
       </c>
     </row>
@@ -2188,7 +2203,7 @@
       <c r="M47">
         <v>3</v>
       </c>
-      <c r="T47">
+      <c r="W47">
         <v>2</v>
       </c>
     </row>
@@ -2228,7 +2243,7 @@
       <c r="M48">
         <v>4</v>
       </c>
-      <c r="T48">
+      <c r="W48">
         <v>4</v>
       </c>
     </row>
@@ -2268,7 +2283,7 @@
       <c r="M49">
         <v>3</v>
       </c>
-      <c r="T49">
+      <c r="W49">
         <v>3</v>
       </c>
     </row>
@@ -2308,7 +2323,7 @@
       <c r="M50">
         <v>5</v>
       </c>
-      <c r="T50">
+      <c r="W50">
         <v>3</v>
       </c>
     </row>
@@ -2348,7 +2363,7 @@
       <c r="M51">
         <v>4</v>
       </c>
-      <c r="T51">
+      <c r="W51">
         <v>4</v>
       </c>
     </row>
@@ -2388,7 +2403,7 @@
       <c r="M52">
         <v>6</v>
       </c>
-      <c r="T52">
+      <c r="W52">
         <v>5</v>
       </c>
     </row>
@@ -2428,7 +2443,7 @@
       <c r="M53">
         <v>6</v>
       </c>
-      <c r="T53">
+      <c r="W53">
         <v>5</v>
       </c>
     </row>
@@ -2468,7 +2483,7 @@
       <c r="M54">
         <v>7</v>
       </c>
-      <c r="T54">
+      <c r="W54">
         <v>5</v>
       </c>
     </row>
@@ -2508,7 +2523,7 @@
       <c r="M55">
         <v>6</v>
       </c>
-      <c r="T55">
+      <c r="W55">
         <v>5</v>
       </c>
     </row>
@@ -2551,7 +2566,7 @@
       <c r="M56">
         <v>4</v>
       </c>
-      <c r="T56">
+      <c r="W56">
         <v>2</v>
       </c>
     </row>
@@ -2594,7 +2609,7 @@
       <c r="M57">
         <v>3</v>
       </c>
-      <c r="T57">
+      <c r="W57">
         <v>2</v>
       </c>
     </row>
@@ -2637,7 +2652,7 @@
       <c r="M58">
         <v>4</v>
       </c>
-      <c r="T58">
+      <c r="W58">
         <v>2</v>
       </c>
     </row>
@@ -2680,7 +2695,7 @@
       <c r="M59">
         <v>4</v>
       </c>
-      <c r="T59">
+      <c r="W59">
         <v>3</v>
       </c>
     </row>
@@ -2723,7 +2738,7 @@
       <c r="M60">
         <v>5</v>
       </c>
-      <c r="T60">
+      <c r="W60">
         <v>2</v>
       </c>
     </row>
@@ -2766,7 +2781,7 @@
       <c r="M61">
         <v>5</v>
       </c>
-      <c r="T61">
+      <c r="W61">
         <v>3</v>
       </c>
     </row>
@@ -2809,7 +2824,7 @@
       <c r="M62">
         <v>4</v>
       </c>
-      <c r="T62">
+      <c r="W62">
         <v>3</v>
       </c>
     </row>
@@ -2852,7 +2867,7 @@
       <c r="M63">
         <v>5</v>
       </c>
-      <c r="T63">
+      <c r="W63">
         <v>3</v>
       </c>
     </row>
@@ -2895,7 +2910,7 @@
       <c r="M64">
         <v>4</v>
       </c>
-      <c r="T64">
+      <c r="W64">
         <v>1</v>
       </c>
     </row>
@@ -2938,7 +2953,7 @@
       <c r="M65">
         <v>3</v>
       </c>
-      <c r="T65">
+      <c r="W65">
         <v>2</v>
       </c>
     </row>
@@ -2981,7 +2996,7 @@
       <c r="M66">
         <v>4</v>
       </c>
-      <c r="T66">
+      <c r="W66">
         <v>2</v>
       </c>
     </row>
@@ -3024,7 +3039,7 @@
       <c r="M67">
         <v>4</v>
       </c>
-      <c r="T67">
+      <c r="W67">
         <v>1</v>
       </c>
     </row>
@@ -3067,7 +3082,7 @@
       <c r="M68">
         <v>5</v>
       </c>
-      <c r="T68">
+      <c r="W68">
         <v>2</v>
       </c>
     </row>
@@ -3110,7 +3125,7 @@
       <c r="M69">
         <v>4</v>
       </c>
-      <c r="T69">
+      <c r="W69">
         <v>3</v>
       </c>
     </row>
@@ -3153,7 +3168,7 @@
       <c r="M70">
         <v>3</v>
       </c>
-      <c r="T70">
+      <c r="W70">
         <v>2</v>
       </c>
     </row>
@@ -3196,7 +3211,7 @@
       <c r="M71">
         <v>6</v>
       </c>
-      <c r="T71">
+      <c r="W71">
         <v>3</v>
       </c>
     </row>
@@ -3239,7 +3254,7 @@
       <c r="M72">
         <v>5</v>
       </c>
-      <c r="T72">
+      <c r="W72">
         <v>4</v>
       </c>
     </row>
@@ -3282,7 +3297,7 @@
       <c r="M73">
         <v>5</v>
       </c>
-      <c r="T73">
+      <c r="W73">
         <v>3</v>
       </c>
     </row>
@@ -3325,7 +3340,7 @@
       <c r="M74">
         <v>6</v>
       </c>
-      <c r="T74">
+      <c r="W74">
         <v>3</v>
       </c>
     </row>
@@ -3368,7 +3383,7 @@
       <c r="M75">
         <v>5</v>
       </c>
-      <c r="T75">
+      <c r="W75">
         <v>5</v>
       </c>
     </row>
@@ -3411,7 +3426,7 @@
       <c r="M76">
         <v>6</v>
       </c>
-      <c r="T76">
+      <c r="W76">
         <v>1</v>
       </c>
     </row>
@@ -3454,7 +3469,7 @@
       <c r="M77">
         <v>5</v>
       </c>
-      <c r="T77">
+      <c r="W77">
         <v>3</v>
       </c>
     </row>
@@ -3497,7 +3512,7 @@
       <c r="M78">
         <v>3</v>
       </c>
-      <c r="T78">
+      <c r="W78">
         <v>1</v>
       </c>
     </row>
@@ -3537,7 +3552,7 @@
       <c r="M79">
         <v>5.3</v>
       </c>
-      <c r="T79">
+      <c r="W79">
         <v>9.1</v>
       </c>
     </row>
@@ -3580,7 +3595,7 @@
       <c r="M80">
         <v>4</v>
       </c>
-      <c r="T80">
+      <c r="W80">
         <v>2</v>
       </c>
     </row>
@@ -3623,7 +3638,7 @@
       <c r="M81">
         <v>4</v>
       </c>
-      <c r="T81">
+      <c r="W81">
         <v>4</v>
       </c>
     </row>
@@ -3666,7 +3681,7 @@
       <c r="M82">
         <v>3</v>
       </c>
-      <c r="T82">
+      <c r="W82">
         <v>2</v>
       </c>
     </row>
@@ -3709,7 +3724,7 @@
       <c r="M83">
         <v>4</v>
       </c>
-      <c r="T83">
+      <c r="W83">
         <v>1</v>
       </c>
     </row>
@@ -3752,7 +3767,7 @@
       <c r="M84">
         <v>3</v>
       </c>
-      <c r="T84">
+      <c r="W84">
         <v>2</v>
       </c>
     </row>
@@ -3795,7 +3810,7 @@
       <c r="M85">
         <v>3</v>
       </c>
-      <c r="T85">
+      <c r="W85">
         <v>2</v>
       </c>
     </row>
@@ -3841,7 +3856,7 @@
       <c r="N86">
         <v>2</v>
       </c>
-      <c r="T86">
+      <c r="W86">
         <v>1</v>
       </c>
     </row>
@@ -3887,7 +3902,7 @@
       <c r="N87">
         <v>1</v>
       </c>
-      <c r="T87">
+      <c r="W87">
         <v>2</v>
       </c>
     </row>
@@ -3933,7 +3948,7 @@
       <c r="N88">
         <v>2</v>
       </c>
-      <c r="T88">
+      <c r="W88">
         <v>1</v>
       </c>
     </row>
@@ -3979,7 +3994,7 @@
       <c r="N89">
         <v>1</v>
       </c>
-      <c r="T89">
+      <c r="W89">
         <v>2</v>
       </c>
     </row>
@@ -4025,7 +4040,7 @@
       <c r="N90">
         <v>1</v>
       </c>
-      <c r="T90">
+      <c r="W90">
         <v>3</v>
       </c>
     </row>
@@ -4071,7 +4086,7 @@
       <c r="N91">
         <v>4</v>
       </c>
-      <c r="T91">
+      <c r="W91">
         <v>4</v>
       </c>
     </row>
@@ -4117,7 +4132,7 @@
       <c r="N92">
         <v>2</v>
       </c>
-      <c r="T92">
+      <c r="W92">
         <v>4</v>
       </c>
     </row>
@@ -4163,7 +4178,7 @@
       <c r="N93">
         <v>1</v>
       </c>
-      <c r="T93">
+      <c r="W93">
         <v>2</v>
       </c>
     </row>
@@ -4209,7 +4224,7 @@
       <c r="N94">
         <v>4</v>
       </c>
-      <c r="T94">
+      <c r="W94">
         <v>3</v>
       </c>
     </row>
@@ -4255,7 +4270,7 @@
       <c r="N95">
         <v>2</v>
       </c>
-      <c r="T95">
+      <c r="W95">
         <v>4</v>
       </c>
     </row>
@@ -4301,7 +4316,7 @@
       <c r="N96">
         <v>2</v>
       </c>
-      <c r="T96">
+      <c r="W96">
         <v>5</v>
       </c>
     </row>
@@ -4347,7 +4362,7 @@
       <c r="N97">
         <v>2</v>
       </c>
-      <c r="T97">
+      <c r="W97">
         <v>3</v>
       </c>
     </row>
@@ -4393,7 +4408,7 @@
       <c r="N98">
         <v>1</v>
       </c>
-      <c r="T98">
+      <c r="W98">
         <v>3</v>
       </c>
     </row>
@@ -4439,7 +4454,7 @@
       <c r="N99">
         <v>1</v>
       </c>
-      <c r="T99">
+      <c r="W99">
         <v>2</v>
       </c>
     </row>
@@ -4485,7 +4500,7 @@
       <c r="N100">
         <v>1</v>
       </c>
-      <c r="T100">
+      <c r="W100">
         <v>1</v>
       </c>
     </row>
@@ -4531,7 +4546,7 @@
       <c r="N101">
         <v>3</v>
       </c>
-      <c r="T101">
+      <c r="W101">
         <v>9</v>
       </c>
     </row>
@@ -4577,7 +4592,7 @@
       <c r="N102">
         <v>1</v>
       </c>
-      <c r="T102">
+      <c r="W102">
         <v>1</v>
       </c>
     </row>
@@ -4626,7 +4641,7 @@
       <c r="N103">
         <v>3</v>
       </c>
-      <c r="T103">
+      <c r="W103">
         <v>2</v>
       </c>
     </row>
@@ -4672,7 +4687,7 @@
       <c r="N104">
         <v>2</v>
       </c>
-      <c r="T104">
+      <c r="W104">
         <v>1</v>
       </c>
     </row>
@@ -4718,7 +4733,7 @@
       <c r="N105">
         <v>2</v>
       </c>
-      <c r="T105">
+      <c r="W105">
         <v>2</v>
       </c>
     </row>
@@ -4767,7 +4782,7 @@
       <c r="N106">
         <v>2</v>
       </c>
-      <c r="T106">
+      <c r="W106">
         <v>3</v>
       </c>
     </row>
@@ -4813,7 +4828,7 @@
       <c r="N107">
         <v>1</v>
       </c>
-      <c r="T107">
+      <c r="W107">
         <v>4</v>
       </c>
     </row>
@@ -4859,7 +4874,7 @@
       <c r="N108">
         <v>1</v>
       </c>
-      <c r="T108">
+      <c r="W108">
         <v>4</v>
       </c>
     </row>
@@ -4905,7 +4920,7 @@
       <c r="N109">
         <v>1.5</v>
       </c>
-      <c r="T109">
+      <c r="W109">
         <v>2.5</v>
       </c>
     </row>
@@ -4954,7 +4969,7 @@
       <c r="N110">
         <v>2</v>
       </c>
-      <c r="T110">
+      <c r="W110">
         <v>2</v>
       </c>
     </row>
@@ -5003,7 +5018,7 @@
       <c r="N111">
         <v>1</v>
       </c>
-      <c r="T111">
+      <c r="W111">
         <v>4</v>
       </c>
     </row>
@@ -5052,7 +5067,7 @@
       <c r="N112">
         <v>1</v>
       </c>
-      <c r="T112">
+      <c r="W112">
         <v>1</v>
       </c>
     </row>
@@ -5098,7 +5113,7 @@
       <c r="N113">
         <v>2</v>
       </c>
-      <c r="T113">
+      <c r="W113">
         <v>5</v>
       </c>
     </row>
@@ -5141,7 +5156,7 @@
       <c r="N114">
         <v>2</v>
       </c>
-      <c r="T114">
+      <c r="W114">
         <v>8</v>
       </c>
     </row>
@@ -5190,7 +5205,7 @@
       <c r="N115">
         <v>1</v>
       </c>
-      <c r="T115">
+      <c r="W115">
         <v>1</v>
       </c>
     </row>
@@ -5236,7 +5251,7 @@
       <c r="N116">
         <v>1</v>
       </c>
-      <c r="T116">
+      <c r="W116">
         <v>4</v>
       </c>
     </row>
@@ -5285,7 +5300,7 @@
       <c r="N117">
         <v>1</v>
       </c>
-      <c r="T117">
+      <c r="W117">
         <v>0</v>
       </c>
     </row>
@@ -5328,7 +5343,7 @@
       <c r="N118">
         <v>5</v>
       </c>
-      <c r="T118">
+      <c r="W118">
         <v>4</v>
       </c>
     </row>
@@ -5374,7 +5389,7 @@
       <c r="N119">
         <v>2</v>
       </c>
-      <c r="T119">
+      <c r="W119">
         <v>2</v>
       </c>
     </row>
@@ -5414,7 +5429,7 @@
       <c r="L120">
         <v>5</v>
       </c>
-      <c r="T120">
+      <c r="W120">
         <v>6</v>
       </c>
     </row>
@@ -5463,7 +5478,7 @@
       <c r="N121">
         <v>2</v>
       </c>
-      <c r="T121">
+      <c r="W121">
         <v>1</v>
       </c>
     </row>
@@ -5503,7 +5518,7 @@
       <c r="L122">
         <v>4</v>
       </c>
-      <c r="T122">
+      <c r="W122">
         <v>7</v>
       </c>
     </row>
@@ -5552,7 +5567,7 @@
       <c r="N123">
         <v>2</v>
       </c>
-      <c r="T123">
+      <c r="W123">
         <v>1</v>
       </c>
     </row>
@@ -5595,7 +5610,7 @@
       <c r="N124">
         <v>1</v>
       </c>
-      <c r="T124">
+      <c r="W124">
         <v>4</v>
       </c>
     </row>
@@ -5644,7 +5659,7 @@
       <c r="N125">
         <v>1</v>
       </c>
-      <c r="T125">
+      <c r="W125">
         <v>4</v>
       </c>
     </row>
@@ -5693,7 +5708,7 @@
       <c r="N126">
         <v>1</v>
       </c>
-      <c r="T126">
+      <c r="W126">
         <v>3</v>
       </c>
     </row>
@@ -5727,7 +5742,7 @@
       <c r="J127">
         <v>12</v>
       </c>
-      <c r="T127">
+      <c r="W127">
         <v>16</v>
       </c>
     </row>
@@ -5776,7 +5791,7 @@
       <c r="N128">
         <v>1</v>
       </c>
-      <c r="T128">
+      <c r="W128">
         <v>2</v>
       </c>
     </row>
@@ -5822,7 +5837,7 @@
       <c r="N129">
         <v>2</v>
       </c>
-      <c r="T129">
+      <c r="W129">
         <v>3</v>
       </c>
     </row>
@@ -5871,7 +5886,7 @@
       <c r="N130">
         <v>2</v>
       </c>
-      <c r="T130">
+      <c r="W130">
         <v>4</v>
       </c>
     </row>
@@ -5914,7 +5929,7 @@
       <c r="N131">
         <v>2</v>
       </c>
-      <c r="T131">
+      <c r="W131">
         <v>6</v>
       </c>
     </row>
@@ -5963,7 +5978,7 @@
       <c r="N132">
         <v>2</v>
       </c>
-      <c r="T132">
+      <c r="W132">
         <v>2</v>
       </c>
     </row>
@@ -6012,7 +6027,7 @@
       <c r="N133">
         <v>1</v>
       </c>
-      <c r="T133">
+      <c r="W133">
         <v>2</v>
       </c>
     </row>
@@ -6055,7 +6070,7 @@
       <c r="N134">
         <v>2</v>
       </c>
-      <c r="T134">
+      <c r="W134">
         <v>5</v>
       </c>
     </row>
@@ -6104,7 +6119,7 @@
       <c r="N135">
         <v>1</v>
       </c>
-      <c r="T135">
+      <c r="W135">
         <v>4</v>
       </c>
     </row>
@@ -6147,7 +6162,7 @@
       <c r="N136">
         <v>2</v>
       </c>
-      <c r="T136">
+      <c r="W136">
         <v>4</v>
       </c>
     </row>
@@ -6196,7 +6211,7 @@
       <c r="N137">
         <v>1</v>
       </c>
-      <c r="T137">
+      <c r="W137">
         <v>3</v>
       </c>
     </row>
@@ -6239,7 +6254,7 @@
       <c r="N138">
         <v>2</v>
       </c>
-      <c r="T138">
+      <c r="W138">
         <v>4</v>
       </c>
     </row>
@@ -6285,7 +6300,7 @@
       <c r="N139">
         <v>2</v>
       </c>
-      <c r="T139">
+      <c r="W139">
         <v>5</v>
       </c>
     </row>
@@ -6334,7 +6349,7 @@
       <c r="N140">
         <v>2</v>
       </c>
-      <c r="T140">
+      <c r="W140">
         <v>4</v>
       </c>
     </row>
@@ -6377,7 +6392,7 @@
       <c r="N141">
         <v>2</v>
       </c>
-      <c r="T141">
+      <c r="W141">
         <v>9</v>
       </c>
     </row>
@@ -6423,7 +6438,7 @@
       <c r="N142">
         <v>2</v>
       </c>
-      <c r="T142">
+      <c r="W142">
         <v>6</v>
       </c>
     </row>
@@ -6472,7 +6487,7 @@
       <c r="N143">
         <v>2</v>
       </c>
-      <c r="T143">
+      <c r="W143">
         <v>7</v>
       </c>
     </row>
@@ -6515,7 +6530,7 @@
       <c r="N144">
         <v>2</v>
       </c>
-      <c r="T144">
+      <c r="W144">
         <v>8</v>
       </c>
     </row>
@@ -6564,7 +6579,7 @@
       <c r="N145">
         <v>2</v>
       </c>
-      <c r="T145">
+      <c r="W145">
         <v>5</v>
       </c>
     </row>
@@ -6607,7 +6622,7 @@
       <c r="N146">
         <v>3</v>
       </c>
-      <c r="T146">
+      <c r="W146">
         <v>11</v>
       </c>
     </row>
@@ -6656,7 +6671,7 @@
       <c r="N147">
         <v>1</v>
       </c>
-      <c r="T147">
+      <c r="W147">
         <v>3</v>
       </c>
     </row>
@@ -6702,7 +6717,7 @@
       <c r="N148">
         <v>2</v>
       </c>
-      <c r="T148">
+      <c r="W148">
         <v>2</v>
       </c>
     </row>
@@ -6751,7 +6766,7 @@
       <c r="N149">
         <v>1</v>
       </c>
-      <c r="T149">
+      <c r="W149">
         <v>3</v>
       </c>
     </row>
@@ -6800,7 +6815,7 @@
       <c r="N150">
         <v>1</v>
       </c>
-      <c r="T150">
+      <c r="W150">
         <v>3</v>
       </c>
     </row>
@@ -6843,7 +6858,7 @@
       <c r="L151">
         <v>3</v>
       </c>
-      <c r="T151">
+      <c r="W151">
         <v>5</v>
       </c>
     </row>
@@ -6892,7 +6907,7 @@
       <c r="N152">
         <v>1</v>
       </c>
-      <c r="T152">
+      <c r="W152">
         <v>1</v>
       </c>
     </row>
@@ -6941,7 +6956,7 @@
       <c r="N153">
         <v>1</v>
       </c>
-      <c r="T153">
+      <c r="W153">
         <v>3</v>
       </c>
     </row>
@@ -6987,7 +7002,7 @@
       <c r="N154">
         <v>1</v>
       </c>
-      <c r="T154">
+      <c r="W154">
         <v>2</v>
       </c>
     </row>
@@ -7021,7 +7036,7 @@
       <c r="J155">
         <v>13</v>
       </c>
-      <c r="T155">
+      <c r="W155">
         <v>11</v>
       </c>
     </row>
@@ -7067,7 +7082,7 @@
       <c r="N156">
         <v>2</v>
       </c>
-      <c r="T156">
+      <c r="W156">
         <v>3</v>
       </c>
     </row>
@@ -7113,7 +7128,7 @@
       <c r="N157">
         <v>1</v>
       </c>
-      <c r="T157">
+      <c r="W157">
         <v>2</v>
       </c>
     </row>
@@ -7159,7 +7174,7 @@
       <c r="N158">
         <v>1</v>
       </c>
-      <c r="T158">
+      <c r="W158">
         <v>1</v>
       </c>
     </row>
@@ -7208,7 +7223,7 @@
       <c r="N159">
         <v>2</v>
       </c>
-      <c r="T159">
+      <c r="W159">
         <v>3</v>
       </c>
     </row>
@@ -7254,7 +7269,7 @@
       <c r="N160">
         <v>1</v>
       </c>
-      <c r="T160">
+      <c r="W160">
         <v>2</v>
       </c>
     </row>
@@ -7303,7 +7318,7 @@
       <c r="N161">
         <v>1</v>
       </c>
-      <c r="T161">
+      <c r="W161">
         <v>2</v>
       </c>
     </row>
@@ -7349,7 +7364,7 @@
       <c r="M162">
         <v>1</v>
       </c>
-      <c r="T162">
+      <c r="W162">
         <v>4</v>
       </c>
     </row>
@@ -7395,7 +7410,7 @@
       <c r="N163">
         <v>2</v>
       </c>
-      <c r="T163">
+      <c r="W163">
         <v>2</v>
       </c>
     </row>
@@ -7441,7 +7456,7 @@
       <c r="N164">
         <v>1</v>
       </c>
-      <c r="T164">
+      <c r="W164">
         <v>4</v>
       </c>
     </row>
@@ -7487,7 +7502,7 @@
       <c r="M165">
         <v>1</v>
       </c>
-      <c r="T165">
+      <c r="W165">
         <v>3</v>
       </c>
     </row>
@@ -7533,7 +7548,7 @@
       <c r="M166">
         <v>1</v>
       </c>
-      <c r="T166">
+      <c r="W166">
         <v>4</v>
       </c>
     </row>
@@ -7576,7 +7591,7 @@
       <c r="L167">
         <v>4</v>
       </c>
-      <c r="T167">
+      <c r="W167">
         <v>4</v>
       </c>
     </row>
@@ -7622,7 +7637,7 @@
       <c r="M168">
         <v>1</v>
       </c>
-      <c r="T168">
+      <c r="W168">
         <v>3</v>
       </c>
     </row>
@@ -7665,7 +7680,7 @@
       <c r="L169">
         <v>5</v>
       </c>
-      <c r="T169">
+      <c r="W169">
         <v>5</v>
       </c>
     </row>
@@ -7711,7 +7726,7 @@
       <c r="M170">
         <v>1</v>
       </c>
-      <c r="T170">
+      <c r="W170">
         <v>3</v>
       </c>
     </row>
@@ -7757,7 +7772,7 @@
       <c r="M171">
         <v>1</v>
       </c>
-      <c r="T171">
+      <c r="W171">
         <v>4</v>
       </c>
     </row>
@@ -7800,7 +7815,7 @@
       <c r="L172">
         <v>4</v>
       </c>
-      <c r="T172">
+      <c r="W172">
         <v>6</v>
       </c>
     </row>
@@ -7843,7 +7858,7 @@
       <c r="L173">
         <v>3</v>
       </c>
-      <c r="T173">
+      <c r="W173">
         <v>5</v>
       </c>
     </row>
@@ -7886,7 +7901,7 @@
       <c r="L174">
         <v>2</v>
       </c>
-      <c r="T174">
+      <c r="W174">
         <v>4</v>
       </c>
     </row>
@@ -7929,7 +7944,7 @@
       <c r="L175">
         <v>4</v>
       </c>
-      <c r="T175">
+      <c r="W175">
         <v>6</v>
       </c>
     </row>
@@ -7975,7 +7990,7 @@
       <c r="M176">
         <v>1</v>
       </c>
-      <c r="T176">
+      <c r="W176">
         <v>3</v>
       </c>
     </row>
@@ -8021,7 +8036,7 @@
       <c r="M177">
         <v>1</v>
       </c>
-      <c r="T177">
+      <c r="W177">
         <v>9</v>
       </c>
     </row>
@@ -8067,7 +8082,7 @@
       <c r="M178">
         <v>1</v>
       </c>
-      <c r="T178">
+      <c r="W178">
         <v>5</v>
       </c>
     </row>
@@ -8110,7 +8125,7 @@
       <c r="L179">
         <v>3</v>
       </c>
-      <c r="T179">
+      <c r="W179">
         <v>7</v>
       </c>
     </row>
@@ -8153,7 +8168,7 @@
       <c r="L180">
         <v>3</v>
       </c>
-      <c r="T180">
+      <c r="W180">
         <v>4</v>
       </c>
     </row>
@@ -8196,7 +8211,7 @@
       <c r="L181">
         <v>4</v>
       </c>
-      <c r="T181">
+      <c r="W181">
         <v>9</v>
       </c>
     </row>
@@ -8242,7 +8257,7 @@
       <c r="M182">
         <v>1</v>
       </c>
-      <c r="T182">
+      <c r="W182">
         <v>5</v>
       </c>
     </row>
@@ -8285,7 +8300,7 @@
       <c r="L183">
         <v>2</v>
       </c>
-      <c r="T183">
+      <c r="W183">
         <v>6</v>
       </c>
     </row>
@@ -8328,7 +8343,7 @@
       <c r="L184">
         <v>4</v>
       </c>
-      <c r="T184">
+      <c r="W184">
         <v>8</v>
       </c>
     </row>
@@ -8374,7 +8389,7 @@
       <c r="M185">
         <v>1</v>
       </c>
-      <c r="T185">
+      <c r="W185">
         <v>1</v>
       </c>
     </row>
@@ -8414,7 +8429,7 @@
       <c r="L186">
         <v>7</v>
       </c>
-      <c r="T186">
+      <c r="W186">
         <v>10</v>
       </c>
     </row>
@@ -8457,7 +8472,7 @@
       <c r="L187">
         <v>3</v>
       </c>
-      <c r="T187">
+      <c r="W187">
         <v>9</v>
       </c>
     </row>
@@ -8503,7 +8518,7 @@
       <c r="M188">
         <v>1</v>
       </c>
-      <c r="T188">
+      <c r="W188">
         <v>3</v>
       </c>
     </row>
@@ -8546,7 +8561,7 @@
       <c r="L189">
         <v>5</v>
       </c>
-      <c r="T189">
+      <c r="W189">
         <v>2</v>
       </c>
     </row>
@@ -8589,7 +8604,7 @@
       <c r="L190">
         <v>3</v>
       </c>
-      <c r="T190">
+      <c r="W190">
         <v>11</v>
       </c>
     </row>
@@ -8632,7 +8647,7 @@
       <c r="L191">
         <v>4</v>
       </c>
-      <c r="T191">
+      <c r="W191">
         <v>9</v>
       </c>
     </row>
@@ -8675,7 +8690,7 @@
       <c r="L192">
         <v>5</v>
       </c>
-      <c r="T192">
+      <c r="W192">
         <v>4</v>
       </c>
     </row>
@@ -8718,7 +8733,7 @@
       <c r="L193">
         <v>4</v>
       </c>
-      <c r="T193">
+      <c r="W193">
         <v>12</v>
       </c>
     </row>
@@ -8761,7 +8776,7 @@
       <c r="L194">
         <v>2</v>
       </c>
-      <c r="T194">
+      <c r="W194">
         <v>9</v>
       </c>
     </row>
@@ -8804,7 +8819,7 @@
       <c r="L195">
         <v>3</v>
       </c>
-      <c r="T195">
+      <c r="W195">
         <v>9</v>
       </c>
     </row>
@@ -8847,7 +8862,7 @@
       <c r="L196">
         <v>3</v>
       </c>
-      <c r="T196">
+      <c r="W196">
         <v>9</v>
       </c>
     </row>
@@ -8890,7 +8905,7 @@
       <c r="L197">
         <v>5</v>
       </c>
-      <c r="T197">
+      <c r="W197">
         <v>10</v>
       </c>
     </row>
@@ -8933,7 +8948,7 @@
       <c r="L198">
         <v>3</v>
       </c>
-      <c r="T198">
+      <c r="W198">
         <v>8</v>
       </c>
     </row>
@@ -8976,7 +8991,7 @@
       <c r="L199">
         <v>2</v>
       </c>
-      <c r="T199">
+      <c r="W199">
         <v>7</v>
       </c>
     </row>
@@ -9019,7 +9034,7 @@
       <c r="L200">
         <v>2</v>
       </c>
-      <c r="T200">
+      <c r="W200">
         <v>10</v>
       </c>
     </row>
@@ -9062,7 +9077,7 @@
       <c r="L201">
         <v>5</v>
       </c>
-      <c r="T201">
+      <c r="W201">
         <v>7</v>
       </c>
     </row>
@@ -9105,7 +9120,7 @@
       <c r="L202">
         <v>3</v>
       </c>
-      <c r="T202">
+      <c r="W202">
         <v>16</v>
       </c>
     </row>
@@ -9148,7 +9163,7 @@
       <c r="L203">
         <v>5</v>
       </c>
-      <c r="T203">
+      <c r="W203">
         <v>9</v>
       </c>
     </row>
@@ -9191,7 +9206,7 @@
       <c r="L204">
         <v>6</v>
       </c>
-      <c r="T204">
+      <c r="W204">
         <v>9</v>
       </c>
     </row>
@@ -9234,7 +9249,7 @@
       <c r="L205">
         <v>4</v>
       </c>
-      <c r="T205">
+      <c r="W205">
         <v>9</v>
       </c>
     </row>
@@ -9277,7 +9292,7 @@
       <c r="L206">
         <v>4</v>
       </c>
-      <c r="T206">
+      <c r="W206">
         <v>9</v>
       </c>
     </row>
@@ -9320,7 +9335,7 @@
       <c r="L207">
         <v>4</v>
       </c>
-      <c r="T207">
+      <c r="W207">
         <v>11</v>
       </c>
     </row>
@@ -9363,7 +9378,7 @@
       <c r="L208">
         <v>5</v>
       </c>
-      <c r="T208">
+      <c r="W208">
         <v>10</v>
       </c>
     </row>
@@ -9406,7 +9421,7 @@
       <c r="L209">
         <v>3</v>
       </c>
-      <c r="T209">
+      <c r="W209">
         <v>11</v>
       </c>
     </row>
@@ -9449,7 +9464,7 @@
       <c r="L210">
         <v>4</v>
       </c>
-      <c r="T210">
+      <c r="W210">
         <v>12</v>
       </c>
     </row>
@@ -9492,7 +9507,7 @@
       <c r="L211">
         <v>3</v>
       </c>
-      <c r="T211">
+      <c r="W211">
         <v>9</v>
       </c>
     </row>
@@ -9535,7 +9550,7 @@
       <c r="L212">
         <v>3</v>
       </c>
-      <c r="T212">
+      <c r="W212">
         <v>12</v>
       </c>
     </row>
@@ -9578,7 +9593,7 @@
       <c r="L213">
         <v>4</v>
       </c>
-      <c r="T213">
+      <c r="W213">
         <v>10</v>
       </c>
     </row>
@@ -9621,7 +9636,7 @@
       <c r="L214">
         <v>4</v>
       </c>
-      <c r="T214">
+      <c r="W214">
         <v>9</v>
       </c>
     </row>
@@ -9664,7 +9679,7 @@
       <c r="L215">
         <v>3</v>
       </c>
-      <c r="T215">
+      <c r="W215">
         <v>9</v>
       </c>
     </row>
@@ -9707,7 +9722,7 @@
       <c r="L216">
         <v>4</v>
       </c>
-      <c r="T216">
+      <c r="W216">
         <v>8</v>
       </c>
     </row>
@@ -9750,7 +9765,7 @@
       <c r="L217">
         <v>4</v>
       </c>
-      <c r="T217">
+      <c r="W217">
         <v>8</v>
       </c>
     </row>
@@ -9793,7 +9808,7 @@
       <c r="L218">
         <v>3</v>
       </c>
-      <c r="T218">
+      <c r="W218">
         <v>9</v>
       </c>
     </row>
@@ -9836,7 +9851,7 @@
       <c r="L219">
         <v>3</v>
       </c>
-      <c r="T219">
+      <c r="W219">
         <v>12</v>
       </c>
     </row>
@@ -9879,7 +9894,7 @@
       <c r="L220">
         <v>3</v>
       </c>
-      <c r="T220">
+      <c r="W220">
         <v>9</v>
       </c>
     </row>
@@ -9922,7 +9937,7 @@
       <c r="L221">
         <v>4</v>
       </c>
-      <c r="T221">
+      <c r="W221">
         <v>12</v>
       </c>
     </row>
@@ -9965,7 +9980,7 @@
       <c r="L222">
         <v>4</v>
       </c>
-      <c r="T222">
+      <c r="W222">
         <v>12</v>
       </c>
     </row>
@@ -10008,7 +10023,7 @@
       <c r="L223">
         <v>4</v>
       </c>
-      <c r="T223">
+      <c r="W223">
         <v>10</v>
       </c>
     </row>
@@ -10051,7 +10066,7 @@
       <c r="L224">
         <v>4</v>
       </c>
-      <c r="T224">
+      <c r="W224">
         <v>10</v>
       </c>
     </row>
@@ -10094,7 +10109,7 @@
       <c r="L225">
         <v>5</v>
       </c>
-      <c r="T225">
+      <c r="W225">
         <v>6</v>
       </c>
     </row>
@@ -10137,7 +10152,7 @@
       <c r="L226">
         <v>4</v>
       </c>
-      <c r="T226">
+      <c r="W226">
         <v>8</v>
       </c>
     </row>
@@ -10180,7 +10195,7 @@
       <c r="L227">
         <v>4</v>
       </c>
-      <c r="T227">
+      <c r="W227">
         <v>9</v>
       </c>
     </row>
@@ -10223,7 +10238,7 @@
       <c r="L228">
         <v>3</v>
       </c>
-      <c r="T228">
+      <c r="W228">
         <v>8</v>
       </c>
     </row>
@@ -10266,7 +10281,7 @@
       <c r="L229">
         <v>3</v>
       </c>
-      <c r="T229">
+      <c r="W229">
         <v>7</v>
       </c>
     </row>
@@ -10309,7 +10324,7 @@
       <c r="L230">
         <v>3</v>
       </c>
-      <c r="T230">
+      <c r="W230">
         <v>8</v>
       </c>
     </row>
@@ -10352,7 +10367,7 @@
       <c r="L231">
         <v>4</v>
       </c>
-      <c r="T231">
+      <c r="W231">
         <v>9</v>
       </c>
     </row>
@@ -10395,7 +10410,7 @@
       <c r="L232">
         <v>4</v>
       </c>
-      <c r="T232">
+      <c r="W232">
         <v>9</v>
       </c>
     </row>
@@ -10438,7 +10453,7 @@
       <c r="L233">
         <v>4</v>
       </c>
-      <c r="T233">
+      <c r="W233">
         <v>9</v>
       </c>
     </row>
@@ -10481,7 +10496,7 @@
       <c r="L234">
         <v>3</v>
       </c>
-      <c r="T234">
+      <c r="W234">
         <v>9</v>
       </c>
     </row>
@@ -10524,7 +10539,7 @@
       <c r="L235">
         <v>3</v>
       </c>
-      <c r="T235">
+      <c r="W235">
         <v>8</v>
       </c>
     </row>
@@ -10567,7 +10582,7 @@
       <c r="L236">
         <v>3</v>
       </c>
-      <c r="T236">
+      <c r="W236">
         <v>9</v>
       </c>
     </row>
@@ -10610,7 +10625,7 @@
       <c r="L237">
         <v>2</v>
       </c>
-      <c r="T237">
+      <c r="W237">
         <v>7</v>
       </c>
     </row>
@@ -10653,7 +10668,7 @@
       <c r="L238">
         <v>4</v>
       </c>
-      <c r="T238">
+      <c r="W238">
         <v>8</v>
       </c>
     </row>
@@ -10696,7 +10711,7 @@
       <c r="L239">
         <v>4</v>
       </c>
-      <c r="T239">
+      <c r="W239">
         <v>9</v>
       </c>
     </row>
@@ -10739,7 +10754,7 @@
       <c r="L240">
         <v>4</v>
       </c>
-      <c r="T240">
+      <c r="W240">
         <v>10</v>
       </c>
     </row>
@@ -10782,7 +10797,7 @@
       <c r="L241">
         <v>4</v>
       </c>
-      <c r="T241">
+      <c r="W241">
         <v>6</v>
       </c>
     </row>
@@ -10825,7 +10840,7 @@
       <c r="L242">
         <v>3</v>
       </c>
-      <c r="T242">
+      <c r="W242">
         <v>7</v>
       </c>
     </row>
@@ -10868,7 +10883,7 @@
       <c r="L243">
         <v>4</v>
       </c>
-      <c r="T243">
+      <c r="W243">
         <v>7</v>
       </c>
     </row>
@@ -10908,7 +10923,7 @@
       <c r="K244">
         <v>4</v>
       </c>
-      <c r="T244">
+      <c r="W244">
         <v>10</v>
       </c>
     </row>
@@ -10951,7 +10966,7 @@
       <c r="L245">
         <v>3</v>
       </c>
-      <c r="T245">
+      <c r="W245">
         <v>8</v>
       </c>
     </row>
@@ -10994,7 +11009,7 @@
       <c r="L246">
         <v>3</v>
       </c>
-      <c r="T246">
+      <c r="W246">
         <v>8</v>
       </c>
     </row>
@@ -11037,7 +11052,7 @@
       <c r="L247">
         <v>5</v>
       </c>
-      <c r="T247">
+      <c r="W247">
         <v>10</v>
       </c>
     </row>
@@ -11077,7 +11092,7 @@
       <c r="K248">
         <v>7</v>
       </c>
-      <c r="T248">
+      <c r="W248">
         <v>9</v>
       </c>
     </row>
@@ -11120,7 +11135,7 @@
       <c r="L249">
         <v>1</v>
       </c>
-      <c r="T249">
+      <c r="W249">
         <v>8</v>
       </c>
     </row>
@@ -11163,7 +11178,7 @@
       <c r="L250">
         <v>4</v>
       </c>
-      <c r="T250">
+      <c r="W250">
         <v>7</v>
       </c>
     </row>
@@ -11206,7 +11221,7 @@
       <c r="L251">
         <v>3</v>
       </c>
-      <c r="T251">
+      <c r="W251">
         <v>8</v>
       </c>
     </row>
@@ -11249,7 +11264,7 @@
       <c r="L252">
         <v>3</v>
       </c>
-      <c r="T252">
+      <c r="W252">
         <v>7</v>
       </c>
     </row>
@@ -11292,7 +11307,7 @@
       <c r="L253">
         <v>4</v>
       </c>
-      <c r="T253">
+      <c r="W253">
         <v>9</v>
       </c>
     </row>
@@ -11335,7 +11350,7 @@
       <c r="L254">
         <v>3</v>
       </c>
-      <c r="T254">
+      <c r="W254">
         <v>6</v>
       </c>
     </row>
@@ -11378,7 +11393,7 @@
       <c r="L255">
         <v>3</v>
       </c>
-      <c r="T255">
+      <c r="W255">
         <v>8</v>
       </c>
     </row>
@@ -11421,7 +11436,7 @@
       <c r="L256">
         <v>2</v>
       </c>
-      <c r="T256">
+      <c r="W256">
         <v>6</v>
       </c>
     </row>
@@ -11464,7 +11479,7 @@
       <c r="L257">
         <v>3</v>
       </c>
-      <c r="T257">
+      <c r="W257">
         <v>8</v>
       </c>
     </row>
@@ -11507,7 +11522,7 @@
       <c r="L258">
         <v>3</v>
       </c>
-      <c r="T258">
+      <c r="W258">
         <v>8</v>
       </c>
     </row>
@@ -11550,7 +11565,7 @@
       <c r="L259">
         <v>2</v>
       </c>
-      <c r="T259">
+      <c r="W259">
         <v>6</v>
       </c>
     </row>
@@ -11593,7 +11608,7 @@
       <c r="L260">
         <v>3</v>
       </c>
-      <c r="T260">
+      <c r="W260">
         <v>9</v>
       </c>
     </row>
@@ -11636,7 +11651,7 @@
       <c r="L261">
         <v>2</v>
       </c>
-      <c r="T261">
+      <c r="W261">
         <v>5</v>
       </c>
     </row>
@@ -11679,7 +11694,7 @@
       <c r="L262">
         <v>3</v>
       </c>
-      <c r="T262">
+      <c r="W262">
         <v>7</v>
       </c>
     </row>
@@ -11722,7 +11737,7 @@
       <c r="L263">
         <v>2</v>
       </c>
-      <c r="T263">
+      <c r="W263">
         <v>7</v>
       </c>
     </row>
@@ -11765,7 +11780,7 @@
       <c r="L264">
         <v>2</v>
       </c>
-      <c r="T264">
+      <c r="W264">
         <v>7</v>
       </c>
     </row>
@@ -11808,7 +11823,7 @@
       <c r="L265">
         <v>2</v>
       </c>
-      <c r="T265">
+      <c r="W265">
         <v>7</v>
       </c>
     </row>
@@ -11851,7 +11866,7 @@
       <c r="L266">
         <v>2</v>
       </c>
-      <c r="T266">
+      <c r="W266">
         <v>6</v>
       </c>
     </row>
@@ -11894,7 +11909,7 @@
       <c r="L267">
         <v>3</v>
       </c>
-      <c r="T267">
+      <c r="W267">
         <v>6</v>
       </c>
     </row>
@@ -11937,7 +11952,7 @@
       <c r="L268">
         <v>2</v>
       </c>
-      <c r="T268">
+      <c r="W268">
         <v>4</v>
       </c>
     </row>
@@ -11980,7 +11995,7 @@
       <c r="L269">
         <v>2</v>
       </c>
-      <c r="T269">
+      <c r="W269">
         <v>5</v>
       </c>
     </row>
@@ -12023,7 +12038,7 @@
       <c r="L270">
         <v>1</v>
       </c>
-      <c r="T270">
+      <c r="W270">
         <v>6</v>
       </c>
     </row>
@@ -12066,7 +12081,7 @@
       <c r="L271">
         <v>2</v>
       </c>
-      <c r="T271">
+      <c r="W271">
         <v>6</v>
       </c>
     </row>
@@ -12109,7 +12124,7 @@
       <c r="L272">
         <v>1</v>
       </c>
-      <c r="T272">
+      <c r="W272">
         <v>6</v>
       </c>
     </row>
@@ -12152,7 +12167,7 @@
       <c r="L273">
         <v>2</v>
       </c>
-      <c r="T273">
+      <c r="W273">
         <v>6</v>
       </c>
     </row>
@@ -12195,7 +12210,7 @@
       <c r="L274">
         <v>1</v>
       </c>
-      <c r="T274">
+      <c r="W274">
         <v>6</v>
       </c>
     </row>
@@ -12238,7 +12253,7 @@
       <c r="L275">
         <v>6</v>
       </c>
-      <c r="T275">
+      <c r="W275">
         <v>3</v>
       </c>
     </row>
@@ -12281,7 +12296,7 @@
       <c r="L276">
         <v>3</v>
       </c>
-      <c r="T276">
+      <c r="W276">
         <v>8</v>
       </c>
     </row>
@@ -12324,7 +12339,7 @@
       <c r="L277">
         <v>2</v>
       </c>
-      <c r="T277">
+      <c r="W277">
         <v>8</v>
       </c>
     </row>
@@ -12364,7 +12379,7 @@
       <c r="K278">
         <v>4</v>
       </c>
-      <c r="T278">
+      <c r="W278">
         <v>13</v>
       </c>
     </row>
@@ -12404,7 +12419,7 @@
       <c r="K279">
         <v>5</v>
       </c>
-      <c r="T279">
+      <c r="W279">
         <v>8</v>
       </c>
     </row>
@@ -12444,7 +12459,7 @@
       <c r="K280">
         <v>8</v>
       </c>
-      <c r="T280">
+      <c r="W280">
         <v>8</v>
       </c>
     </row>
@@ -12484,7 +12499,7 @@
       <c r="K281">
         <v>4</v>
       </c>
-      <c r="T281">
+      <c r="W281">
         <v>9</v>
       </c>
     </row>
@@ -12524,7 +12539,7 @@
       <c r="K282">
         <v>5</v>
       </c>
-      <c r="T282">
+      <c r="W282">
         <v>11</v>
       </c>
     </row>
@@ -12564,7 +12579,7 @@
       <c r="K283">
         <v>6</v>
       </c>
-      <c r="T283">
+      <c r="W283">
         <v>8</v>
       </c>
     </row>
@@ -12604,7 +12619,7 @@
       <c r="K284">
         <v>7</v>
       </c>
-      <c r="T284">
+      <c r="W284">
         <v>10</v>
       </c>
     </row>
@@ -12644,7 +12659,7 @@
       <c r="K285">
         <v>7</v>
       </c>
-      <c r="T285">
+      <c r="W285">
         <v>10</v>
       </c>
     </row>
@@ -12684,7 +12699,7 @@
       <c r="K286">
         <v>3</v>
       </c>
-      <c r="T286">
+      <c r="W286">
         <v>9</v>
       </c>
     </row>
@@ -12724,7 +12739,7 @@
       <c r="K287">
         <v>5</v>
       </c>
-      <c r="T287">
+      <c r="W287">
         <v>12</v>
       </c>
     </row>
@@ -12764,7 +12779,7 @@
       <c r="K288">
         <v>3</v>
       </c>
-      <c r="T288">
+      <c r="W288">
         <v>10</v>
       </c>
     </row>
@@ -12804,7 +12819,7 @@
       <c r="K289">
         <v>4</v>
       </c>
-      <c r="T289">
+      <c r="W289">
         <v>13</v>
       </c>
     </row>
@@ -12847,7 +12862,7 @@
       <c r="L290">
         <v>0</v>
       </c>
-      <c r="T290">
+      <c r="W290">
         <v>12</v>
       </c>
     </row>
@@ -12887,7 +12902,7 @@
       <c r="K291">
         <v>5</v>
       </c>
-      <c r="T291">
+      <c r="W291">
         <v>11</v>
       </c>
     </row>
@@ -12927,7 +12942,7 @@
       <c r="K292">
         <v>4</v>
       </c>
-      <c r="T292">
+      <c r="W292">
         <v>11</v>
       </c>
     </row>
@@ -12967,7 +12982,7 @@
       <c r="K293">
         <v>4</v>
       </c>
-      <c r="T293">
+      <c r="W293">
         <v>11</v>
       </c>
     </row>
@@ -13007,7 +13022,7 @@
       <c r="K294">
         <v>3</v>
       </c>
-      <c r="T294">
+      <c r="W294">
         <v>9</v>
       </c>
     </row>
@@ -13047,7 +13062,7 @@
       <c r="K295">
         <v>5</v>
       </c>
-      <c r="T295">
+      <c r="W295">
         <v>9</v>
       </c>
     </row>
@@ -13087,7 +13102,7 @@
       <c r="K296">
         <v>3</v>
       </c>
-      <c r="T296">
+      <c r="W296">
         <v>11</v>
       </c>
     </row>
@@ -13127,7 +13142,7 @@
       <c r="K297">
         <v>5</v>
       </c>
-      <c r="T297">
+      <c r="W297">
         <v>9</v>
       </c>
     </row>
@@ -13167,7 +13182,7 @@
       <c r="K298">
         <v>2</v>
       </c>
-      <c r="T298">
+      <c r="W298">
         <v>10</v>
       </c>
     </row>
@@ -13207,7 +13222,7 @@
       <c r="K299">
         <v>5</v>
       </c>
-      <c r="T299">
+      <c r="W299">
         <v>8</v>
       </c>
     </row>
@@ -13247,7 +13262,7 @@
       <c r="K300">
         <v>5</v>
       </c>
-      <c r="T300">
+      <c r="W300">
         <v>9</v>
       </c>
     </row>
@@ -13287,7 +13302,7 @@
       <c r="K301">
         <v>6</v>
       </c>
-      <c r="T301">
+      <c r="W301">
         <v>8</v>
       </c>
     </row>
@@ -13327,7 +13342,7 @@
       <c r="K302">
         <v>5</v>
       </c>
-      <c r="T302">
+      <c r="W302">
         <v>9</v>
       </c>
     </row>
@@ -13367,7 +13382,7 @@
       <c r="K303">
         <v>3</v>
       </c>
-      <c r="T303">
+      <c r="W303">
         <v>11</v>
       </c>
     </row>
@@ -13407,7 +13422,7 @@
       <c r="K304">
         <v>2</v>
       </c>
-      <c r="T304">
+      <c r="W304">
         <v>6</v>
       </c>
     </row>
@@ -13447,7 +13462,7 @@
       <c r="K305">
         <v>2</v>
       </c>
-      <c r="T305">
+      <c r="W305">
         <v>6</v>
       </c>
     </row>
@@ -13487,7 +13502,7 @@
       <c r="K306">
         <v>2</v>
       </c>
-      <c r="T306">
+      <c r="W306">
         <v>7</v>
       </c>
     </row>
@@ -13527,7 +13542,7 @@
       <c r="K307">
         <v>2</v>
       </c>
-      <c r="T307">
+      <c r="W307">
         <v>9</v>
       </c>
     </row>
@@ -13567,7 +13582,7 @@
       <c r="K308">
         <v>4</v>
       </c>
-      <c r="T308">
+      <c r="W308">
         <v>10</v>
       </c>
     </row>
@@ -13607,7 +13622,7 @@
       <c r="K309">
         <v>3</v>
       </c>
-      <c r="T309">
+      <c r="W309">
         <v>9</v>
       </c>
     </row>
@@ -13647,7 +13662,7 @@
       <c r="K310">
         <v>3</v>
       </c>
-      <c r="T310">
+      <c r="W310">
         <v>12</v>
       </c>
     </row>
@@ -13687,7 +13702,7 @@
       <c r="K311">
         <v>2</v>
       </c>
-      <c r="T311">
+      <c r="W311">
         <v>11</v>
       </c>
     </row>
@@ -13727,7 +13742,7 @@
       <c r="K312">
         <v>2</v>
       </c>
-      <c r="T312">
+      <c r="W312">
         <v>10</v>
       </c>
     </row>
@@ -13767,7 +13782,7 @@
       <c r="K313">
         <v>4</v>
       </c>
-      <c r="T313">
+      <c r="W313">
         <v>12</v>
       </c>
     </row>
@@ -13807,7 +13822,7 @@
       <c r="K314">
         <v>2</v>
       </c>
-      <c r="T314">
+      <c r="W314">
         <v>15</v>
       </c>
     </row>
@@ -13847,7 +13862,7 @@
       <c r="K315">
         <v>2</v>
       </c>
-      <c r="T315">
+      <c r="W315">
         <v>15</v>
       </c>
     </row>
@@ -13887,7 +13902,7 @@
       <c r="K316">
         <v>1</v>
       </c>
-      <c r="T316">
+      <c r="W316">
         <v>12</v>
       </c>
     </row>
@@ -13927,7 +13942,7 @@
       <c r="K317">
         <v>3</v>
       </c>
-      <c r="T317">
+      <c r="W317">
         <v>11</v>
       </c>
     </row>
@@ -13967,7 +13982,7 @@
       <c r="K318">
         <v>1</v>
       </c>
-      <c r="T318">
+      <c r="W318">
         <v>15</v>
       </c>
     </row>
@@ -14007,7 +14022,7 @@
       <c r="K319">
         <v>2</v>
       </c>
-      <c r="T319">
+      <c r="W319">
         <v>11</v>
       </c>
     </row>
@@ -14047,7 +14062,7 @@
       <c r="K320">
         <v>3</v>
       </c>
-      <c r="T320">
+      <c r="W320">
         <v>14</v>
       </c>
     </row>
@@ -14087,7 +14102,7 @@
       <c r="K321">
         <v>1</v>
       </c>
-      <c r="T321">
+      <c r="W321">
         <v>16</v>
       </c>
     </row>
@@ -14130,7 +14145,7 @@
       <c r="L322">
         <v>0</v>
       </c>
-      <c r="T322">
+      <c r="W322">
         <v>14</v>
       </c>
     </row>
@@ -14170,7 +14185,7 @@
       <c r="K323">
         <v>2</v>
       </c>
-      <c r="T323">
+      <c r="W323">
         <v>14</v>
       </c>
     </row>
@@ -14210,7 +14225,7 @@
       <c r="K324">
         <v>1</v>
       </c>
-      <c r="T324">
+      <c r="W324">
         <v>14</v>
       </c>
     </row>
@@ -14250,7 +14265,7 @@
       <c r="K325">
         <v>2</v>
       </c>
-      <c r="T325">
+      <c r="W325">
         <v>15</v>
       </c>
     </row>
@@ -14290,7 +14305,7 @@
       <c r="K326">
         <v>3</v>
       </c>
-      <c r="T326">
+      <c r="W326">
         <v>14</v>
       </c>
     </row>
@@ -14330,7 +14345,7 @@
       <c r="K327">
         <v>1</v>
       </c>
-      <c r="T327">
+      <c r="W327">
         <v>24</v>
       </c>
     </row>
@@ -14370,7 +14385,7 @@
       <c r="K328">
         <v>2</v>
       </c>
-      <c r="T328">
+      <c r="W328">
         <v>14</v>
       </c>
     </row>
@@ -14410,7 +14425,7 @@
       <c r="K329">
         <v>3</v>
       </c>
-      <c r="T329">
+      <c r="W329">
         <v>10</v>
       </c>
     </row>
@@ -14450,7 +14465,7 @@
       <c r="K330">
         <v>1</v>
       </c>
-      <c r="T330">
+      <c r="W330">
         <v>11</v>
       </c>
     </row>
@@ -14490,7 +14505,7 @@
       <c r="K331">
         <v>2</v>
       </c>
-      <c r="T331">
+      <c r="W331">
         <v>14</v>
       </c>
     </row>
@@ -14530,7 +14545,7 @@
       <c r="K332">
         <v>2</v>
       </c>
-      <c r="T332">
+      <c r="W332">
         <v>14</v>
       </c>
     </row>
@@ -14570,7 +14585,7 @@
       <c r="K333">
         <v>2</v>
       </c>
-      <c r="T333">
+      <c r="W333">
         <v>17</v>
       </c>
     </row>
@@ -14610,7 +14625,7 @@
       <c r="K334">
         <v>2</v>
       </c>
-      <c r="T334">
+      <c r="W334">
         <v>19</v>
       </c>
     </row>
@@ -14650,7 +14665,7 @@
       <c r="K335">
         <v>3</v>
       </c>
-      <c r="T335">
+      <c r="W335">
         <v>17</v>
       </c>
     </row>
@@ -14690,7 +14705,7 @@
       <c r="K336">
         <v>2</v>
       </c>
-      <c r="T336">
+      <c r="W336">
         <v>12</v>
       </c>
     </row>
@@ -14730,7 +14745,7 @@
       <c r="K337">
         <v>1</v>
       </c>
-      <c r="T337">
+      <c r="W337">
         <v>17</v>
       </c>
     </row>
@@ -14770,7 +14785,7 @@
       <c r="K338">
         <v>2</v>
       </c>
-      <c r="T338">
+      <c r="W338">
         <v>20</v>
       </c>
     </row>
@@ -14810,7 +14825,7 @@
       <c r="K339">
         <v>1</v>
       </c>
-      <c r="T339">
+      <c r="W339">
         <v>14</v>
       </c>
     </row>
@@ -14850,7 +14865,7 @@
       <c r="K340">
         <v>1</v>
       </c>
-      <c r="T340">
+      <c r="W340">
         <v>19</v>
       </c>
     </row>
@@ -14890,7 +14905,7 @@
       <c r="K341">
         <v>3</v>
       </c>
-      <c r="T341">
+      <c r="W341">
         <v>19</v>
       </c>
     </row>
@@ -14930,7 +14945,7 @@
       <c r="K342">
         <v>3</v>
       </c>
-      <c r="T342">
+      <c r="W342">
         <v>17</v>
       </c>
     </row>
@@ -14970,7 +14985,7 @@
       <c r="K343">
         <v>3</v>
       </c>
-      <c r="T343">
+      <c r="W343">
         <v>18</v>
       </c>
     </row>
@@ -15010,7 +15025,7 @@
       <c r="K344">
         <v>2</v>
       </c>
-      <c r="T344">
+      <c r="W344">
         <v>15</v>
       </c>
     </row>
@@ -15050,7 +15065,7 @@
       <c r="K345">
         <v>2</v>
       </c>
-      <c r="T345">
+      <c r="W345">
         <v>17</v>
       </c>
     </row>
@@ -15090,7 +15105,7 @@
       <c r="K346">
         <v>2</v>
       </c>
-      <c r="T346">
+      <c r="W346">
         <v>15</v>
       </c>
     </row>
@@ -15127,7 +15142,7 @@
       <c r="J347">
         <v>16</v>
       </c>
-      <c r="T347">
+      <c r="W347">
         <v>20</v>
       </c>
     </row>
@@ -15167,7 +15182,7 @@
       <c r="K348">
         <v>2</v>
       </c>
-      <c r="T348">
+      <c r="W348">
         <v>17</v>
       </c>
     </row>
@@ -15207,7 +15222,7 @@
       <c r="K349">
         <v>5</v>
       </c>
-      <c r="T349">
+      <c r="W349">
         <v>17</v>
       </c>
     </row>
@@ -15247,7 +15262,7 @@
       <c r="K350">
         <v>2</v>
       </c>
-      <c r="T350">
+      <c r="W350">
         <v>16</v>
       </c>
     </row>
@@ -15287,7 +15302,7 @@
       <c r="K351">
         <v>2</v>
       </c>
-      <c r="T351">
+      <c r="W351">
         <v>16</v>
       </c>
     </row>
@@ -15327,7 +15342,7 @@
       <c r="K352">
         <v>2</v>
       </c>
-      <c r="T352">
+      <c r="W352">
         <v>15</v>
       </c>
     </row>
@@ -15367,7 +15382,7 @@
       <c r="K353">
         <v>1</v>
       </c>
-      <c r="T353">
+      <c r="W353">
         <v>16</v>
       </c>
     </row>
@@ -15407,7 +15422,7 @@
       <c r="K354">
         <v>2</v>
       </c>
-      <c r="T354">
+      <c r="W354">
         <v>18</v>
       </c>
     </row>
@@ -15447,7 +15462,7 @@
       <c r="K355">
         <v>2</v>
       </c>
-      <c r="T355">
+      <c r="W355">
         <v>15</v>
       </c>
     </row>
@@ -15487,7 +15502,7 @@
       <c r="K356">
         <v>2</v>
       </c>
-      <c r="T356">
+      <c r="W356">
         <v>16</v>
       </c>
     </row>
@@ -15527,7 +15542,7 @@
       <c r="K357">
         <v>1</v>
       </c>
-      <c r="T357">
+      <c r="W357">
         <v>14</v>
       </c>
     </row>
@@ -15567,7 +15582,7 @@
       <c r="K358">
         <v>2</v>
       </c>
-      <c r="T358">
+      <c r="W358">
         <v>17</v>
       </c>
     </row>
@@ -15607,7 +15622,7 @@
       <c r="K359">
         <v>2</v>
       </c>
-      <c r="T359">
+      <c r="W359">
         <v>19</v>
       </c>
     </row>
@@ -15647,7 +15662,7 @@
       <c r="K360">
         <v>2</v>
       </c>
-      <c r="T360">
+      <c r="W360">
         <v>16</v>
       </c>
     </row>
@@ -15687,7 +15702,7 @@
       <c r="K361">
         <v>2</v>
       </c>
-      <c r="T361">
+      <c r="W361">
         <v>14</v>
       </c>
     </row>
@@ -15727,7 +15742,7 @@
       <c r="K362">
         <v>2</v>
       </c>
-      <c r="T362">
+      <c r="W362">
         <v>15</v>
       </c>
     </row>
@@ -15767,7 +15782,7 @@
       <c r="K363">
         <v>3</v>
       </c>
-      <c r="T363">
+      <c r="W363">
         <v>19</v>
       </c>
     </row>
@@ -15807,7 +15822,7 @@
       <c r="K364">
         <v>3</v>
       </c>
-      <c r="T364">
+      <c r="W364">
         <v>18</v>
       </c>
     </row>
@@ -15847,7 +15862,7 @@
       <c r="K365">
         <v>3</v>
       </c>
-      <c r="T365">
+      <c r="W365">
         <v>18</v>
       </c>
     </row>
@@ -15887,7 +15902,7 @@
       <c r="K366">
         <v>3</v>
       </c>
-      <c r="T366">
+      <c r="W366">
         <v>17</v>
       </c>
     </row>
@@ -15927,7 +15942,7 @@
       <c r="K367">
         <v>2</v>
       </c>
-      <c r="T367">
+      <c r="W367">
         <v>19</v>
       </c>
     </row>
@@ -15967,7 +15982,7 @@
       <c r="K368">
         <v>1</v>
       </c>
-      <c r="T368">
+      <c r="W368">
         <v>20</v>
       </c>
     </row>
@@ -16007,7 +16022,7 @@
       <c r="K369">
         <v>1</v>
       </c>
-      <c r="T369">
+      <c r="W369">
         <v>14</v>
       </c>
     </row>
@@ -16047,7 +16062,7 @@
       <c r="K370">
         <v>2</v>
       </c>
-      <c r="T370">
+      <c r="W370">
         <v>16</v>
       </c>
     </row>
@@ -16087,7 +16102,7 @@
       <c r="K371">
         <v>2</v>
       </c>
-      <c r="T371">
+      <c r="W371">
         <v>19</v>
       </c>
     </row>
@@ -16127,7 +16142,7 @@
       <c r="K372">
         <v>1</v>
       </c>
-      <c r="T372">
+      <c r="W372">
         <v>16</v>
       </c>
     </row>
@@ -16167,7 +16182,7 @@
       <c r="K373">
         <v>1</v>
       </c>
-      <c r="T373">
+      <c r="W373">
         <v>20</v>
       </c>
     </row>
@@ -16207,7 +16222,7 @@
       <c r="K374">
         <v>2</v>
       </c>
-      <c r="T374">
+      <c r="W374">
         <v>26</v>
       </c>
     </row>
@@ -16247,7 +16262,7 @@
       <c r="K375">
         <v>2</v>
       </c>
-      <c r="T375">
+      <c r="W375">
         <v>19</v>
       </c>
     </row>
@@ -16287,7 +16302,7 @@
       <c r="K376">
         <v>2</v>
       </c>
-      <c r="T376">
+      <c r="W376">
         <v>18</v>
       </c>
     </row>
@@ -16327,7 +16342,7 @@
       <c r="K377">
         <v>1</v>
       </c>
-      <c r="T377">
+      <c r="W377">
         <v>19</v>
       </c>
     </row>
@@ -16367,7 +16382,7 @@
       <c r="K378">
         <v>2</v>
       </c>
-      <c r="T378">
+      <c r="W378">
         <v>19</v>
       </c>
     </row>
@@ -16407,7 +16422,7 @@
       <c r="K379">
         <v>1</v>
       </c>
-      <c r="T379">
+      <c r="W379">
         <v>17</v>
       </c>
     </row>
@@ -16447,7 +16462,7 @@
       <c r="K380">
         <v>2</v>
       </c>
-      <c r="T380">
+      <c r="W380">
         <v>18</v>
       </c>
     </row>
@@ -16487,7 +16502,7 @@
       <c r="K381">
         <v>2</v>
       </c>
-      <c r="T381">
+      <c r="W381">
         <v>18</v>
       </c>
     </row>
@@ -16527,7 +16542,7 @@
       <c r="K382">
         <v>3</v>
       </c>
-      <c r="T382">
+      <c r="W382">
         <v>23</v>
       </c>
     </row>
@@ -16567,7 +16582,7 @@
       <c r="K383">
         <v>2</v>
       </c>
-      <c r="T383">
+      <c r="W383">
         <v>19</v>
       </c>
     </row>
@@ -16607,7 +16622,7 @@
       <c r="K384">
         <v>1</v>
       </c>
-      <c r="T384">
+      <c r="W384">
         <v>17</v>
       </c>
     </row>
@@ -16647,7 +16662,7 @@
       <c r="K385">
         <v>2</v>
       </c>
-      <c r="T385">
+      <c r="W385">
         <v>21</v>
       </c>
     </row>
@@ -16687,7 +16702,7 @@
       <c r="K386">
         <v>1</v>
       </c>
-      <c r="T386">
+      <c r="W386">
         <v>15</v>
       </c>
     </row>
@@ -16727,7 +16742,7 @@
       <c r="K387">
         <v>2</v>
       </c>
-      <c r="T387">
+      <c r="W387">
         <v>17</v>
       </c>
     </row>
@@ -16767,7 +16782,7 @@
       <c r="K388">
         <v>4</v>
       </c>
-      <c r="T388">
+      <c r="W388">
         <v>19</v>
       </c>
     </row>
@@ -16807,7 +16822,7 @@
       <c r="K389">
         <v>3</v>
       </c>
-      <c r="T389">
+      <c r="W389">
         <v>22</v>
       </c>
     </row>
@@ -16847,7 +16862,7 @@
       <c r="K390">
         <v>1</v>
       </c>
-      <c r="T390">
+      <c r="W390">
         <v>15</v>
       </c>
     </row>
@@ -16887,7 +16902,7 @@
       <c r="K391">
         <v>2</v>
       </c>
-      <c r="T391">
+      <c r="W391">
         <v>21</v>
       </c>
     </row>
@@ -16927,7 +16942,7 @@
       <c r="K392">
         <v>1</v>
       </c>
-      <c r="T392">
+      <c r="W392">
         <v>17</v>
       </c>
     </row>
@@ -16967,7 +16982,7 @@
       <c r="K393">
         <v>2</v>
       </c>
-      <c r="T393">
+      <c r="W393">
         <v>20</v>
       </c>
     </row>
@@ -17007,7 +17022,7 @@
       <c r="K394">
         <v>2</v>
       </c>
-      <c r="T394">
+      <c r="W394">
         <v>24</v>
       </c>
     </row>
@@ -17047,7 +17062,7 @@
       <c r="K395">
         <v>1</v>
       </c>
-      <c r="T395">
+      <c r="W395">
         <v>18</v>
       </c>
     </row>
@@ -17087,7 +17102,7 @@
       <c r="K396">
         <v>2</v>
       </c>
-      <c r="T396">
+      <c r="W396">
         <v>20</v>
       </c>
     </row>
@@ -17127,7 +17142,7 @@
       <c r="K397">
         <v>1</v>
       </c>
-      <c r="T397">
+      <c r="W397">
         <v>17</v>
       </c>
     </row>
@@ -17167,7 +17182,7 @@
       <c r="K398">
         <v>3</v>
       </c>
-      <c r="T398">
+      <c r="W398">
         <v>20</v>
       </c>
     </row>
@@ -17207,7 +17222,7 @@
       <c r="K399">
         <v>2</v>
       </c>
-      <c r="T399">
+      <c r="W399">
         <v>20</v>
       </c>
     </row>
@@ -17247,7 +17262,7 @@
       <c r="K400">
         <v>1</v>
       </c>
-      <c r="T400">
+      <c r="W400">
         <v>15</v>
       </c>
     </row>
@@ -17287,7 +17302,7 @@
       <c r="K401">
         <v>1</v>
       </c>
-      <c r="T401">
+      <c r="W401">
         <v>24</v>
       </c>
     </row>
@@ -17327,7 +17342,7 @@
       <c r="K402">
         <v>2</v>
       </c>
-      <c r="T402">
+      <c r="W402">
         <v>20</v>
       </c>
     </row>
@@ -17367,7 +17382,7 @@
       <c r="K403">
         <v>3</v>
       </c>
-      <c r="T403">
+      <c r="W403">
         <v>21</v>
       </c>
     </row>
@@ -17407,7 +17422,7 @@
       <c r="K404">
         <v>2</v>
       </c>
-      <c r="T404">
+      <c r="W404">
         <v>20</v>
       </c>
     </row>
@@ -17447,7 +17462,7 @@
       <c r="K405">
         <v>3</v>
       </c>
-      <c r="T405">
+      <c r="W405">
         <v>19</v>
       </c>
     </row>
@@ -17487,7 +17502,7 @@
       <c r="K406">
         <v>1</v>
       </c>
-      <c r="T406">
+      <c r="W406">
         <v>20</v>
       </c>
     </row>
@@ -17527,7 +17542,7 @@
       <c r="K407">
         <v>2</v>
       </c>
-      <c r="T407">
+      <c r="W407">
         <v>21</v>
       </c>
     </row>
@@ -17567,7 +17582,7 @@
       <c r="K408">
         <v>4</v>
       </c>
-      <c r="T408">
+      <c r="W408">
         <v>26</v>
       </c>
     </row>
@@ -17607,7 +17622,7 @@
       <c r="K409">
         <v>2</v>
       </c>
-      <c r="T409">
+      <c r="W409">
         <v>23</v>
       </c>
     </row>
@@ -17647,7 +17662,7 @@
       <c r="K410">
         <v>3</v>
       </c>
-      <c r="T410">
+      <c r="W410">
         <v>22</v>
       </c>
     </row>
@@ -17687,7 +17702,7 @@
       <c r="K411">
         <v>2</v>
       </c>
-      <c r="T411">
+      <c r="W411">
         <v>25</v>
       </c>
     </row>
@@ -17727,7 +17742,7 @@
       <c r="K412">
         <v>2</v>
       </c>
-      <c r="T412">
+      <c r="W412">
         <v>28</v>
       </c>
     </row>
@@ -17767,7 +17782,7 @@
       <c r="K413">
         <v>2</v>
       </c>
-      <c r="T413">
+      <c r="W413">
         <v>25</v>
       </c>
     </row>
@@ -17807,7 +17822,7 @@
       <c r="K414">
         <v>2</v>
       </c>
-      <c r="T414">
+      <c r="W414">
         <v>27</v>
       </c>
     </row>
@@ -17847,7 +17862,7 @@
       <c r="K415">
         <v>2</v>
       </c>
-      <c r="T415">
+      <c r="W415">
         <v>32</v>
       </c>
     </row>
@@ -17887,7 +17902,7 @@
       <c r="K416">
         <v>3</v>
       </c>
-      <c r="T416">
+      <c r="W416">
         <v>25</v>
       </c>
     </row>
@@ -17927,7 +17942,7 @@
       <c r="K417">
         <v>1</v>
       </c>
-      <c r="T417">
+      <c r="W417">
         <v>23</v>
       </c>
     </row>
@@ -17967,7 +17982,7 @@
       <c r="K418">
         <v>2</v>
       </c>
-      <c r="T418">
+      <c r="W418">
         <v>23</v>
       </c>
     </row>
@@ -18007,7 +18022,7 @@
       <c r="K419">
         <v>2</v>
       </c>
-      <c r="T419">
+      <c r="W419">
         <v>21</v>
       </c>
     </row>
@@ -18047,7 +18062,7 @@
       <c r="K420">
         <v>1</v>
       </c>
-      <c r="T420">
+      <c r="W420">
         <v>22</v>
       </c>
     </row>
@@ -18087,7 +18102,7 @@
       <c r="K421">
         <v>1.62</v>
       </c>
-      <c r="T421">
+      <c r="W421">
         <v>21.1</v>
       </c>
     </row>
@@ -18127,7 +18142,7 @@
       <c r="K422">
         <v>3</v>
       </c>
-      <c r="T422">
+      <c r="W422">
         <v>26</v>
       </c>
     </row>
@@ -18167,7 +18182,7 @@
       <c r="K423">
         <v>2</v>
       </c>
-      <c r="T423">
+      <c r="W423">
         <v>26</v>
       </c>
     </row>
@@ -18207,7 +18222,7 @@
       <c r="K424">
         <v>1</v>
       </c>
-      <c r="T424">
+      <c r="W424">
         <v>24</v>
       </c>
     </row>
@@ -18247,7 +18262,7 @@
       <c r="K425">
         <v>3</v>
       </c>
-      <c r="T425">
+      <c r="W425">
         <v>27</v>
       </c>
     </row>
@@ -18287,7 +18302,7 @@
       <c r="K426">
         <v>2.89</v>
       </c>
-      <c r="T426">
+      <c r="W426">
         <v>28.56</v>
       </c>
     </row>
@@ -18327,7 +18342,7 @@
       <c r="K427">
         <v>2</v>
       </c>
-      <c r="T427">
+      <c r="W427">
         <v>32</v>
       </c>
     </row>
@@ -18367,7 +18382,7 @@
       <c r="K428">
         <v>2</v>
       </c>
-      <c r="T428">
+      <c r="W428">
         <v>28</v>
       </c>
     </row>
@@ -18407,7 +18422,7 @@
       <c r="K429">
         <v>1</v>
       </c>
-      <c r="T429">
+      <c r="W429">
         <v>30</v>
       </c>
     </row>
@@ -18447,7 +18462,7 @@
       <c r="K430">
         <v>1</v>
       </c>
-      <c r="T430">
+      <c r="W430">
         <v>28</v>
       </c>
     </row>
@@ -18487,7 +18502,7 @@
       <c r="K431">
         <v>2</v>
       </c>
-      <c r="T431">
+      <c r="W431">
         <v>26</v>
       </c>
     </row>
@@ -18527,7 +18542,7 @@
       <c r="K432">
         <v>1</v>
       </c>
-      <c r="T432">
+      <c r="W432">
         <v>23</v>
       </c>
     </row>
@@ -18567,7 +18582,7 @@
       <c r="K433">
         <v>3</v>
       </c>
-      <c r="T433">
+      <c r="W433">
         <v>27</v>
       </c>
     </row>
@@ -18607,7 +18622,7 @@
       <c r="K434">
         <v>3</v>
       </c>
-      <c r="T434">
+      <c r="W434">
         <v>24</v>
       </c>
     </row>
@@ -18647,7 +18662,7 @@
       <c r="K435">
         <v>2</v>
       </c>
-      <c r="T435">
+      <c r="W435">
         <v>25</v>
       </c>
     </row>
@@ -18687,7 +18702,7 @@
       <c r="K436">
         <v>2.73</v>
       </c>
-      <c r="T436">
+      <c r="W436">
         <v>25.46</v>
       </c>
     </row>
@@ -18727,7 +18742,7 @@
       <c r="K437">
         <v>2</v>
       </c>
-      <c r="T437">
+      <c r="W437">
         <v>26</v>
       </c>
     </row>
@@ -18767,7 +18782,7 @@
       <c r="K438">
         <v>3</v>
       </c>
-      <c r="T438">
+      <c r="W438">
         <v>21</v>
       </c>
     </row>
@@ -18807,7 +18822,7 @@
       <c r="K439">
         <v>1</v>
       </c>
-      <c r="T439">
+      <c r="W439">
         <v>25</v>
       </c>
     </row>
@@ -18847,7 +18862,7 @@
       <c r="K440">
         <v>3</v>
       </c>
-      <c r="T440">
+      <c r="W440">
         <v>25</v>
       </c>
     </row>
@@ -18887,7 +18902,7 @@
       <c r="K441">
         <v>2.84</v>
       </c>
-      <c r="T441">
+      <c r="W441">
         <v>20.8</v>
       </c>
     </row>
@@ -18927,7 +18942,7 @@
       <c r="K442">
         <v>3</v>
       </c>
-      <c r="T442">
+      <c r="W442">
         <v>19</v>
       </c>
     </row>
@@ -18967,7 +18982,7 @@
       <c r="K443">
         <v>2</v>
       </c>
-      <c r="T443">
+      <c r="W443">
         <v>25</v>
       </c>
     </row>
@@ -19007,7 +19022,7 @@
       <c r="K444">
         <v>2</v>
       </c>
-      <c r="T444">
+      <c r="W444">
         <v>25</v>
       </c>
     </row>
@@ -19047,7 +19062,7 @@
       <c r="K445">
         <v>1</v>
       </c>
-      <c r="T445">
+      <c r="W445">
         <v>20</v>
       </c>
     </row>
@@ -19087,7 +19102,7 @@
       <c r="K446">
         <v>1</v>
       </c>
-      <c r="T446">
+      <c r="W446">
         <v>32</v>
       </c>
     </row>
@@ -19127,7 +19142,7 @@
       <c r="K447">
         <v>2</v>
       </c>
-      <c r="T447">
+      <c r="W447">
         <v>29</v>
       </c>
     </row>
@@ -19167,7 +19182,7 @@
       <c r="K448">
         <v>1</v>
       </c>
-      <c r="T448">
+      <c r="W448">
         <v>24</v>
       </c>
     </row>
@@ -19207,7 +19222,7 @@
       <c r="K449">
         <v>2</v>
       </c>
-      <c r="T449">
+      <c r="W449">
         <v>26</v>
       </c>
     </row>
@@ -19247,7 +19262,7 @@
       <c r="K450">
         <v>2</v>
       </c>
-      <c r="T450">
+      <c r="W450">
         <v>26</v>
       </c>
     </row>
@@ -19296,7 +19311,7 @@
       <c r="Q451">
         <v>1.51</v>
       </c>
-      <c r="T451">
+      <c r="W451">
         <v>15.14</v>
       </c>
     </row>
@@ -19345,7 +19360,7 @@
       <c r="Q452">
         <v>1</v>
       </c>
-      <c r="T452">
+      <c r="W452">
         <v>21</v>
       </c>
     </row>
@@ -19394,7 +19409,7 @@
       <c r="Q453">
         <v>1</v>
       </c>
-      <c r="T453">
+      <c r="W453">
         <v>21</v>
       </c>
     </row>
@@ -19437,7 +19452,7 @@
       <c r="P454">
         <v>1</v>
       </c>
-      <c r="T454">
+      <c r="W454">
         <v>17</v>
       </c>
     </row>
@@ -19486,7 +19501,7 @@
       <c r="Q455">
         <v>1</v>
       </c>
-      <c r="T455">
+      <c r="W455">
         <v>15</v>
       </c>
     </row>
@@ -19535,7 +19550,7 @@
       <c r="Q456">
         <v>3</v>
       </c>
-      <c r="T456">
+      <c r="W456">
         <v>15</v>
       </c>
     </row>
@@ -19584,7 +19599,7 @@
       <c r="Q457">
         <v>2</v>
       </c>
-      <c r="T457">
+      <c r="W457">
         <v>15</v>
       </c>
     </row>
@@ -19633,7 +19648,7 @@
       <c r="Q458">
         <v>3</v>
       </c>
-      <c r="T458">
+      <c r="W458">
         <v>15</v>
       </c>
     </row>
@@ -19682,7 +19697,7 @@
       <c r="Q459">
         <v>1</v>
       </c>
-      <c r="T459">
+      <c r="W459">
         <v>15</v>
       </c>
     </row>
@@ -19731,7 +19746,7 @@
       <c r="Q460">
         <v>2</v>
       </c>
-      <c r="T460">
+      <c r="W460">
         <v>14</v>
       </c>
     </row>
@@ -19780,7 +19795,7 @@
       <c r="Q461">
         <v>1</v>
       </c>
-      <c r="T461">
+      <c r="W461">
         <v>15</v>
       </c>
     </row>
@@ -19829,7 +19844,7 @@
       <c r="Q462">
         <v>1</v>
       </c>
-      <c r="T462">
+      <c r="W462">
         <v>19</v>
       </c>
     </row>
@@ -19878,7 +19893,7 @@
       <c r="Q463">
         <v>2</v>
       </c>
-      <c r="T463">
+      <c r="W463">
         <v>16</v>
       </c>
     </row>
@@ -19927,7 +19942,7 @@
       <c r="Q464">
         <v>2</v>
       </c>
-      <c r="T464">
+      <c r="W464">
         <v>16</v>
       </c>
     </row>
@@ -19976,7 +19991,7 @@
       <c r="Q465">
         <v>3</v>
       </c>
-      <c r="T465">
+      <c r="W465">
         <v>16</v>
       </c>
     </row>
@@ -20025,7 +20040,7 @@
       <c r="Q466">
         <v>4</v>
       </c>
-      <c r="T466">
+      <c r="W466">
         <v>15</v>
       </c>
     </row>
@@ -20065,7 +20080,7 @@
       <c r="K467">
         <v>1</v>
       </c>
-      <c r="T467">
+      <c r="W467">
         <v>23</v>
       </c>
     </row>
@@ -20114,7 +20129,7 @@
       <c r="Q468">
         <v>3</v>
       </c>
-      <c r="T468">
+      <c r="W468">
         <v>16</v>
       </c>
     </row>
@@ -20163,7 +20178,7 @@
       <c r="Q469">
         <v>4</v>
       </c>
-      <c r="T469">
+      <c r="W469">
         <v>16</v>
       </c>
     </row>
@@ -20212,7 +20227,7 @@
       <c r="Q470">
         <v>3</v>
       </c>
-      <c r="T470">
+      <c r="W470">
         <v>18</v>
       </c>
     </row>
@@ -20261,7 +20276,7 @@
       <c r="Q471">
         <v>3</v>
       </c>
-      <c r="T471">
+      <c r="W471">
         <v>15</v>
       </c>
     </row>
@@ -20310,7 +20325,7 @@
       <c r="Q472">
         <v>4</v>
       </c>
-      <c r="T472">
+      <c r="W472">
         <v>15</v>
       </c>
     </row>
@@ -20359,7 +20374,7 @@
       <c r="Q473">
         <v>4</v>
       </c>
-      <c r="T473">
+      <c r="W473">
         <v>12</v>
       </c>
     </row>
@@ -20408,7 +20423,7 @@
       <c r="Q474">
         <v>3</v>
       </c>
-      <c r="T474">
+      <c r="W474">
         <v>18</v>
       </c>
     </row>
@@ -20457,7 +20472,7 @@
       <c r="Q475">
         <v>4</v>
       </c>
-      <c r="T475">
+      <c r="W475">
         <v>16</v>
       </c>
     </row>
@@ -20509,7 +20524,7 @@
       <c r="Q476">
         <v>2</v>
       </c>
-      <c r="T476">
+      <c r="W476">
         <v>17</v>
       </c>
     </row>
@@ -20561,7 +20576,7 @@
       <c r="Q477">
         <v>2</v>
       </c>
-      <c r="T477">
+      <c r="W477">
         <v>15</v>
       </c>
     </row>
@@ -20613,7 +20628,7 @@
       <c r="Q478">
         <v>4</v>
       </c>
-      <c r="T478">
+      <c r="W478">
         <v>10</v>
       </c>
     </row>
@@ -20665,7 +20680,7 @@
       <c r="Q479">
         <v>4</v>
       </c>
-      <c r="T479">
+      <c r="W479">
         <v>15</v>
       </c>
     </row>
@@ -20717,7 +20732,7 @@
       <c r="Q480">
         <v>1</v>
       </c>
-      <c r="T480">
+      <c r="W480">
         <v>16</v>
       </c>
     </row>
@@ -20763,7 +20778,7 @@
       <c r="Q481">
         <v>2</v>
       </c>
-      <c r="T481">
+      <c r="W481">
         <v>8</v>
       </c>
     </row>
@@ -20809,7 +20824,7 @@
       <c r="Q482">
         <v>2</v>
       </c>
-      <c r="T482">
+      <c r="W482">
         <v>14</v>
       </c>
     </row>
@@ -20861,7 +20876,7 @@
       <c r="Q483">
         <v>2</v>
       </c>
-      <c r="T483">
+      <c r="W483">
         <v>13</v>
       </c>
     </row>
@@ -20910,7 +20925,7 @@
       <c r="Q484">
         <v>4</v>
       </c>
-      <c r="T484">
+      <c r="W484">
         <v>13</v>
       </c>
     </row>
@@ -20959,7 +20974,7 @@
       <c r="Q485">
         <v>3</v>
       </c>
-      <c r="T485">
+      <c r="W485">
         <v>15</v>
       </c>
     </row>
@@ -21011,7 +21026,7 @@
       <c r="Q486">
         <v>1</v>
       </c>
-      <c r="T486">
+      <c r="W486">
         <v>16</v>
       </c>
     </row>
@@ -21060,7 +21075,7 @@
       <c r="Q487">
         <v>4</v>
       </c>
-      <c r="T487">
+      <c r="W487">
         <v>13</v>
       </c>
     </row>
@@ -21109,7 +21124,7 @@
       <c r="Q488">
         <v>2</v>
       </c>
-      <c r="T488">
+      <c r="W488">
         <v>15</v>
       </c>
     </row>
@@ -21158,7 +21173,7 @@
       <c r="Q489">
         <v>0</v>
       </c>
-      <c r="T489">
+      <c r="W489">
         <v>17</v>
       </c>
     </row>
@@ -21207,7 +21222,7 @@
       <c r="Q490">
         <v>3</v>
       </c>
-      <c r="T490">
+      <c r="W490">
         <v>16</v>
       </c>
     </row>
@@ -21256,7 +21271,7 @@
       <c r="Q491">
         <v>0</v>
       </c>
-      <c r="T491">
+      <c r="W491">
         <v>17</v>
       </c>
     </row>
@@ -21305,7 +21320,7 @@
       <c r="Q492">
         <v>4</v>
       </c>
-      <c r="T492">
+      <c r="W492">
         <v>17</v>
       </c>
     </row>
@@ -21354,7 +21369,7 @@
       <c r="Q493">
         <v>2</v>
       </c>
-      <c r="T493">
+      <c r="W493">
         <v>12</v>
       </c>
     </row>
@@ -21403,7 +21418,7 @@
       <c r="Q494">
         <v>1</v>
       </c>
-      <c r="T494">
+      <c r="W494">
         <v>14</v>
       </c>
     </row>
@@ -21452,7 +21467,7 @@
       <c r="Q495">
         <v>1</v>
       </c>
-      <c r="T495">
+      <c r="W495">
         <v>19</v>
       </c>
     </row>
@@ -21501,7 +21516,7 @@
       <c r="Q496">
         <v>4</v>
       </c>
-      <c r="T496">
+      <c r="W496">
         <v>17</v>
       </c>
     </row>
@@ -21553,7 +21568,7 @@
       <c r="Q497">
         <v>2</v>
       </c>
-      <c r="T497">
+      <c r="W497">
         <v>14</v>
       </c>
     </row>
@@ -21602,7 +21617,7 @@
       <c r="Q498">
         <v>2</v>
       </c>
-      <c r="T498">
+      <c r="W498">
         <v>9</v>
       </c>
     </row>
@@ -21651,7 +21666,7 @@
       <c r="Q499">
         <v>3</v>
       </c>
-      <c r="T499">
+      <c r="W499">
         <v>13</v>
       </c>
     </row>
@@ -21700,7 +21715,7 @@
       <c r="Q500">
         <v>1</v>
       </c>
-      <c r="T500">
+      <c r="W500">
         <v>11</v>
       </c>
     </row>
@@ -21749,7 +21764,7 @@
       <c r="Q501">
         <v>1</v>
       </c>
-      <c r="T501">
+      <c r="W501">
         <v>16</v>
       </c>
     </row>
@@ -21798,7 +21813,7 @@
       <c r="Q502">
         <v>3</v>
       </c>
-      <c r="T502">
+      <c r="W502">
         <v>16</v>
       </c>
     </row>
@@ -21847,7 +21862,7 @@
       <c r="Q503">
         <v>2</v>
       </c>
-      <c r="T503">
+      <c r="W503">
         <v>14</v>
       </c>
     </row>
@@ -21896,7 +21911,7 @@
       <c r="Q504">
         <v>4</v>
       </c>
-      <c r="T504">
+      <c r="W504">
         <v>12</v>
       </c>
     </row>
@@ -21945,7 +21960,7 @@
       <c r="Q505">
         <v>1</v>
       </c>
-      <c r="T505">
+      <c r="W505">
         <v>18</v>
       </c>
     </row>
@@ -21991,7 +22006,7 @@
       <c r="Q506">
         <v>1</v>
       </c>
-      <c r="T506">
+      <c r="W506">
         <v>12</v>
       </c>
     </row>
@@ -22040,7 +22055,7 @@
       <c r="Q507">
         <v>1</v>
       </c>
-      <c r="T507">
+      <c r="W507">
         <v>14</v>
       </c>
     </row>
@@ -22089,7 +22104,7 @@
       <c r="Q508">
         <v>2</v>
       </c>
-      <c r="T508">
+      <c r="W508">
         <v>12</v>
       </c>
     </row>
@@ -22138,7 +22153,7 @@
       <c r="Q509">
         <v>1</v>
       </c>
-      <c r="T509">
+      <c r="W509">
         <v>13</v>
       </c>
     </row>
@@ -22184,7 +22199,7 @@
       <c r="Q510">
         <v>0</v>
       </c>
-      <c r="T510">
+      <c r="W510">
         <v>11</v>
       </c>
     </row>
@@ -22233,7 +22248,7 @@
       <c r="Q511">
         <v>1</v>
       </c>
-      <c r="T511">
+      <c r="W511">
         <v>14</v>
       </c>
     </row>
@@ -22282,7 +22297,7 @@
       <c r="Q512">
         <v>4</v>
       </c>
-      <c r="T512">
+      <c r="W512">
         <v>12</v>
       </c>
     </row>
@@ -22331,7 +22346,7 @@
       <c r="Q513">
         <v>2</v>
       </c>
-      <c r="T513">
+      <c r="W513">
         <v>10</v>
       </c>
     </row>
@@ -22380,7 +22395,7 @@
       <c r="Q514">
         <v>1</v>
       </c>
-      <c r="T514">
+      <c r="W514">
         <v>15</v>
       </c>
     </row>
@@ -22429,7 +22444,7 @@
       <c r="Q515">
         <v>2</v>
       </c>
-      <c r="T515">
+      <c r="W515">
         <v>16</v>
       </c>
     </row>
@@ -22478,7 +22493,7 @@
       <c r="Q516">
         <v>1</v>
       </c>
-      <c r="T516">
+      <c r="W516">
         <v>13</v>
       </c>
     </row>
@@ -22527,7 +22542,7 @@
       <c r="Q517">
         <v>3</v>
       </c>
-      <c r="T517">
+      <c r="W517">
         <v>14</v>
       </c>
     </row>
@@ -22576,7 +22591,7 @@
       <c r="Q518">
         <v>1</v>
       </c>
-      <c r="T518">
+      <c r="W518">
         <v>11</v>
       </c>
     </row>
@@ -22625,7 +22640,7 @@
       <c r="Q519">
         <v>2</v>
       </c>
-      <c r="T519">
+      <c r="W519">
         <v>12</v>
       </c>
     </row>
@@ -22674,7 +22689,7 @@
       <c r="Q520">
         <v>2</v>
       </c>
-      <c r="T520">
+      <c r="W520">
         <v>12</v>
       </c>
     </row>
@@ -22723,7 +22738,7 @@
       <c r="Q521">
         <v>1</v>
       </c>
-      <c r="T521">
+      <c r="W521">
         <v>13</v>
       </c>
     </row>
@@ -22772,7 +22787,7 @@
       <c r="Q522">
         <v>1</v>
       </c>
-      <c r="T522">
+      <c r="W522">
         <v>12</v>
       </c>
     </row>
@@ -22821,7 +22836,7 @@
       <c r="Q523">
         <v>2</v>
       </c>
-      <c r="T523">
+      <c r="W523">
         <v>12</v>
       </c>
     </row>
@@ -22870,7 +22885,7 @@
       <c r="Q524">
         <v>1</v>
       </c>
-      <c r="T524">
+      <c r="W524">
         <v>13</v>
       </c>
     </row>
@@ -22919,7 +22934,7 @@
       <c r="Q525">
         <v>1</v>
       </c>
-      <c r="T525">
+      <c r="W525">
         <v>8</v>
       </c>
     </row>
@@ -22968,7 +22983,7 @@
       <c r="Q526">
         <v>2</v>
       </c>
-      <c r="T526">
+      <c r="W526">
         <v>13</v>
       </c>
     </row>
@@ -23017,7 +23032,7 @@
       <c r="Q527">
         <v>0</v>
       </c>
-      <c r="T527">
+      <c r="W527">
         <v>13</v>
       </c>
     </row>
@@ -23066,7 +23081,7 @@
       <c r="Q528">
         <v>2</v>
       </c>
-      <c r="T528">
+      <c r="W528">
         <v>13</v>
       </c>
     </row>
@@ -23115,7 +23130,7 @@
       <c r="Q529">
         <v>1</v>
       </c>
-      <c r="T529">
+      <c r="W529">
         <v>10</v>
       </c>
     </row>
@@ -23164,7 +23179,7 @@
       <c r="Q530">
         <v>3</v>
       </c>
-      <c r="T530">
+      <c r="W530">
         <v>13</v>
       </c>
     </row>
@@ -23213,7 +23228,7 @@
       <c r="Q531">
         <v>1</v>
       </c>
-      <c r="T531">
+      <c r="W531">
         <v>10</v>
       </c>
     </row>
@@ -23262,7 +23277,7 @@
       <c r="Q532">
         <v>2</v>
       </c>
-      <c r="T532">
+      <c r="W532">
         <v>16</v>
       </c>
     </row>
@@ -23311,7 +23326,7 @@
       <c r="Q533">
         <v>0</v>
       </c>
-      <c r="T533">
+      <c r="W533">
         <v>8</v>
       </c>
     </row>
@@ -23360,7 +23375,7 @@
       <c r="Q534">
         <v>1</v>
       </c>
-      <c r="T534">
+      <c r="W534">
         <v>14</v>
       </c>
     </row>
@@ -23409,7 +23424,7 @@
       <c r="Q535">
         <v>1</v>
       </c>
-      <c r="T535">
+      <c r="W535">
         <v>13</v>
       </c>
     </row>
@@ -23458,7 +23473,7 @@
       <c r="Q536">
         <v>1</v>
       </c>
-      <c r="T536">
+      <c r="W536">
         <v>12</v>
       </c>
     </row>
@@ -23507,7 +23522,7 @@
       <c r="Q537">
         <v>1</v>
       </c>
-      <c r="T537">
+      <c r="W537">
         <v>16</v>
       </c>
     </row>
@@ -23556,7 +23571,7 @@
       <c r="Q538">
         <v>2</v>
       </c>
-      <c r="T538">
+      <c r="W538">
         <v>17</v>
       </c>
     </row>
@@ -23605,7 +23620,7 @@
       <c r="Q539">
         <v>2</v>
       </c>
-      <c r="T539">
+      <c r="W539">
         <v>18</v>
       </c>
     </row>
@@ -23654,7 +23669,7 @@
       <c r="Q540">
         <v>0</v>
       </c>
-      <c r="T540">
+      <c r="W540">
         <v>12</v>
       </c>
     </row>
@@ -23703,7 +23718,7 @@
       <c r="Q541">
         <v>1</v>
       </c>
-      <c r="T541">
+      <c r="W541">
         <v>16</v>
       </c>
     </row>
@@ -23752,7 +23767,7 @@
       <c r="Q542">
         <v>0</v>
       </c>
-      <c r="T542">
+      <c r="W542">
         <v>13</v>
       </c>
     </row>
@@ -23801,7 +23816,7 @@
       <c r="Q543">
         <v>1</v>
       </c>
-      <c r="T543">
+      <c r="W543">
         <v>8</v>
       </c>
     </row>
@@ -23850,7 +23865,7 @@
       <c r="Q544">
         <v>2</v>
       </c>
-      <c r="T544">
+      <c r="W544">
         <v>16</v>
       </c>
     </row>
@@ -23899,7 +23914,7 @@
       <c r="Q545">
         <v>3</v>
       </c>
-      <c r="T545">
+      <c r="W545">
         <v>12</v>
       </c>
     </row>
@@ -23948,7 +23963,7 @@
       <c r="Q546">
         <v>1</v>
       </c>
-      <c r="T546">
+      <c r="W546">
         <v>10</v>
       </c>
     </row>
@@ -23997,7 +24012,7 @@
       <c r="Q547">
         <v>2</v>
       </c>
-      <c r="T547">
+      <c r="W547">
         <v>15</v>
       </c>
     </row>
@@ -24046,7 +24061,7 @@
       <c r="Q548">
         <v>2</v>
       </c>
-      <c r="T548">
+      <c r="W548">
         <v>11</v>
       </c>
     </row>
@@ -24095,7 +24110,7 @@
       <c r="Q549">
         <v>2</v>
       </c>
-      <c r="T549">
+      <c r="W549">
         <v>11</v>
       </c>
     </row>
@@ -24144,7 +24159,7 @@
       <c r="Q550">
         <v>3</v>
       </c>
-      <c r="T550">
+      <c r="W550">
         <v>12</v>
       </c>
     </row>
@@ -24193,7 +24208,7 @@
       <c r="Q551">
         <v>1</v>
       </c>
-      <c r="T551">
+      <c r="W551">
         <v>15</v>
       </c>
     </row>
@@ -24242,7 +24257,7 @@
       <c r="Q552">
         <v>2</v>
       </c>
-      <c r="T552">
+      <c r="W552">
         <v>20</v>
       </c>
     </row>
@@ -24291,7 +24306,7 @@
       <c r="Q553">
         <v>1</v>
       </c>
-      <c r="T553">
+      <c r="W553">
         <v>15</v>
       </c>
     </row>
@@ -24340,7 +24355,7 @@
       <c r="Q554">
         <v>2</v>
       </c>
-      <c r="T554">
+      <c r="W554">
         <v>17</v>
       </c>
     </row>
@@ -24389,7 +24404,7 @@
       <c r="Q555">
         <v>1</v>
       </c>
-      <c r="T555">
+      <c r="W555">
         <v>14</v>
       </c>
     </row>
@@ -24438,7 +24453,7 @@
       <c r="Q556">
         <v>0</v>
       </c>
-      <c r="T556">
+      <c r="W556">
         <v>16</v>
       </c>
     </row>
@@ -24487,7 +24502,7 @@
       <c r="Q557">
         <v>3</v>
       </c>
-      <c r="T557">
+      <c r="W557">
         <v>18</v>
       </c>
     </row>
@@ -24536,7 +24551,7 @@
       <c r="Q558">
         <v>1</v>
       </c>
-      <c r="T558">
+      <c r="W558">
         <v>15</v>
       </c>
     </row>
@@ -24585,7 +24600,7 @@
       <c r="Q559">
         <v>2</v>
       </c>
-      <c r="T559">
+      <c r="W559">
         <v>19</v>
       </c>
     </row>
@@ -24634,7 +24649,7 @@
       <c r="Q560">
         <v>2</v>
       </c>
-      <c r="T560">
+      <c r="W560">
         <v>14</v>
       </c>
     </row>
@@ -24683,7 +24698,7 @@
       <c r="Q561">
         <v>1</v>
       </c>
-      <c r="T561">
+      <c r="W561">
         <v>12</v>
       </c>
     </row>
@@ -24732,7 +24747,7 @@
       <c r="Q562">
         <v>2</v>
       </c>
-      <c r="T562">
+      <c r="W562">
         <v>18</v>
       </c>
     </row>
@@ -24781,7 +24796,7 @@
       <c r="Q563">
         <v>3</v>
       </c>
-      <c r="T563">
+      <c r="W563">
         <v>13</v>
       </c>
     </row>
@@ -24830,7 +24845,7 @@
       <c r="Q564">
         <v>1</v>
       </c>
-      <c r="T564">
+      <c r="W564">
         <v>17</v>
       </c>
     </row>
@@ -24879,7 +24894,7 @@
       <c r="Q565">
         <v>1</v>
       </c>
-      <c r="T565">
+      <c r="W565">
         <v>14</v>
       </c>
     </row>
@@ -24928,7 +24943,7 @@
       <c r="Q566">
         <v>1</v>
       </c>
-      <c r="T566">
+      <c r="W566">
         <v>16</v>
       </c>
     </row>
@@ -24977,7 +24992,7 @@
       <c r="Q567">
         <v>1</v>
       </c>
-      <c r="T567">
+      <c r="W567">
         <v>14</v>
       </c>
     </row>
@@ -25026,7 +25041,7 @@
       <c r="Q568">
         <v>1</v>
       </c>
-      <c r="T568">
+      <c r="W568">
         <v>16</v>
       </c>
     </row>
@@ -25075,7 +25090,7 @@
       <c r="Q569">
         <v>1</v>
       </c>
-      <c r="T569">
+      <c r="W569">
         <v>12</v>
       </c>
     </row>
@@ -25124,7 +25139,7 @@
       <c r="Q570">
         <v>2</v>
       </c>
-      <c r="T570">
+      <c r="W570">
         <v>19</v>
       </c>
     </row>
@@ -25173,7 +25188,7 @@
       <c r="Q571">
         <v>2</v>
       </c>
-      <c r="T571">
+      <c r="W571">
         <v>15</v>
       </c>
     </row>
@@ -25222,7 +25237,7 @@
       <c r="Q572">
         <v>2</v>
       </c>
-      <c r="T572">
+      <c r="W572">
         <v>18</v>
       </c>
     </row>
@@ -25271,7 +25286,7 @@
       <c r="Q573">
         <v>1</v>
       </c>
-      <c r="T573">
+      <c r="W573">
         <v>10</v>
       </c>
     </row>
@@ -25320,7 +25335,7 @@
       <c r="Q574">
         <v>3</v>
       </c>
-      <c r="T574">
+      <c r="W574">
         <v>14</v>
       </c>
     </row>
@@ -25369,7 +25384,7 @@
       <c r="Q575">
         <v>1</v>
       </c>
-      <c r="T575">
+      <c r="W575">
         <v>14</v>
       </c>
     </row>
@@ -25418,7 +25433,7 @@
       <c r="Q576">
         <v>2</v>
       </c>
-      <c r="T576">
+      <c r="W576">
         <v>14</v>
       </c>
     </row>
@@ -25467,7 +25482,7 @@
       <c r="Q577">
         <v>3</v>
       </c>
-      <c r="T577">
+      <c r="W577">
         <v>15</v>
       </c>
     </row>
@@ -25516,7 +25531,7 @@
       <c r="Q578">
         <v>3</v>
       </c>
-      <c r="T578">
+      <c r="W578">
         <v>11</v>
       </c>
     </row>
@@ -25565,7 +25580,7 @@
       <c r="Q579">
         <v>5</v>
       </c>
-      <c r="T579">
+      <c r="W579">
         <v>12</v>
       </c>
     </row>
@@ -25614,7 +25629,7 @@
       <c r="Q580">
         <v>3</v>
       </c>
-      <c r="T580">
+      <c r="W580">
         <v>15</v>
       </c>
     </row>
@@ -25660,7 +25675,7 @@
       <c r="Q581">
         <v>2</v>
       </c>
-      <c r="T581">
+      <c r="W581">
         <v>16</v>
       </c>
     </row>
@@ -25709,7 +25724,7 @@
       <c r="R582">
         <v>1</v>
       </c>
-      <c r="T582">
+      <c r="W582">
         <v>12</v>
       </c>
     </row>
@@ -25758,7 +25773,7 @@
       <c r="R583">
         <v>0</v>
       </c>
-      <c r="T583">
+      <c r="W583">
         <v>12</v>
       </c>
     </row>
@@ -25807,7 +25822,7 @@
       <c r="R584">
         <v>2</v>
       </c>
-      <c r="T584">
+      <c r="W584">
         <v>5</v>
       </c>
     </row>
@@ -25856,7 +25871,7 @@
       <c r="R585">
         <v>1</v>
       </c>
-      <c r="T585">
+      <c r="W585">
         <v>9</v>
       </c>
     </row>
@@ -25902,7 +25917,7 @@
       <c r="Q586">
         <v>3</v>
       </c>
-      <c r="T586">
+      <c r="W586">
         <v>6</v>
       </c>
     </row>
@@ -25951,7 +25966,7 @@
       <c r="R587">
         <v>1</v>
       </c>
-      <c r="T587">
+      <c r="W587">
         <v>8</v>
       </c>
     </row>
@@ -25997,7 +26012,7 @@
       <c r="Q588">
         <v>2</v>
       </c>
-      <c r="T588">
+      <c r="W588">
         <v>7</v>
       </c>
     </row>
@@ -26043,7 +26058,7 @@
       <c r="Q589">
         <v>3</v>
       </c>
-      <c r="T589">
+      <c r="W589">
         <v>9</v>
       </c>
     </row>
@@ -26089,7 +26104,7 @@
       <c r="Q590">
         <v>3</v>
       </c>
-      <c r="T590">
+      <c r="W590">
         <v>9</v>
       </c>
     </row>
@@ -26138,7 +26153,7 @@
       <c r="R591">
         <v>0</v>
       </c>
-      <c r="T591">
+      <c r="W591">
         <v>10</v>
       </c>
     </row>
@@ -26187,7 +26202,7 @@
       <c r="R592">
         <v>2</v>
       </c>
-      <c r="T592">
+      <c r="W592">
         <v>7</v>
       </c>
     </row>
@@ -26236,7 +26251,7 @@
       <c r="R593">
         <v>2</v>
       </c>
-      <c r="T593">
+      <c r="W593">
         <v>11</v>
       </c>
     </row>
@@ -26285,7 +26300,7 @@
       <c r="R594">
         <v>0</v>
       </c>
-      <c r="T594">
+      <c r="W594">
         <v>9</v>
       </c>
     </row>
@@ -26334,7 +26349,7 @@
       <c r="R595">
         <v>3</v>
       </c>
-      <c r="T595">
+      <c r="W595">
         <v>7</v>
       </c>
     </row>
@@ -26380,7 +26395,7 @@
       <c r="Q596">
         <v>2</v>
       </c>
-      <c r="T596">
+      <c r="W596">
         <v>8</v>
       </c>
     </row>
@@ -26429,7 +26444,7 @@
       <c r="R597">
         <v>1</v>
       </c>
-      <c r="T597">
+      <c r="W597">
         <v>6</v>
       </c>
     </row>
@@ -26478,7 +26493,7 @@
       <c r="R598">
         <v>3</v>
       </c>
-      <c r="T598">
+      <c r="W598">
         <v>5</v>
       </c>
     </row>
@@ -26527,7 +26542,7 @@
       <c r="R599">
         <v>2</v>
       </c>
-      <c r="T599">
+      <c r="W599">
         <v>9</v>
       </c>
     </row>
@@ -26576,7 +26591,7 @@
       <c r="R600">
         <v>2</v>
       </c>
-      <c r="T600">
+      <c r="W600">
         <v>8</v>
       </c>
     </row>
@@ -26625,7 +26640,7 @@
       <c r="R601">
         <v>4</v>
       </c>
-      <c r="T601">
+      <c r="W601">
         <v>8</v>
       </c>
     </row>
@@ -26674,7 +26689,7 @@
       <c r="R602">
         <v>0</v>
       </c>
-      <c r="T602">
+      <c r="W602">
         <v>8</v>
       </c>
     </row>
@@ -26723,7 +26738,7 @@
       <c r="R603">
         <v>4</v>
       </c>
-      <c r="T603">
+      <c r="W603">
         <v>8</v>
       </c>
     </row>
@@ -26772,7 +26787,7 @@
       <c r="R604">
         <v>2</v>
       </c>
-      <c r="T604">
+      <c r="W604">
         <v>10</v>
       </c>
     </row>
@@ -26821,7 +26836,7 @@
       <c r="R605">
         <v>4.1</v>
       </c>
-      <c r="T605">
+      <c r="W605">
         <v>9.4</v>
       </c>
     </row>
@@ -26870,7 +26885,7 @@
       <c r="R606">
         <v>1</v>
       </c>
-      <c r="T606">
+      <c r="W606">
         <v>14</v>
       </c>
     </row>
@@ -26919,7 +26934,7 @@
       <c r="R607">
         <v>2</v>
       </c>
-      <c r="T607">
+      <c r="W607">
         <v>12</v>
       </c>
     </row>
@@ -26968,7 +26983,7 @@
       <c r="R608">
         <v>2</v>
       </c>
-      <c r="T608">
+      <c r="W608">
         <v>9</v>
       </c>
     </row>
@@ -27017,7 +27032,7 @@
       <c r="R609">
         <v>2</v>
       </c>
-      <c r="T609">
+      <c r="W609">
         <v>12</v>
       </c>
     </row>
@@ -27066,7 +27081,7 @@
       <c r="R610">
         <v>4</v>
       </c>
-      <c r="T610">
+      <c r="W610">
         <v>10</v>
       </c>
     </row>
@@ -27115,7 +27130,7 @@
       <c r="R611">
         <v>2</v>
       </c>
-      <c r="T611">
+      <c r="W611">
         <v>12</v>
       </c>
     </row>
@@ -27164,7 +27179,7 @@
       <c r="R612">
         <v>4</v>
       </c>
-      <c r="T612">
+      <c r="W612">
         <v>9</v>
       </c>
     </row>
@@ -27213,7 +27228,7 @@
       <c r="R613">
         <v>0</v>
       </c>
-      <c r="T613">
+      <c r="W613">
         <v>8</v>
       </c>
     </row>
@@ -27262,7 +27277,7 @@
       <c r="R614">
         <v>2</v>
       </c>
-      <c r="T614">
+      <c r="W614">
         <v>11</v>
       </c>
     </row>
@@ -27311,7 +27326,7 @@
       <c r="R615">
         <v>1</v>
       </c>
-      <c r="T615">
+      <c r="W615">
         <v>9</v>
       </c>
     </row>
@@ -27360,7 +27375,7 @@
       <c r="R616">
         <v>1</v>
       </c>
-      <c r="T616">
+      <c r="W616">
         <v>8</v>
       </c>
     </row>
@@ -27409,7 +27424,7 @@
       <c r="R617">
         <v>4</v>
       </c>
-      <c r="T617">
+      <c r="W617">
         <v>9</v>
       </c>
     </row>
@@ -27458,7 +27473,7 @@
       <c r="R618">
         <v>2</v>
       </c>
-      <c r="T618">
+      <c r="W618">
         <v>12</v>
       </c>
     </row>
@@ -27507,7 +27522,7 @@
       <c r="R619">
         <v>1</v>
       </c>
-      <c r="T619">
+      <c r="W619">
         <v>10</v>
       </c>
     </row>
@@ -27556,7 +27571,7 @@
       <c r="R620">
         <v>4</v>
       </c>
-      <c r="T620">
+      <c r="W620">
         <v>7</v>
       </c>
     </row>
@@ -27605,7 +27620,7 @@
       <c r="R621">
         <v>3</v>
       </c>
-      <c r="T621">
+      <c r="W621">
         <v>9</v>
       </c>
     </row>
@@ -27654,7 +27669,7 @@
       <c r="R622">
         <v>0</v>
       </c>
-      <c r="T622">
+      <c r="W622">
         <v>9</v>
       </c>
     </row>
@@ -27703,7 +27718,7 @@
       <c r="R623">
         <v>2</v>
       </c>
-      <c r="T623">
+      <c r="W623">
         <v>10</v>
       </c>
     </row>
@@ -27752,7 +27767,7 @@
       <c r="R624">
         <v>4</v>
       </c>
-      <c r="T624">
+      <c r="W624">
         <v>7</v>
       </c>
     </row>
@@ -27801,7 +27816,7 @@
       <c r="R625">
         <v>1</v>
       </c>
-      <c r="T625">
+      <c r="W625">
         <v>9</v>
       </c>
     </row>
@@ -27850,7 +27865,7 @@
       <c r="R626">
         <v>3</v>
       </c>
-      <c r="T626">
+      <c r="W626">
         <v>7</v>
       </c>
     </row>
@@ -27899,7 +27914,7 @@
       <c r="R627">
         <v>1</v>
       </c>
-      <c r="T627">
+      <c r="W627">
         <v>9</v>
       </c>
     </row>
@@ -27948,7 +27963,7 @@
       <c r="R628">
         <v>2</v>
       </c>
-      <c r="T628">
+      <c r="W628">
         <v>10</v>
       </c>
     </row>
@@ -27997,7 +28012,7 @@
       <c r="R629">
         <v>1</v>
       </c>
-      <c r="T629">
+      <c r="W629">
         <v>9</v>
       </c>
     </row>
@@ -28046,7 +28061,7 @@
       <c r="R630">
         <v>3</v>
       </c>
-      <c r="T630">
+      <c r="W630">
         <v>7</v>
       </c>
     </row>
@@ -28095,7 +28110,7 @@
       <c r="R631">
         <v>2</v>
       </c>
-      <c r="T631">
+      <c r="W631">
         <v>12</v>
       </c>
     </row>
@@ -28144,7 +28159,7 @@
       <c r="R632">
         <v>1</v>
       </c>
-      <c r="T632">
+      <c r="W632">
         <v>11</v>
       </c>
     </row>
@@ -28193,7 +28208,7 @@
       <c r="R633">
         <v>0</v>
       </c>
-      <c r="T633">
+      <c r="W633">
         <v>10</v>
       </c>
     </row>
@@ -28242,7 +28257,7 @@
       <c r="R634">
         <v>3</v>
       </c>
-      <c r="T634">
+      <c r="W634">
         <v>9</v>
       </c>
     </row>
@@ -28291,7 +28306,7 @@
       <c r="R635">
         <v>2</v>
       </c>
-      <c r="T635">
+      <c r="W635">
         <v>9</v>
       </c>
     </row>
@@ -28340,7 +28355,7 @@
       <c r="R636">
         <v>0</v>
       </c>
-      <c r="T636">
+      <c r="W636">
         <v>10</v>
       </c>
     </row>
@@ -28389,7 +28404,7 @@
       <c r="R637">
         <v>2</v>
       </c>
-      <c r="T637">
+      <c r="W637">
         <v>12</v>
       </c>
     </row>
@@ -28438,7 +28453,7 @@
       <c r="R638">
         <v>3</v>
       </c>
-      <c r="T638">
+      <c r="W638">
         <v>10</v>
       </c>
     </row>
@@ -28487,7 +28502,7 @@
       <c r="R639">
         <v>0</v>
       </c>
-      <c r="T639">
+      <c r="W639">
         <v>9</v>
       </c>
     </row>
@@ -28536,7 +28551,7 @@
       <c r="R640">
         <v>2</v>
       </c>
-      <c r="T640">
+      <c r="W640">
         <v>12</v>
       </c>
     </row>
@@ -28585,7 +28600,7 @@
       <c r="R641">
         <v>2</v>
       </c>
-      <c r="T641">
+      <c r="W641">
         <v>9</v>
       </c>
     </row>
@@ -28634,7 +28649,7 @@
       <c r="R642">
         <v>1</v>
       </c>
-      <c r="T642">
+      <c r="W642">
         <v>9</v>
       </c>
     </row>
@@ -28683,7 +28698,7 @@
       <c r="R643">
         <v>2</v>
       </c>
-      <c r="T643">
+      <c r="W643">
         <v>12</v>
       </c>
     </row>
@@ -28732,7 +28747,7 @@
       <c r="R644">
         <v>3</v>
       </c>
-      <c r="T644">
+      <c r="W644">
         <v>9</v>
       </c>
     </row>
@@ -28781,7 +28796,7 @@
       <c r="R645">
         <v>1</v>
       </c>
-      <c r="T645">
+      <c r="W645">
         <v>11</v>
       </c>
     </row>
@@ -28830,7 +28845,7 @@
       <c r="R646">
         <v>1</v>
       </c>
-      <c r="T646">
+      <c r="W646">
         <v>8</v>
       </c>
     </row>
@@ -28879,7 +28894,7 @@
       <c r="R647">
         <v>2</v>
       </c>
-      <c r="T647">
+      <c r="W647">
         <v>11</v>
       </c>
     </row>
@@ -28928,7 +28943,7 @@
       <c r="R648">
         <v>3</v>
       </c>
-      <c r="T648">
+      <c r="W648">
         <v>9</v>
       </c>
     </row>
@@ -28977,7 +28992,7 @@
       <c r="R649">
         <v>1</v>
       </c>
-      <c r="T649">
+      <c r="W649">
         <v>9</v>
       </c>
     </row>
@@ -29026,7 +29041,7 @@
       <c r="R650">
         <v>2</v>
       </c>
-      <c r="T650">
+      <c r="W650">
         <v>12</v>
       </c>
     </row>
@@ -29075,7 +29090,7 @@
       <c r="R651">
         <v>3</v>
       </c>
-      <c r="T651">
+      <c r="W651">
         <v>10</v>
       </c>
     </row>
@@ -29124,7 +29139,7 @@
       <c r="R652">
         <v>1</v>
       </c>
-      <c r="T652">
+      <c r="W652">
         <v>7</v>
       </c>
     </row>
@@ -29173,7 +29188,7 @@
       <c r="R653">
         <v>3</v>
       </c>
-      <c r="T653">
+      <c r="W653">
         <v>13</v>
       </c>
     </row>
@@ -29222,7 +29237,7 @@
       <c r="R654">
         <v>3</v>
       </c>
-      <c r="T654">
+      <c r="W654">
         <v>10</v>
       </c>
     </row>
@@ -29271,7 +29286,7 @@
       <c r="R655">
         <v>1</v>
       </c>
-      <c r="T655">
+      <c r="W655">
         <v>13</v>
       </c>
     </row>
@@ -29320,7 +29335,7 @@
       <c r="R656">
         <v>1</v>
       </c>
-      <c r="T656">
+      <c r="W656">
         <v>7</v>
       </c>
     </row>
@@ -29369,7 +29384,7 @@
       <c r="R657">
         <v>3</v>
       </c>
-      <c r="T657">
+      <c r="W657">
         <v>8</v>
       </c>
     </row>
@@ -29418,7 +29433,7 @@
       <c r="R658">
         <v>3</v>
       </c>
-      <c r="T658">
+      <c r="W658">
         <v>10</v>
       </c>
     </row>
@@ -29467,7 +29482,7 @@
       <c r="R659">
         <v>2</v>
       </c>
-      <c r="T659">
+      <c r="W659">
         <v>12</v>
       </c>
     </row>
@@ -29516,7 +29531,7 @@
       <c r="R660">
         <v>0</v>
       </c>
-      <c r="T660">
+      <c r="W660">
         <v>7</v>
       </c>
     </row>
@@ -29565,7 +29580,7 @@
       <c r="R661">
         <v>3</v>
       </c>
-      <c r="T661">
+      <c r="W661">
         <v>8</v>
       </c>
     </row>
@@ -29614,7 +29629,7 @@
       <c r="R662">
         <v>0</v>
       </c>
-      <c r="T662">
+      <c r="W662">
         <v>9</v>
       </c>
     </row>
@@ -29663,7 +29678,7 @@
       <c r="R663">
         <v>1</v>
       </c>
-      <c r="T663">
+      <c r="W663">
         <v>9</v>
       </c>
     </row>
@@ -29712,7 +29727,7 @@
       <c r="R664">
         <v>1</v>
       </c>
-      <c r="T664">
+      <c r="W664">
         <v>13</v>
       </c>
     </row>
@@ -29761,7 +29776,7 @@
       <c r="R665">
         <v>4</v>
       </c>
-      <c r="T665">
+      <c r="W665">
         <v>9</v>
       </c>
     </row>
@@ -29810,7 +29825,7 @@
       <c r="R666">
         <v>1</v>
       </c>
-      <c r="T666">
+      <c r="W666">
         <v>9</v>
       </c>
     </row>
@@ -29859,7 +29874,7 @@
       <c r="R667">
         <v>2</v>
       </c>
-      <c r="T667">
+      <c r="W667">
         <v>12</v>
       </c>
     </row>
@@ -29908,7 +29923,7 @@
       <c r="R668">
         <v>4</v>
       </c>
-      <c r="T668">
+      <c r="W668">
         <v>8</v>
       </c>
     </row>
@@ -29957,7 +29972,7 @@
       <c r="R669">
         <v>0</v>
       </c>
-      <c r="T669">
+      <c r="W669">
         <v>12</v>
       </c>
     </row>
@@ -30006,7 +30021,7 @@
       <c r="R670">
         <v>3</v>
       </c>
-      <c r="T670">
+      <c r="W670">
         <v>10</v>
       </c>
     </row>
@@ -30055,7 +30070,7 @@
       <c r="R671">
         <v>1</v>
       </c>
-      <c r="T671">
+      <c r="W671">
         <v>8</v>
       </c>
     </row>
@@ -30104,7 +30119,7 @@
       <c r="R672">
         <v>2</v>
       </c>
-      <c r="T672">
+      <c r="W672">
         <v>12</v>
       </c>
     </row>
@@ -30153,7 +30168,7 @@
       <c r="R673">
         <v>4</v>
       </c>
-      <c r="T673">
+      <c r="W673">
         <v>10</v>
       </c>
     </row>
@@ -30202,7 +30217,7 @@
       <c r="R674">
         <v>0</v>
       </c>
-      <c r="T674">
+      <c r="W674">
         <v>9</v>
       </c>
     </row>
@@ -30251,7 +30266,7 @@
       <c r="R675">
         <v>0</v>
       </c>
-      <c r="T675">
+      <c r="W675">
         <v>14</v>
       </c>
     </row>
@@ -30300,7 +30315,7 @@
       <c r="R676">
         <v>2</v>
       </c>
-      <c r="T676">
+      <c r="W676">
         <v>14</v>
       </c>
     </row>
@@ -30349,7 +30364,7 @@
       <c r="R677">
         <v>3</v>
       </c>
-      <c r="T677">
+      <c r="W677">
         <v>10</v>
       </c>
     </row>
@@ -30398,7 +30413,7 @@
       <c r="R678">
         <v>0</v>
       </c>
-      <c r="T678">
+      <c r="W678">
         <v>9</v>
       </c>
     </row>
@@ -30447,7 +30462,7 @@
       <c r="R679">
         <v>2</v>
       </c>
-      <c r="T679">
+      <c r="W679">
         <v>14</v>
       </c>
     </row>
@@ -30496,7 +30511,7 @@
       <c r="R680">
         <v>3</v>
       </c>
-      <c r="T680">
+      <c r="W680">
         <v>11</v>
       </c>
     </row>
@@ -30545,7 +30560,7 @@
       <c r="R681">
         <v>2</v>
       </c>
-      <c r="T681">
+      <c r="W681">
         <v>9</v>
       </c>
     </row>
@@ -30594,7 +30609,7 @@
       <c r="R682">
         <v>2</v>
       </c>
-      <c r="T682">
+      <c r="W682">
         <v>14</v>
       </c>
     </row>
@@ -30643,7 +30658,7 @@
       <c r="R683">
         <v>2</v>
       </c>
-      <c r="T683">
+      <c r="W683">
         <v>12</v>
       </c>
     </row>
@@ -30692,7 +30707,7 @@
       <c r="R684">
         <v>1</v>
       </c>
-      <c r="T684">
+      <c r="W684">
         <v>12</v>
       </c>
     </row>
@@ -30741,7 +30756,7 @@
       <c r="R685">
         <v>1</v>
       </c>
-      <c r="T685">
+      <c r="W685">
         <v>13</v>
       </c>
     </row>
@@ -30790,7 +30805,7 @@
       <c r="R686">
         <v>3</v>
       </c>
-      <c r="T686">
+      <c r="W686">
         <v>12</v>
       </c>
     </row>
@@ -30839,7 +30854,7 @@
       <c r="R687">
         <v>1</v>
       </c>
-      <c r="T687">
+      <c r="W687">
         <v>14</v>
       </c>
     </row>
@@ -30888,7 +30903,7 @@
       <c r="R688">
         <v>0</v>
       </c>
-      <c r="T688">
+      <c r="W688">
         <v>9</v>
       </c>
     </row>
@@ -30937,7 +30952,7 @@
       <c r="R689">
         <v>2</v>
       </c>
-      <c r="T689">
+      <c r="W689">
         <v>14</v>
       </c>
     </row>
@@ -30986,7 +31001,7 @@
       <c r="R690">
         <v>3</v>
       </c>
-      <c r="T690">
+      <c r="W690">
         <v>13</v>
       </c>
     </row>
@@ -31035,7 +31050,7 @@
       <c r="R691">
         <v>1</v>
       </c>
-      <c r="T691">
+      <c r="W691">
         <v>10</v>
       </c>
     </row>
@@ -31084,7 +31099,7 @@
       <c r="R692">
         <v>2</v>
       </c>
-      <c r="T692">
+      <c r="W692">
         <v>10</v>
       </c>
     </row>
@@ -31133,7 +31148,7 @@
       <c r="R693">
         <v>2</v>
       </c>
-      <c r="T693">
+      <c r="W693">
         <v>12</v>
       </c>
     </row>
@@ -31182,7 +31197,7 @@
       <c r="R694">
         <v>1</v>
       </c>
-      <c r="T694">
+      <c r="W694">
         <v>10</v>
       </c>
     </row>
@@ -31231,7 +31246,7 @@
       <c r="R695">
         <v>3</v>
       </c>
-      <c r="T695">
+      <c r="W695">
         <v>13</v>
       </c>
     </row>
@@ -31280,7 +31295,7 @@
       <c r="R696">
         <v>1</v>
       </c>
-      <c r="T696">
+      <c r="W696">
         <v>17</v>
       </c>
     </row>
@@ -31329,7 +31344,7 @@
       <c r="R697">
         <v>3</v>
       </c>
-      <c r="T697">
+      <c r="W697">
         <v>12</v>
       </c>
     </row>
@@ -31378,7 +31393,7 @@
       <c r="R698">
         <v>2</v>
       </c>
-      <c r="T698">
+      <c r="W698">
         <v>12</v>
       </c>
     </row>
@@ -31427,7 +31442,7 @@
       <c r="R699">
         <v>2</v>
       </c>
-      <c r="T699">
+      <c r="W699">
         <v>13</v>
       </c>
     </row>
@@ -31476,7 +31491,7 @@
       <c r="R700">
         <v>4</v>
       </c>
-      <c r="T700">
+      <c r="W700">
         <v>10</v>
       </c>
     </row>
@@ -31525,7 +31540,7 @@
       <c r="R701">
         <v>2</v>
       </c>
-      <c r="T701">
+      <c r="W701">
         <v>16</v>
       </c>
     </row>
@@ -31574,7 +31589,7 @@
       <c r="R702">
         <v>3</v>
       </c>
-      <c r="T702">
+      <c r="W702">
         <v>13</v>
       </c>
     </row>
@@ -31623,7 +31638,7 @@
       <c r="R703">
         <v>3</v>
       </c>
-      <c r="T703">
+      <c r="W703">
         <v>16</v>
       </c>
     </row>
@@ -31672,7 +31687,7 @@
       <c r="R704">
         <v>3</v>
       </c>
-      <c r="T704">
+      <c r="W704">
         <v>18</v>
       </c>
     </row>
@@ -31721,7 +31736,7 @@
       <c r="R705">
         <v>3</v>
       </c>
-      <c r="T705">
+      <c r="W705">
         <v>17</v>
       </c>
     </row>
@@ -31770,7 +31785,7 @@
       <c r="R706">
         <v>1</v>
       </c>
-      <c r="T706">
+      <c r="W706">
         <v>17</v>
       </c>
     </row>
@@ -31819,7 +31834,7 @@
       <c r="R707">
         <v>3</v>
       </c>
-      <c r="T707">
+      <c r="W707">
         <v>16</v>
       </c>
     </row>
@@ -31868,7 +31883,7 @@
       <c r="R708">
         <v>2</v>
       </c>
-      <c r="T708">
+      <c r="W708">
         <v>16</v>
       </c>
     </row>
@@ -31917,7 +31932,7 @@
       <c r="R709">
         <v>5</v>
       </c>
-      <c r="T709">
+      <c r="W709">
         <v>19</v>
       </c>
     </row>
@@ -31966,7 +31981,7 @@
       <c r="R710">
         <v>4</v>
       </c>
-      <c r="T710">
+      <c r="W710">
         <v>14</v>
       </c>
     </row>
@@ -32015,7 +32030,7 @@
       <c r="R711">
         <v>4</v>
       </c>
-      <c r="T711">
+      <c r="W711">
         <v>18</v>
       </c>
     </row>
@@ -32064,7 +32079,7 @@
       <c r="R712">
         <v>3</v>
       </c>
-      <c r="T712">
+      <c r="W712">
         <v>16</v>
       </c>
     </row>
@@ -32113,7 +32128,7 @@
       <c r="R713">
         <v>4</v>
       </c>
-      <c r="T713">
+      <c r="W713">
         <v>21</v>
       </c>
     </row>
@@ -32162,7 +32177,7 @@
       <c r="R714">
         <v>3</v>
       </c>
-      <c r="T714">
+      <c r="W714">
         <v>18</v>
       </c>
     </row>
@@ -32211,7 +32226,7 @@
       <c r="R715">
         <v>1</v>
       </c>
-      <c r="T715">
+      <c r="W715">
         <v>19</v>
       </c>
     </row>
@@ -32260,7 +32275,7 @@
       <c r="R716">
         <v>3</v>
       </c>
-      <c r="T716">
+      <c r="W716">
         <v>18</v>
       </c>
     </row>
@@ -32309,7 +32324,7 @@
       <c r="R717">
         <v>3</v>
       </c>
-      <c r="T717">
+      <c r="W717">
         <v>21</v>
       </c>
     </row>
@@ -32358,7 +32373,7 @@
       <c r="R718">
         <v>3</v>
       </c>
-      <c r="T718">
+      <c r="W718">
         <v>22</v>
       </c>
     </row>
@@ -32407,7 +32422,7 @@
       <c r="R719">
         <v>3</v>
       </c>
-      <c r="T719">
+      <c r="W719">
         <v>21</v>
       </c>
     </row>
@@ -32456,7 +32471,7 @@
       <c r="R720">
         <v>4</v>
       </c>
-      <c r="T720">
+      <c r="W720">
         <v>20</v>
       </c>
     </row>
@@ -32505,7 +32520,7 @@
       <c r="R721">
         <v>4</v>
       </c>
-      <c r="T721">
+      <c r="W721">
         <v>18</v>
       </c>
     </row>
@@ -32554,7 +32569,7 @@
       <c r="R722">
         <v>3</v>
       </c>
-      <c r="T722">
+      <c r="W722">
         <v>19</v>
       </c>
     </row>
@@ -32603,7 +32618,7 @@
       <c r="R723">
         <v>4</v>
       </c>
-      <c r="T723">
+      <c r="W723">
         <v>20</v>
       </c>
     </row>
@@ -32652,7 +32667,7 @@
       <c r="R724">
         <v>1</v>
       </c>
-      <c r="T724">
+      <c r="W724">
         <v>16</v>
       </c>
     </row>
@@ -32701,7 +32716,7 @@
       <c r="R725">
         <v>2</v>
       </c>
-      <c r="T725">
+      <c r="W725">
         <v>20</v>
       </c>
     </row>
@@ -32750,7 +32765,7 @@
       <c r="R726">
         <v>4</v>
       </c>
-      <c r="T726">
+      <c r="W726">
         <v>15</v>
       </c>
     </row>
@@ -32799,7 +32814,7 @@
       <c r="R727">
         <v>2</v>
       </c>
-      <c r="T727">
+      <c r="W727">
         <v>22</v>
       </c>
     </row>
@@ -32848,7 +32863,7 @@
       <c r="R728">
         <v>3</v>
       </c>
-      <c r="T728">
+      <c r="W728">
         <v>22</v>
       </c>
     </row>
@@ -32897,7 +32912,7 @@
       <c r="R729">
         <v>3</v>
       </c>
-      <c r="T729">
+      <c r="W729">
         <v>17</v>
       </c>
     </row>
@@ -32946,7 +32961,7 @@
       <c r="R730">
         <v>5</v>
       </c>
-      <c r="T730">
+      <c r="W730">
         <v>19</v>
       </c>
     </row>
@@ -32995,7 +33010,7 @@
       <c r="R731">
         <v>3</v>
       </c>
-      <c r="T731">
+      <c r="W731">
         <v>20</v>
       </c>
     </row>
@@ -33044,7 +33059,7 @@
       <c r="R732">
         <v>2</v>
       </c>
-      <c r="T732">
+      <c r="W732">
         <v>21</v>
       </c>
     </row>
@@ -33093,7 +33108,7 @@
       <c r="R733">
         <v>5</v>
       </c>
-      <c r="T733">
+      <c r="W733">
         <v>19</v>
       </c>
     </row>
@@ -33142,7 +33157,7 @@
       <c r="R734">
         <v>3</v>
       </c>
-      <c r="T734">
+      <c r="W734">
         <v>20</v>
       </c>
     </row>
@@ -33191,7 +33206,7 @@
       <c r="R735">
         <v>4</v>
       </c>
-      <c r="T735">
+      <c r="W735">
         <v>19</v>
       </c>
     </row>
@@ -33243,7 +33258,7 @@
       <c r="S736">
         <v>4.9</v>
       </c>
-      <c r="T736">
+      <c r="W736">
         <v>8.800000000000001</v>
       </c>
     </row>
@@ -33295,7 +33310,7 @@
       <c r="S737">
         <v>3</v>
       </c>
-      <c r="T737">
+      <c r="W737">
         <v>14</v>
       </c>
     </row>
@@ -33347,7 +33362,7 @@
       <c r="S738">
         <v>4</v>
       </c>
-      <c r="T738">
+      <c r="W738">
         <v>9</v>
       </c>
     </row>
@@ -33399,7 +33414,7 @@
       <c r="S739">
         <v>4</v>
       </c>
-      <c r="T739">
+      <c r="W739">
         <v>12</v>
       </c>
     </row>
@@ -33451,7 +33466,7 @@
       <c r="S740">
         <v>5</v>
       </c>
-      <c r="T740">
+      <c r="W740">
         <v>12</v>
       </c>
     </row>
@@ -33503,7 +33518,7 @@
       <c r="S741">
         <v>4</v>
       </c>
-      <c r="T741">
+      <c r="W741">
         <v>14</v>
       </c>
     </row>
@@ -33555,7 +33570,7 @@
       <c r="S742">
         <v>4</v>
       </c>
-      <c r="T742">
+      <c r="W742">
         <v>8</v>
       </c>
     </row>
@@ -33605,10 +33620,19 @@
         <v>1</v>
       </c>
       <c r="S743">
-        <v>1</v>
+        <v>4.86</v>
       </c>
       <c r="T743">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="U743">
+        <v>14</v>
+      </c>
+      <c r="V743">
+        <v>4</v>
+      </c>
+      <c r="W743">
+        <v>12.14</v>
       </c>
     </row>
     <row r="744">
@@ -33659,7 +33683,7 @@
       <c r="S744">
         <v>5</v>
       </c>
-      <c r="T744">
+      <c r="W744">
         <v>11</v>
       </c>
     </row>
@@ -33711,7 +33735,7 @@
       <c r="S745">
         <v>5</v>
       </c>
-      <c r="T745">
+      <c r="W745">
         <v>9</v>
       </c>
     </row>
@@ -33763,7 +33787,7 @@
       <c r="S746">
         <v>4</v>
       </c>
-      <c r="T746">
+      <c r="W746">
         <v>13</v>
       </c>
     </row>
@@ -33815,7 +33839,7 @@
       <c r="S747">
         <v>5</v>
       </c>
-      <c r="T747">
+      <c r="W747">
         <v>10</v>
       </c>
     </row>
@@ -33867,7 +33891,7 @@
       <c r="S748">
         <v>5</v>
       </c>
-      <c r="T748">
+      <c r="W748">
         <v>15</v>
       </c>
     </row>
@@ -33919,8 +33943,121 @@
       <c r="S749">
         <v>6</v>
       </c>
-      <c r="T749">
+      <c r="W749">
         <v>12</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B750" s="2">
+        <v>45852</v>
+      </c>
+      <c r="C750" s="2">
+        <v>45853</v>
+      </c>
+      <c r="D750" s="2">
+        <v>45852</v>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>Ipsos B&amp;A</t>
+        </is>
+      </c>
+      <c r="F750">
+        <v>1200</v>
+      </c>
+      <c r="G750">
+        <v>22</v>
+      </c>
+      <c r="H750">
+        <v>17</v>
+      </c>
+      <c r="I750">
+        <v>22</v>
+      </c>
+      <c r="J750">
+        <v>4</v>
+      </c>
+      <c r="K750">
+        <v>3</v>
+      </c>
+      <c r="O750">
+        <v>2</v>
+      </c>
+      <c r="Q750">
+        <v>6</v>
+      </c>
+      <c r="R750">
+        <v>2</v>
+      </c>
+      <c r="S750">
+        <v>4.83</v>
+      </c>
+      <c r="T750">
+        <v>22</v>
+      </c>
+      <c r="U750">
+        <v>20.5</v>
+      </c>
+      <c r="V750">
+        <v>4.5</v>
+      </c>
+      <c r="W750">
+        <v>17.17</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="2">
+        <v>45872</v>
+      </c>
+      <c r="B751" s="2">
+        <v>45870</v>
+      </c>
+      <c r="C751" s="2">
+        <v>45870</v>
+      </c>
+      <c r="D751" s="2">
+        <v>45870</v>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>Ireland Thinks</t>
+        </is>
+      </c>
+      <c r="F751">
+        <v>1319</v>
+      </c>
+      <c r="G751">
+        <v>20</v>
+      </c>
+      <c r="H751">
+        <v>20</v>
+      </c>
+      <c r="I751">
+        <v>20</v>
+      </c>
+      <c r="J751">
+        <v>4</v>
+      </c>
+      <c r="K751">
+        <v>1</v>
+      </c>
+      <c r="O751">
+        <v>3</v>
+      </c>
+      <c r="Q751">
+        <v>8</v>
+      </c>
+      <c r="R751">
+        <v>4</v>
+      </c>
+      <c r="S751">
+        <v>5</v>
+      </c>
+      <c r="W751">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W751"/>
+  <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34060,6 +34060,58 @@
         <v>15</v>
       </c>
     </row>
+    <row r="752">
+      <c r="A752" s="2">
+        <v>45876</v>
+      </c>
+      <c r="B752" s="2">
+        <v>45874</v>
+      </c>
+      <c r="C752" s="2">
+        <v>45874</v>
+      </c>
+      <c r="D752" s="2">
+        <v>45874</v>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>Ireland Thinks</t>
+        </is>
+      </c>
+      <c r="F752">
+        <v>1162</v>
+      </c>
+      <c r="G752">
+        <v>22</v>
+      </c>
+      <c r="H752">
+        <v>21</v>
+      </c>
+      <c r="I752">
+        <v>20</v>
+      </c>
+      <c r="J752">
+        <v>4</v>
+      </c>
+      <c r="K752">
+        <v>2</v>
+      </c>
+      <c r="O752">
+        <v>3</v>
+      </c>
+      <c r="Q752">
+        <v>7</v>
+      </c>
+      <c r="R752">
+        <v>4</v>
+      </c>
+      <c r="S752">
+        <v>4</v>
+      </c>
+      <c r="W752">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W752"/>
+  <dimension ref="A1:W753"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34062,16 +34062,16 @@
     </row>
     <row r="752">
       <c r="A752" s="2">
-        <v>45876</v>
+        <v>45907</v>
       </c>
       <c r="B752" s="2">
-        <v>45874</v>
+        <v>45905</v>
       </c>
       <c r="C752" s="2">
-        <v>45874</v>
+        <v>45905</v>
       </c>
       <c r="D752" s="2">
-        <v>45874</v>
+        <v>45905</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -34110,6 +34110,58 @@
       </c>
       <c r="W752">
         <v>13</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="2">
+        <v>45914</v>
+      </c>
+      <c r="B753" s="2">
+        <v>45904</v>
+      </c>
+      <c r="C753" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D753" s="2">
+        <v>45906</v>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>Red C</t>
+        </is>
+      </c>
+      <c r="F753">
+        <v>1003</v>
+      </c>
+      <c r="G753">
+        <v>18</v>
+      </c>
+      <c r="H753">
+        <v>19</v>
+      </c>
+      <c r="I753">
+        <v>21</v>
+      </c>
+      <c r="J753">
+        <v>4</v>
+      </c>
+      <c r="K753">
+        <v>3</v>
+      </c>
+      <c r="O753">
+        <v>4</v>
+      </c>
+      <c r="Q753">
+        <v>7</v>
+      </c>
+      <c r="R753">
+        <v>3</v>
+      </c>
+      <c r="S753">
+        <v>6</v>
+      </c>
+      <c r="W753">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W753"/>
+  <dimension ref="A1:W754"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34164,6 +34164,58 @@
         <v>15</v>
       </c>
     </row>
+    <row r="754">
+      <c r="A754" s="2">
+        <v>45935</v>
+      </c>
+      <c r="B754" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C754" s="2">
+        <v>45934</v>
+      </c>
+      <c r="D754" s="2">
+        <v>45933</v>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>Ireland Thinks</t>
+        </is>
+      </c>
+      <c r="F754">
+        <v>1430</v>
+      </c>
+      <c r="G754">
+        <v>20</v>
+      </c>
+      <c r="H754">
+        <v>21</v>
+      </c>
+      <c r="I754">
+        <v>21</v>
+      </c>
+      <c r="J754">
+        <v>4</v>
+      </c>
+      <c r="K754">
+        <v>1</v>
+      </c>
+      <c r="O754">
+        <v>3</v>
+      </c>
+      <c r="Q754">
+        <v>8</v>
+      </c>
+      <c r="R754">
+        <v>6</v>
+      </c>
+      <c r="S754">
+        <v>4</v>
+      </c>
+      <c r="W754">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W754"/>
+  <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34216,6 +34216,58 @@
         <v>12</v>
       </c>
     </row>
+    <row r="755">
+      <c r="A755" s="2">
+        <v>45948</v>
+      </c>
+      <c r="B755" s="2">
+        <v>45943</v>
+      </c>
+      <c r="C755" s="2">
+        <v>45944</v>
+      </c>
+      <c r="D755" s="2">
+        <v>45943</v>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>Ipsos</t>
+        </is>
+      </c>
+      <c r="F755">
+        <v>1200</v>
+      </c>
+      <c r="G755">
+        <v>17</v>
+      </c>
+      <c r="H755">
+        <v>18</v>
+      </c>
+      <c r="I755">
+        <v>27</v>
+      </c>
+      <c r="J755">
+        <v>6</v>
+      </c>
+      <c r="K755">
+        <v>3</v>
+      </c>
+      <c r="O755">
+        <v>2</v>
+      </c>
+      <c r="Q755">
+        <v>5</v>
+      </c>
+      <c r="R755">
+        <v>3</v>
+      </c>
+      <c r="S755">
+        <v>2</v>
+      </c>
+      <c r="W755">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W755"/>
+  <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34231,7 +34231,7 @@
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t>Ipsos</t>
+          <t>Ipsos B&amp;A</t>
         </is>
       </c>
       <c r="F755">
@@ -34266,6 +34266,58 @@
       </c>
       <c r="W755">
         <v>17</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="2">
+        <v>45956</v>
+      </c>
+      <c r="B756" s="2">
+        <v>45946</v>
+      </c>
+      <c r="C756" s="2">
+        <v>45951</v>
+      </c>
+      <c r="D756" s="2">
+        <v>45948</v>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>Red C</t>
+        </is>
+      </c>
+      <c r="F756">
+        <v>1012</v>
+      </c>
+      <c r="G756">
+        <v>17</v>
+      </c>
+      <c r="H756">
+        <v>19</v>
+      </c>
+      <c r="I756">
+        <v>23</v>
+      </c>
+      <c r="J756">
+        <v>4</v>
+      </c>
+      <c r="K756">
+        <v>3</v>
+      </c>
+      <c r="O756">
+        <v>3</v>
+      </c>
+      <c r="Q756">
+        <v>9</v>
+      </c>
+      <c r="R756">
+        <v>4</v>
+      </c>
+      <c r="S756">
+        <v>5</v>
+      </c>
+      <c r="W756">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W756"/>
+  <dimension ref="A1:W757"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34320,6 +34320,58 @@
         <v>13</v>
       </c>
     </row>
+    <row r="757">
+      <c r="A757" s="2">
+        <v>45963</v>
+      </c>
+      <c r="B757" s="2">
+        <v>45961</v>
+      </c>
+      <c r="C757" s="2">
+        <v>45961</v>
+      </c>
+      <c r="D757" s="2">
+        <v>45961</v>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>Ireland Thinks</t>
+        </is>
+      </c>
+      <c r="F757">
+        <v>1609</v>
+      </c>
+      <c r="G757">
+        <v>18</v>
+      </c>
+      <c r="H757">
+        <v>19</v>
+      </c>
+      <c r="I757">
+        <v>23</v>
+      </c>
+      <c r="J757">
+        <v>5</v>
+      </c>
+      <c r="K757">
+        <v>2</v>
+      </c>
+      <c r="O757">
+        <v>3</v>
+      </c>
+      <c r="Q757">
+        <v>9</v>
+      </c>
+      <c r="R757">
+        <v>6</v>
+      </c>
+      <c r="S757">
+        <v>5</v>
+      </c>
+      <c r="W757">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_polls.xlsx
+++ b/data_polls.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W757"/>
+  <dimension ref="A1:W758"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34372,6 +34372,58 @@
         <v>10</v>
       </c>
     </row>
+    <row r="758">
+      <c r="A758" s="2">
+        <v>45991</v>
+      </c>
+      <c r="B758" s="2">
+        <v>45982</v>
+      </c>
+      <c r="C758" s="2">
+        <v>45987</v>
+      </c>
+      <c r="D758" s="2">
+        <v>45984</v>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>Red C</t>
+        </is>
+      </c>
+      <c r="F758">
+        <v>1010</v>
+      </c>
+      <c r="G758">
+        <v>18</v>
+      </c>
+      <c r="H758">
+        <v>17</v>
+      </c>
+      <c r="I758">
+        <v>22</v>
+      </c>
+      <c r="J758">
+        <v>4</v>
+      </c>
+      <c r="K758">
+        <v>3</v>
+      </c>
+      <c r="O758">
+        <v>3</v>
+      </c>
+      <c r="Q758">
+        <v>8</v>
+      </c>
+      <c r="R758">
+        <v>6</v>
+      </c>
+      <c r="S758">
+        <v>4</v>
+      </c>
+      <c r="W758">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
